--- a/docs/鍵盤設計規格_台語135拼音.xlsx
+++ b/docs/鍵盤設計規格_台語135拼音.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\home\alanjui\workspace\rime\rime-tlpa\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31ED674C-1EED-43DE-A864-C3A5814A0E50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64DE7F05-82C4-4631-9CC3-A8D137FF6D62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="1" xr2:uid="{8ADEA2FE-7CD1-466B-8EB5-9AA2577FE19A}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{8ADEA2FE-7CD1-466B-8EB5-9AA2577FE19A}"/>
   </bookViews>
   <sheets>
     <sheet name=" 台語注音鍵盤設計" sheetId="19" r:id="rId1"/>
     <sheet name="注音符號字典編碼" sheetId="17" r:id="rId2"/>
     <sheet name="注音符號對映表" sheetId="18" r:id="rId3"/>
     <sheet name="聲調" sheetId="20" r:id="rId4"/>
-    <sheet name="台羅拼音字母" sheetId="21" r:id="rId5"/>
-    <sheet name="台灣十八音-45韻母" sheetId="22" r:id="rId6"/>
+    <sheet name="聲調對照" sheetId="23" r:id="rId5"/>
+    <sheet name="台羅拼音字母" sheetId="21" r:id="rId6"/>
+    <sheet name="台灣十八音-45韻母" sheetId="22" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">注音符號字典編碼!$J$4:$M$59</definedName>
@@ -73,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="733">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1328" uniqueCount="785">
   <si>
     <t>2 @</t>
   </si>
@@ -2818,11 +2819,214 @@
     <t>si-</t>
   </si>
   <si>
-    <t>ji-</t>
-  </si>
-  <si>
     <t>ㄖ</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ˊ</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>台羅調號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DMS調名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>注音符號聲調號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>韻書四聲</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>低升調</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>低音調</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DMS聲調符號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄚˋ</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄚˇ</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄚ_</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄚ+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>變調</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>==》</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>【高降】取【高】（高平調）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>【低升】取【升】（中音調）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高變中</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>中變低</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>低變高再降</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>好(ho1)膽</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>好(ho2)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>來(lai5)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>來(lai7)坐</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>天(tinn1)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>天(tinn7)公</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地(te7)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地(te3)方</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>聖(sinn3)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>聖(sinn2)人</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Do Mi So 簡譜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>四聲</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>一聲</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>三聲</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>二聲</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>短入</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>長入</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1   3   5   拼   音   法   對   照   表  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Do Mi 2調 + 注音5調 = 台語全部7調   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ㄚ'    ㄚ"    ㄚ    ㄚˊ    ㄚˇ    ㄚˋ    ㄚ·   </t>
+  </si>
+  <si>
+    <t>國語注音符號共五聲，不是四聲，ㄚ- ㄚˊ ㄚˇ ㄚˋ ㄚ·</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>台語有帶輕聲的字如下：曷ㄍㄚ·（差使），啦ㄌㄚ·，打ㄆㄚ·，插ㄘㄚ·，割ㄍㄨㄚ·，凹ㄌㄚㄆ·，肉ㄅㄏㄚ·，國ㄍㄛㄎ·，落ㄌㄚㄎ·，來ㄌㄞ·（去）···等等</t>
+  </si>
+  <si>
+    <t>ㄚ'  ㄚ"  ㄚ-  Do  Mi  Sol  三個音階</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>短入變長</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>長入變短</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>台羅調名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>陰平</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>陰上</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>陰去</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>陰入</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>陽上</t>
+  </si>
+  <si>
+    <t>陽入</t>
   </si>
 </sst>
 </file>
@@ -2832,7 +3036,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="General;;"/>
   </numFmts>
-  <fonts count="112">
+  <fonts count="117">
     <font>
       <sz val="16"/>
       <color rgb="FF000000"/>
@@ -3561,6 +3765,43 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FFC00000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="KangXi Font Full Version"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF0070C0"/>
+      <name val="FSung-F"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="26">
     <fill>
@@ -4020,7 +4261,7 @@
     <xf numFmtId="0" fontId="72" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="92" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="320">
+  <cellXfs count="339">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4799,6 +5040,39 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="3" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="3" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="3" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4817,21 +5091,6 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4844,24 +5103,6 @@
     <xf numFmtId="0" fontId="57" fillId="3" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="3" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="3" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="3" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4871,53 +5112,104 @@
     <xf numFmtId="0" fontId="91" fillId="21" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="92" fillId="18" borderId="25" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="18" borderId="26" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="18" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="18" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="20" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="20" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="21" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="21" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="19" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="19" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="18" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="18" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="95" fillId="21" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="90" fillId="18" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="90" fillId="18" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="92" fillId="18" borderId="25" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="92" fillId="18" borderId="26" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="91" fillId="21" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="91" fillId="21" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="91" fillId="20" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="91" fillId="20" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="91" fillId="19" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="91" fillId="19" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="90" fillId="18" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="90" fillId="18" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="98" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="98" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="47" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="116" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -5475,66 +5767,66 @@
     </row>
     <row r="2" spans="1:72" s="79" customFormat="1" ht="31.5" customHeight="1">
       <c r="A2" s="77"/>
-      <c r="B2" s="286" t="s">
+      <c r="B2" s="283" t="s">
         <v>316</v>
       </c>
-      <c r="C2" s="287"/>
-      <c r="D2" s="288"/>
-      <c r="E2" s="286" t="s">
+      <c r="C2" s="284"/>
+      <c r="D2" s="285"/>
+      <c r="E2" s="283" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="287"/>
-      <c r="G2" s="288"/>
-      <c r="H2" s="295" t="s">
+      <c r="F2" s="284"/>
+      <c r="G2" s="285"/>
+      <c r="H2" s="280" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="296"/>
-      <c r="J2" s="297"/>
-      <c r="K2" s="295" t="s">
+      <c r="I2" s="281"/>
+      <c r="J2" s="282"/>
+      <c r="K2" s="280" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="296"/>
-      <c r="M2" s="297"/>
-      <c r="N2" s="298">
+      <c r="L2" s="281"/>
+      <c r="M2" s="282"/>
+      <c r="N2" s="286">
         <v>0.05</v>
       </c>
-      <c r="O2" s="299"/>
-      <c r="P2" s="300"/>
-      <c r="Q2" s="295" t="s">
+      <c r="O2" s="287"/>
+      <c r="P2" s="288"/>
+      <c r="Q2" s="280" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="296"/>
-      <c r="S2" s="297"/>
-      <c r="T2" s="295" t="s">
+      <c r="R2" s="281"/>
+      <c r="S2" s="282"/>
+      <c r="T2" s="280" t="s">
         <v>4</v>
       </c>
-      <c r="U2" s="296"/>
-      <c r="V2" s="297"/>
-      <c r="W2" s="280" t="s">
+      <c r="U2" s="281"/>
+      <c r="V2" s="282"/>
+      <c r="W2" s="291" t="s">
         <v>317</v>
       </c>
-      <c r="X2" s="281"/>
-      <c r="Y2" s="282"/>
-      <c r="Z2" s="280" t="s">
+      <c r="X2" s="292"/>
+      <c r="Y2" s="293"/>
+      <c r="Z2" s="291" t="s">
         <v>318</v>
       </c>
-      <c r="AA2" s="281"/>
-      <c r="AB2" s="282"/>
-      <c r="AC2" s="280" t="s">
+      <c r="AA2" s="292"/>
+      <c r="AB2" s="293"/>
+      <c r="AC2" s="291" t="s">
         <v>5</v>
       </c>
-      <c r="AD2" s="281"/>
-      <c r="AE2" s="282"/>
-      <c r="AF2" s="283" t="s">
+      <c r="AD2" s="292"/>
+      <c r="AE2" s="293"/>
+      <c r="AF2" s="294" t="s">
         <v>6</v>
       </c>
-      <c r="AG2" s="284"/>
-      <c r="AH2" s="285"/>
-      <c r="AI2" s="283" t="s">
+      <c r="AG2" s="295"/>
+      <c r="AH2" s="296"/>
+      <c r="AI2" s="294" t="s">
         <v>7</v>
       </c>
-      <c r="AJ2" s="284"/>
-      <c r="AK2" s="285"/>
+      <c r="AJ2" s="295"/>
+      <c r="AK2" s="296"/>
       <c r="AL2" s="77"/>
       <c r="AM2" s="77"/>
       <c r="AN2" s="77"/>
@@ -5654,38 +5946,38 @@
       <c r="G4" s="192" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="291" t="s">
+      <c r="H4" s="297" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="292"/>
+      <c r="I4" s="298"/>
       <c r="J4" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="293" t="s">
+      <c r="K4" s="299" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="294"/>
+      <c r="L4" s="300"/>
       <c r="M4" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="N4" s="291" t="s">
+      <c r="N4" s="297" t="s">
         <v>16</v>
       </c>
-      <c r="O4" s="292"/>
+      <c r="O4" s="298"/>
       <c r="P4" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="Q4" s="293" t="s">
+      <c r="Q4" s="299" t="s">
         <v>18</v>
       </c>
-      <c r="R4" s="294"/>
+      <c r="R4" s="300"/>
       <c r="S4" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="T4" s="291" t="s">
+      <c r="T4" s="297" t="s">
         <v>322</v>
       </c>
-      <c r="U4" s="292"/>
+      <c r="U4" s="298"/>
       <c r="V4" s="101" t="s">
         <v>323</v>
       </c>
@@ -5772,71 +6064,71 @@
     <row r="5" spans="1:72" s="79" customFormat="1" ht="31.5" customHeight="1">
       <c r="A5" s="77"/>
       <c r="B5" s="77"/>
-      <c r="C5" s="286" t="s">
+      <c r="C5" s="283" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="287"/>
-      <c r="E5" s="288"/>
-      <c r="F5" s="286" t="s">
+      <c r="D5" s="284"/>
+      <c r="E5" s="285"/>
+      <c r="F5" s="283" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="287"/>
-      <c r="H5" s="288"/>
-      <c r="I5" s="286" t="s">
+      <c r="G5" s="284"/>
+      <c r="H5" s="285"/>
+      <c r="I5" s="283" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="287"/>
-      <c r="K5" s="288"/>
-      <c r="L5" s="286" t="s">
+      <c r="J5" s="284"/>
+      <c r="K5" s="285"/>
+      <c r="L5" s="283" t="s">
         <v>27</v>
       </c>
-      <c r="M5" s="287"/>
-      <c r="N5" s="288"/>
-      <c r="O5" s="286" t="s">
+      <c r="M5" s="284"/>
+      <c r="N5" s="285"/>
+      <c r="O5" s="283" t="s">
         <v>28</v>
       </c>
-      <c r="P5" s="287"/>
-      <c r="Q5" s="288"/>
-      <c r="R5" s="286" t="s">
+      <c r="P5" s="284"/>
+      <c r="Q5" s="285"/>
+      <c r="R5" s="283" t="s">
         <v>29</v>
       </c>
-      <c r="S5" s="287"/>
-      <c r="T5" s="288"/>
-      <c r="U5" s="280" t="s">
+      <c r="S5" s="284"/>
+      <c r="T5" s="285"/>
+      <c r="U5" s="291" t="s">
         <v>30</v>
       </c>
-      <c r="V5" s="281"/>
-      <c r="W5" s="282"/>
-      <c r="X5" s="280" t="s">
+      <c r="V5" s="292"/>
+      <c r="W5" s="293"/>
+      <c r="X5" s="291" t="s">
         <v>31</v>
       </c>
-      <c r="Y5" s="281"/>
-      <c r="Z5" s="282"/>
-      <c r="AA5" s="280" t="s">
+      <c r="Y5" s="292"/>
+      <c r="Z5" s="293"/>
+      <c r="AA5" s="291" t="s">
         <v>32</v>
       </c>
-      <c r="AB5" s="281"/>
-      <c r="AC5" s="282"/>
-      <c r="AD5" s="280" t="s">
+      <c r="AB5" s="292"/>
+      <c r="AC5" s="293"/>
+      <c r="AD5" s="291" t="s">
         <v>33</v>
       </c>
-      <c r="AE5" s="281"/>
-      <c r="AF5" s="282"/>
-      <c r="AG5" s="280" t="s">
+      <c r="AE5" s="292"/>
+      <c r="AF5" s="293"/>
+      <c r="AG5" s="291" t="s">
         <v>34</v>
       </c>
-      <c r="AH5" s="281"/>
-      <c r="AI5" s="282"/>
-      <c r="AJ5" s="280" t="s">
+      <c r="AH5" s="292"/>
+      <c r="AI5" s="293"/>
+      <c r="AJ5" s="291" t="s">
         <v>35</v>
       </c>
-      <c r="AK5" s="281"/>
-      <c r="AL5" s="282"/>
-      <c r="AM5" s="283" t="s">
+      <c r="AK5" s="292"/>
+      <c r="AL5" s="293"/>
+      <c r="AM5" s="294" t="s">
         <v>36</v>
       </c>
-      <c r="AN5" s="284"/>
-      <c r="AO5" s="285"/>
+      <c r="AN5" s="295"/>
+      <c r="AO5" s="296"/>
       <c r="AP5" s="77"/>
       <c r="AQ5" s="77"/>
       <c r="AR5" s="78"/>
@@ -6098,61 +6390,61 @@
       <c r="A8" s="77"/>
       <c r="B8" s="77"/>
       <c r="C8" s="112"/>
-      <c r="D8" s="286" t="s">
+      <c r="D8" s="283" t="s">
         <v>157</v>
       </c>
-      <c r="E8" s="287"/>
-      <c r="F8" s="288"/>
-      <c r="G8" s="286" t="s">
+      <c r="E8" s="284"/>
+      <c r="F8" s="285"/>
+      <c r="G8" s="283" t="s">
         <v>56</v>
       </c>
-      <c r="H8" s="287"/>
-      <c r="I8" s="288"/>
-      <c r="J8" s="286" t="s">
+      <c r="H8" s="284"/>
+      <c r="I8" s="285"/>
+      <c r="J8" s="283" t="s">
         <v>57</v>
       </c>
-      <c r="K8" s="287"/>
-      <c r="L8" s="288"/>
-      <c r="M8" s="286" t="s">
+      <c r="K8" s="284"/>
+      <c r="L8" s="285"/>
+      <c r="M8" s="283" t="s">
         <v>58</v>
       </c>
-      <c r="N8" s="287"/>
-      <c r="O8" s="288"/>
-      <c r="P8" s="286" t="s">
+      <c r="N8" s="284"/>
+      <c r="O8" s="285"/>
+      <c r="P8" s="283" t="s">
         <v>59</v>
       </c>
-      <c r="Q8" s="287"/>
-      <c r="R8" s="288"/>
-      <c r="S8" s="286" t="s">
+      <c r="Q8" s="284"/>
+      <c r="R8" s="285"/>
+      <c r="S8" s="283" t="s">
         <v>60</v>
       </c>
-      <c r="T8" s="287"/>
-      <c r="U8" s="288"/>
-      <c r="V8" s="280" t="s">
+      <c r="T8" s="284"/>
+      <c r="U8" s="285"/>
+      <c r="V8" s="291" t="s">
         <v>61</v>
       </c>
-      <c r="W8" s="281"/>
-      <c r="X8" s="282"/>
-      <c r="Y8" s="280" t="s">
+      <c r="W8" s="292"/>
+      <c r="X8" s="293"/>
+      <c r="Y8" s="291" t="s">
         <v>62</v>
       </c>
-      <c r="Z8" s="281"/>
-      <c r="AA8" s="282"/>
-      <c r="AB8" s="280" t="s">
+      <c r="Z8" s="292"/>
+      <c r="AA8" s="293"/>
+      <c r="AB8" s="291" t="s">
         <v>63</v>
       </c>
-      <c r="AC8" s="281"/>
-      <c r="AD8" s="282"/>
-      <c r="AE8" s="280" t="s">
+      <c r="AC8" s="292"/>
+      <c r="AD8" s="293"/>
+      <c r="AE8" s="291" t="s">
         <v>64</v>
       </c>
-      <c r="AF8" s="281"/>
-      <c r="AG8" s="282"/>
-      <c r="AH8" s="283" t="s">
+      <c r="AF8" s="292"/>
+      <c r="AG8" s="293"/>
+      <c r="AH8" s="294" t="s">
         <v>65</v>
       </c>
-      <c r="AI8" s="284"/>
-      <c r="AJ8" s="285"/>
+      <c r="AI8" s="295"/>
+      <c r="AJ8" s="296"/>
       <c r="AK8" s="77"/>
       <c r="AL8" s="77"/>
       <c r="AM8" s="77"/>
@@ -6337,14 +6629,14 @@
         <f ca="1">Q18</f>
         <v>ch</v>
       </c>
-      <c r="V10" s="188" t="str">
+      <c r="V10" s="188" t="e">
         <f ca="1">W17</f>
-        <v>ㆢ</v>
+        <v>#REF!</v>
       </c>
       <c r="W10" s="102"/>
-      <c r="X10" s="195" t="str">
+      <c r="X10" s="195" t="e">
         <f ca="1">W19</f>
-        <v>J</v>
+        <v>#REF!</v>
       </c>
       <c r="Y10" s="188" t="str">
         <f ca="1">AE17</f>
@@ -6422,56 +6714,56 @@
       <c r="B11" s="77"/>
       <c r="C11" s="77"/>
       <c r="D11" s="77"/>
-      <c r="E11" s="286" t="s">
+      <c r="E11" s="283" t="s">
         <v>284</v>
       </c>
-      <c r="F11" s="287"/>
-      <c r="G11" s="288"/>
-      <c r="H11" s="286" t="s">
+      <c r="F11" s="284"/>
+      <c r="G11" s="285"/>
+      <c r="H11" s="283" t="s">
         <v>82</v>
       </c>
-      <c r="I11" s="287"/>
-      <c r="J11" s="288"/>
-      <c r="K11" s="286" t="s">
+      <c r="I11" s="284"/>
+      <c r="J11" s="285"/>
+      <c r="K11" s="283" t="s">
         <v>83</v>
       </c>
-      <c r="L11" s="287"/>
-      <c r="M11" s="288"/>
-      <c r="N11" s="286" t="s">
+      <c r="L11" s="284"/>
+      <c r="M11" s="285"/>
+      <c r="N11" s="283" t="s">
         <v>84</v>
       </c>
-      <c r="O11" s="287"/>
-      <c r="P11" s="288"/>
-      <c r="Q11" s="286" t="s">
+      <c r="O11" s="284"/>
+      <c r="P11" s="285"/>
+      <c r="Q11" s="283" t="s">
         <v>85</v>
       </c>
-      <c r="R11" s="287"/>
-      <c r="S11" s="288"/>
-      <c r="T11" s="286" t="s">
+      <c r="R11" s="284"/>
+      <c r="S11" s="285"/>
+      <c r="T11" s="283" t="s">
         <v>86</v>
       </c>
-      <c r="U11" s="287"/>
-      <c r="V11" s="288"/>
-      <c r="W11" s="280" t="s">
+      <c r="U11" s="284"/>
+      <c r="V11" s="285"/>
+      <c r="W11" s="291" t="s">
         <v>87</v>
       </c>
-      <c r="X11" s="281"/>
-      <c r="Y11" s="282"/>
-      <c r="Z11" s="280" t="s">
+      <c r="X11" s="292"/>
+      <c r="Y11" s="293"/>
+      <c r="Z11" s="291" t="s">
         <v>324</v>
       </c>
-      <c r="AA11" s="281"/>
-      <c r="AB11" s="282"/>
-      <c r="AC11" s="280" t="s">
+      <c r="AA11" s="292"/>
+      <c r="AB11" s="293"/>
+      <c r="AC11" s="291" t="s">
         <v>88</v>
       </c>
-      <c r="AD11" s="281"/>
-      <c r="AE11" s="282"/>
-      <c r="AF11" s="283" t="s">
+      <c r="AD11" s="292"/>
+      <c r="AE11" s="293"/>
+      <c r="AF11" s="294" t="s">
         <v>89</v>
       </c>
-      <c r="AG11" s="284"/>
-      <c r="AH11" s="285"/>
+      <c r="AG11" s="295"/>
+      <c r="AH11" s="296"/>
       <c r="AI11" s="77"/>
       <c r="AJ11" s="77"/>
       <c r="AK11" s="77"/>
@@ -7142,9 +7434,9 @@
         <f t="array" aca="1" ref="V16" ca="1">INDIRECT(ADDRESS(ROW($BK$4)+V$15-1, COLUMN($BK$4)))</f>
         <v>B</v>
       </c>
-      <c r="W16" s="252" t="str" cm="1">
+      <c r="W16" s="252" t="e" cm="1">
         <f t="array" aca="1" ref="W16" ca="1">INDIRECT(ADDRESS(ROW($BK$4)+W$15-1, COLUMN($BK$4)))</f>
-        <v>N</v>
+        <v>#REF!</v>
       </c>
       <c r="X16" s="252" t="str" cm="1">
         <f t="array" aca="1" ref="X16" ca="1">INDIRECT(ADDRESS(ROW($BK$4)+X$15-1, COLUMN($BK$4)))</f>
@@ -7388,9 +7680,9 @@
         <f t="array" aca="1" ref="V17" ca="1">INDIRECT(ADDRESS(ROW($BL$4)+V$15-1, COLUMN($BL$4)))</f>
         <v>ㄒ</v>
       </c>
-      <c r="W17" s="257" t="str" cm="1">
+      <c r="W17" s="257" t="e" cm="1">
         <f t="array" aca="1" ref="W17" ca="1">INDIRECT(ADDRESS(ROW($BL$4)+W$15-1, COLUMN($BL$4)))</f>
-        <v>ㆢ</v>
+        <v>#REF!</v>
       </c>
       <c r="X17" s="257" t="str" cm="1">
         <f t="array" aca="1" ref="X17" ca="1">INDIRECT(ADDRESS(ROW($BL$4)+X$15-1, COLUMN($BL$4)))</f>
@@ -7514,7 +7806,7 @@
       </c>
       <c r="BB17" s="257" t="str" cm="1">
         <f t="array" aca="1" ref="BB17" ca="1">INDIRECT(ADDRESS(ROW($BL$4)+BB$15-1, COLUMN($BL$4)))</f>
-        <v>˙</v>
+        <v>ˊ</v>
       </c>
       <c r="BC17" s="257"/>
       <c r="BD17" s="257"/>
@@ -7634,9 +7926,9 @@
         <f t="array" aca="1" ref="V18" ca="1">INDIRECT(ADDRESS(ROW($BN$4)+V$15-1, COLUMN($BN$4)))</f>
         <v>si-</v>
       </c>
-      <c r="W18" s="258" t="str" cm="1">
+      <c r="W18" s="258" t="e" cm="1">
         <f t="array" aca="1" ref="W18" ca="1">INDIRECT(ADDRESS(ROW($BN$4)+W$15-1, COLUMN($BN$4)))</f>
-        <v>ji-</v>
+        <v>#REF!</v>
       </c>
       <c r="X18" s="258" t="str" cm="1">
         <f t="array" aca="1" ref="X18" ca="1">INDIRECT(ADDRESS(ROW($BN$4)+X$15-1, COLUMN($BN$4)))</f>
@@ -7880,9 +8172,9 @@
         <f t="array" aca="1" ref="V19" ca="1">INDIRECT(ADDRESS(ROW($BN$4)+V$15-1, COLUMN($BO$4)))</f>
         <v>S</v>
       </c>
-      <c r="W19" s="259" t="str" cm="1">
+      <c r="W19" s="259" t="e" cm="1">
         <f t="array" aca="1" ref="W19" ca="1">INDIRECT(ADDRESS(ROW($BN$4)+W$15-1, COLUMN($BO$4)))</f>
-        <v>J</v>
+        <v>#REF!</v>
       </c>
       <c r="X19" s="259" t="str" cm="1">
         <f t="array" aca="1" ref="X19" ca="1">INDIRECT(ADDRESS(ROW($BN$4)+X$15-1, COLUMN($BO$4)))</f>
@@ -8025,9 +8317,9 @@
         <f>注音符號字典編碼!D20</f>
         <v>ㄖ</v>
       </c>
-      <c r="BM19" s="273">
+      <c r="BM19" s="273" t="str">
         <f>注音符號字典編碼!E20</f>
-        <v>0</v>
+        <v>ㄖㄧ</v>
       </c>
       <c r="BN19" s="15" t="str">
         <f>注音符號字典編碼!F20</f>
@@ -8105,9 +8397,9 @@
         <f>注音符號字典編碼!D21</f>
         <v>ㄐ</v>
       </c>
-      <c r="BM20" s="272">
+      <c r="BM20" s="272" t="str">
         <f>注音符號字典編碼!E21</f>
-        <v>0</v>
+        <v>ㄐㄧ</v>
       </c>
       <c r="BN20" s="14" t="str">
         <f>注音符號字典編碼!F21</f>
@@ -8136,9 +8428,9 @@
       <c r="J21" s="134"/>
       <c r="K21" s="134"/>
       <c r="L21" s="134"/>
-      <c r="M21" s="279" t="str">
+      <c r="M21" s="279" t="e">
         <f ca="1" xml:space="preserve"> _xlfn.CONCAT(D19:X19)</f>
-        <v>pbPmtTnlkgKhzcsjZCSJw</v>
+        <v>#REF!</v>
       </c>
       <c r="N21" s="279"/>
       <c r="O21" s="279"/>
@@ -8173,9 +8465,9 @@
         <f>注音符號字典編碼!D22</f>
         <v>ㄑ</v>
       </c>
-      <c r="BM21" s="271">
+      <c r="BM21" s="271" t="str">
         <f>注音符號字典編碼!E22</f>
-        <v>0</v>
+        <v>ㄑㄧ</v>
       </c>
       <c r="BN21" s="13" t="str">
         <f>注音符號字典編碼!F22</f>
@@ -8265,9 +8557,9 @@
         <f>注音符號字典編碼!D23</f>
         <v>ㄒ</v>
       </c>
-      <c r="BM22" s="271">
+      <c r="BM22" s="271" t="str">
         <f>注音符號字典編碼!E23</f>
-        <v>0</v>
+        <v>ㄒㄧ</v>
       </c>
       <c r="BN22" s="13" t="str">
         <f>注音符號字典編碼!F23</f>
@@ -8288,13 +8580,13 @@
         <v>321</v>
       </c>
       <c r="C23" s="139"/>
-      <c r="D23" s="140">
+      <c r="D23" s="140" t="e">
         <f ca="1" xml:space="preserve"> LEN(E23)</f>
-        <v>51</v>
-      </c>
-      <c r="E23" s="140" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="E23" s="140" t="e">
         <f ca="1" xml:space="preserve"> _xlfn.CONCAT(D19:BB19)</f>
-        <v>pbPmtTnlkgKhzcsjZCSJwiIuUaAeEOQo@yYxX}{][XWMN123570</v>
+        <v>#REF!</v>
       </c>
       <c r="F23" s="139"/>
       <c r="G23" s="139"/>
@@ -8352,29 +8644,29 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="BK23" s="11" t="str">
-        <f>注音符號字典編碼!C24</f>
-        <v>N</v>
-      </c>
-      <c r="BL23" s="21" t="str">
-        <f>注音符號字典編碼!D24</f>
-        <v>ㆢ</v>
-      </c>
-      <c r="BM23" s="273">
-        <f>注音符號字典編碼!E24</f>
-        <v>0</v>
-      </c>
-      <c r="BN23" s="15" t="str">
-        <f>注音符號字典編碼!F24</f>
-        <v>ji-</v>
-      </c>
-      <c r="BO23" s="10" t="str">
-        <f>注音符號字典編碼!G24</f>
-        <v>J</v>
-      </c>
-      <c r="BQ23" s="107" t="str">
+      <c r="BK23" s="11" t="e">
+        <f>注音符號字典編碼!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="BL23" s="21" t="e">
+        <f>注音符號字典編碼!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="BM23" s="273" t="e">
+        <f>注音符號字典編碼!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="BN23" s="15" t="e">
+        <f>注音符號字典編碼!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="BO23" s="10" t="e">
+        <f>注音符號字典編碼!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="BQ23" s="107" t="e">
         <f t="shared" si="1"/>
-        <v>"N": { commit: "ㆢ" }</v>
+        <v>#REF!</v>
       </c>
       <c r="BT23" s="264"/>
     </row>
@@ -8383,13 +8675,13 @@
         <v>286</v>
       </c>
       <c r="C24" s="143"/>
-      <c r="D24" s="144">
+      <c r="D24" s="144" t="e">
         <f ca="1" xml:space="preserve"> LEN(E24)</f>
-        <v>51</v>
-      </c>
-      <c r="E24" s="144" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="E24" s="144" t="e">
         <f ca="1" xml:space="preserve"> _xlfn.CONCAT(D16:BB16)</f>
-        <v>1!qa2wsxeEdcyhnbYHBN?uUjJ8*,&lt;iIk09(lLMm:;o/Ap 43657</v>
+        <v>#REF!</v>
       </c>
       <c r="F24" s="143"/>
       <c r="G24" s="143"/>
@@ -8425,16 +8717,16 @@
       <c r="AM24" s="141" t="s">
         <v>124</v>
       </c>
-      <c r="AN24" s="137">
+      <c r="AN24" s="137" t="e">
         <f ca="1" xml:space="preserve"> FIND(AM24,  E24)</f>
-        <v>42</v>
+        <v>#REF!</v>
       </c>
       <c r="AO24" s="199" t="s">
         <v>328</v>
       </c>
-      <c r="AP24" s="137" t="str">
+      <c r="AP24" s="137" t="e">
         <f ca="1" xml:space="preserve"> MID(E23,AN24,1)</f>
-        <v>X</v>
+        <v>#REF!</v>
       </c>
       <c r="AR24" s="137"/>
       <c r="AS24" s="137"/>
@@ -8458,23 +8750,23 @@
         <v>21</v>
       </c>
       <c r="BK24" s="6" t="str">
-        <f>注音符號字典編碼!C25</f>
+        <f>注音符號字典編碼!C24</f>
         <v>?</v>
       </c>
       <c r="BL24" s="211" t="str">
-        <f>注音符號字典編碼!D25</f>
+        <f>注音符號字典編碼!D24</f>
         <v>ㄫ</v>
       </c>
       <c r="BM24" s="274" t="str">
-        <f>注音符號字典編碼!E25</f>
+        <f>注音符號字典編碼!E24</f>
         <v>ㄥ</v>
       </c>
       <c r="BN24" s="16" t="str">
-        <f>注音符號字典編碼!F25</f>
+        <f>注音符號字典編碼!F24</f>
         <v>ng-</v>
       </c>
       <c r="BO24" s="7" t="str">
-        <f>注音符號字典編碼!G25</f>
+        <f>注音符號字典編碼!G24</f>
         <v>w</v>
       </c>
       <c r="BQ24" s="107" t="str">
@@ -8484,9 +8776,9 @@
       <c r="BT24" s="264"/>
     </row>
     <row r="25" spans="1:72" s="132" customFormat="1" ht="31.5" customHeight="1">
-      <c r="B25" s="145" t="str">
+      <c r="B25" s="145" t="e">
         <f ca="1" xml:space="preserve"> "- xlit|" &amp; E23 &amp; "|" &amp; E24 &amp; "|"</f>
-        <v>- xlit|pbPmtTnlkgKhzcsjZCSJwiIuUaAeEOQo@yYxX}{][XWMN123570|1!qa2wsxeEdcyhnbYHBN?uUjJ8*,&lt;iIk09(lLMm:;o/Ap 43657|</v>
+        <v>#REF!</v>
       </c>
       <c r="C25" s="146"/>
       <c r="D25" s="146"/>
@@ -8551,23 +8843,23 @@
         <v>22</v>
       </c>
       <c r="BK25" s="9" t="str">
-        <f>注音符號字典編碼!C26</f>
+        <f>注音符號字典編碼!C25</f>
         <v>u</v>
       </c>
       <c r="BL25" s="20" t="str">
-        <f>注音符號字典編碼!D26</f>
+        <f>注音符號字典編碼!D25</f>
         <v>ㄧ</v>
       </c>
       <c r="BM25" s="272">
-        <f>注音符號字典編碼!E26</f>
+        <f>注音符號字典編碼!E25</f>
         <v>0</v>
       </c>
       <c r="BN25" s="14" t="str">
-        <f>注音符號字典編碼!F26</f>
+        <f>注音符號字典編碼!F25</f>
         <v>i</v>
       </c>
       <c r="BO25" s="8" t="str">
-        <f>注音符號字典編碼!G26</f>
+        <f>注音符號字典編碼!G25</f>
         <v>i</v>
       </c>
       <c r="BQ25" s="107" t="str">
@@ -8611,23 +8903,23 @@
         <v>23</v>
       </c>
       <c r="BK26" s="6" t="str">
-        <f>注音符號字典編碼!C27</f>
+        <f>注音符號字典編碼!C26</f>
         <v>U</v>
       </c>
       <c r="BL26" s="19" t="str">
-        <f>注音符號字典編碼!D27</f>
+        <f>注音符號字典編碼!D26</f>
         <v>ㆪ</v>
       </c>
       <c r="BM26" s="271" t="str">
-        <f>注音符號字典編碼!E27</f>
+        <f>注音符號字典編碼!E26</f>
         <v>ㄥㄧ</v>
       </c>
       <c r="BN26" s="13" t="str">
-        <f>注音符號字典編碼!F27</f>
+        <f>注音符號字典編碼!F26</f>
         <v>Ni</v>
       </c>
       <c r="BO26" s="5" t="str">
-        <f>注音符號字典編碼!G27</f>
+        <f>注音符號字典編碼!G26</f>
         <v>I</v>
       </c>
       <c r="BQ26" s="107" t="str">
@@ -8703,23 +8995,23 @@
         <v>24</v>
       </c>
       <c r="BK27" s="6" t="str">
-        <f>注音符號字典編碼!C28</f>
+        <f>注音符號字典編碼!C27</f>
         <v>j</v>
       </c>
       <c r="BL27" s="19" t="str">
-        <f>注音符號字典編碼!D28</f>
+        <f>注音符號字典編碼!D27</f>
         <v>ㄨ</v>
       </c>
       <c r="BM27" s="271">
-        <f>注音符號字典編碼!E28</f>
+        <f>注音符號字典編碼!E27</f>
         <v>0</v>
       </c>
       <c r="BN27" s="13" t="str">
-        <f>注音符號字典編碼!F28</f>
+        <f>注音符號字典編碼!F27</f>
         <v>u</v>
       </c>
       <c r="BO27" s="5" t="str">
-        <f>注音符號字典編碼!G28</f>
+        <f>注音符號字典編碼!G27</f>
         <v>u</v>
       </c>
       <c r="BQ27" s="107" t="str">
@@ -8795,23 +9087,23 @@
         <v>25</v>
       </c>
       <c r="BK28" s="6" t="str">
-        <f>注音符號字典編碼!C29</f>
+        <f>注音符號字典編碼!C28</f>
         <v>J</v>
       </c>
       <c r="BL28" s="19" t="str">
-        <f>注音符號字典編碼!D29</f>
+        <f>注音符號字典編碼!D28</f>
         <v>ㆫ</v>
       </c>
       <c r="BM28" s="271" t="str">
-        <f>注音符號字典編碼!E29</f>
+        <f>注音符號字典編碼!E28</f>
         <v>ㄥㄨ</v>
       </c>
       <c r="BN28" s="13" t="str">
-        <f>注音符號字典編碼!F29</f>
+        <f>注音符號字典編碼!F28</f>
         <v>Nu</v>
       </c>
       <c r="BO28" s="5" t="str">
-        <f>注音符號字典編碼!G29</f>
+        <f>注音符號字典編碼!G28</f>
         <v>U</v>
       </c>
       <c r="BQ28" s="107" t="str">
@@ -8825,13 +9117,13 @@
         <v>134</v>
       </c>
       <c r="C29" s="149"/>
-      <c r="D29" s="149">
+      <c r="D29" s="149" t="e">
         <f ca="1" xml:space="preserve"> LEN(E29)</f>
-        <v>51</v>
-      </c>
-      <c r="E29" s="150" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="E29" s="150" t="e">
         <f ca="1" xml:space="preserve"> _xlfn.CONCAT(D16:BB16)</f>
-        <v>1!qa2wsxeEdcyhnbYHBN?uUjJ8*,&lt;iIk09(lLMm:;o/Ap 43657</v>
+        <v>#REF!</v>
       </c>
       <c r="F29" s="150"/>
       <c r="G29" s="150"/>
@@ -8871,14 +9163,14 @@
       </c>
       <c r="AN29" s="137" t="e">
         <f ca="1" xml:space="preserve"> FIND(AM29, E29, 1)</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="AO29" s="152" t="s">
         <v>328</v>
       </c>
       <c r="AP29" s="137" t="e">
         <f ca="1" xml:space="preserve"> MID(E30, AN29, 1)</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="AQ29" s="137"/>
       <c r="AR29" s="137"/>
@@ -8903,23 +9195,23 @@
         <v>26</v>
       </c>
       <c r="BK29" s="9">
-        <f>注音符號字典編碼!C30</f>
+        <f>注音符號字典編碼!C29</f>
         <v>8</v>
       </c>
       <c r="BL29" s="20" t="str">
-        <f>注音符號字典編碼!D30</f>
+        <f>注音符號字典編碼!D29</f>
         <v>ㄚ</v>
       </c>
       <c r="BM29" s="272">
-        <f>注音符號字典編碼!E30</f>
+        <f>注音符號字典編碼!E29</f>
         <v>0</v>
       </c>
       <c r="BN29" s="14" t="str">
-        <f>注音符號字典編碼!F30</f>
+        <f>注音符號字典編碼!F29</f>
         <v>a</v>
       </c>
       <c r="BO29" s="8" t="str">
-        <f>注音符號字典編碼!G30</f>
+        <f>注音符號字典編碼!G29</f>
         <v>a</v>
       </c>
       <c r="BQ29" s="107" t="str">
@@ -8933,13 +9225,13 @@
         <v>104</v>
       </c>
       <c r="C30" s="154"/>
-      <c r="D30" s="154">
+      <c r="D30" s="154" t="e">
         <f ca="1">LEN(E30)</f>
-        <v>51</v>
-      </c>
-      <c r="E30" s="153" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="E30" s="153" t="e">
         <f ca="1" xml:space="preserve"> _xlfn.CONCAT(D17:BB17)</f>
-        <v>ㄅㆠㄆㄇㄉㄊㄋㄌㄍㆣㄎㄏㄗㄘㄙㄖㄐㄑㄒㆢㄫㄧㆪㄨㆫㄚㆩㄝㆥㄛㆧㄜㄢㄞㆮㄠㆯㆱㆰㆲㄤㆨㆭㆬㄣˉˋ_ˇ+˙</v>
+        <v>#REF!</v>
       </c>
       <c r="F30" s="153"/>
       <c r="G30" s="153"/>
@@ -9001,23 +9293,23 @@
         <v>27</v>
       </c>
       <c r="BK30" s="6" t="str">
-        <f>注音符號字典編碼!C31</f>
+        <f>注音符號字典編碼!C30</f>
         <v>*</v>
       </c>
       <c r="BL30" s="19" t="str">
-        <f>注音符號字典編碼!D31</f>
+        <f>注音符號字典編碼!D30</f>
         <v>ㆩ</v>
       </c>
       <c r="BM30" s="271" t="str">
-        <f>注音符號字典編碼!E31</f>
+        <f>注音符號字典編碼!E30</f>
         <v>ㄥㄚ</v>
       </c>
       <c r="BN30" s="13" t="str">
-        <f>注音符號字典編碼!F31</f>
+        <f>注音符號字典編碼!F30</f>
         <v>Na</v>
       </c>
       <c r="BO30" s="5" t="str">
-        <f>注音符號字典編碼!G31</f>
+        <f>注音符號字典編碼!G30</f>
         <v>A</v>
       </c>
       <c r="BQ30" s="107" t="str">
@@ -9027,9 +9319,9 @@
       <c r="BT30" s="264"/>
     </row>
     <row r="31" spans="1:72" s="132" customFormat="1" ht="31.5" customHeight="1">
-      <c r="B31" s="145" t="str">
+      <c r="B31" s="145" t="e">
         <f ca="1" xml:space="preserve"> "- xlit|" &amp; E29 &amp; "|" &amp; E30 &amp; "|"</f>
-        <v>- xlit|1!qa2wsxeEdcyhnbYHBN?uUjJ8*,&lt;iIk09(lLMm:;o/Ap 43657|ㄅㆠㄆㄇㄉㄊㄋㄌㄍㆣㄎㄏㄗㄘㄙㄖㄐㄑㄒㆢㄫㄧㆪㄨㆫㄚㆩㄝㆥㄛㆧㄜㄢㄞㆮㄠㆯㆱㆰㆲㄤㆨㆭㆬㄣˉˋ_ˇ+˙|</v>
+        <v>#REF!</v>
       </c>
       <c r="C31" s="155"/>
       <c r="D31" s="155"/>
@@ -9094,23 +9386,23 @@
         <v>28</v>
       </c>
       <c r="BK31" s="40" t="str">
-        <f>注音符號字典編碼!C32</f>
+        <f>注音符號字典編碼!C31</f>
         <v>,</v>
       </c>
       <c r="BL31" s="19" t="str">
-        <f>注音符號字典編碼!D32</f>
+        <f>注音符號字典編碼!D31</f>
         <v>ㄝ</v>
       </c>
       <c r="BM31" s="271">
-        <f>注音符號字典編碼!E32</f>
+        <f>注音符號字典編碼!E31</f>
         <v>0</v>
       </c>
       <c r="BN31" s="13" t="str">
-        <f>注音符號字典編碼!F32</f>
+        <f>注音符號字典編碼!F31</f>
         <v>e</v>
       </c>
       <c r="BO31" s="5" t="str">
-        <f>注音符號字典編碼!G32</f>
+        <f>注音符號字典編碼!G31</f>
         <v>e</v>
       </c>
       <c r="BQ31" s="107" t="str">
@@ -9184,23 +9476,23 @@
         <v>29</v>
       </c>
       <c r="BK32" s="40" t="str">
-        <f>注音符號字典編碼!C33</f>
+        <f>注音符號字典編碼!C32</f>
         <v>&lt;</v>
       </c>
       <c r="BL32" s="19" t="str">
-        <f>注音符號字典編碼!D33</f>
+        <f>注音符號字典編碼!D32</f>
         <v>ㆥ</v>
       </c>
       <c r="BM32" s="271" t="str">
-        <f>注音符號字典編碼!E33</f>
+        <f>注音符號字典編碼!E32</f>
         <v>ㄥㄝ</v>
       </c>
       <c r="BN32" s="13" t="str">
-        <f>注音符號字典編碼!F33</f>
+        <f>注音符號字典編碼!F32</f>
         <v>Ne</v>
       </c>
       <c r="BO32" s="5" t="str">
-        <f>注音符號字典編碼!G33</f>
+        <f>注音符號字典編碼!G32</f>
         <v>E</v>
       </c>
       <c r="BQ32" s="107" t="str">
@@ -9276,23 +9568,23 @@
         <v>30</v>
       </c>
       <c r="BK33" s="6" t="str">
-        <f>注音符號字典編碼!C34</f>
+        <f>注音符號字典編碼!C33</f>
         <v>i</v>
       </c>
       <c r="BL33" s="19" t="str">
-        <f>注音符號字典編碼!D34</f>
+        <f>注音符號字典編碼!D33</f>
         <v>ㄛ</v>
       </c>
       <c r="BM33" s="271">
-        <f>注音符號字典編碼!E34</f>
+        <f>注音符號字典編碼!E33</f>
         <v>0</v>
       </c>
       <c r="BN33" s="13" t="str">
-        <f>注音符號字典編碼!F34</f>
+        <f>注音符號字典編碼!F33</f>
         <v>oo</v>
       </c>
       <c r="BO33" s="5" t="str">
-        <f>注音符號字典編碼!G34</f>
+        <f>注音符號字典編碼!G33</f>
         <v>O</v>
       </c>
       <c r="BQ33" s="107" t="str">
@@ -9368,23 +9660,23 @@
         <v>31</v>
       </c>
       <c r="BK34" s="6" t="str">
-        <f>注音符號字典編碼!C35</f>
+        <f>注音符號字典編碼!C34</f>
         <v>I</v>
       </c>
       <c r="BL34" s="19" t="str">
-        <f>注音符號字典編碼!D35</f>
+        <f>注音符號字典編碼!D34</f>
         <v>ㆧ</v>
       </c>
       <c r="BM34" s="271" t="str">
-        <f>注音符號字典編碼!E35</f>
+        <f>注音符號字典編碼!E34</f>
         <v>ㄥㄛ</v>
       </c>
       <c r="BN34" s="13" t="str">
-        <f>注音符號字典編碼!F35</f>
+        <f>注音符號字典編碼!F34</f>
         <v>Noo</v>
       </c>
       <c r="BO34" s="5" t="str">
-        <f>注音符號字典編碼!G35</f>
+        <f>注音符號字典編碼!G34</f>
         <v>Q</v>
       </c>
       <c r="BQ34" s="107" t="str">
@@ -9398,13 +9690,13 @@
         <v>333</v>
       </c>
       <c r="C35" s="149"/>
-      <c r="D35" s="149">
+      <c r="D35" s="149" t="e">
         <f ca="1" xml:space="preserve"> LEN(E35)</f>
-        <v>51</v>
-      </c>
-      <c r="E35" s="150" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="E35" s="150" t="e">
         <f ca="1" xml:space="preserve"> _xlfn.CONCAT(D19:BB19)</f>
-        <v>pbPmtTnlkgKhzcsjZCSJwiIuUaAeEOQo@yYxX}{][XWMN123570</v>
+        <v>#REF!</v>
       </c>
       <c r="F35" s="150"/>
       <c r="G35" s="150"/>
@@ -9466,23 +9758,23 @@
         <v>32</v>
       </c>
       <c r="BK35" s="6" t="str">
-        <f>注音符號字典編碼!C36</f>
+        <f>注音符號字典編碼!C35</f>
         <v>k</v>
       </c>
       <c r="BL35" s="19" t="str">
-        <f>注音符號字典編碼!D36</f>
+        <f>注音符號字典編碼!D35</f>
         <v>ㄜ</v>
       </c>
       <c r="BM35" s="271">
-        <f>注音符號字典編碼!E36</f>
+        <f>注音符號字典編碼!E35</f>
         <v>0</v>
       </c>
       <c r="BN35" s="13" t="str">
-        <f>注音符號字典編碼!F36</f>
+        <f>注音符號字典編碼!F35</f>
         <v>o</v>
       </c>
       <c r="BO35" s="5" t="str">
-        <f>注音符號字典編碼!G36</f>
+        <f>注音符號字典編碼!G35</f>
         <v>o</v>
       </c>
       <c r="BQ35" s="107" t="str">
@@ -9496,13 +9788,13 @@
         <v>104</v>
       </c>
       <c r="C36" s="154"/>
-      <c r="D36" s="154">
+      <c r="D36" s="154" t="e">
         <f ca="1">LEN(E36)</f>
-        <v>51</v>
-      </c>
-      <c r="E36" s="153" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="E36" s="153" t="e">
         <f ca="1" xml:space="preserve"> _xlfn.CONCAT(D17:BB17)</f>
-        <v>ㄅㆠㄆㄇㄉㄊㄋㄌㄍㆣㄎㄏㄗㄘㄙㄖㄐㄑㄒㆢㄫㄧㆪㄨㆫㄚㆩㄝㆥㄛㆧㄜㄢㄞㆮㄠㆯㆱㆰㆲㄤㆨㆭㆬㄣˉˋ_ˇ+˙</v>
+        <v>#REF!</v>
       </c>
       <c r="F36" s="153"/>
       <c r="G36" s="153"/>
@@ -9564,23 +9856,23 @@
         <v>33</v>
       </c>
       <c r="BK36" s="9">
-        <f>注音符號字典編碼!C37</f>
+        <f>注音符號字典編碼!C36</f>
         <v>0</v>
       </c>
       <c r="BL36" s="20" t="str">
-        <f>注音符號字典編碼!D37</f>
+        <f>注音符號字典編碼!D36</f>
         <v>ㄢ</v>
       </c>
       <c r="BM36" s="272">
-        <f>注音符號字典編碼!E37</f>
+        <f>注音符號字典編碼!E36</f>
         <v>0</v>
       </c>
       <c r="BN36" s="14" t="str">
-        <f>注音符號字典編碼!F37</f>
+        <f>注音符號字典編碼!F36</f>
         <v>an</v>
       </c>
       <c r="BO36" s="8" t="str">
-        <f>注音符號字典編碼!G37</f>
+        <f>注音符號字典編碼!G36</f>
         <v>@</v>
       </c>
       <c r="BQ36" s="107" t="str">
@@ -9590,9 +9882,9 @@
       <c r="BT36" s="264"/>
     </row>
     <row r="37" spans="2:72" s="132" customFormat="1" ht="31.5" customHeight="1">
-      <c r="B37" s="145" t="str">
+      <c r="B37" s="145" t="e">
         <f ca="1" xml:space="preserve"> "- xlit|" &amp; E35 &amp; "|" &amp; E36 &amp; "|"</f>
-        <v>- xlit|pbPmtTnlkgKhzcsjZCSJwiIuUaAeEOQo@yYxX}{][XWMN123570|ㄅㆠㄆㄇㄉㄊㄋㄌㄍㆣㄎㄏㄗㄘㄙㄖㄐㄑㄒㆢㄫㄧㆪㄨㆫㄚㆩㄝㆥㄛㆧㄜㄢㄞㆮㄠㆯㆱㆰㆲㄤㆨㆭㆬㄣˉˋ_ˇ+˙|</v>
+        <v>#REF!</v>
       </c>
       <c r="C37" s="155"/>
       <c r="D37" s="155"/>
@@ -9657,23 +9949,23 @@
         <v>34</v>
       </c>
       <c r="BK37" s="6">
-        <f>注音符號字典編碼!C38</f>
+        <f>注音符號字典編碼!C37</f>
         <v>9</v>
       </c>
       <c r="BL37" s="19" t="str">
-        <f>注音符號字典編碼!D38</f>
+        <f>注音符號字典編碼!D37</f>
         <v>ㄞ</v>
       </c>
       <c r="BM37" s="271">
-        <f>注音符號字典編碼!E38</f>
+        <f>注音符號字典編碼!E37</f>
         <v>0</v>
       </c>
       <c r="BN37" s="13" t="str">
-        <f>注音符號字典編碼!F38</f>
+        <f>注音符號字典編碼!F37</f>
         <v>ai</v>
       </c>
       <c r="BO37" s="5" t="str">
-        <f>注音符號字典編碼!G38</f>
+        <f>注音符號字典編碼!G37</f>
         <v>y</v>
       </c>
       <c r="BQ37" s="107" t="str">
@@ -9747,23 +10039,23 @@
         <v>35</v>
       </c>
       <c r="BK38" s="6" t="str">
-        <f>注音符號字典編碼!C39</f>
+        <f>注音符號字典編碼!C38</f>
         <v>(</v>
       </c>
       <c r="BL38" s="19" t="str">
-        <f>注音符號字典編碼!D39</f>
+        <f>注音符號字典編碼!D38</f>
         <v>ㆮ</v>
       </c>
       <c r="BM38" s="271" t="str">
-        <f>注音符號字典編碼!E39</f>
+        <f>注音符號字典編碼!E38</f>
         <v>ㄥㄞ</v>
       </c>
       <c r="BN38" s="13" t="str">
-        <f>注音符號字典編碼!F39</f>
+        <f>注音符號字典編碼!F38</f>
         <v>Nai</v>
       </c>
       <c r="BO38" s="5" t="str">
-        <f>注音符號字典編碼!G39</f>
+        <f>注音符號字典編碼!G38</f>
         <v>Y</v>
       </c>
       <c r="BQ38" s="107" t="str">
@@ -9837,23 +10129,23 @@
         <v>36</v>
       </c>
       <c r="BK39" s="6" t="str">
-        <f>注音符號字典編碼!C40</f>
+        <f>注音符號字典編碼!C39</f>
         <v>l</v>
       </c>
       <c r="BL39" s="19" t="str">
-        <f>注音符號字典編碼!D40</f>
+        <f>注音符號字典編碼!D39</f>
         <v>ㄠ</v>
       </c>
       <c r="BM39" s="271">
-        <f>注音符號字典編碼!E40</f>
+        <f>注音符號字典編碼!E39</f>
         <v>0</v>
       </c>
       <c r="BN39" s="13" t="str">
-        <f>注音符號字典編碼!F40</f>
+        <f>注音符號字典編碼!F39</f>
         <v>au</v>
       </c>
       <c r="BO39" s="5" t="str">
-        <f>注音符號字典編碼!G40</f>
+        <f>注音符號字典編碼!G39</f>
         <v>x</v>
       </c>
       <c r="BQ39" s="107" t="str">
@@ -9872,23 +10164,23 @@
         <v>37</v>
       </c>
       <c r="BK40" s="6" t="str">
-        <f>注音符號字典編碼!C41</f>
+        <f>注音符號字典編碼!C40</f>
         <v>L</v>
       </c>
       <c r="BL40" s="19" t="str">
-        <f>注音符號字典編碼!D41</f>
+        <f>注音符號字典編碼!D40</f>
         <v>ㆯ</v>
       </c>
       <c r="BM40" s="271" t="str">
-        <f>注音符號字典編碼!E41</f>
+        <f>注音符號字典編碼!E40</f>
         <v>ㄥㄠ</v>
       </c>
       <c r="BN40" s="13" t="str">
-        <f>注音符號字典編碼!F41</f>
+        <f>注音符號字典編碼!F40</f>
         <v>Nau</v>
       </c>
       <c r="BO40" s="5" t="str">
-        <f>注音符號字典編碼!G41</f>
+        <f>注音符號字典編碼!G40</f>
         <v>X</v>
       </c>
       <c r="BQ40" s="107" t="str">
@@ -9904,23 +10196,23 @@
         <v>38</v>
       </c>
       <c r="BK41" s="40" t="str">
-        <f>注音符號字典編碼!C42</f>
+        <f>注音符號字典編碼!C41</f>
         <v>M</v>
       </c>
       <c r="BL41" s="249" t="str">
-        <f>注音符號字典編碼!D42</f>
+        <f>注音符號字典編碼!D41</f>
         <v>ㆱ</v>
       </c>
       <c r="BM41" s="275" t="str">
-        <f>注音符號字典編碼!E42</f>
+        <f>注音符號字典編碼!E41</f>
         <v>ㄛㄇ</v>
       </c>
       <c r="BN41" s="13" t="str">
-        <f>注音符號字典編碼!F42</f>
+        <f>注音符號字典編碼!F41</f>
         <v>om</v>
       </c>
       <c r="BO41" s="5" t="str">
-        <f>注音符號字典編碼!G42</f>
+        <f>注音符號字典編碼!G41</f>
         <v>}</v>
       </c>
       <c r="BQ41" s="107" t="str">
@@ -9936,23 +10228,23 @@
         <v>39</v>
       </c>
       <c r="BK42" s="40" t="str">
-        <f>注音符號字典編碼!C43</f>
+        <f>注音符號字典編碼!C42</f>
         <v>m</v>
       </c>
       <c r="BL42" s="249" t="str">
-        <f>注音符號字典編碼!D43</f>
+        <f>注音符號字典編碼!D42</f>
         <v>ㆰ</v>
       </c>
       <c r="BM42" s="275" t="str">
-        <f>注音符號字典編碼!E43</f>
+        <f>注音符號字典編碼!E42</f>
         <v>ㄚㄇ</v>
       </c>
       <c r="BN42" s="13" t="str">
-        <f>注音符號字典編碼!F43</f>
+        <f>注音符號字典編碼!F42</f>
         <v>am</v>
       </c>
       <c r="BO42" s="5" t="str">
-        <f>注音符號字典編碼!G43</f>
+        <f>注音符號字典編碼!G42</f>
         <v>{</v>
       </c>
       <c r="BQ42" s="107" t="str">
@@ -9968,23 +10260,23 @@
         <v>40</v>
       </c>
       <c r="BK43" s="40" t="str">
-        <f>注音符號字典編碼!C44</f>
+        <f>注音符號字典編碼!C43</f>
         <v>:</v>
       </c>
       <c r="BL43" s="249" t="str">
-        <f>注音符號字典編碼!D44</f>
+        <f>注音符號字典編碼!D43</f>
         <v>ㆲ</v>
       </c>
       <c r="BM43" s="275" t="str">
-        <f>注音符號字典編碼!E44</f>
+        <f>注音符號字典編碼!E43</f>
         <v>ㄛㄥ</v>
       </c>
       <c r="BN43" s="13" t="str">
-        <f>注音符號字典編碼!F44</f>
+        <f>注音符號字典編碼!F43</f>
         <v>ong</v>
       </c>
       <c r="BO43" s="5" t="str">
-        <f>注音符號字典編碼!G44</f>
+        <f>注音符號字典編碼!G43</f>
         <v>]</v>
       </c>
       <c r="BQ43" s="107" t="str">
@@ -10000,23 +10292,23 @@
         <v>41</v>
       </c>
       <c r="BK44" s="38" t="str">
-        <f>注音符號字典編碼!C45</f>
+        <f>注音符號字典編碼!C44</f>
         <v>;</v>
       </c>
       <c r="BL44" s="21" t="str">
-        <f>注音符號字典編碼!D45</f>
+        <f>注音符號字典編碼!D44</f>
         <v>ㄤ</v>
       </c>
       <c r="BM44" s="273">
-        <f>注音符號字典編碼!E45</f>
+        <f>注音符號字典編碼!E44</f>
         <v>0</v>
       </c>
       <c r="BN44" s="15" t="str">
-        <f>注音符號字典編碼!F45</f>
+        <f>注音符號字典編碼!F44</f>
         <v>ang</v>
       </c>
       <c r="BO44" s="10" t="str">
-        <f>注音符號字典編碼!G45</f>
+        <f>注音符號字典編碼!G44</f>
         <v>[</v>
       </c>
       <c r="BQ44" s="107" t="str">
@@ -10089,23 +10381,23 @@
         <v>42</v>
       </c>
       <c r="BK45" s="40" t="str">
-        <f>注音符號字典編碼!C46</f>
+        <f>注音符號字典編碼!C45</f>
         <v>o</v>
       </c>
       <c r="BL45" s="19" t="str">
-        <f>注音符號字典編碼!D46</f>
+        <f>注音符號字典編碼!D45</f>
         <v>ㆨ</v>
       </c>
       <c r="BM45" s="271">
-        <f>注音符號字典編碼!E46</f>
+        <f>注音符號字典編碼!E45</f>
         <v>0</v>
       </c>
       <c r="BN45" s="13" t="str">
-        <f>注音符號字典編碼!F46</f>
+        <f>注音符號字典編碼!F45</f>
         <v>ir</v>
       </c>
       <c r="BO45" s="5" t="str">
-        <f>注音符號字典編碼!G46</f>
+        <f>注音符號字典編碼!G45</f>
         <v>X</v>
       </c>
       <c r="BQ45" s="107" t="str">
@@ -10178,23 +10470,23 @@
         <v>43</v>
       </c>
       <c r="BK46" s="39" t="str">
-        <f>注音符號字典編碼!C47</f>
+        <f>注音符號字典編碼!C46</f>
         <v>/</v>
       </c>
       <c r="BL46" s="247" t="str">
-        <f>注音符號字典編碼!D47</f>
+        <f>注音符號字典編碼!D46</f>
         <v>ㆭ</v>
       </c>
       <c r="BM46" s="276" t="str">
-        <f>注音符號字典編碼!E47</f>
+        <f>注音符號字典編碼!E46</f>
         <v>ㄥ</v>
       </c>
       <c r="BN46" s="197" t="str">
-        <f>注音符號字典編碼!F47</f>
+        <f>注音符號字典編碼!F46</f>
         <v>-ng</v>
       </c>
       <c r="BO46" s="269" t="str">
-        <f>注音符號字典編碼!G47</f>
+        <f>注音符號字典編碼!G46</f>
         <v>W</v>
       </c>
       <c r="BQ46" s="107" t="str">
@@ -10267,23 +10559,23 @@
         <v>44</v>
       </c>
       <c r="BK47" s="6" t="str">
-        <f>注音符號字典編碼!C48</f>
+        <f>注音符號字典編碼!C47</f>
         <v>A</v>
       </c>
       <c r="BL47" s="268" t="str">
-        <f>注音符號字典編碼!D48</f>
+        <f>注音符號字典編碼!D47</f>
         <v>ㆬ</v>
       </c>
       <c r="BM47" s="277" t="str">
-        <f>注音符號字典編碼!E48</f>
+        <f>注音符號字典編碼!E47</f>
         <v>ㄇ</v>
       </c>
       <c r="BN47" s="16" t="str">
-        <f>注音符號字典編碼!F48</f>
+        <f>注音符號字典編碼!F47</f>
         <v>-m</v>
       </c>
       <c r="BO47" s="5" t="str">
-        <f>注音符號字典編碼!G48</f>
+        <f>注音符號字典編碼!G47</f>
         <v>M</v>
       </c>
       <c r="BQ47" s="107" t="str">
@@ -10356,23 +10648,23 @@
         <v>45</v>
       </c>
       <c r="BK48" s="11" t="str">
-        <f>注音符號字典編碼!C49</f>
+        <f>注音符號字典編碼!C48</f>
         <v>p</v>
       </c>
       <c r="BL48" s="248" t="str">
-        <f>注音符號字典編碼!D49</f>
+        <f>注音符號字典編碼!D48</f>
         <v>ㄣ</v>
       </c>
       <c r="BM48" s="278">
-        <f>注音符號字典編碼!E49</f>
+        <f>注音符號字典編碼!E48</f>
         <v>0</v>
       </c>
       <c r="BN48" s="200" t="str">
-        <f>注音符號字典編碼!F49</f>
+        <f>注音符號字典編碼!F48</f>
         <v>-n</v>
       </c>
       <c r="BO48" s="10" t="str">
-        <f>注音符號字典編碼!G49</f>
+        <f>注音符號字典編碼!G48</f>
         <v>N</v>
       </c>
       <c r="BQ48" s="107" t="str">
@@ -10445,23 +10737,23 @@
         <v>46</v>
       </c>
       <c r="BK49" s="6" t="str">
-        <f>注音符號字典編碼!C50</f>
+        <f>注音符號字典編碼!C49</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="BL49" s="19" t="str">
-        <f>注音符號字典編碼!D50</f>
+        <f>注音符號字典編碼!D49</f>
         <v>ˉ</v>
       </c>
       <c r="BM49" s="271">
-        <f>注音符號字典編碼!E50</f>
+        <f>注音符號字典編碼!E49</f>
         <v>0</v>
       </c>
       <c r="BN49" s="13">
-        <f>注音符號字典編碼!F50</f>
+        <f>注音符號字典編碼!F49</f>
         <v>1</v>
       </c>
       <c r="BO49" s="5">
-        <f>注音符號字典編碼!G50</f>
+        <f>注音符號字典編碼!G49</f>
         <v>1</v>
       </c>
       <c r="BQ49" s="107" t="str">
@@ -10534,23 +10826,23 @@
         <v>47</v>
       </c>
       <c r="BK50" s="6">
-        <f>注音符號字典編碼!C51</f>
+        <f>注音符號字典編碼!C50</f>
         <v>4</v>
       </c>
       <c r="BL50" s="19" t="str">
-        <f>注音符號字典編碼!D51</f>
+        <f>注音符號字典編碼!D50</f>
         <v>ˋ</v>
       </c>
       <c r="BM50" s="271">
-        <f>注音符號字典編碼!E51</f>
+        <f>注音符號字典編碼!E50</f>
         <v>0</v>
       </c>
       <c r="BN50" s="13">
-        <f>注音符號字典編碼!F51</f>
+        <f>注音符號字典編碼!F50</f>
         <v>2</v>
       </c>
       <c r="BO50" s="5">
-        <f>注音符號字典編碼!G51</f>
+        <f>注音符號字典編碼!G50</f>
         <v>2</v>
       </c>
       <c r="BQ50" s="107" t="str">
@@ -10623,23 +10915,23 @@
         <v>48</v>
       </c>
       <c r="BK51" s="6">
-        <f>注音符號字典編碼!C52</f>
+        <f>注音符號字典編碼!C51</f>
         <v>3</v>
       </c>
       <c r="BL51" s="19" t="str">
-        <f>注音符號字典編碼!D52</f>
+        <f>注音符號字典編碼!D51</f>
         <v>_</v>
       </c>
       <c r="BM51" s="271">
-        <f>注音符號字典編碼!E52</f>
+        <f>注音符號字典編碼!E51</f>
         <v>0</v>
       </c>
       <c r="BN51" s="13">
-        <f>注音符號字典編碼!F52</f>
+        <f>注音符號字典編碼!F51</f>
         <v>3</v>
       </c>
       <c r="BO51" s="5">
-        <f>注音符號字典編碼!G52</f>
+        <f>注音符號字典編碼!G51</f>
         <v>3</v>
       </c>
     </row>
@@ -10708,23 +11000,23 @@
         <v>49</v>
       </c>
       <c r="BK52" s="6">
-        <f>注音符號字典編碼!C53</f>
+        <f>注音符號字典編碼!C52</f>
         <v>6</v>
       </c>
       <c r="BL52" s="19" t="str">
-        <f>注音符號字典編碼!D53</f>
+        <f>注音符號字典編碼!D52</f>
         <v>ˇ</v>
       </c>
-      <c r="BM52" s="271">
-        <f>注音符號字典編碼!E53</f>
-        <v>0</v>
+      <c r="BM52" s="271" t="str">
+        <f>注音符號字典編碼!E52</f>
+        <v>ˊ</v>
       </c>
       <c r="BN52" s="13">
-        <f>注音符號字典編碼!F53</f>
+        <f>注音符號字典編碼!F52</f>
         <v>5</v>
       </c>
       <c r="BO52" s="5">
-        <f>注音符號字典編碼!G53</f>
+        <f>注音符號字典編碼!G52</f>
         <v>5</v>
       </c>
     </row>
@@ -10793,23 +11085,23 @@
         <v>50</v>
       </c>
       <c r="BK53" s="6">
-        <f>注音符號字典編碼!C54</f>
+        <f>注音符號字典編碼!C53</f>
         <v>5</v>
       </c>
       <c r="BL53" s="267" t="str">
-        <f>注音符號字典編碼!D54</f>
+        <f>注音符號字典編碼!D53</f>
         <v>+</v>
       </c>
       <c r="BM53" s="271">
-        <f>注音符號字典編碼!E54</f>
+        <f>注音符號字典編碼!E53</f>
         <v>0</v>
       </c>
       <c r="BN53" s="13">
-        <f>注音符號字典編碼!F54</f>
+        <f>注音符號字典編碼!F53</f>
         <v>7</v>
       </c>
       <c r="BO53" s="5">
-        <f>注音符號字典編碼!G54</f>
+        <f>注音符號字典編碼!G53</f>
         <v>7</v>
       </c>
     </row>
@@ -10878,23 +11170,23 @@
         <v>51</v>
       </c>
       <c r="BK54" s="11">
-        <f>注音符號字典編碼!C55</f>
+        <f>注音符號字典編碼!C54</f>
         <v>7</v>
       </c>
       <c r="BL54" s="21" t="str">
-        <f>注音符號字典編碼!D55</f>
-        <v>˙</v>
+        <f>注音符號字典編碼!D54</f>
+        <v>ˊ</v>
       </c>
       <c r="BM54" s="273">
-        <f>注音符號字典編碼!E55</f>
+        <f>注音符號字典編碼!E54</f>
         <v>0</v>
       </c>
       <c r="BN54" s="15">
-        <f>注音符號字典編碼!F55</f>
+        <f>注音符號字典編碼!F54</f>
         <v>8</v>
       </c>
       <c r="BO54" s="10">
-        <f>注音符號字典編碼!G55</f>
+        <f>注音符號字典編碼!G54</f>
         <v>0</v>
       </c>
     </row>
@@ -11121,52 +11413,6 @@
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="T2:V2"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="AI2:AK2"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="U5:W5"/>
-    <mergeCell ref="X5:Z5"/>
-    <mergeCell ref="AA5:AC5"/>
-    <mergeCell ref="AD5:AF5"/>
-    <mergeCell ref="R5:T5"/>
-    <mergeCell ref="V8:X8"/>
-    <mergeCell ref="Y8:AA8"/>
-    <mergeCell ref="AB8:AD8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="AH10:AI10"/>
-    <mergeCell ref="AM5:AO5"/>
-    <mergeCell ref="AG7:AH7"/>
-    <mergeCell ref="AJ7:AK7"/>
-    <mergeCell ref="AM7:AN7"/>
-    <mergeCell ref="AG5:AI5"/>
-    <mergeCell ref="AJ5:AL5"/>
-    <mergeCell ref="AE8:AG8"/>
-    <mergeCell ref="AH8:AJ8"/>
     <mergeCell ref="W11:Y11"/>
     <mergeCell ref="Z11:AB11"/>
     <mergeCell ref="AC11:AE11"/>
@@ -11177,6 +11423,52 @@
     <mergeCell ref="N11:P11"/>
     <mergeCell ref="Q11:S11"/>
     <mergeCell ref="T11:V11"/>
+    <mergeCell ref="AH10:AI10"/>
+    <mergeCell ref="AM5:AO5"/>
+    <mergeCell ref="AG7:AH7"/>
+    <mergeCell ref="AJ7:AK7"/>
+    <mergeCell ref="AM7:AN7"/>
+    <mergeCell ref="AG5:AI5"/>
+    <mergeCell ref="AJ5:AL5"/>
+    <mergeCell ref="AE8:AG8"/>
+    <mergeCell ref="AH8:AJ8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="U5:W5"/>
+    <mergeCell ref="X5:Z5"/>
+    <mergeCell ref="AA5:AC5"/>
+    <mergeCell ref="AD5:AF5"/>
+    <mergeCell ref="R5:T5"/>
+    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="Y8:AA8"/>
+    <mergeCell ref="AB8:AD8"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="AI2:AK2"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:P2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11187,8 +11479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86FD1CD5-4651-439A-98A6-5245A83D236D}">
   <dimension ref="B1:AO64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="32.25" outlineLevelCol="1"/>
@@ -11366,7 +11658,7 @@
     </row>
     <row r="5" spans="2:41" ht="33" thickTop="1">
       <c r="B5" s="47">
-        <f t="shared" ref="B5:B49" si="1" xml:space="preserve"> ROW() - 4</f>
+        <f t="shared" ref="B5:B48" si="1" xml:space="preserve"> ROW() - 4</f>
         <v>1</v>
       </c>
       <c r="C5" s="6">
@@ -11389,15 +11681,15 @@
         <v>1</v>
       </c>
       <c r="K5" s="20" t="str" cm="1">
-        <f t="array" ref="K5" xml:space="preserve"> IFERROR( INDEX($D$5:$D$64, MATCH(TRUE, EXACT($J5, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="K5" xml:space="preserve"> IFERROR( INDEX($D$5:$D$63, MATCH(TRUE, EXACT($J5, $C$5:$C$63),0)), "")</f>
         <v>ㄅ</v>
       </c>
       <c r="L5" s="14" t="str" cm="1">
-        <f t="array" ref="L5" xml:space="preserve"> IFERROR( INDEX($F$5:$F$64, MATCH(TRUE, EXACT($J5, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="L5" xml:space="preserve"> IFERROR( INDEX($F$5:$F$63, MATCH(TRUE, EXACT($J5, $C$5:$C$63),0)), "")</f>
         <v>p</v>
       </c>
       <c r="M5" s="34" t="str" cm="1">
-        <f t="array" ref="M5" xml:space="preserve"> IFERROR( INDEX($G$5:$G$64, MATCH(TRUE, EXACT($J5, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="M5" xml:space="preserve"> IFERROR( INDEX($G$5:$G$63, MATCH(TRUE, EXACT($J5, $C$5:$C$63),0)), "")</f>
         <v>p</v>
       </c>
       <c r="O5" s="30">
@@ -11407,15 +11699,15 @@
         <v>268</v>
       </c>
       <c r="Q5" s="20" t="str" cm="1">
-        <f t="array" ref="Q5" xml:space="preserve"> IFERROR( INDEX($D$5:$D$64, MATCH(TRUE, EXACT($P5, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="Q5" xml:space="preserve"> IFERROR( INDEX($D$5:$D$63, MATCH(TRUE, EXACT($P5, $C$5:$C$63),0)), "")</f>
         <v>ㆠ</v>
       </c>
       <c r="R5" s="14" t="str" cm="1">
-        <f t="array" ref="R5" xml:space="preserve"> IFERROR( INDEX($F$5:$F$64, MATCH(TRUE, EXACT($P5, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="R5" xml:space="preserve"> IFERROR( INDEX($F$5:$F$63, MATCH(TRUE, EXACT($P5, $C$5:$C$63),0)), "")</f>
         <v>b</v>
       </c>
       <c r="S5" s="34" t="str" cm="1">
-        <f t="array" ref="S5" xml:space="preserve"> IFERROR( INDEX($G$5:$G$64, MATCH(TRUE, EXACT($P5, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="S5" xml:space="preserve"> IFERROR( INDEX($G$5:$G$63, MATCH(TRUE, EXACT($P5, $C$5:$C$63),0)), "")</f>
         <v>b</v>
       </c>
       <c r="U5" s="3">
@@ -11477,15 +11769,15 @@
         <v>150</v>
       </c>
       <c r="K6" s="19" t="str" cm="1">
-        <f t="array" ref="K6" xml:space="preserve"> IFERROR( INDEX($D$5:$D$64, MATCH(TRUE, EXACT($J6, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="K6" xml:space="preserve"> IFERROR( INDEX($D$5:$D$63, MATCH(TRUE, EXACT($J6, $C$5:$C$63),0)), "")</f>
         <v>ㄆ</v>
       </c>
       <c r="L6" s="13" t="str" cm="1">
-        <f t="array" ref="L6" xml:space="preserve"> IFERROR( INDEX($F$5:$F$64, MATCH(TRUE, EXACT($J6, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="L6" xml:space="preserve"> IFERROR( INDEX($F$5:$F$63, MATCH(TRUE, EXACT($J6, $C$5:$C$63),0)), "")</f>
         <v>ph</v>
       </c>
       <c r="M6" s="35" t="str" cm="1">
-        <f t="array" ref="M6" xml:space="preserve"> IFERROR( INDEX($G$5:$G$64, MATCH(TRUE, EXACT($J6, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="M6" xml:space="preserve"> IFERROR( INDEX($G$5:$G$63, MATCH(TRUE, EXACT($J6, $C$5:$C$63),0)), "")</f>
         <v>P</v>
       </c>
       <c r="O6" s="31">
@@ -11496,15 +11788,15 @@
         <v>266</v>
       </c>
       <c r="Q6" s="19" t="str" cm="1">
-        <f t="array" ref="Q6" xml:space="preserve"> IFERROR( INDEX($D$5:$D$64, MATCH(TRUE, EXACT($P6, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="Q6" xml:space="preserve"> IFERROR( INDEX($D$5:$D$63, MATCH(TRUE, EXACT($P6, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="R6" s="13" t="str" cm="1">
-        <f t="array" ref="R6" xml:space="preserve"> IFERROR( INDEX($F$5:$F$64, MATCH(TRUE, EXACT($P6, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="R6" xml:space="preserve"> IFERROR( INDEX($F$5:$F$63, MATCH(TRUE, EXACT($P6, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="S6" s="35" t="str" cm="1">
-        <f t="array" ref="S6" xml:space="preserve"> IFERROR( INDEX($G$5:$G$64, MATCH(TRUE, EXACT($P6, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="S6" xml:space="preserve"> IFERROR( INDEX($G$5:$G$63, MATCH(TRUE, EXACT($P6, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="U6" s="3">
@@ -11565,15 +11857,15 @@
         <v>123</v>
       </c>
       <c r="K7" s="19" t="str" cm="1">
-        <f t="array" ref="K7" xml:space="preserve"> IFERROR( INDEX($D$5:$D$64, MATCH(TRUE, EXACT($J7, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="K7" xml:space="preserve"> IFERROR( INDEX($D$5:$D$63, MATCH(TRUE, EXACT($J7, $C$5:$C$63),0)), "")</f>
         <v>ㄇ</v>
       </c>
       <c r="L7" s="13" t="str" cm="1">
-        <f t="array" ref="L7" xml:space="preserve"> IFERROR( INDEX($F$5:$F$64, MATCH(TRUE, EXACT($J7, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="L7" xml:space="preserve"> IFERROR( INDEX($F$5:$F$63, MATCH(TRUE, EXACT($J7, $C$5:$C$63),0)), "")</f>
         <v>m-</v>
       </c>
       <c r="M7" s="36" t="str" cm="1">
-        <f t="array" ref="M7" xml:space="preserve"> IFERROR( INDEX($G$5:$G$64, MATCH(TRUE, EXACT($J7, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="M7" xml:space="preserve"> IFERROR( INDEX($G$5:$G$63, MATCH(TRUE, EXACT($J7, $C$5:$C$63),0)), "")</f>
         <v>m</v>
       </c>
       <c r="O7" s="31">
@@ -11584,15 +11876,15 @@
         <v>157</v>
       </c>
       <c r="Q7" s="19" t="str" cm="1">
-        <f t="array" ref="Q7" xml:space="preserve"> IFERROR( INDEX($D$5:$D$64, MATCH(TRUE, EXACT($P7, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="Q7" xml:space="preserve"> IFERROR( INDEX($D$5:$D$63, MATCH(TRUE, EXACT($P7, $C$5:$C$63),0)), "")</f>
         <v>ㆬ</v>
       </c>
       <c r="R7" s="13" t="str" cm="1">
-        <f t="array" ref="R7" xml:space="preserve"> IFERROR( INDEX($F$5:$F$64, MATCH(TRUE, EXACT($P7, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="R7" xml:space="preserve"> IFERROR( INDEX($F$5:$F$63, MATCH(TRUE, EXACT($P7, $C$5:$C$63),0)), "")</f>
         <v>-m</v>
       </c>
       <c r="S7" s="36" t="str" cm="1">
-        <f t="array" ref="S7" xml:space="preserve"> IFERROR( INDEX($G$5:$G$64, MATCH(TRUE, EXACT($P7, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="S7" xml:space="preserve"> IFERROR( INDEX($G$5:$G$63, MATCH(TRUE, EXACT($P7, $C$5:$C$63),0)), "")</f>
         <v>M</v>
       </c>
       <c r="U7" s="3">
@@ -11651,15 +11943,15 @@
         <v>151</v>
       </c>
       <c r="K8" s="21" t="str" cm="1">
-        <f t="array" ref="K8" xml:space="preserve"> IFERROR( INDEX($D$5:$D$64, MATCH(TRUE, EXACT($J8, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="K8" xml:space="preserve"> IFERROR( INDEX($D$5:$D$63, MATCH(TRUE, EXACT($J8, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="L8" s="15" t="str" cm="1">
-        <f t="array" ref="L8" xml:space="preserve"> IFERROR( INDEX($F$5:$F$64, MATCH(TRUE, EXACT($J8, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="L8" xml:space="preserve"> IFERROR( INDEX($F$5:$F$63, MATCH(TRUE, EXACT($J8, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="M8" s="37" t="str" cm="1">
-        <f t="array" ref="M8" xml:space="preserve"> IFERROR( INDEX($G$5:$G$64, MATCH(TRUE, EXACT($J8, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="M8" xml:space="preserve"> IFERROR( INDEX($G$5:$G$63, MATCH(TRUE, EXACT($J8, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="O8" s="32">
@@ -11670,15 +11962,15 @@
         <v>153</v>
       </c>
       <c r="Q8" s="21" t="str" cm="1">
-        <f t="array" ref="Q8" xml:space="preserve"> IFERROR( INDEX($D$5:$D$64, MATCH(TRUE, EXACT($P8, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="Q8" xml:space="preserve"> IFERROR( INDEX($D$5:$D$63, MATCH(TRUE, EXACT($P8, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="R8" s="15" t="str" cm="1">
-        <f t="array" ref="R8" xml:space="preserve"> IFERROR( INDEX($F$5:$F$64, MATCH(TRUE, EXACT($P8, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="R8" xml:space="preserve"> IFERROR( INDEX($F$5:$F$63, MATCH(TRUE, EXACT($P8, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="S8" s="37" t="str" cm="1">
-        <f t="array" ref="S8" xml:space="preserve"> IFERROR( INDEX($G$5:$G$64, MATCH(TRUE, EXACT($P8, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="S8" xml:space="preserve"> IFERROR( INDEX($G$5:$G$63, MATCH(TRUE, EXACT($P8, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="U8" s="3">
@@ -11731,15 +12023,15 @@
         <v>2</v>
       </c>
       <c r="K9" s="20" t="str" cm="1">
-        <f t="array" ref="K9" xml:space="preserve"> IFERROR( INDEX($D$5:$D$64, MATCH(TRUE, EXACT($J9, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="K9" xml:space="preserve"> IFERROR( INDEX($D$5:$D$63, MATCH(TRUE, EXACT($J9, $C$5:$C$63),0)), "")</f>
         <v>ㄉ</v>
       </c>
       <c r="L9" s="14" t="str" cm="1">
-        <f t="array" ref="L9" xml:space="preserve"> IFERROR( INDEX($F$5:$F$64, MATCH(TRUE, EXACT($J9, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="L9" xml:space="preserve"> IFERROR( INDEX($F$5:$F$63, MATCH(TRUE, EXACT($J9, $C$5:$C$63),0)), "")</f>
         <v>t</v>
       </c>
       <c r="M9" s="34" t="str" cm="1">
-        <f t="array" ref="M9" xml:space="preserve"> IFERROR( INDEX($G$5:$G$64, MATCH(TRUE, EXACT($J9, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="M9" xml:space="preserve"> IFERROR( INDEX($G$5:$G$63, MATCH(TRUE, EXACT($J9, $C$5:$C$63),0)), "")</f>
         <v>t</v>
       </c>
       <c r="O9" s="30">
@@ -11750,15 +12042,15 @@
         <v>297</v>
       </c>
       <c r="Q9" s="20" t="str" cm="1">
-        <f t="array" ref="Q9" xml:space="preserve"> IFERROR( INDEX($D$5:$D$64, MATCH(TRUE, EXACT($P9, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="Q9" xml:space="preserve"> IFERROR( INDEX($D$5:$D$63, MATCH(TRUE, EXACT($P9, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="R9" s="14" t="str" cm="1">
-        <f t="array" ref="R9" xml:space="preserve"> IFERROR( INDEX($F$5:$F$64, MATCH(TRUE, EXACT($P9, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="R9" xml:space="preserve"> IFERROR( INDEX($F$5:$F$63, MATCH(TRUE, EXACT($P9, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="S9" s="34" t="str" cm="1">
-        <f t="array" ref="S9" xml:space="preserve"> IFERROR( INDEX($G$5:$G$64, MATCH(TRUE, EXACT($P9, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="S9" xml:space="preserve"> IFERROR( INDEX($G$5:$G$63, MATCH(TRUE, EXACT($P9, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="U9" s="3">
@@ -11818,15 +12110,15 @@
         <v>173</v>
       </c>
       <c r="K10" s="19" t="str" cm="1">
-        <f t="array" ref="K10" xml:space="preserve"> IFERROR( INDEX($D$5:$D$64, MATCH(TRUE, EXACT($J10, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="K10" xml:space="preserve"> IFERROR( INDEX($D$5:$D$63, MATCH(TRUE, EXACT($J10, $C$5:$C$63),0)), "")</f>
         <v>ㄊ</v>
       </c>
       <c r="L10" s="13" t="str" cm="1">
-        <f t="array" ref="L10" xml:space="preserve"> IFERROR( INDEX($F$5:$F$64, MATCH(TRUE, EXACT($J10, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="L10" xml:space="preserve"> IFERROR( INDEX($F$5:$F$63, MATCH(TRUE, EXACT($J10, $C$5:$C$63),0)), "")</f>
         <v>th</v>
       </c>
       <c r="M10" s="35" t="str" cm="1">
-        <f t="array" ref="M10" xml:space="preserve"> IFERROR( INDEX($G$5:$G$64, MATCH(TRUE, EXACT($J10, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="M10" xml:space="preserve"> IFERROR( INDEX($G$5:$G$63, MATCH(TRUE, EXACT($J10, $C$5:$C$63),0)), "")</f>
         <v>T</v>
       </c>
       <c r="O10" s="31">
@@ -11837,15 +12129,15 @@
         <v>263</v>
       </c>
       <c r="Q10" s="19" t="str" cm="1">
-        <f t="array" ref="Q10" xml:space="preserve"> IFERROR( INDEX($D$5:$D$64, MATCH(TRUE, EXACT($P10, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="Q10" xml:space="preserve"> IFERROR( INDEX($D$5:$D$63, MATCH(TRUE, EXACT($P10, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="R10" s="13" t="str" cm="1">
-        <f t="array" ref="R10" xml:space="preserve"> IFERROR( INDEX($F$5:$F$64, MATCH(TRUE, EXACT($P10, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="R10" xml:space="preserve"> IFERROR( INDEX($F$5:$F$63, MATCH(TRUE, EXACT($P10, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="S10" s="35" t="str" cm="1">
-        <f t="array" ref="S10" xml:space="preserve"> IFERROR( INDEX($G$5:$G$64, MATCH(TRUE, EXACT($P10, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="S10" xml:space="preserve"> IFERROR( INDEX($G$5:$G$63, MATCH(TRUE, EXACT($P10, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="U10" s="3">
@@ -11904,15 +12196,15 @@
         <v>122</v>
       </c>
       <c r="K11" s="19" t="str" cm="1">
-        <f t="array" ref="K11" xml:space="preserve"> IFERROR( INDEX($D$5:$D$64, MATCH(TRUE, EXACT($J11, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="K11" xml:space="preserve"> IFERROR( INDEX($D$5:$D$63, MATCH(TRUE, EXACT($J11, $C$5:$C$63),0)), "")</f>
         <v>ㄋ</v>
       </c>
       <c r="L11" s="13" t="str" cm="1">
-        <f t="array" ref="L11" xml:space="preserve"> IFERROR( INDEX($F$5:$F$64, MATCH(TRUE, EXACT($J11, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="L11" xml:space="preserve"> IFERROR( INDEX($F$5:$F$63, MATCH(TRUE, EXACT($J11, $C$5:$C$63),0)), "")</f>
         <v>n</v>
       </c>
       <c r="M11" s="36" t="str" cm="1">
-        <f t="array" ref="M11" xml:space="preserve"> IFERROR( INDEX($G$5:$G$64, MATCH(TRUE, EXACT($J11, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="M11" xml:space="preserve"> IFERROR( INDEX($G$5:$G$63, MATCH(TRUE, EXACT($J11, $C$5:$C$63),0)), "")</f>
         <v>n</v>
       </c>
       <c r="O11" s="31">
@@ -11923,15 +12215,15 @@
         <v>276</v>
       </c>
       <c r="Q11" s="19" t="str" cm="1">
-        <f t="array" ref="Q11" xml:space="preserve"> IFERROR( INDEX($D$5:$D$64, MATCH(TRUE, EXACT($P11, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="Q11" xml:space="preserve"> IFERROR( INDEX($D$5:$D$63, MATCH(TRUE, EXACT($P11, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="R11" s="13" t="str" cm="1">
-        <f t="array" ref="R11" xml:space="preserve"> IFERROR( INDEX($F$5:$F$64, MATCH(TRUE, EXACT($P11, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="R11" xml:space="preserve"> IFERROR( INDEX($F$5:$F$63, MATCH(TRUE, EXACT($P11, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="S11" s="36" t="str" cm="1">
-        <f t="array" ref="S11" xml:space="preserve"> IFERROR( INDEX($G$5:$G$64, MATCH(TRUE, EXACT($P11, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="S11" xml:space="preserve"> IFERROR( INDEX($G$5:$G$63, MATCH(TRUE, EXACT($P11, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="U11" s="3">
@@ -11992,15 +12284,15 @@
         <v>174</v>
       </c>
       <c r="K12" s="21" t="str" cm="1">
-        <f t="array" ref="K12" xml:space="preserve"> IFERROR( INDEX($D$5:$D$64, MATCH(TRUE, EXACT($J12, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="K12" xml:space="preserve"> IFERROR( INDEX($D$5:$D$63, MATCH(TRUE, EXACT($J12, $C$5:$C$63),0)), "")</f>
         <v>ㄌ</v>
       </c>
       <c r="L12" s="15" t="str" cm="1">
-        <f t="array" ref="L12" xml:space="preserve"> IFERROR( INDEX($F$5:$F$64, MATCH(TRUE, EXACT($J12, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="L12" xml:space="preserve"> IFERROR( INDEX($F$5:$F$63, MATCH(TRUE, EXACT($J12, $C$5:$C$63),0)), "")</f>
         <v>l</v>
       </c>
       <c r="M12" s="37" t="str" cm="1">
-        <f t="array" ref="M12" xml:space="preserve"> IFERROR( INDEX($G$5:$G$64, MATCH(TRUE, EXACT($J12, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="M12" xml:space="preserve"> IFERROR( INDEX($G$5:$G$63, MATCH(TRUE, EXACT($J12, $C$5:$C$63),0)), "")</f>
         <v>l</v>
       </c>
       <c r="O12" s="32">
@@ -12011,15 +12303,15 @@
         <v>273</v>
       </c>
       <c r="Q12" s="21" t="str" cm="1">
-        <f t="array" ref="Q12" xml:space="preserve"> IFERROR( INDEX($D$5:$D$64, MATCH(TRUE, EXACT($P12, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="Q12" xml:space="preserve"> IFERROR( INDEX($D$5:$D$63, MATCH(TRUE, EXACT($P12, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="R12" s="15" t="str" cm="1">
-        <f t="array" ref="R12" xml:space="preserve"> IFERROR( INDEX($F$5:$F$64, MATCH(TRUE, EXACT($P12, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="R12" xml:space="preserve"> IFERROR( INDEX($F$5:$F$63, MATCH(TRUE, EXACT($P12, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="S12" s="37" t="str" cm="1">
-        <f t="array" ref="S12" xml:space="preserve"> IFERROR( INDEX($G$5:$G$64, MATCH(TRUE, EXACT($P12, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="S12" xml:space="preserve"> IFERROR( INDEX($G$5:$G$63, MATCH(TRUE, EXACT($P12, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="U12" s="3">
@@ -12072,15 +12364,15 @@
         <v>3</v>
       </c>
       <c r="K13" s="20" t="str" cm="1">
-        <f t="array" ref="K13" xml:space="preserve"> IFERROR( INDEX($D$5:$D$64, MATCH(TRUE, EXACT($J13, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="K13" xml:space="preserve"> IFERROR( INDEX($D$5:$D$63, MATCH(TRUE, EXACT($J13, $C$5:$C$63),0)), "")</f>
         <v>_</v>
       </c>
       <c r="L13" s="14" cm="1">
-        <f t="array" ref="L13" xml:space="preserve"> IFERROR( INDEX($F$5:$F$64, MATCH(TRUE, EXACT($J13, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="L13" xml:space="preserve"> IFERROR( INDEX($F$5:$F$63, MATCH(TRUE, EXACT($J13, $C$5:$C$63),0)), "")</f>
         <v>3</v>
       </c>
       <c r="M13" s="34" cm="1">
-        <f t="array" ref="M13" xml:space="preserve"> IFERROR( INDEX($G$5:$G$64, MATCH(TRUE, EXACT($J13, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="M13" xml:space="preserve"> IFERROR( INDEX($G$5:$G$63, MATCH(TRUE, EXACT($J13, $C$5:$C$63),0)), "")</f>
         <v>3</v>
       </c>
       <c r="O13" s="30">
@@ -12091,15 +12383,15 @@
         <v>298</v>
       </c>
       <c r="Q13" s="20" t="str" cm="1">
-        <f t="array" ref="Q13" xml:space="preserve"> IFERROR( INDEX($D$5:$D$64, MATCH(TRUE, EXACT($P13, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="Q13" xml:space="preserve"> IFERROR( INDEX($D$5:$D$63, MATCH(TRUE, EXACT($P13, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="R13" s="14" t="str" cm="1">
-        <f t="array" ref="R13" xml:space="preserve"> IFERROR( INDEX($F$5:$F$64, MATCH(TRUE, EXACT($P13, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="R13" xml:space="preserve"> IFERROR( INDEX($F$5:$F$63, MATCH(TRUE, EXACT($P13, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="S13" s="34" t="str" cm="1">
-        <f t="array" ref="S13" xml:space="preserve"> IFERROR( INDEX($G$5:$G$64, MATCH(TRUE, EXACT($P13, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="S13" xml:space="preserve"> IFERROR( INDEX($G$5:$G$63, MATCH(TRUE, EXACT($P13, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="U13" s="3">
@@ -12162,15 +12454,15 @@
         <v>125</v>
       </c>
       <c r="K14" s="19" t="str" cm="1">
-        <f t="array" ref="K14" xml:space="preserve"> IFERROR( INDEX($D$5:$D$64, MATCH(TRUE, EXACT($J14, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="K14" xml:space="preserve"> IFERROR( INDEX($D$5:$D$63, MATCH(TRUE, EXACT($J14, $C$5:$C$63),0)), "")</f>
         <v>ㄍ</v>
       </c>
       <c r="L14" s="13" t="str" cm="1">
-        <f t="array" ref="L14" xml:space="preserve"> IFERROR( INDEX($F$5:$F$64, MATCH(TRUE, EXACT($J14, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="L14" xml:space="preserve"> IFERROR( INDEX($F$5:$F$63, MATCH(TRUE, EXACT($J14, $C$5:$C$63),0)), "")</f>
         <v>k</v>
       </c>
       <c r="M14" s="35" t="str" cm="1">
-        <f t="array" ref="M14" xml:space="preserve"> IFERROR( INDEX($G$5:$G$64, MATCH(TRUE, EXACT($J14, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="M14" xml:space="preserve"> IFERROR( INDEX($G$5:$G$63, MATCH(TRUE, EXACT($J14, $C$5:$C$63),0)), "")</f>
         <v>k</v>
       </c>
       <c r="O14" s="31">
@@ -12181,15 +12473,15 @@
         <v>272</v>
       </c>
       <c r="Q14" s="19" t="str" cm="1">
-        <f t="array" ref="Q14" xml:space="preserve"> IFERROR( INDEX($D$5:$D$64, MATCH(TRUE, EXACT($P14, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="Q14" xml:space="preserve"> IFERROR( INDEX($D$5:$D$63, MATCH(TRUE, EXACT($P14, $C$5:$C$63),0)), "")</f>
         <v>ㆣ</v>
       </c>
       <c r="R14" s="13" t="str" cm="1">
-        <f t="array" ref="R14" xml:space="preserve"> IFERROR( INDEX($F$5:$F$64, MATCH(TRUE, EXACT($P14, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="R14" xml:space="preserve"> IFERROR( INDEX($F$5:$F$63, MATCH(TRUE, EXACT($P14, $C$5:$C$63),0)), "")</f>
         <v>g</v>
       </c>
       <c r="S14" s="35" t="str" cm="1">
-        <f t="array" ref="S14" xml:space="preserve"> IFERROR( INDEX($G$5:$G$64, MATCH(TRUE, EXACT($P14, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="S14" xml:space="preserve"> IFERROR( INDEX($G$5:$G$63, MATCH(TRUE, EXACT($P14, $C$5:$C$63),0)), "")</f>
         <v>g</v>
       </c>
       <c r="U14" s="3">
@@ -12248,15 +12540,15 @@
         <v>148</v>
       </c>
       <c r="K15" s="19" t="str" cm="1">
-        <f t="array" ref="K15" xml:space="preserve"> IFERROR( INDEX($D$5:$D$64, MATCH(TRUE, EXACT($J15, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="K15" xml:space="preserve"> IFERROR( INDEX($D$5:$D$63, MATCH(TRUE, EXACT($J15, $C$5:$C$63),0)), "")</f>
         <v>ㄎ</v>
       </c>
       <c r="L15" s="13" t="str" cm="1">
-        <f t="array" ref="L15" xml:space="preserve"> IFERROR( INDEX($F$5:$F$64, MATCH(TRUE, EXACT($J15, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="L15" xml:space="preserve"> IFERROR( INDEX($F$5:$F$63, MATCH(TRUE, EXACT($J15, $C$5:$C$63),0)), "")</f>
         <v>kh</v>
       </c>
       <c r="M15" s="36" t="str" cm="1">
-        <f t="array" ref="M15" xml:space="preserve"> IFERROR( INDEX($G$5:$G$64, MATCH(TRUE, EXACT($J15, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="M15" xml:space="preserve"> IFERROR( INDEX($G$5:$G$63, MATCH(TRUE, EXACT($J15, $C$5:$C$63),0)), "")</f>
         <v>K</v>
       </c>
       <c r="O15" s="31">
@@ -12267,15 +12559,15 @@
         <v>178</v>
       </c>
       <c r="Q15" s="19" t="str" cm="1">
-        <f t="array" ref="Q15" xml:space="preserve"> IFERROR( INDEX($D$5:$D$64, MATCH(TRUE, EXACT($P15, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="Q15" xml:space="preserve"> IFERROR( INDEX($D$5:$D$63, MATCH(TRUE, EXACT($P15, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="R15" s="13" t="str" cm="1">
-        <f t="array" ref="R15" xml:space="preserve"> IFERROR( INDEX($F$5:$F$64, MATCH(TRUE, EXACT($P15, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="R15" xml:space="preserve"> IFERROR( INDEX($F$5:$F$63, MATCH(TRUE, EXACT($P15, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="S15" s="36" t="str" cm="1">
-        <f t="array" ref="S15" xml:space="preserve"> IFERROR( INDEX($G$5:$G$64, MATCH(TRUE, EXACT($P15, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="S15" xml:space="preserve"> IFERROR( INDEX($G$5:$G$63, MATCH(TRUE, EXACT($P15, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="U15" s="3">
@@ -12336,15 +12628,15 @@
         <v>152</v>
       </c>
       <c r="K16" s="21" t="str" cm="1">
-        <f t="array" ref="K16" xml:space="preserve"> IFERROR( INDEX($D$5:$D$64, MATCH(TRUE, EXACT($J16, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="K16" xml:space="preserve"> IFERROR( INDEX($D$5:$D$63, MATCH(TRUE, EXACT($J16, $C$5:$C$63),0)), "")</f>
         <v>ㄏ</v>
       </c>
       <c r="L16" s="15" t="str" cm="1">
-        <f t="array" ref="L16" xml:space="preserve"> IFERROR( INDEX($F$5:$F$64, MATCH(TRUE, EXACT($J16, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="L16" xml:space="preserve"> IFERROR( INDEX($F$5:$F$63, MATCH(TRUE, EXACT($J16, $C$5:$C$63),0)), "")</f>
         <v>h</v>
       </c>
       <c r="M16" s="37" t="str" cm="1">
-        <f t="array" ref="M16" xml:space="preserve"> IFERROR( INDEX($G$5:$G$64, MATCH(TRUE, EXACT($J16, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="M16" xml:space="preserve"> IFERROR( INDEX($G$5:$G$63, MATCH(TRUE, EXACT($J16, $C$5:$C$63),0)), "")</f>
         <v>h</v>
       </c>
       <c r="O16" s="32">
@@ -12355,15 +12647,15 @@
         <v>166</v>
       </c>
       <c r="Q16" s="21" t="str" cm="1">
-        <f t="array" ref="Q16" xml:space="preserve"> IFERROR( INDEX($D$5:$D$64, MATCH(TRUE, EXACT($P16, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="Q16" xml:space="preserve"> IFERROR( INDEX($D$5:$D$63, MATCH(TRUE, EXACT($P16, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="R16" s="15" t="str" cm="1">
-        <f t="array" ref="R16" xml:space="preserve"> IFERROR( INDEX($F$5:$F$64, MATCH(TRUE, EXACT($P16, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="R16" xml:space="preserve"> IFERROR( INDEX($F$5:$F$63, MATCH(TRUE, EXACT($P16, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="S16" s="37" t="str" cm="1">
-        <f t="array" ref="S16" xml:space="preserve"> IFERROR( INDEX($G$5:$G$64, MATCH(TRUE, EXACT($P16, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="S16" xml:space="preserve"> IFERROR( INDEX($G$5:$G$63, MATCH(TRUE, EXACT($P16, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="U16" s="3">
@@ -12416,15 +12708,15 @@
         <v>4</v>
       </c>
       <c r="K17" s="20" t="str" cm="1">
-        <f t="array" ref="K17" xml:space="preserve"> IFERROR( INDEX($D$5:$D$64, MATCH(TRUE, EXACT($J17, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="K17" xml:space="preserve"> IFERROR( INDEX($D$5:$D$63, MATCH(TRUE, EXACT($J17, $C$5:$C$63),0)), "")</f>
         <v>ˋ</v>
       </c>
       <c r="L17" s="14" cm="1">
-        <f t="array" ref="L17" xml:space="preserve"> IFERROR( INDEX($F$5:$F$64, MATCH(TRUE, EXACT($J17, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="L17" xml:space="preserve"> IFERROR( INDEX($F$5:$F$63, MATCH(TRUE, EXACT($J17, $C$5:$C$63),0)), "")</f>
         <v>2</v>
       </c>
       <c r="M17" s="34" cm="1">
-        <f t="array" ref="M17" xml:space="preserve"> IFERROR( INDEX($G$5:$G$64, MATCH(TRUE, EXACT($J17, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="M17" xml:space="preserve"> IFERROR( INDEX($G$5:$G$63, MATCH(TRUE, EXACT($J17, $C$5:$C$63),0)), "")</f>
         <v>2</v>
       </c>
       <c r="O17" s="30">
@@ -12435,15 +12727,15 @@
         <v>299</v>
       </c>
       <c r="Q17" s="20" t="str" cm="1">
-        <f t="array" ref="Q17" xml:space="preserve"> IFERROR( INDEX($D$5:$D$64, MATCH(TRUE, EXACT($P17, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="Q17" xml:space="preserve"> IFERROR( INDEX($D$5:$D$63, MATCH(TRUE, EXACT($P17, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="R17" s="14" t="str" cm="1">
-        <f t="array" ref="R17" xml:space="preserve"> IFERROR( INDEX($F$5:$F$64, MATCH(TRUE, EXACT($P17, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="R17" xml:space="preserve"> IFERROR( INDEX($F$5:$F$63, MATCH(TRUE, EXACT($P17, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="S17" s="34" t="str" cm="1">
-        <f t="array" ref="S17" xml:space="preserve"> IFERROR( INDEX($G$5:$G$64, MATCH(TRUE, EXACT($P17, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="S17" xml:space="preserve"> IFERROR( INDEX($G$5:$G$63, MATCH(TRUE, EXACT($P17, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="U17" s="3">
@@ -12496,15 +12788,15 @@
         <v>279</v>
       </c>
       <c r="K18" s="19" t="str" cm="1">
-        <f t="array" ref="K18" xml:space="preserve"> IFERROR( INDEX($D$5:$D$64, MATCH(TRUE, EXACT($J18, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="K18" xml:space="preserve"> IFERROR( INDEX($D$5:$D$63, MATCH(TRUE, EXACT($J18, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="L18" s="13" t="str" cm="1">
-        <f t="array" ref="L18" xml:space="preserve"> IFERROR( INDEX($F$5:$F$64, MATCH(TRUE, EXACT($J18, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="L18" xml:space="preserve"> IFERROR( INDEX($F$5:$F$63, MATCH(TRUE, EXACT($J18, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="M18" s="35" t="str" cm="1">
-        <f t="array" ref="M18" xml:space="preserve"> IFERROR( INDEX($G$5:$G$64, MATCH(TRUE, EXACT($J18, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="M18" xml:space="preserve"> IFERROR( INDEX($G$5:$G$63, MATCH(TRUE, EXACT($J18, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="O18" s="31">
@@ -12515,15 +12807,15 @@
         <v>274</v>
       </c>
       <c r="Q18" s="19" t="str" cm="1">
-        <f t="array" ref="Q18" xml:space="preserve"> IFERROR( INDEX($D$5:$D$64, MATCH(TRUE, EXACT($P18, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="Q18" xml:space="preserve"> IFERROR( INDEX($D$5:$D$63, MATCH(TRUE, EXACT($P18, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="R18" s="13" t="str" cm="1">
-        <f t="array" ref="R18" xml:space="preserve"> IFERROR( INDEX($F$5:$F$64, MATCH(TRUE, EXACT($P18, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="R18" xml:space="preserve"> IFERROR( INDEX($F$5:$F$63, MATCH(TRUE, EXACT($P18, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="S18" s="35" t="str" cm="1">
-        <f t="array" ref="S18" xml:space="preserve"> IFERROR( INDEX($G$5:$G$64, MATCH(TRUE, EXACT($P18, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="S18" xml:space="preserve"> IFERROR( INDEX($G$5:$G$63, MATCH(TRUE, EXACT($P18, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="U18" s="3">
@@ -12576,15 +12868,15 @@
         <v>280</v>
       </c>
       <c r="K19" s="19" t="str" cm="1">
-        <f t="array" ref="K19" xml:space="preserve"> IFERROR( INDEX($D$5:$D$64, MATCH(TRUE, EXACT($J19, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="K19" xml:space="preserve"> IFERROR( INDEX($D$5:$D$63, MATCH(TRUE, EXACT($J19, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="L19" s="13" t="str" cm="1">
-        <f t="array" ref="L19" xml:space="preserve"> IFERROR( INDEX($F$5:$F$64, MATCH(TRUE, EXACT($J19, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="L19" xml:space="preserve"> IFERROR( INDEX($F$5:$F$63, MATCH(TRUE, EXACT($J19, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="M19" s="36" t="str" cm="1">
-        <f t="array" ref="M19" xml:space="preserve"> IFERROR( INDEX($G$5:$G$64, MATCH(TRUE, EXACT($J19, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="M19" xml:space="preserve"> IFERROR( INDEX($G$5:$G$63, MATCH(TRUE, EXACT($J19, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="O19" s="31">
@@ -12595,15 +12887,15 @@
         <v>277</v>
       </c>
       <c r="Q19" s="19" t="str" cm="1">
-        <f t="array" ref="Q19" xml:space="preserve"> IFERROR( INDEX($D$5:$D$64, MATCH(TRUE, EXACT($P19, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="Q19" xml:space="preserve"> IFERROR( INDEX($D$5:$D$63, MATCH(TRUE, EXACT($P19, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="R19" s="13" t="str" cm="1">
-        <f t="array" ref="R19" xml:space="preserve"> IFERROR( INDEX($F$5:$F$64, MATCH(TRUE, EXACT($P19, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="R19" xml:space="preserve"> IFERROR( INDEX($F$5:$F$63, MATCH(TRUE, EXACT($P19, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="S19" s="36" t="str" cm="1">
-        <f t="array" ref="S19" xml:space="preserve"> IFERROR( INDEX($G$5:$G$64, MATCH(TRUE, EXACT($P19, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="S19" xml:space="preserve"> IFERROR( INDEX($G$5:$G$63, MATCH(TRUE, EXACT($P19, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="U19" s="3">
@@ -12631,21 +12923,24 @@
       <c r="AO19" s="125"/>
     </row>
     <row r="20" spans="2:41">
-      <c r="B20" s="49">
+      <c r="B20" s="320">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="321" t="s">
         <v>130</v>
       </c>
-      <c r="D20" s="21" t="s">
-        <v>732</v>
-      </c>
-      <c r="E20" s="273"/>
-      <c r="F20" s="15" t="s">
+      <c r="D20" s="322" t="s">
+        <v>731</v>
+      </c>
+      <c r="E20" s="273" t="str">
+        <f t="shared" ref="E20:E23" si="5">D20 &amp; $D$25</f>
+        <v>ㄖㄧ</v>
+      </c>
+      <c r="F20" s="324" t="s">
         <v>97</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="G20" s="325" t="s">
         <v>121</v>
       </c>
       <c r="I20" s="32">
@@ -12656,15 +12951,15 @@
         <v>175</v>
       </c>
       <c r="K20" s="21" t="str" cm="1">
-        <f t="array" ref="K20" xml:space="preserve"> IFERROR( INDEX($D$5:$D$64, MATCH(TRUE, EXACT($J20, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="K20" xml:space="preserve"> IFERROR( INDEX($D$5:$D$63, MATCH(TRUE, EXACT($J20, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="L20" s="15" t="str" cm="1">
-        <f t="array" ref="L20" xml:space="preserve"> IFERROR( INDEX($F$5:$F$64, MATCH(TRUE, EXACT($J20, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="L20" xml:space="preserve"> IFERROR( INDEX($F$5:$F$63, MATCH(TRUE, EXACT($J20, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="M20" s="37" t="str" cm="1">
-        <f t="array" ref="M20" xml:space="preserve"> IFERROR( INDEX($G$5:$G$64, MATCH(TRUE, EXACT($J20, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="M20" xml:space="preserve"> IFERROR( INDEX($G$5:$G$63, MATCH(TRUE, EXACT($J20, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="O20" s="32">
@@ -12675,15 +12970,15 @@
         <v>275</v>
       </c>
       <c r="Q20" s="21" t="str" cm="1">
-        <f t="array" ref="Q20" xml:space="preserve"> IFERROR( INDEX($D$5:$D$64, MATCH(TRUE, EXACT($P20, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="Q20" xml:space="preserve"> IFERROR( INDEX($D$5:$D$63, MATCH(TRUE, EXACT($P20, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="R20" s="15" t="str" cm="1">
-        <f t="array" ref="R20" xml:space="preserve"> IFERROR( INDEX($F$5:$F$64, MATCH(TRUE, EXACT($P20, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="R20" xml:space="preserve"> IFERROR( INDEX($F$5:$F$63, MATCH(TRUE, EXACT($P20, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="S20" s="37" t="str" cm="1">
-        <f t="array" ref="S20" xml:space="preserve"> IFERROR( INDEX($G$5:$G$64, MATCH(TRUE, EXACT($P20, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="S20" xml:space="preserve"> IFERROR( INDEX($G$5:$G$63, MATCH(TRUE, EXACT($P20, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="U20" s="3">
@@ -12719,7 +13014,10 @@
       <c r="D21" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="E21" s="272"/>
+      <c r="E21" s="272" t="str">
+        <f>D21 &amp; $D$25</f>
+        <v>ㄐㄧ</v>
+      </c>
       <c r="F21" s="14" t="s">
         <v>728</v>
       </c>
@@ -12734,15 +13032,15 @@
         <v>5</v>
       </c>
       <c r="K21" s="20" t="str" cm="1">
-        <f t="array" ref="K21" xml:space="preserve"> IFERROR( INDEX($D$5:$D$64, MATCH(TRUE, EXACT($J21, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="K21" xml:space="preserve"> IFERROR( INDEX($D$5:$D$63, MATCH(TRUE, EXACT($J21, $C$5:$C$63),0)), "")</f>
         <v>+</v>
       </c>
       <c r="L21" s="14" cm="1">
-        <f t="array" ref="L21" xml:space="preserve"> IFERROR( INDEX($F$5:$F$64, MATCH(TRUE, EXACT($J21, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="L21" xml:space="preserve"> IFERROR( INDEX($F$5:$F$63, MATCH(TRUE, EXACT($J21, $C$5:$C$63),0)), "")</f>
         <v>7</v>
       </c>
       <c r="M21" s="34" cm="1">
-        <f t="array" ref="M21" xml:space="preserve"> IFERROR( INDEX($G$5:$G$64, MATCH(TRUE, EXACT($J21, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="M21" xml:space="preserve"> IFERROR( INDEX($G$5:$G$63, MATCH(TRUE, EXACT($J21, $C$5:$C$63),0)), "")</f>
         <v>7</v>
       </c>
       <c r="O21" s="30">
@@ -12753,15 +13051,15 @@
         <v>300</v>
       </c>
       <c r="Q21" s="20" t="str" cm="1">
-        <f t="array" ref="Q21" xml:space="preserve"> IFERROR( INDEX($D$5:$D$64, MATCH(TRUE, EXACT($P21, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="Q21" xml:space="preserve"> IFERROR( INDEX($D$5:$D$63, MATCH(TRUE, EXACT($P21, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="R21" s="14" t="str" cm="1">
-        <f t="array" ref="R21" xml:space="preserve"> IFERROR( INDEX($F$5:$F$64, MATCH(TRUE, EXACT($P21, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="R21" xml:space="preserve"> IFERROR( INDEX($F$5:$F$63, MATCH(TRUE, EXACT($P21, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="S21" s="34" t="str" cm="1">
-        <f t="array" ref="S21" xml:space="preserve"> IFERROR( INDEX($G$5:$G$64, MATCH(TRUE, EXACT($P21, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="S21" xml:space="preserve"> IFERROR( INDEX($G$5:$G$63, MATCH(TRUE, EXACT($P21, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="U21" s="3">
@@ -12789,21 +13087,24 @@
       <c r="AO21" s="132"/>
     </row>
     <row r="22" spans="2:41">
-      <c r="B22" s="47">
+      <c r="B22" s="320">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="321" t="s">
         <v>60</v>
       </c>
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="322" t="s">
         <v>71</v>
       </c>
-      <c r="E22" s="271"/>
-      <c r="F22" s="13" t="s">
+      <c r="E22" s="323" t="str">
+        <f t="shared" si="5"/>
+        <v>ㄑㄧ</v>
+      </c>
+      <c r="F22" s="324" t="s">
         <v>729</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="325" t="s">
         <v>83</v>
       </c>
       <c r="I22" s="31">
@@ -12814,15 +13115,15 @@
         <v>142</v>
       </c>
       <c r="K22" s="19" t="str" cm="1">
-        <f t="array" ref="K22" xml:space="preserve"> IFERROR( INDEX($D$5:$D$64, MATCH(TRUE, EXACT($J22, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="K22" xml:space="preserve"> IFERROR( INDEX($D$5:$D$63, MATCH(TRUE, EXACT($J22, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="L22" s="13" t="str" cm="1">
-        <f t="array" ref="L22" xml:space="preserve"> IFERROR( INDEX($F$5:$F$64, MATCH(TRUE, EXACT($J22, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="L22" xml:space="preserve"> IFERROR( INDEX($F$5:$F$63, MATCH(TRUE, EXACT($J22, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="M22" s="35" t="str" cm="1">
-        <f t="array" ref="M22" xml:space="preserve"> IFERROR( INDEX($G$5:$G$64, MATCH(TRUE, EXACT($J22, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="M22" xml:space="preserve"> IFERROR( INDEX($G$5:$G$63, MATCH(TRUE, EXACT($J22, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="O22" s="31">
@@ -12833,15 +13134,15 @@
         <v>171</v>
       </c>
       <c r="Q22" s="19" t="str" cm="1">
-        <f t="array" ref="Q22" xml:space="preserve"> IFERROR( INDEX($D$5:$D$64, MATCH(TRUE, EXACT($P22, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="Q22" xml:space="preserve"> IFERROR( INDEX($D$5:$D$63, MATCH(TRUE, EXACT($P22, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="R22" s="13" t="str" cm="1">
-        <f t="array" ref="R22" xml:space="preserve"> IFERROR( INDEX($F$5:$F$64, MATCH(TRUE, EXACT($P22, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="R22" xml:space="preserve"> IFERROR( INDEX($F$5:$F$63, MATCH(TRUE, EXACT($P22, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="S22" s="35" t="str" cm="1">
-        <f t="array" ref="S22" xml:space="preserve"> IFERROR( INDEX($G$5:$G$64, MATCH(TRUE, EXACT($P22, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="S22" xml:space="preserve"> IFERROR( INDEX($G$5:$G$63, MATCH(TRUE, EXACT($P22, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="U22" s="3">
@@ -12869,21 +13170,24 @@
       <c r="AO22" s="132"/>
     </row>
     <row r="23" spans="2:41">
-      <c r="B23" s="47">
+      <c r="B23" s="49">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="D23" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="E23" s="271"/>
-      <c r="F23" s="13" t="s">
+      <c r="E23" s="273" t="str">
+        <f t="shared" si="5"/>
+        <v>ㄒㄧ</v>
+      </c>
+      <c r="F23" s="15" t="s">
         <v>730</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="10" t="s">
         <v>56</v>
       </c>
       <c r="I23" s="31">
@@ -12894,15 +13198,15 @@
         <v>119</v>
       </c>
       <c r="K23" s="19" t="str" cm="1">
-        <f t="array" ref="K23" xml:space="preserve"> IFERROR( INDEX($D$5:$D$64, MATCH(TRUE, EXACT($J23, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="K23" xml:space="preserve"> IFERROR( INDEX($D$5:$D$63, MATCH(TRUE, EXACT($J23, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="L23" s="13" t="str" cm="1">
-        <f t="array" ref="L23" xml:space="preserve"> IFERROR( INDEX($F$5:$F$64, MATCH(TRUE, EXACT($J23, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="L23" xml:space="preserve"> IFERROR( INDEX($F$5:$F$63, MATCH(TRUE, EXACT($J23, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="M23" s="36" t="str" cm="1">
-        <f t="array" ref="M23" xml:space="preserve"> IFERROR( INDEX($G$5:$G$64, MATCH(TRUE, EXACT($J23, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="M23" xml:space="preserve"> IFERROR( INDEX($G$5:$G$63, MATCH(TRUE, EXACT($J23, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="O23" s="31">
@@ -12913,15 +13217,15 @@
         <v>149</v>
       </c>
       <c r="Q23" s="19" t="str" cm="1">
-        <f t="array" ref="Q23" xml:space="preserve"> IFERROR( INDEX($D$5:$D$64, MATCH(TRUE, EXACT($P23, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="Q23" xml:space="preserve"> IFERROR( INDEX($D$5:$D$63, MATCH(TRUE, EXACT($P23, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="R23" s="13" t="str" cm="1">
-        <f t="array" ref="R23" xml:space="preserve"> IFERROR( INDEX($F$5:$F$64, MATCH(TRUE, EXACT($P23, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="R23" xml:space="preserve"> IFERROR( INDEX($F$5:$F$63, MATCH(TRUE, EXACT($P23, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="S23" s="36" t="str" cm="1">
-        <f t="array" ref="S23" xml:space="preserve"> IFERROR( INDEX($G$5:$G$64, MATCH(TRUE, EXACT($P23, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="S23" xml:space="preserve"> IFERROR( INDEX($G$5:$G$63, MATCH(TRUE, EXACT($P23, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="U23" s="3">
@@ -12949,22 +13253,24 @@
       <c r="AO23" s="132"/>
     </row>
     <row r="24" spans="2:41">
-      <c r="B24" s="49">
+      <c r="B24" s="47">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="C24" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D24" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="E24" s="273"/>
-      <c r="F24" s="15" t="s">
-        <v>731</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>61</v>
+      <c r="C24" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D24" s="211" t="s">
+        <v>72</v>
+      </c>
+      <c r="E24" s="274" t="s">
+        <v>114</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>720</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>135</v>
       </c>
       <c r="I24" s="32">
         <f t="shared" si="3"/>
@@ -12974,15 +13280,15 @@
         <v>130</v>
       </c>
       <c r="K24" s="21" t="str" cm="1">
-        <f t="array" ref="K24" xml:space="preserve"> IFERROR( INDEX($D$5:$D$64, MATCH(TRUE, EXACT($J24, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="K24" xml:space="preserve"> IFERROR( INDEX($D$5:$D$63, MATCH(TRUE, EXACT($J24, $C$5:$C$63),0)), "")</f>
         <v>ㄖ</v>
       </c>
       <c r="L24" s="15" t="str" cm="1">
-        <f t="array" ref="L24" xml:space="preserve"> IFERROR( INDEX($F$5:$F$64, MATCH(TRUE, EXACT($J24, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="L24" xml:space="preserve"> IFERROR( INDEX($F$5:$F$63, MATCH(TRUE, EXACT($J24, $C$5:$C$63),0)), "")</f>
         <v>j</v>
       </c>
       <c r="M24" s="37" t="str" cm="1">
-        <f t="array" ref="M24" xml:space="preserve"> IFERROR( INDEX($G$5:$G$64, MATCH(TRUE, EXACT($J24, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="M24" xml:space="preserve"> IFERROR( INDEX($G$5:$G$63, MATCH(TRUE, EXACT($J24, $C$5:$C$63),0)), "")</f>
         <v>j</v>
       </c>
       <c r="O24" s="32">
@@ -12993,15 +13299,15 @@
         <v>147</v>
       </c>
       <c r="Q24" s="21" t="str" cm="1">
-        <f t="array" ref="Q24" xml:space="preserve"> IFERROR( INDEX($D$5:$D$64, MATCH(TRUE, EXACT($P24, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="Q24" xml:space="preserve"> IFERROR( INDEX($D$5:$D$63, MATCH(TRUE, EXACT($P24, $C$5:$C$63),0)), "")</f>
         <v>ㄒ</v>
       </c>
       <c r="R24" s="15" t="str" cm="1">
-        <f t="array" ref="R24" xml:space="preserve"> IFERROR( INDEX($F$5:$F$64, MATCH(TRUE, EXACT($P24, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="R24" xml:space="preserve"> IFERROR( INDEX($F$5:$F$63, MATCH(TRUE, EXACT($P24, $C$5:$C$63),0)), "")</f>
         <v>si-</v>
       </c>
       <c r="S24" s="37" t="str" cm="1">
-        <f t="array" ref="S24" xml:space="preserve"> IFERROR( INDEX($G$5:$G$64, MATCH(TRUE, EXACT($P24, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="S24" xml:space="preserve"> IFERROR( INDEX($G$5:$G$63, MATCH(TRUE, EXACT($P24, $C$5:$C$63),0)), "")</f>
         <v>S</v>
       </c>
       <c r="U24" s="3">
@@ -13029,24 +13335,22 @@
       <c r="AO24" s="132"/>
     </row>
     <row r="25" spans="2:41">
-      <c r="B25" s="47">
+      <c r="B25" s="50">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="D25" s="211" t="s">
-        <v>72</v>
-      </c>
-      <c r="E25" s="274" t="s">
-        <v>114</v>
-      </c>
-      <c r="F25" s="16" t="s">
-        <v>720</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>135</v>
+      <c r="C25" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" s="272"/>
+      <c r="F25" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="I25" s="30">
         <f t="shared" si="3"/>
@@ -13056,15 +13360,15 @@
         <v>6</v>
       </c>
       <c r="K25" s="20" t="str" cm="1">
-        <f t="array" ref="K25" xml:space="preserve"> IFERROR( INDEX($D$5:$D$64, MATCH(TRUE, EXACT($J25, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="K25" xml:space="preserve"> IFERROR( INDEX($D$5:$D$63, MATCH(TRUE, EXACT($J25, $C$5:$C$63),0)), "")</f>
         <v>ˇ</v>
       </c>
       <c r="L25" s="14" cm="1">
-        <f t="array" ref="L25" xml:space="preserve"> IFERROR( INDEX($F$5:$F$64, MATCH(TRUE, EXACT($J25, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="L25" xml:space="preserve"> IFERROR( INDEX($F$5:$F$63, MATCH(TRUE, EXACT($J25, $C$5:$C$63),0)), "")</f>
         <v>5</v>
       </c>
       <c r="M25" s="34" cm="1">
-        <f t="array" ref="M25" xml:space="preserve"> IFERROR( INDEX($G$5:$G$64, MATCH(TRUE, EXACT($J25, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="M25" xml:space="preserve"> IFERROR( INDEX($G$5:$G$63, MATCH(TRUE, EXACT($J25, $C$5:$C$63),0)), "")</f>
         <v>5</v>
       </c>
       <c r="O25" s="30">
@@ -13075,15 +13379,15 @@
         <v>301</v>
       </c>
       <c r="Q25" s="20" t="str" cm="1">
-        <f t="array" ref="Q25" xml:space="preserve"> IFERROR( INDEX($D$5:$D$64, MATCH(TRUE, EXACT($P25, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="Q25" xml:space="preserve"> IFERROR( INDEX($D$5:$D$63, MATCH(TRUE, EXACT($P25, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="R25" s="14" t="str" cm="1">
-        <f t="array" ref="R25" xml:space="preserve"> IFERROR( INDEX($F$5:$F$64, MATCH(TRUE, EXACT($P25, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="R25" xml:space="preserve"> IFERROR( INDEX($F$5:$F$63, MATCH(TRUE, EXACT($P25, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="S25" s="34" t="str" cm="1">
-        <f t="array" ref="S25" xml:space="preserve"> IFERROR( INDEX($G$5:$G$64, MATCH(TRUE, EXACT($P25, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="S25" xml:space="preserve"> IFERROR( INDEX($G$5:$G$63, MATCH(TRUE, EXACT($P25, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="U25" s="3">
@@ -13111,22 +13415,25 @@
       <c r="AO25" s="132"/>
     </row>
     <row r="26" spans="2:41">
-      <c r="B26" s="50">
+      <c r="B26" s="22">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="C26" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="E26" s="272"/>
-      <c r="F26" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>49</v>
+      <c r="C26" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="E26" s="271" t="str">
+        <f xml:space="preserve"> "ㄥ" &amp; D25</f>
+        <v>ㄥㄧ</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>721</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>243</v>
       </c>
       <c r="I26" s="31">
         <f t="shared" si="3"/>
@@ -13136,15 +13443,15 @@
         <v>155</v>
       </c>
       <c r="K26" s="19" t="str" cm="1">
-        <f t="array" ref="K26" xml:space="preserve"> IFERROR( INDEX($D$5:$D$64, MATCH(TRUE, EXACT($J26, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="K26" xml:space="preserve"> IFERROR( INDEX($D$5:$D$63, MATCH(TRUE, EXACT($J26, $C$5:$C$63),0)), "")</f>
         <v>ㄗ</v>
       </c>
       <c r="L26" s="13" t="str" cm="1">
-        <f t="array" ref="L26" xml:space="preserve"> IFERROR( INDEX($F$5:$F$64, MATCH(TRUE, EXACT($J26, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="L26" xml:space="preserve"> IFERROR( INDEX($F$5:$F$63, MATCH(TRUE, EXACT($J26, $C$5:$C$63),0)), "")</f>
         <v>c</v>
       </c>
       <c r="M26" s="35" t="str" cm="1">
-        <f t="array" ref="M26" xml:space="preserve"> IFERROR( INDEX($G$5:$G$64, MATCH(TRUE, EXACT($J26, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="M26" xml:space="preserve"> IFERROR( INDEX($G$5:$G$63, MATCH(TRUE, EXACT($J26, $C$5:$C$63),0)), "")</f>
         <v>z</v>
       </c>
       <c r="O26" s="31">
@@ -13155,15 +13462,15 @@
         <v>156</v>
       </c>
       <c r="Q26" s="19" t="str" cm="1">
-        <f t="array" ref="Q26" xml:space="preserve"> IFERROR( INDEX($D$5:$D$64, MATCH(TRUE, EXACT($P26, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="Q26" xml:space="preserve"> IFERROR( INDEX($D$5:$D$63, MATCH(TRUE, EXACT($P26, $C$5:$C$63),0)), "")</f>
         <v>ㄐ</v>
       </c>
       <c r="R26" s="13" t="str" cm="1">
-        <f t="array" ref="R26" xml:space="preserve"> IFERROR( INDEX($F$5:$F$64, MATCH(TRUE, EXACT($P26, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="R26" xml:space="preserve"> IFERROR( INDEX($F$5:$F$63, MATCH(TRUE, EXACT($P26, $C$5:$C$63),0)), "")</f>
         <v>ci-</v>
       </c>
       <c r="S26" s="35" t="str" cm="1">
-        <f t="array" ref="S26" xml:space="preserve"> IFERROR( INDEX($G$5:$G$64, MATCH(TRUE, EXACT($P26, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="S26" xml:space="preserve"> IFERROR( INDEX($G$5:$G$63, MATCH(TRUE, EXACT($P26, $C$5:$C$63),0)), "")</f>
         <v>Z</v>
       </c>
       <c r="U26" s="3">
@@ -13196,20 +13503,17 @@
         <v>23</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="E27" s="271" t="str">
-        <f xml:space="preserve"> "ㄥ" &amp; D26</f>
-        <v>ㄥㄧ</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="E27" s="271"/>
       <c r="F27" s="13" t="s">
-        <v>721</v>
+        <v>77</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>243</v>
+        <v>77</v>
       </c>
       <c r="I27" s="31">
         <f t="shared" si="3"/>
@@ -13219,15 +13523,15 @@
         <v>120</v>
       </c>
       <c r="K27" s="19" t="str" cm="1">
-        <f t="array" ref="K27" xml:space="preserve"> IFERROR( INDEX($D$5:$D$64, MATCH(TRUE, EXACT($J27, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="K27" xml:space="preserve"> IFERROR( INDEX($D$5:$D$63, MATCH(TRUE, EXACT($J27, $C$5:$C$63),0)), "")</f>
         <v>ㄘ</v>
       </c>
       <c r="L27" s="13" t="str" cm="1">
-        <f t="array" ref="L27" xml:space="preserve"> IFERROR( INDEX($F$5:$F$64, MATCH(TRUE, EXACT($J27, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="L27" xml:space="preserve"> IFERROR( INDEX($F$5:$F$63, MATCH(TRUE, EXACT($J27, $C$5:$C$63),0)), "")</f>
         <v>ch</v>
       </c>
       <c r="M27" s="36" t="str" cm="1">
-        <f t="array" ref="M27" xml:space="preserve"> IFERROR( INDEX($G$5:$G$64, MATCH(TRUE, EXACT($J27, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="M27" xml:space="preserve"> IFERROR( INDEX($G$5:$G$63, MATCH(TRUE, EXACT($J27, $C$5:$C$63),0)), "")</f>
         <v>c</v>
       </c>
       <c r="O27" s="31">
@@ -13238,15 +13542,15 @@
         <v>278</v>
       </c>
       <c r="Q27" s="19" t="str" cm="1">
-        <f t="array" ref="Q27" xml:space="preserve"> IFERROR( INDEX($D$5:$D$64, MATCH(TRUE, EXACT($P27, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="Q27" xml:space="preserve"> IFERROR( INDEX($D$5:$D$63, MATCH(TRUE, EXACT($P27, $C$5:$C$63),0)), "")</f>
         <v>ㄑ</v>
       </c>
       <c r="R27" s="13" t="str" cm="1">
-        <f t="array" ref="R27" xml:space="preserve"> IFERROR( INDEX($F$5:$F$64, MATCH(TRUE, EXACT($P27, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="R27" xml:space="preserve"> IFERROR( INDEX($F$5:$F$63, MATCH(TRUE, EXACT($P27, $C$5:$C$63),0)), "")</f>
         <v>chi-</v>
       </c>
       <c r="S27" s="36" t="str" cm="1">
-        <f t="array" ref="S27" xml:space="preserve"> IFERROR( INDEX($G$5:$G$64, MATCH(TRUE, EXACT($P27, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="S27" xml:space="preserve"> IFERROR( INDEX($G$5:$G$63, MATCH(TRUE, EXACT($P27, $C$5:$C$63),0)), "")</f>
         <v>C</v>
       </c>
       <c r="U27" s="3">
@@ -13279,17 +13583,20 @@
         <v>24</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="E28" s="271"/>
+        <v>116</v>
+      </c>
+      <c r="E28" s="271" t="str">
+        <f xml:space="preserve"> "ㄥ" &amp; D27</f>
+        <v>ㄥㄨ</v>
+      </c>
       <c r="F28" s="13" t="s">
-        <v>77</v>
+        <v>327</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>77</v>
+        <v>244</v>
       </c>
       <c r="I28" s="32">
         <f t="shared" si="3"/>
@@ -13299,15 +13606,15 @@
         <v>143</v>
       </c>
       <c r="K28" s="21" t="str" cm="1">
-        <f t="array" ref="K28" xml:space="preserve"> IFERROR( INDEX($D$5:$D$64, MATCH(TRUE, EXACT($J28, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="K28" xml:space="preserve"> IFERROR( INDEX($D$5:$D$63, MATCH(TRUE, EXACT($J28, $C$5:$C$63),0)), "")</f>
         <v>ㄙ</v>
       </c>
       <c r="L28" s="15" t="str" cm="1">
-        <f t="array" ref="L28" xml:space="preserve"> IFERROR( INDEX($F$5:$F$64, MATCH(TRUE, EXACT($J28, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="L28" xml:space="preserve"> IFERROR( INDEX($F$5:$F$63, MATCH(TRUE, EXACT($J28, $C$5:$C$63),0)), "")</f>
         <v>s</v>
       </c>
       <c r="M28" s="37" t="str" cm="1">
-        <f t="array" ref="M28" xml:space="preserve"> IFERROR( INDEX($G$5:$G$64, MATCH(TRUE, EXACT($J28, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="M28" xml:space="preserve"> IFERROR( INDEX($G$5:$G$63, MATCH(TRUE, EXACT($J28, $C$5:$C$63),0)), "")</f>
         <v>s</v>
       </c>
       <c r="O28" s="32">
@@ -13318,16 +13625,16 @@
         <v>262</v>
       </c>
       <c r="Q28" s="21" t="str" cm="1">
-        <f t="array" ref="Q28" xml:space="preserve"> IFERROR( INDEX($D$5:$D$64, MATCH(TRUE, EXACT($P28, $C$5:$C$64),0)), "")</f>
-        <v>ㆢ</v>
+        <f t="array" ref="Q28" xml:space="preserve"> IFERROR( INDEX($D$5:$D$63, MATCH(TRUE, EXACT($P28, $C$5:$C$63),0)), "")</f>
+        <v/>
       </c>
       <c r="R28" s="15" t="str" cm="1">
-        <f t="array" ref="R28" xml:space="preserve"> IFERROR( INDEX($F$5:$F$64, MATCH(TRUE, EXACT($P28, $C$5:$C$64),0)), "")</f>
-        <v>ji-</v>
+        <f t="array" ref="R28" xml:space="preserve"> IFERROR( INDEX($F$5:$F$63, MATCH(TRUE, EXACT($P28, $C$5:$C$63),0)), "")</f>
+        <v/>
       </c>
       <c r="S28" s="37" t="str" cm="1">
-        <f t="array" ref="S28" xml:space="preserve"> IFERROR( INDEX($G$5:$G$64, MATCH(TRUE, EXACT($P28, $C$5:$C$64),0)), "")</f>
-        <v>J</v>
+        <f t="array" ref="S28" xml:space="preserve"> IFERROR( INDEX($G$5:$G$63, MATCH(TRUE, EXACT($P28, $C$5:$C$63),0)), "")</f>
+        <v/>
       </c>
       <c r="U28" s="3">
         <f t="shared" si="2"/>
@@ -13354,25 +13661,22 @@
       <c r="AO28" s="132"/>
     </row>
     <row r="29" spans="2:41">
-      <c r="B29" s="22">
+      <c r="B29" s="50">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="E29" s="271" t="str">
-        <f xml:space="preserve"> "ㄥ" &amp; D28</f>
-        <v>ㄥㄨ</v>
-      </c>
-      <c r="F29" s="13" t="s">
-        <v>327</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>244</v>
+      <c r="C29" s="9">
+        <v>8</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="272"/>
+      <c r="F29" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="I29" s="30">
         <f t="shared" si="3"/>
@@ -13382,15 +13686,15 @@
         <v>7</v>
       </c>
       <c r="K29" s="20" t="str" cm="1">
-        <f t="array" ref="K29" xml:space="preserve"> IFERROR( INDEX($D$5:$D$64, MATCH(TRUE, EXACT($J29, $C$5:$C$64),0)), "")</f>
-        <v>˙</v>
+        <f t="array" ref="K29" xml:space="preserve"> IFERROR( INDEX($D$5:$D$63, MATCH(TRUE, EXACT($J29, $C$5:$C$63),0)), "")</f>
+        <v>ˊ</v>
       </c>
       <c r="L29" s="14" cm="1">
-        <f t="array" ref="L29" xml:space="preserve"> IFERROR( INDEX($F$5:$F$64, MATCH(TRUE, EXACT($J29, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="L29" xml:space="preserve"> IFERROR( INDEX($F$5:$F$63, MATCH(TRUE, EXACT($J29, $C$5:$C$63),0)), "")</f>
         <v>8</v>
       </c>
       <c r="M29" s="34" cm="1">
-        <f t="array" ref="M29" xml:space="preserve"> IFERROR( INDEX($G$5:$G$64, MATCH(TRUE, EXACT($J29, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="M29" xml:space="preserve"> IFERROR( INDEX($G$5:$G$63, MATCH(TRUE, EXACT($J29, $C$5:$C$63),0)), "")</f>
         <v>0</v>
       </c>
       <c r="O29" s="30">
@@ -13401,15 +13705,15 @@
         <v>302</v>
       </c>
       <c r="Q29" s="20" t="str" cm="1">
-        <f t="array" ref="Q29" xml:space="preserve"> IFERROR( INDEX($D$5:$D$64, MATCH(TRUE, EXACT($P29, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="Q29" xml:space="preserve"> IFERROR( INDEX($D$5:$D$63, MATCH(TRUE, EXACT($P29, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="R29" s="14" t="str" cm="1">
-        <f t="array" ref="R29" xml:space="preserve"> IFERROR( INDEX($F$5:$F$64, MATCH(TRUE, EXACT($P29, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="R29" xml:space="preserve"> IFERROR( INDEX($F$5:$F$63, MATCH(TRUE, EXACT($P29, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="S29" s="34" t="str" cm="1">
-        <f t="array" ref="S29" xml:space="preserve"> IFERROR( INDEX($G$5:$G$64, MATCH(TRUE, EXACT($P29, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="S29" xml:space="preserve"> IFERROR( INDEX($G$5:$G$63, MATCH(TRUE, EXACT($P29, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="U29" s="3">
@@ -13437,22 +13741,25 @@
       <c r="AO29" s="132"/>
     </row>
     <row r="30" spans="2:41">
-      <c r="B30" s="50">
+      <c r="B30" s="22">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="C30" s="9">
-        <v>8</v>
-      </c>
-      <c r="D30" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E30" s="272"/>
-      <c r="F30" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>21</v>
+      <c r="C30" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="E30" s="271" t="str">
+        <f xml:space="preserve"> "ㄥ" &amp; D29</f>
+        <v>ㄥㄚ</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>329</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>157</v>
       </c>
       <c r="I30" s="31">
         <f t="shared" si="3"/>
@@ -13462,15 +13769,15 @@
         <v>129</v>
       </c>
       <c r="K30" s="19" t="str" cm="1">
-        <f t="array" ref="K30" xml:space="preserve"> IFERROR( INDEX($D$5:$D$64, MATCH(TRUE, EXACT($J30, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="K30" xml:space="preserve"> IFERROR( INDEX($D$5:$D$63, MATCH(TRUE, EXACT($J30, $C$5:$C$63),0)), "")</f>
         <v>ㄧ</v>
       </c>
       <c r="L30" s="13" t="str" cm="1">
-        <f t="array" ref="L30" xml:space="preserve"> IFERROR( INDEX($F$5:$F$64, MATCH(TRUE, EXACT($J30, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="L30" xml:space="preserve"> IFERROR( INDEX($F$5:$F$63, MATCH(TRUE, EXACT($J30, $C$5:$C$63),0)), "")</f>
         <v>i</v>
       </c>
       <c r="M30" s="35" t="str" cm="1">
-        <f t="array" ref="M30" xml:space="preserve"> IFERROR( INDEX($G$5:$G$64, MATCH(TRUE, EXACT($J30, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="M30" xml:space="preserve"> IFERROR( INDEX($G$5:$G$63, MATCH(TRUE, EXACT($J30, $C$5:$C$63),0)), "")</f>
         <v>i</v>
       </c>
       <c r="O30" s="31">
@@ -13481,15 +13788,15 @@
         <v>244</v>
       </c>
       <c r="Q30" s="19" t="str" cm="1">
-        <f t="array" ref="Q30" xml:space="preserve"> IFERROR( INDEX($D$5:$D$64, MATCH(TRUE, EXACT($P30, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="Q30" xml:space="preserve"> IFERROR( INDEX($D$5:$D$63, MATCH(TRUE, EXACT($P30, $C$5:$C$63),0)), "")</f>
         <v>ㆪ</v>
       </c>
       <c r="R30" s="13" t="str" cm="1">
-        <f t="array" ref="R30" xml:space="preserve"> IFERROR( INDEX($F$5:$F$64, MATCH(TRUE, EXACT($P30, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="R30" xml:space="preserve"> IFERROR( INDEX($F$5:$F$63, MATCH(TRUE, EXACT($P30, $C$5:$C$63),0)), "")</f>
         <v>Ni</v>
       </c>
       <c r="S30" s="35" t="str" cm="1">
-        <f t="array" ref="S30" xml:space="preserve"> IFERROR( INDEX($G$5:$G$64, MATCH(TRUE, EXACT($P30, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="S30" xml:space="preserve"> IFERROR( INDEX($G$5:$G$63, MATCH(TRUE, EXACT($P30, $C$5:$C$63),0)), "")</f>
         <v>I</v>
       </c>
       <c r="U30" s="3">
@@ -13521,21 +13828,18 @@
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="C31" s="6" t="s">
-        <v>138</v>
+      <c r="C31" s="40" t="s">
+        <v>176</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="E31" s="271" t="str">
-        <f xml:space="preserve"> "ㄥ" &amp; D30</f>
-        <v>ㄥㄚ</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="E31" s="271"/>
       <c r="F31" s="13" t="s">
-        <v>329</v>
+        <v>53</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>157</v>
+        <v>53</v>
       </c>
       <c r="I31" s="31">
         <f t="shared" si="3"/>
@@ -13545,15 +13849,15 @@
         <v>121</v>
       </c>
       <c r="K31" s="19" t="str" cm="1">
-        <f t="array" ref="K31" xml:space="preserve"> IFERROR( INDEX($D$5:$D$64, MATCH(TRUE, EXACT($J31, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="K31" xml:space="preserve"> IFERROR( INDEX($D$5:$D$63, MATCH(TRUE, EXACT($J31, $C$5:$C$63),0)), "")</f>
         <v>ㄨ</v>
       </c>
       <c r="L31" s="13" t="str" cm="1">
-        <f t="array" ref="L31" xml:space="preserve"> IFERROR( INDEX($F$5:$F$64, MATCH(TRUE, EXACT($J31, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="L31" xml:space="preserve"> IFERROR( INDEX($F$5:$F$63, MATCH(TRUE, EXACT($J31, $C$5:$C$63),0)), "")</f>
         <v>u</v>
       </c>
       <c r="M31" s="36" t="str" cm="1">
-        <f t="array" ref="M31" xml:space="preserve"> IFERROR( INDEX($G$5:$G$64, MATCH(TRUE, EXACT($J31, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="M31" xml:space="preserve"> IFERROR( INDEX($G$5:$G$63, MATCH(TRUE, EXACT($J31, $C$5:$C$63),0)), "")</f>
         <v>u</v>
       </c>
       <c r="O31" s="31">
@@ -13564,15 +13868,15 @@
         <v>270</v>
       </c>
       <c r="Q31" s="19" t="str" cm="1">
-        <f t="array" ref="Q31" xml:space="preserve"> IFERROR( INDEX($D$5:$D$64, MATCH(TRUE, EXACT($P31, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="Q31" xml:space="preserve"> IFERROR( INDEX($D$5:$D$63, MATCH(TRUE, EXACT($P31, $C$5:$C$63),0)), "")</f>
         <v>ㆫ</v>
       </c>
       <c r="R31" s="13" t="str" cm="1">
-        <f t="array" ref="R31" xml:space="preserve"> IFERROR( INDEX($F$5:$F$64, MATCH(TRUE, EXACT($P31, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="R31" xml:space="preserve"> IFERROR( INDEX($F$5:$F$63, MATCH(TRUE, EXACT($P31, $C$5:$C$63),0)), "")</f>
         <v>Nu</v>
       </c>
       <c r="S31" s="36" t="str" cm="1">
-        <f t="array" ref="S31" xml:space="preserve"> IFERROR( INDEX($G$5:$G$64, MATCH(TRUE, EXACT($P31, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="S31" xml:space="preserve"> IFERROR( INDEX($G$5:$G$63, MATCH(TRUE, EXACT($P31, $C$5:$C$63),0)), "")</f>
         <v>U</v>
       </c>
       <c r="U31" s="3">
@@ -13605,17 +13909,20 @@
         <v>28</v>
       </c>
       <c r="C32" s="40" t="s">
-        <v>176</v>
+        <v>140</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="E32" s="271"/>
+        <v>109</v>
+      </c>
+      <c r="E32" s="271" t="str">
+        <f xml:space="preserve"> "ㄥ" &amp; D31</f>
+        <v>ㄥㄝ</v>
+      </c>
       <c r="F32" s="13" t="s">
-        <v>53</v>
+        <v>334</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="I32" s="32">
         <f t="shared" si="3"/>
@@ -13625,15 +13932,15 @@
         <v>118</v>
       </c>
       <c r="K32" s="21" t="str" cm="1">
-        <f t="array" ref="K32" xml:space="preserve"> IFERROR( INDEX($D$5:$D$64, MATCH(TRUE, EXACT($J32, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="K32" xml:space="preserve"> IFERROR( INDEX($D$5:$D$63, MATCH(TRUE, EXACT($J32, $C$5:$C$63),0)), "")</f>
         <v>ㆰ</v>
       </c>
       <c r="L32" s="15" t="str" cm="1">
-        <f t="array" ref="L32" xml:space="preserve"> IFERROR( INDEX($F$5:$F$64, MATCH(TRUE, EXACT($J32, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="L32" xml:space="preserve"> IFERROR( INDEX($F$5:$F$63, MATCH(TRUE, EXACT($J32, $C$5:$C$63),0)), "")</f>
         <v>am</v>
       </c>
       <c r="M32" s="37" t="str" cm="1">
-        <f t="array" ref="M32" xml:space="preserve"> IFERROR( INDEX($G$5:$G$64, MATCH(TRUE, EXACT($J32, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="M32" xml:space="preserve"> IFERROR( INDEX($G$5:$G$63, MATCH(TRUE, EXACT($J32, $C$5:$C$63),0)), "")</f>
         <v>{</v>
       </c>
       <c r="O32" s="32">
@@ -13644,15 +13951,15 @@
         <v>264</v>
       </c>
       <c r="Q32" s="21" t="str" cm="1">
-        <f t="array" ref="Q32" xml:space="preserve"> IFERROR( INDEX($D$5:$D$64, MATCH(TRUE, EXACT($P32, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="Q32" xml:space="preserve"> IFERROR( INDEX($D$5:$D$63, MATCH(TRUE, EXACT($P32, $C$5:$C$63),0)), "")</f>
         <v>ㆱ</v>
       </c>
       <c r="R32" s="15" t="str" cm="1">
-        <f t="array" ref="R32" xml:space="preserve"> IFERROR( INDEX($F$5:$F$64, MATCH(TRUE, EXACT($P32, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="R32" xml:space="preserve"> IFERROR( INDEX($F$5:$F$63, MATCH(TRUE, EXACT($P32, $C$5:$C$63),0)), "")</f>
         <v>om</v>
       </c>
       <c r="S32" s="37" t="str" cm="1">
-        <f t="array" ref="S32" xml:space="preserve"> IFERROR( INDEX($G$5:$G$64, MATCH(TRUE, EXACT($P32, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="S32" xml:space="preserve"> IFERROR( INDEX($G$5:$G$63, MATCH(TRUE, EXACT($P32, $C$5:$C$63),0)), "")</f>
         <v>}</v>
       </c>
       <c r="U32" s="3">
@@ -13684,21 +13991,18 @@
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="C33" s="40" t="s">
-        <v>140</v>
+      <c r="C33" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="E33" s="271" t="str">
-        <f xml:space="preserve"> "ㄥ" &amp; D32</f>
-        <v>ㄥㄝ</v>
-      </c>
+        <v>722</v>
+      </c>
+      <c r="E33" s="271"/>
       <c r="F33" s="13" t="s">
-        <v>334</v>
+        <v>51</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I33" s="30">
         <f t="shared" si="3"/>
@@ -13708,15 +14012,15 @@
         <v>8</v>
       </c>
       <c r="K33" s="20" t="str" cm="1">
-        <f t="array" ref="K33" xml:space="preserve"> IFERROR( INDEX($D$5:$D$64, MATCH(TRUE, EXACT($J33, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="K33" xml:space="preserve"> IFERROR( INDEX($D$5:$D$63, MATCH(TRUE, EXACT($J33, $C$5:$C$63),0)), "")</f>
         <v>ㄚ</v>
       </c>
       <c r="L33" s="14" t="str" cm="1">
-        <f t="array" ref="L33" xml:space="preserve"> IFERROR( INDEX($F$5:$F$64, MATCH(TRUE, EXACT($J33, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="L33" xml:space="preserve"> IFERROR( INDEX($F$5:$F$63, MATCH(TRUE, EXACT($J33, $C$5:$C$63),0)), "")</f>
         <v>a</v>
       </c>
       <c r="M33" s="34" t="str" cm="1">
-        <f t="array" ref="M33" xml:space="preserve"> IFERROR( INDEX($G$5:$G$64, MATCH(TRUE, EXACT($J33, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="M33" xml:space="preserve"> IFERROR( INDEX($G$5:$G$63, MATCH(TRUE, EXACT($J33, $C$5:$C$63),0)), "")</f>
         <v>a</v>
       </c>
       <c r="O33" s="30">
@@ -13727,15 +14031,15 @@
         <v>271</v>
       </c>
       <c r="Q33" s="20" t="str" cm="1">
-        <f t="array" ref="Q33" xml:space="preserve"> IFERROR( INDEX($D$5:$D$64, MATCH(TRUE, EXACT($P33, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="Q33" xml:space="preserve"> IFERROR( INDEX($D$5:$D$63, MATCH(TRUE, EXACT($P33, $C$5:$C$63),0)), "")</f>
         <v>ㆩ</v>
       </c>
       <c r="R33" s="14" t="str" cm="1">
-        <f t="array" ref="R33" xml:space="preserve"> IFERROR( INDEX($F$5:$F$64, MATCH(TRUE, EXACT($P33, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="R33" xml:space="preserve"> IFERROR( INDEX($F$5:$F$63, MATCH(TRUE, EXACT($P33, $C$5:$C$63),0)), "")</f>
         <v>Na</v>
       </c>
       <c r="S33" s="34" t="str" cm="1">
-        <f t="array" ref="S33" xml:space="preserve"> IFERROR( INDEX($G$5:$G$64, MATCH(TRUE, EXACT($P33, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="S33" xml:space="preserve"> IFERROR( INDEX($G$5:$G$63, MATCH(TRUE, EXACT($P33, $C$5:$C$63),0)), "")</f>
         <v>A</v>
       </c>
       <c r="U33" s="3">
@@ -13768,17 +14072,20 @@
         <v>30</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>722</v>
-      </c>
-      <c r="E34" s="271"/>
+        <v>107</v>
+      </c>
+      <c r="E34" s="271" t="str">
+        <f xml:space="preserve"> "ㄥ" &amp; D33</f>
+        <v>ㄥㄛ</v>
+      </c>
       <c r="F34" s="13" t="s">
-        <v>51</v>
+        <v>330</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>32</v>
+        <v>266</v>
       </c>
       <c r="I34" s="31">
         <f t="shared" si="3"/>
@@ -13788,15 +14095,15 @@
         <v>128</v>
       </c>
       <c r="K34" s="19" t="str" cm="1">
-        <f t="array" ref="K34" xml:space="preserve"> IFERROR( INDEX($D$5:$D$64, MATCH(TRUE, EXACT($J34, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="K34" xml:space="preserve"> IFERROR( INDEX($D$5:$D$63, MATCH(TRUE, EXACT($J34, $C$5:$C$63),0)), "")</f>
         <v>ㄛ</v>
       </c>
       <c r="L34" s="13" t="str" cm="1">
-        <f t="array" ref="L34" xml:space="preserve"> IFERROR( INDEX($F$5:$F$64, MATCH(TRUE, EXACT($J34, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="L34" xml:space="preserve"> IFERROR( INDEX($F$5:$F$63, MATCH(TRUE, EXACT($J34, $C$5:$C$63),0)), "")</f>
         <v>oo</v>
       </c>
       <c r="M34" s="35" t="str" cm="1">
-        <f t="array" ref="M34" xml:space="preserve"> IFERROR( INDEX($G$5:$G$64, MATCH(TRUE, EXACT($J34, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="M34" xml:space="preserve"> IFERROR( INDEX($G$5:$G$63, MATCH(TRUE, EXACT($J34, $C$5:$C$63),0)), "")</f>
         <v>O</v>
       </c>
       <c r="O34" s="31">
@@ -13807,15 +14114,15 @@
         <v>243</v>
       </c>
       <c r="Q34" s="19" t="str" cm="1">
-        <f t="array" ref="Q34" xml:space="preserve"> IFERROR( INDEX($D$5:$D$64, MATCH(TRUE, EXACT($P34, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="Q34" xml:space="preserve"> IFERROR( INDEX($D$5:$D$63, MATCH(TRUE, EXACT($P34, $C$5:$C$63),0)), "")</f>
         <v>ㆧ</v>
       </c>
       <c r="R34" s="13" t="str" cm="1">
-        <f t="array" ref="R34" xml:space="preserve"> IFERROR( INDEX($F$5:$F$64, MATCH(TRUE, EXACT($P34, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="R34" xml:space="preserve"> IFERROR( INDEX($F$5:$F$63, MATCH(TRUE, EXACT($P34, $C$5:$C$63),0)), "")</f>
         <v>Noo</v>
       </c>
       <c r="S34" s="35" t="str" cm="1">
-        <f t="array" ref="S34" xml:space="preserve"> IFERROR( INDEX($G$5:$G$64, MATCH(TRUE, EXACT($P34, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="S34" xml:space="preserve"> IFERROR( INDEX($G$5:$G$63, MATCH(TRUE, EXACT($P34, $C$5:$C$63),0)), "")</f>
         <v>Q</v>
       </c>
       <c r="U34" s="3">
@@ -13848,20 +14155,17 @@
         <v>31</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="E35" s="271" t="str">
-        <f xml:space="preserve"> "ㄥ" &amp; D34</f>
-        <v>ㄥㄛ</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="E35" s="271"/>
       <c r="F35" s="13" t="s">
-        <v>330</v>
+        <v>79</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>266</v>
+        <v>79</v>
       </c>
       <c r="I35" s="31">
         <f t="shared" si="3"/>
@@ -13871,15 +14175,15 @@
         <v>145</v>
       </c>
       <c r="K35" s="19" t="str" cm="1">
-        <f t="array" ref="K35" xml:space="preserve"> IFERROR( INDEX($D$5:$D$64, MATCH(TRUE, EXACT($J35, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="K35" xml:space="preserve"> IFERROR( INDEX($D$5:$D$63, MATCH(TRUE, EXACT($J35, $C$5:$C$63),0)), "")</f>
         <v>ㄜ</v>
       </c>
       <c r="L35" s="13" t="str" cm="1">
-        <f t="array" ref="L35" xml:space="preserve"> IFERROR( INDEX($F$5:$F$64, MATCH(TRUE, EXACT($J35, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="L35" xml:space="preserve"> IFERROR( INDEX($F$5:$F$63, MATCH(TRUE, EXACT($J35, $C$5:$C$63),0)), "")</f>
         <v>o</v>
       </c>
       <c r="M35" s="36" t="str" cm="1">
-        <f t="array" ref="M35" xml:space="preserve"> IFERROR( INDEX($G$5:$G$64, MATCH(TRUE, EXACT($J35, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="M35" xml:space="preserve"> IFERROR( INDEX($G$5:$G$63, MATCH(TRUE, EXACT($J35, $C$5:$C$63),0)), "")</f>
         <v>o</v>
       </c>
       <c r="O35" s="31">
@@ -13890,15 +14194,15 @@
         <v>172</v>
       </c>
       <c r="Q35" s="19" t="str" cm="1">
-        <f t="array" ref="Q35" xml:space="preserve"> IFERROR( INDEX($D$5:$D$64, MATCH(TRUE, EXACT($P35, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="Q35" xml:space="preserve"> IFERROR( INDEX($D$5:$D$63, MATCH(TRUE, EXACT($P35, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="R35" s="13" t="str" cm="1">
-        <f t="array" ref="R35" xml:space="preserve"> IFERROR( INDEX($F$5:$F$64, MATCH(TRUE, EXACT($P35, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="R35" xml:space="preserve"> IFERROR( INDEX($F$5:$F$63, MATCH(TRUE, EXACT($P35, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="S35" s="36" t="str" cm="1">
-        <f t="array" ref="S35" xml:space="preserve"> IFERROR( INDEX($G$5:$G$64, MATCH(TRUE, EXACT($P35, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="S35" xml:space="preserve"> IFERROR( INDEX($G$5:$G$63, MATCH(TRUE, EXACT($P35, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="U35" s="3">
@@ -13926,22 +14230,22 @@
       <c r="AO35" s="132"/>
     </row>
     <row r="36" spans="2:41">
-      <c r="B36" s="22">
-        <f t="shared" si="1"/>
+      <c r="B36" s="50">
+        <f xml:space="preserve"> ROW() -4</f>
         <v>32</v>
       </c>
-      <c r="C36" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D36" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="E36" s="271"/>
-      <c r="F36" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>79</v>
+      <c r="C36" s="9">
+        <v>0</v>
+      </c>
+      <c r="D36" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E36" s="272"/>
+      <c r="F36" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>297</v>
       </c>
       <c r="I36" s="32">
         <f t="shared" si="3"/>
@@ -13951,15 +14255,15 @@
         <v>176</v>
       </c>
       <c r="K36" s="21" t="str" cm="1">
-        <f t="array" ref="K36" xml:space="preserve"> IFERROR( INDEX($D$5:$D$64, MATCH(TRUE, EXACT($J36, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="K36" xml:space="preserve"> IFERROR( INDEX($D$5:$D$63, MATCH(TRUE, EXACT($J36, $C$5:$C$63),0)), "")</f>
         <v>ㄝ</v>
       </c>
       <c r="L36" s="15" t="str" cm="1">
-        <f t="array" ref="L36" xml:space="preserve"> IFERROR( INDEX($F$5:$F$64, MATCH(TRUE, EXACT($J36, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="L36" xml:space="preserve"> IFERROR( INDEX($F$5:$F$63, MATCH(TRUE, EXACT($J36, $C$5:$C$63),0)), "")</f>
         <v>e</v>
       </c>
       <c r="M36" s="37" t="str" cm="1">
-        <f t="array" ref="M36" xml:space="preserve"> IFERROR( INDEX($G$5:$G$64, MATCH(TRUE, EXACT($J36, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="M36" xml:space="preserve"> IFERROR( INDEX($G$5:$G$63, MATCH(TRUE, EXACT($J36, $C$5:$C$63),0)), "")</f>
         <v>e</v>
       </c>
       <c r="O36" s="32">
@@ -13970,15 +14274,15 @@
         <v>176</v>
       </c>
       <c r="Q36" s="21" t="str" cm="1">
-        <f t="array" ref="Q36" xml:space="preserve"> IFERROR( INDEX($D$5:$D$64, MATCH(TRUE, EXACT($P36, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="Q36" xml:space="preserve"> IFERROR( INDEX($D$5:$D$63, MATCH(TRUE, EXACT($P36, $C$5:$C$63),0)), "")</f>
         <v>ㄝ</v>
       </c>
       <c r="R36" s="15" t="str" cm="1">
-        <f t="array" ref="R36" xml:space="preserve"> IFERROR( INDEX($F$5:$F$64, MATCH(TRUE, EXACT($P36, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="R36" xml:space="preserve"> IFERROR( INDEX($F$5:$F$63, MATCH(TRUE, EXACT($P36, $C$5:$C$63),0)), "")</f>
         <v>e</v>
       </c>
       <c r="S36" s="37" t="str" cm="1">
-        <f t="array" ref="S36" xml:space="preserve"> IFERROR( INDEX($G$5:$G$64, MATCH(TRUE, EXACT($P36, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="S36" xml:space="preserve"> IFERROR( INDEX($G$5:$G$63, MATCH(TRUE, EXACT($P36, $C$5:$C$63),0)), "")</f>
         <v>e</v>
       </c>
       <c r="U36" s="3">
@@ -14006,22 +14310,22 @@
       <c r="AO36" s="132"/>
     </row>
     <row r="37" spans="2:41">
-      <c r="B37" s="50">
-        <f xml:space="preserve"> ROW() -4</f>
+      <c r="B37" s="22">
+        <f t="shared" ref="B37:B50" si="6" xml:space="preserve"> ROW() -4</f>
         <v>33</v>
       </c>
-      <c r="C37" s="9">
-        <v>0</v>
-      </c>
-      <c r="D37" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E37" s="272"/>
-      <c r="F37" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>297</v>
+      <c r="C37" s="6">
+        <v>9</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E37" s="271"/>
+      <c r="F37" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>155</v>
       </c>
       <c r="I37" s="30">
         <f t="shared" si="3"/>
@@ -14031,15 +14335,15 @@
         <v>9</v>
       </c>
       <c r="K37" s="20" t="str" cm="1">
-        <f t="array" ref="K37" xml:space="preserve"> IFERROR( INDEX($D$5:$D$64, MATCH(TRUE, EXACT($J37, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="K37" xml:space="preserve"> IFERROR( INDEX($D$5:$D$63, MATCH(TRUE, EXACT($J37, $C$5:$C$63),0)), "")</f>
         <v>ㄞ</v>
       </c>
       <c r="L37" s="14" t="str" cm="1">
-        <f t="array" ref="L37" xml:space="preserve"> IFERROR( INDEX($F$5:$F$64, MATCH(TRUE, EXACT($J37, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="L37" xml:space="preserve"> IFERROR( INDEX($F$5:$F$63, MATCH(TRUE, EXACT($J37, $C$5:$C$63),0)), "")</f>
         <v>ai</v>
       </c>
       <c r="M37" s="34" t="str" cm="1">
-        <f t="array" ref="M37" xml:space="preserve"> IFERROR( INDEX($G$5:$G$64, MATCH(TRUE, EXACT($J37, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="M37" xml:space="preserve"> IFERROR( INDEX($G$5:$G$63, MATCH(TRUE, EXACT($J37, $C$5:$C$63),0)), "")</f>
         <v>y</v>
       </c>
       <c r="O37" s="30">
@@ -14050,15 +14354,15 @@
         <v>269</v>
       </c>
       <c r="Q37" s="20" t="str" cm="1">
-        <f t="array" ref="Q37" xml:space="preserve"> IFERROR( INDEX($D$5:$D$64, MATCH(TRUE, EXACT($P37, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="Q37" xml:space="preserve"> IFERROR( INDEX($D$5:$D$63, MATCH(TRUE, EXACT($P37, $C$5:$C$63),0)), "")</f>
         <v>ㆮ</v>
       </c>
       <c r="R37" s="14" t="str" cm="1">
-        <f t="array" ref="R37" xml:space="preserve"> IFERROR( INDEX($F$5:$F$64, MATCH(TRUE, EXACT($P37, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="R37" xml:space="preserve"> IFERROR( INDEX($F$5:$F$63, MATCH(TRUE, EXACT($P37, $C$5:$C$63),0)), "")</f>
         <v>Nai</v>
       </c>
       <c r="S37" s="34" t="str" cm="1">
-        <f t="array" ref="S37" xml:space="preserve"> IFERROR( INDEX($G$5:$G$64, MATCH(TRUE, EXACT($P37, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="S37" xml:space="preserve"> IFERROR( INDEX($G$5:$G$63, MATCH(TRUE, EXACT($P37, $C$5:$C$63),0)), "")</f>
         <v>Y</v>
       </c>
       <c r="U37" s="3">
@@ -14087,21 +14391,24 @@
     </row>
     <row r="38" spans="2:41">
       <c r="B38" s="22">
-        <f t="shared" ref="B38:B51" si="5" xml:space="preserve"> ROW() -4</f>
+        <f t="shared" si="6"/>
         <v>34</v>
       </c>
-      <c r="C38" s="6">
-        <v>9</v>
+      <c r="C38" s="6" t="s">
+        <v>139</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E38" s="271"/>
+        <v>110</v>
+      </c>
+      <c r="E38" s="271" t="str">
+        <f xml:space="preserve"> "ㄥ" &amp; D37</f>
+        <v>ㄥㄞ</v>
+      </c>
       <c r="F38" s="13" t="s">
-        <v>126</v>
+        <v>335</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I38" s="31">
         <f t="shared" si="3"/>
@@ -14111,15 +14418,15 @@
         <v>124</v>
       </c>
       <c r="K38" s="19" t="str" cm="1">
-        <f t="array" ref="K38" xml:space="preserve"> IFERROR( INDEX($D$5:$D$64, MATCH(TRUE, EXACT($J38, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="K38" xml:space="preserve"> IFERROR( INDEX($D$5:$D$63, MATCH(TRUE, EXACT($J38, $C$5:$C$63),0)), "")</f>
         <v>ㆨ</v>
       </c>
       <c r="L38" s="13" t="str" cm="1">
-        <f t="array" ref="L38" xml:space="preserve"> IFERROR( INDEX($F$5:$F$64, MATCH(TRUE, EXACT($J38, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="L38" xml:space="preserve"> IFERROR( INDEX($F$5:$F$63, MATCH(TRUE, EXACT($J38, $C$5:$C$63),0)), "")</f>
         <v>ir</v>
       </c>
       <c r="M38" s="35" t="str" cm="1">
-        <f t="array" ref="M38" xml:space="preserve"> IFERROR( INDEX($G$5:$G$64, MATCH(TRUE, EXACT($J38, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="M38" xml:space="preserve"> IFERROR( INDEX($G$5:$G$63, MATCH(TRUE, EXACT($J38, $C$5:$C$63),0)), "")</f>
         <v>X</v>
       </c>
       <c r="O38" s="31">
@@ -14130,15 +14437,15 @@
         <v>154</v>
       </c>
       <c r="Q38" s="19" t="str" cm="1">
-        <f t="array" ref="Q38" xml:space="preserve"> IFERROR( INDEX($D$5:$D$64, MATCH(TRUE, EXACT($P38, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="Q38" xml:space="preserve"> IFERROR( INDEX($D$5:$D$63, MATCH(TRUE, EXACT($P38, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="R38" s="13" t="str" cm="1">
-        <f t="array" ref="R38" xml:space="preserve"> IFERROR( INDEX($F$5:$F$64, MATCH(TRUE, EXACT($P38, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="R38" xml:space="preserve"> IFERROR( INDEX($F$5:$F$63, MATCH(TRUE, EXACT($P38, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="S38" s="35" t="str" cm="1">
-        <f t="array" ref="S38" xml:space="preserve"> IFERROR( INDEX($G$5:$G$64, MATCH(TRUE, EXACT($P38, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="S38" xml:space="preserve"> IFERROR( INDEX($G$5:$G$63, MATCH(TRUE, EXACT($P38, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="U38" s="3">
@@ -14167,24 +14474,21 @@
     </row>
     <row r="39" spans="2:41">
       <c r="B39" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>35</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>139</v>
+        <v>93</v>
       </c>
       <c r="D39" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="E39" s="271" t="str">
-        <f xml:space="preserve"> "ㄥ" &amp; D38</f>
-        <v>ㄥㄞ</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="E39" s="271"/>
       <c r="F39" s="13" t="s">
-        <v>335</v>
+        <v>236</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="I39" s="31">
         <f t="shared" si="3"/>
@@ -14194,15 +14498,15 @@
         <v>144</v>
       </c>
       <c r="K39" s="19" t="str" cm="1">
-        <f t="array" ref="K39" xml:space="preserve"> IFERROR( INDEX($D$5:$D$64, MATCH(TRUE, EXACT($J39, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="K39" xml:space="preserve"> IFERROR( INDEX($D$5:$D$63, MATCH(TRUE, EXACT($J39, $C$5:$C$63),0)), "")</f>
         <v>ㄠ</v>
       </c>
       <c r="L39" s="13" t="str" cm="1">
-        <f t="array" ref="L39" xml:space="preserve"> IFERROR( INDEX($F$5:$F$64, MATCH(TRUE, EXACT($J39, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="L39" xml:space="preserve"> IFERROR( INDEX($F$5:$F$63, MATCH(TRUE, EXACT($J39, $C$5:$C$63),0)), "")</f>
         <v>au</v>
       </c>
       <c r="M39" s="36" t="str" cm="1">
-        <f t="array" ref="M39" xml:space="preserve"> IFERROR( INDEX($G$5:$G$64, MATCH(TRUE, EXACT($J39, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="M39" xml:space="preserve"> IFERROR( INDEX($G$5:$G$63, MATCH(TRUE, EXACT($J39, $C$5:$C$63),0)), "")</f>
         <v>x</v>
       </c>
       <c r="O39" s="31">
@@ -14213,15 +14517,15 @@
         <v>265</v>
       </c>
       <c r="Q39" s="19" t="str" cm="1">
-        <f t="array" ref="Q39" xml:space="preserve"> IFERROR( INDEX($D$5:$D$64, MATCH(TRUE, EXACT($P39, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="Q39" xml:space="preserve"> IFERROR( INDEX($D$5:$D$63, MATCH(TRUE, EXACT($P39, $C$5:$C$63),0)), "")</f>
         <v>ㆯ</v>
       </c>
       <c r="R39" s="13" t="str" cm="1">
-        <f t="array" ref="R39" xml:space="preserve"> IFERROR( INDEX($F$5:$F$64, MATCH(TRUE, EXACT($P39, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="R39" xml:space="preserve"> IFERROR( INDEX($F$5:$F$63, MATCH(TRUE, EXACT($P39, $C$5:$C$63),0)), "")</f>
         <v>Nau</v>
       </c>
       <c r="S39" s="36" t="str" cm="1">
-        <f t="array" ref="S39" xml:space="preserve"> IFERROR( INDEX($G$5:$G$64, MATCH(TRUE, EXACT($P39, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="S39" xml:space="preserve"> IFERROR( INDEX($G$5:$G$63, MATCH(TRUE, EXACT($P39, $C$5:$C$63),0)), "")</f>
         <v>X</v>
       </c>
       <c r="U39" s="3">
@@ -14248,21 +14552,24 @@
     </row>
     <row r="40" spans="2:41">
       <c r="B40" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>36</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="D40" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="E40" s="271"/>
+        <v>111</v>
+      </c>
+      <c r="E40" s="271" t="str">
+        <f xml:space="preserve"> "ㄥ" &amp; D39</f>
+        <v>ㄥㄠ</v>
+      </c>
       <c r="F40" s="13" t="s">
-        <v>236</v>
+        <v>336</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>174</v>
+        <v>273</v>
       </c>
       <c r="I40" s="32">
         <f t="shared" si="3"/>
@@ -14272,15 +14579,15 @@
         <v>287</v>
       </c>
       <c r="K40" s="21" t="str" cm="1">
-        <f t="array" ref="K40" xml:space="preserve"> IFERROR( INDEX($D$5:$D$64, MATCH(TRUE, EXACT($J40, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="K40" xml:space="preserve"> IFERROR( INDEX($D$5:$D$63, MATCH(TRUE, EXACT($J40, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="L40" s="15" t="str" cm="1">
-        <f t="array" ref="L40" xml:space="preserve"> IFERROR( INDEX($F$5:$F$64, MATCH(TRUE, EXACT($J40, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="L40" xml:space="preserve"> IFERROR( INDEX($F$5:$F$63, MATCH(TRUE, EXACT($J40, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="M40" s="37" t="str" cm="1">
-        <f t="array" ref="M40" xml:space="preserve"> IFERROR( INDEX($G$5:$G$64, MATCH(TRUE, EXACT($J40, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="M40" xml:space="preserve"> IFERROR( INDEX($G$5:$G$63, MATCH(TRUE, EXACT($J40, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="O40" s="32">
@@ -14291,15 +14598,15 @@
         <v>287</v>
       </c>
       <c r="Q40" s="21" t="str" cm="1">
-        <f t="array" ref="Q40" xml:space="preserve"> IFERROR( INDEX($D$5:$D$64, MATCH(TRUE, EXACT($P40, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="Q40" xml:space="preserve"> IFERROR( INDEX($D$5:$D$63, MATCH(TRUE, EXACT($P40, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="R40" s="15" t="str" cm="1">
-        <f t="array" ref="R40" xml:space="preserve"> IFERROR( INDEX($F$5:$F$64, MATCH(TRUE, EXACT($P40, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="R40" xml:space="preserve"> IFERROR( INDEX($F$5:$F$63, MATCH(TRUE, EXACT($P40, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="S40" s="37" t="str" cm="1">
-        <f t="array" ref="S40" xml:space="preserve"> IFERROR( INDEX($G$5:$G$64, MATCH(TRUE, EXACT($P40, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="S40" xml:space="preserve"> IFERROR( INDEX($G$5:$G$63, MATCH(TRUE, EXACT($P40, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="U40" s="3">
@@ -14326,24 +14633,23 @@
     </row>
     <row r="41" spans="2:41">
       <c r="B41" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>37</v>
       </c>
-      <c r="C41" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D41" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="E41" s="271" t="str">
-        <f xml:space="preserve"> "ㄥ" &amp; D40</f>
-        <v>ㄥㄠ</v>
+      <c r="C41" s="40" t="s">
+        <v>264</v>
+      </c>
+      <c r="D41" s="249" t="s">
+        <v>113</v>
+      </c>
+      <c r="E41" s="275" t="s">
+        <v>725</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>336</v>
+        <v>239</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>273</v>
+        <v>307</v>
       </c>
       <c r="I41" s="30">
         <f t="shared" si="3"/>
@@ -14353,15 +14659,15 @@
         <v>0</v>
       </c>
       <c r="K41" s="20" t="str" cm="1">
-        <f t="array" ref="K41" xml:space="preserve"> IFERROR( INDEX($D$5:$D$64, MATCH(TRUE, EXACT($J41, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="K41" xml:space="preserve"> IFERROR( INDEX($D$5:$D$63, MATCH(TRUE, EXACT($J41, $C$5:$C$63),0)), "")</f>
         <v>ㄢ</v>
       </c>
       <c r="L41" s="14" t="str" cm="1">
-        <f t="array" ref="L41" xml:space="preserve"> IFERROR( INDEX($F$5:$F$64, MATCH(TRUE, EXACT($J41, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="L41" xml:space="preserve"> IFERROR( INDEX($F$5:$F$63, MATCH(TRUE, EXACT($J41, $C$5:$C$63),0)), "")</f>
         <v>an</v>
       </c>
       <c r="M41" s="34" t="str" cm="1">
-        <f t="array" ref="M41" xml:space="preserve"> IFERROR( INDEX($G$5:$G$64, MATCH(TRUE, EXACT($J41, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="M41" xml:space="preserve"> IFERROR( INDEX($G$5:$G$63, MATCH(TRUE, EXACT($J41, $C$5:$C$63),0)), "")</f>
         <v>@</v>
       </c>
       <c r="O41" s="30">
@@ -14372,15 +14678,15 @@
         <v>303</v>
       </c>
       <c r="Q41" s="20" t="str" cm="1">
-        <f t="array" ref="Q41" xml:space="preserve"> IFERROR( INDEX($D$5:$D$64, MATCH(TRUE, EXACT($P41, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="Q41" xml:space="preserve"> IFERROR( INDEX($D$5:$D$63, MATCH(TRUE, EXACT($P41, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="R41" s="14" t="str" cm="1">
-        <f t="array" ref="R41" xml:space="preserve"> IFERROR( INDEX($F$5:$F$64, MATCH(TRUE, EXACT($P41, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="R41" xml:space="preserve"> IFERROR( INDEX($F$5:$F$63, MATCH(TRUE, EXACT($P41, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="S41" s="34" t="str" cm="1">
-        <f t="array" ref="S41" xml:space="preserve"> IFERROR( INDEX($G$5:$G$64, MATCH(TRUE, EXACT($P41, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="S41" xml:space="preserve"> IFERROR( INDEX($G$5:$G$63, MATCH(TRUE, EXACT($P41, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="U41" s="3">
@@ -14407,23 +14713,23 @@
     </row>
     <row r="42" spans="2:41">
       <c r="B42" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="B42:B54" si="7" xml:space="preserve"> ROW() - 4</f>
         <v>38</v>
       </c>
       <c r="C42" s="40" t="s">
-        <v>264</v>
+        <v>118</v>
       </c>
       <c r="D42" s="249" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E42" s="275" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I42" s="31">
         <f t="shared" si="3"/>
@@ -14433,15 +14739,15 @@
         <v>141</v>
       </c>
       <c r="K42" s="19" t="str" cm="1">
-        <f t="array" ref="K42" xml:space="preserve"> IFERROR( INDEX($D$5:$D$64, MATCH(TRUE, EXACT($J42, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="K42" xml:space="preserve"> IFERROR( INDEX($D$5:$D$63, MATCH(TRUE, EXACT($J42, $C$5:$C$63),0)), "")</f>
         <v>ㄣ</v>
       </c>
       <c r="L42" s="13" t="str" cm="1">
-        <f t="array" ref="L42" xml:space="preserve"> IFERROR( INDEX($F$5:$F$64, MATCH(TRUE, EXACT($J42, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="L42" xml:space="preserve"> IFERROR( INDEX($F$5:$F$63, MATCH(TRUE, EXACT($J42, $C$5:$C$63),0)), "")</f>
         <v>-n</v>
       </c>
       <c r="M42" s="35" t="str" cm="1">
-        <f t="array" ref="M42" xml:space="preserve"> IFERROR( INDEX($G$5:$G$64, MATCH(TRUE, EXACT($J42, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="M42" xml:space="preserve"> IFERROR( INDEX($G$5:$G$63, MATCH(TRUE, EXACT($J42, $C$5:$C$63),0)), "")</f>
         <v>N</v>
       </c>
       <c r="O42" s="31">
@@ -14452,15 +14758,15 @@
         <v>170</v>
       </c>
       <c r="Q42" s="19" t="str" cm="1">
-        <f t="array" ref="Q42" xml:space="preserve"> IFERROR( INDEX($D$5:$D$64, MATCH(TRUE, EXACT($P42, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="Q42" xml:space="preserve"> IFERROR( INDEX($D$5:$D$63, MATCH(TRUE, EXACT($P42, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="R42" s="13" t="str" cm="1">
-        <f t="array" ref="R42" xml:space="preserve"> IFERROR( INDEX($F$5:$F$64, MATCH(TRUE, EXACT($P42, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="R42" xml:space="preserve"> IFERROR( INDEX($F$5:$F$63, MATCH(TRUE, EXACT($P42, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="S42" s="35" t="str" cm="1">
-        <f t="array" ref="S42" xml:space="preserve"> IFERROR( INDEX($G$5:$G$64, MATCH(TRUE, EXACT($P42, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="S42" xml:space="preserve"> IFERROR( INDEX($G$5:$G$63, MATCH(TRUE, EXACT($P42, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="U42" s="3">
@@ -14487,23 +14793,23 @@
     </row>
     <row r="43" spans="2:41">
       <c r="B43" s="22">
-        <f t="shared" ref="B43:B55" si="6" xml:space="preserve"> ROW() - 4</f>
+        <f t="shared" si="7"/>
         <v>39</v>
       </c>
       <c r="C43" s="40" t="s">
-        <v>118</v>
+        <v>308</v>
       </c>
       <c r="D43" s="249" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="E43" s="275" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="I43" s="31">
         <f t="shared" si="3"/>
@@ -14513,15 +14819,15 @@
         <v>267</v>
       </c>
       <c r="K43" s="19" t="str" cm="1">
-        <f t="array" ref="K43" xml:space="preserve"> IFERROR( INDEX($D$5:$D$64, MATCH(TRUE, EXACT($J43, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="K43" xml:space="preserve"> IFERROR( INDEX($D$5:$D$63, MATCH(TRUE, EXACT($J43, $C$5:$C$63),0)), "")</f>
         <v>ㄤ</v>
       </c>
       <c r="L43" s="13" t="str" cm="1">
-        <f t="array" ref="L43" xml:space="preserve"> IFERROR( INDEX($F$5:$F$64, MATCH(TRUE, EXACT($J43, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="L43" xml:space="preserve"> IFERROR( INDEX($F$5:$F$63, MATCH(TRUE, EXACT($J43, $C$5:$C$63),0)), "")</f>
         <v>ang</v>
       </c>
       <c r="M43" s="36" t="str" cm="1">
-        <f t="array" ref="M43" xml:space="preserve"> IFERROR( INDEX($G$5:$G$64, MATCH(TRUE, EXACT($J43, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="M43" xml:space="preserve"> IFERROR( INDEX($G$5:$G$63, MATCH(TRUE, EXACT($J43, $C$5:$C$63),0)), "")</f>
         <v>[</v>
       </c>
       <c r="O43" s="31">
@@ -14532,15 +14838,15 @@
         <v>308</v>
       </c>
       <c r="Q43" s="19" t="str" cm="1">
-        <f t="array" ref="Q43" xml:space="preserve"> IFERROR( INDEX($D$5:$D$64, MATCH(TRUE, EXACT($P43, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="Q43" xml:space="preserve"> IFERROR( INDEX($D$5:$D$63, MATCH(TRUE, EXACT($P43, $C$5:$C$63),0)), "")</f>
         <v>ㆲ</v>
       </c>
       <c r="R43" s="13" t="str" cm="1">
-        <f t="array" ref="R43" xml:space="preserve"> IFERROR( INDEX($F$5:$F$64, MATCH(TRUE, EXACT($P43, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="R43" xml:space="preserve"> IFERROR( INDEX($F$5:$F$63, MATCH(TRUE, EXACT($P43, $C$5:$C$63),0)), "")</f>
         <v>ong</v>
       </c>
       <c r="S43" s="36" t="str" cm="1">
-        <f t="array" ref="S43" xml:space="preserve"> IFERROR( INDEX($G$5:$G$64, MATCH(TRUE, EXACT($P43, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="S43" xml:space="preserve"> IFERROR( INDEX($G$5:$G$63, MATCH(TRUE, EXACT($P43, $C$5:$C$63),0)), "")</f>
         <v>]</v>
       </c>
       <c r="U43" s="3">
@@ -14574,24 +14880,22 @@
       </c>
     </row>
     <row r="44" spans="2:41">
-      <c r="B44" s="22">
-        <f t="shared" si="6"/>
+      <c r="B44" s="198">
+        <f t="shared" si="7"/>
         <v>40</v>
       </c>
-      <c r="C44" s="40" t="s">
-        <v>308</v>
-      </c>
-      <c r="D44" s="249" t="s">
-        <v>101</v>
-      </c>
-      <c r="E44" s="275" t="s">
-        <v>726</v>
-      </c>
-      <c r="F44" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>291</v>
+      <c r="C44" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="D44" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="E44" s="273"/>
+      <c r="F44" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>288</v>
       </c>
       <c r="I44" s="32">
         <f t="shared" si="3"/>
@@ -14601,15 +14905,15 @@
         <v>177</v>
       </c>
       <c r="K44" s="21" t="str" cm="1">
-        <f t="array" ref="K44" xml:space="preserve"> IFERROR( INDEX($D$5:$D$64, MATCH(TRUE, EXACT($J44, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="K44" xml:space="preserve"> IFERROR( INDEX($D$5:$D$63, MATCH(TRUE, EXACT($J44, $C$5:$C$63),0)), "")</f>
         <v>ㆭ</v>
       </c>
       <c r="L44" s="15" t="str" cm="1">
-        <f t="array" ref="L44" xml:space="preserve"> IFERROR( INDEX($F$5:$F$64, MATCH(TRUE, EXACT($J44, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="L44" xml:space="preserve"> IFERROR( INDEX($F$5:$F$63, MATCH(TRUE, EXACT($J44, $C$5:$C$63),0)), "")</f>
         <v>-ng</v>
       </c>
       <c r="M44" s="37" t="str" cm="1">
-        <f t="array" ref="M44" xml:space="preserve"> IFERROR( INDEX($G$5:$G$64, MATCH(TRUE, EXACT($J44, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="M44" xml:space="preserve"> IFERROR( INDEX($G$5:$G$63, MATCH(TRUE, EXACT($J44, $C$5:$C$63),0)), "")</f>
         <v>W</v>
       </c>
       <c r="O44" s="32">
@@ -14620,15 +14924,15 @@
         <v>146</v>
       </c>
       <c r="Q44" s="21" t="str" cm="1">
-        <f t="array" ref="Q44" xml:space="preserve"> IFERROR( INDEX($D$5:$D$64, MATCH(TRUE, EXACT($P44, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="Q44" xml:space="preserve"> IFERROR( INDEX($D$5:$D$63, MATCH(TRUE, EXACT($P44, $C$5:$C$63),0)), "")</f>
         <v>ㄫ</v>
       </c>
       <c r="R44" s="15" t="str" cm="1">
-        <f t="array" ref="R44" xml:space="preserve"> IFERROR( INDEX($F$5:$F$64, MATCH(TRUE, EXACT($P44, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="R44" xml:space="preserve"> IFERROR( INDEX($F$5:$F$63, MATCH(TRUE, EXACT($P44, $C$5:$C$63),0)), "")</f>
         <v>ng-</v>
       </c>
       <c r="S44" s="37" t="str" cm="1">
-        <f t="array" ref="S44" xml:space="preserve"> IFERROR( INDEX($G$5:$G$64, MATCH(TRUE, EXACT($P44, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="S44" xml:space="preserve"> IFERROR( INDEX($G$5:$G$63, MATCH(TRUE, EXACT($P44, $C$5:$C$63),0)), "")</f>
         <v>w</v>
       </c>
       <c r="U44" s="3">
@@ -14662,22 +14966,22 @@
       </c>
     </row>
     <row r="45" spans="2:41">
-      <c r="B45" s="198">
-        <f t="shared" si="6"/>
+      <c r="B45" s="22">
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="C45" s="38" t="s">
-        <v>267</v>
-      </c>
-      <c r="D45" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="E45" s="273"/>
-      <c r="F45" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="G45" s="10" t="s">
-        <v>288</v>
+      <c r="C45" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="D45" s="19" t="s">
+        <v>344</v>
+      </c>
+      <c r="E45" s="271"/>
+      <c r="F45" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>273</v>
       </c>
       <c r="I45" s="31">
         <f t="shared" si="3"/>
@@ -14687,15 +14991,15 @@
         <v>151</v>
       </c>
       <c r="K45" s="19" t="str" cm="1">
-        <f t="array" ref="K45" xml:space="preserve"> IFERROR( INDEX($D$5:$D$64, MATCH(TRUE, EXACT($J45, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="K45" xml:space="preserve"> IFERROR( INDEX($D$5:$D$63, MATCH(TRUE, EXACT($J45, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="L45" s="13" t="str" cm="1">
-        <f t="array" ref="L45" xml:space="preserve"> IFERROR( INDEX($F$5:$F$64, MATCH(TRUE, EXACT($J45, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="L45" xml:space="preserve"> IFERROR( INDEX($F$5:$F$63, MATCH(TRUE, EXACT($J45, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="M45" s="35" t="str" cm="1">
-        <f t="array" ref="M45" xml:space="preserve"> IFERROR( INDEX($G$5:$G$64, MATCH(TRUE, EXACT($J45, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="M45" xml:space="preserve"> IFERROR( INDEX($G$5:$G$63, MATCH(TRUE, EXACT($J45, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="O45" s="31">
@@ -14706,15 +15010,15 @@
         <v>304</v>
       </c>
       <c r="Q45" s="19" t="str" cm="1">
-        <f t="array" ref="Q45" xml:space="preserve"> IFERROR( INDEX($D$5:$D$64, MATCH(TRUE, EXACT($P45, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="Q45" xml:space="preserve"> IFERROR( INDEX($D$5:$D$63, MATCH(TRUE, EXACT($P45, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="R45" s="13" t="str" cm="1">
-        <f t="array" ref="R45" xml:space="preserve"> IFERROR( INDEX($F$5:$F$64, MATCH(TRUE, EXACT($P45, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="R45" xml:space="preserve"> IFERROR( INDEX($F$5:$F$63, MATCH(TRUE, EXACT($P45, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="S45" s="35" t="str" cm="1">
-        <f t="array" ref="S45" xml:space="preserve"> IFERROR( INDEX($G$5:$G$64, MATCH(TRUE, EXACT($P45, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="S45" xml:space="preserve"> IFERROR( INDEX($G$5:$G$63, MATCH(TRUE, EXACT($P45, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="U45" s="3">
@@ -14748,22 +15052,24 @@
       </c>
     </row>
     <row r="46" spans="2:41">
-      <c r="B46" s="22">
+      <c r="B46" s="50">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="C46" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="D46" s="19" t="s">
-        <v>344</v>
-      </c>
-      <c r="E46" s="271"/>
-      <c r="F46" s="13" t="s">
-        <v>345</v>
-      </c>
-      <c r="G46" s="5" t="s">
-        <v>273</v>
+      <c r="C46" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="D46" s="247" t="s">
+        <v>102</v>
+      </c>
+      <c r="E46" s="276" t="s">
+        <v>114</v>
+      </c>
+      <c r="F46" s="197" t="s">
+        <v>127</v>
+      </c>
+      <c r="G46" s="269" t="s">
+        <v>263</v>
       </c>
       <c r="I46" s="31">
         <f t="shared" si="3"/>
@@ -14773,15 +15079,15 @@
         <v>288</v>
       </c>
       <c r="K46" s="19" t="str" cm="1">
-        <f t="array" ref="K46" xml:space="preserve"> IFERROR( INDEX($D$5:$D$64, MATCH(TRUE, EXACT($J46, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="K46" xml:space="preserve"> IFERROR( INDEX($D$5:$D$63, MATCH(TRUE, EXACT($J46, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="L46" s="13" t="str" cm="1">
-        <f t="array" ref="L46" xml:space="preserve"> IFERROR( INDEX($F$5:$F$64, MATCH(TRUE, EXACT($J46, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="L46" xml:space="preserve"> IFERROR( INDEX($F$5:$F$63, MATCH(TRUE, EXACT($J46, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="M46" s="35" t="str" cm="1">
-        <f t="array" ref="M46" xml:space="preserve"> IFERROR( INDEX($G$5:$G$64, MATCH(TRUE, EXACT($J46, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="M46" xml:space="preserve"> IFERROR( INDEX($G$5:$G$63, MATCH(TRUE, EXACT($J46, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="O46" s="31">
@@ -14792,15 +15098,15 @@
         <v>306</v>
       </c>
       <c r="Q46" s="19" t="str" cm="1">
-        <f t="array" ref="Q46" xml:space="preserve"> IFERROR( INDEX($D$5:$D$64, MATCH(TRUE, EXACT($P46, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="Q46" xml:space="preserve"> IFERROR( INDEX($D$5:$D$63, MATCH(TRUE, EXACT($P46, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="R46" s="13" t="str" cm="1">
-        <f t="array" ref="R46" xml:space="preserve"> IFERROR( INDEX($F$5:$F$64, MATCH(TRUE, EXACT($P46, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="R46" xml:space="preserve"> IFERROR( INDEX($F$5:$F$63, MATCH(TRUE, EXACT($P46, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="S46" s="35" t="str" cm="1">
-        <f t="array" ref="S46" xml:space="preserve"> IFERROR( INDEX($G$5:$G$64, MATCH(TRUE, EXACT($P46, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="S46" xml:space="preserve"> IFERROR( INDEX($G$5:$G$63, MATCH(TRUE, EXACT($P46, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="U46" s="3">
@@ -14821,24 +15127,24 @@
       </c>
     </row>
     <row r="47" spans="2:41">
-      <c r="B47" s="50">
+      <c r="B47" s="22">
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="C47" s="39" t="s">
-        <v>177</v>
-      </c>
-      <c r="D47" s="247" t="s">
-        <v>102</v>
-      </c>
-      <c r="E47" s="276" t="s">
-        <v>114</v>
-      </c>
-      <c r="F47" s="197" t="s">
-        <v>127</v>
-      </c>
-      <c r="G47" s="269" t="s">
-        <v>263</v>
+      <c r="C47" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D47" s="268" t="s">
+        <v>100</v>
+      </c>
+      <c r="E47" s="277" t="s">
+        <v>55</v>
+      </c>
+      <c r="F47" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="I47" s="31">
         <f t="shared" si="3"/>
@@ -14848,15 +15154,15 @@
         <v>289</v>
       </c>
       <c r="K47" s="19" t="str" cm="1">
-        <f t="array" ref="K47" xml:space="preserve"> IFERROR( INDEX($D$5:$D$64, MATCH(TRUE, EXACT($J47, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="K47" xml:space="preserve"> IFERROR( INDEX($D$5:$D$63, MATCH(TRUE, EXACT($J47, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="L47" s="13" t="str" cm="1">
-        <f t="array" ref="L47" xml:space="preserve"> IFERROR( INDEX($F$5:$F$64, MATCH(TRUE, EXACT($J47, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="L47" xml:space="preserve"> IFERROR( INDEX($F$5:$F$63, MATCH(TRUE, EXACT($J47, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="M47" s="36" t="str" cm="1">
-        <f t="array" ref="M47" xml:space="preserve"> IFERROR( INDEX($G$5:$G$64, MATCH(TRUE, EXACT($J47, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="M47" xml:space="preserve"> IFERROR( INDEX($G$5:$G$63, MATCH(TRUE, EXACT($J47, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="O47" s="31">
@@ -14867,15 +15173,15 @@
         <v>309</v>
       </c>
       <c r="Q47" s="19" t="str" cm="1">
-        <f t="array" ref="Q47" xml:space="preserve"> IFERROR( INDEX($D$5:$D$64, MATCH(TRUE, EXACT($P47, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="Q47" xml:space="preserve"> IFERROR( INDEX($D$5:$D$63, MATCH(TRUE, EXACT($P47, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="R47" s="13" t="str" cm="1">
-        <f t="array" ref="R47" xml:space="preserve"> IFERROR( INDEX($F$5:$F$64, MATCH(TRUE, EXACT($P47, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="R47" xml:space="preserve"> IFERROR( INDEX($F$5:$F$63, MATCH(TRUE, EXACT($P47, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="S47" s="36" t="str" cm="1">
-        <f t="array" ref="S47" xml:space="preserve"> IFERROR( INDEX($G$5:$G$64, MATCH(TRUE, EXACT($P47, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="S47" xml:space="preserve"> IFERROR( INDEX($G$5:$G$63, MATCH(TRUE, EXACT($P47, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="U47" s="3">
@@ -14896,24 +15202,22 @@
       </c>
     </row>
     <row r="48" spans="2:41">
-      <c r="B48" s="22">
+      <c r="B48" s="198">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="C48" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="D48" s="268" t="s">
-        <v>100</v>
-      </c>
-      <c r="E48" s="277" t="s">
-        <v>55</v>
-      </c>
-      <c r="F48" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="G48" s="5" t="s">
-        <v>87</v>
+      <c r="C48" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="248" t="s">
+        <v>54</v>
+      </c>
+      <c r="E48" s="278"/>
+      <c r="F48" s="200" t="s">
+        <v>168</v>
+      </c>
+      <c r="G48" s="10" t="s">
+        <v>262</v>
       </c>
       <c r="I48" s="31">
         <f t="shared" si="3"/>
@@ -14923,15 +15227,15 @@
         <v>290</v>
       </c>
       <c r="K48" s="19" t="str" cm="1">
-        <f t="array" ref="K48" xml:space="preserve"> IFERROR( INDEX($D$5:$D$64, MATCH(TRUE, EXACT($J48, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="K48" xml:space="preserve"> IFERROR( INDEX($D$5:$D$63, MATCH(TRUE, EXACT($J48, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="L48" s="13" t="str" cm="1">
-        <f t="array" ref="L48" xml:space="preserve"> IFERROR( INDEX($F$5:$F$64, MATCH(TRUE, EXACT($J48, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="L48" xml:space="preserve"> IFERROR( INDEX($F$5:$F$63, MATCH(TRUE, EXACT($J48, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="M48" s="35" t="str" cm="1">
-        <f t="array" ref="M48" xml:space="preserve"> IFERROR( INDEX($G$5:$G$64, MATCH(TRUE, EXACT($J48, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="M48" xml:space="preserve"> IFERROR( INDEX($G$5:$G$63, MATCH(TRUE, EXACT($J48, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="O48" s="31">
@@ -14942,15 +15246,15 @@
         <v>305</v>
       </c>
       <c r="Q48" s="19" t="str" cm="1">
-        <f t="array" ref="Q48" xml:space="preserve"> IFERROR( INDEX($D$5:$D$64, MATCH(TRUE, EXACT($P48, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="Q48" xml:space="preserve"> IFERROR( INDEX($D$5:$D$63, MATCH(TRUE, EXACT($P48, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="R48" s="13" t="str" cm="1">
-        <f t="array" ref="R48" xml:space="preserve"> IFERROR( INDEX($F$5:$F$64, MATCH(TRUE, EXACT($P48, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="R48" xml:space="preserve"> IFERROR( INDEX($F$5:$F$63, MATCH(TRUE, EXACT($P48, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="S48" s="35" t="str" cm="1">
-        <f t="array" ref="S48" xml:space="preserve"> IFERROR( INDEX($G$5:$G$64, MATCH(TRUE, EXACT($P48, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="S48" xml:space="preserve"> IFERROR( INDEX($G$5:$G$63, MATCH(TRUE, EXACT($P48, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="U48" s="3">
@@ -14971,22 +15275,23 @@
       </c>
     </row>
     <row r="49" spans="2:32">
-      <c r="B49" s="198">
-        <f t="shared" si="1"/>
+      <c r="B49" s="22">
+        <f t="shared" si="6"/>
         <v>45</v>
       </c>
-      <c r="C49" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="248" t="s">
-        <v>54</v>
-      </c>
-      <c r="E49" s="278"/>
-      <c r="F49" s="200" t="s">
-        <v>168</v>
-      </c>
-      <c r="G49" s="10" t="s">
-        <v>262</v>
+      <c r="C49" s="6" t="str">
+        <f xml:space="preserve"> CHAR(32)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D49" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="E49" s="271"/>
+      <c r="F49" s="13">
+        <v>1</v>
+      </c>
+      <c r="G49" s="5">
+        <v>1</v>
       </c>
       <c r="I49" s="31">
         <f t="shared" si="3"/>
@@ -14996,15 +15301,15 @@
         <v>291</v>
       </c>
       <c r="K49" s="19" t="str" cm="1">
-        <f t="array" ref="K49" xml:space="preserve"> IFERROR( INDEX($D$5:$D$64, MATCH(TRUE, EXACT($J49, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="K49" xml:space="preserve"> IFERROR( INDEX($D$5:$D$63, MATCH(TRUE, EXACT($J49, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="L49" s="13" t="str" cm="1">
-        <f t="array" ref="L49" xml:space="preserve"> IFERROR( INDEX($F$5:$F$64, MATCH(TRUE, EXACT($J49, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="L49" xml:space="preserve"> IFERROR( INDEX($F$5:$F$63, MATCH(TRUE, EXACT($J49, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="M49" s="35" t="str" cm="1">
-        <f t="array" ref="M49" xml:space="preserve"> IFERROR( INDEX($G$5:$G$64, MATCH(TRUE, EXACT($J49, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="M49" xml:space="preserve"> IFERROR( INDEX($G$5:$G$63, MATCH(TRUE, EXACT($J49, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="O49" s="31">
@@ -15015,36 +15320,35 @@
         <v>307</v>
       </c>
       <c r="Q49" s="19" t="str" cm="1">
-        <f t="array" ref="Q49" xml:space="preserve"> IFERROR( INDEX($D$5:$D$64, MATCH(TRUE, EXACT($P49, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="Q49" xml:space="preserve"> IFERROR( INDEX($D$5:$D$63, MATCH(TRUE, EXACT($P49, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="R49" s="13" t="str" cm="1">
-        <f t="array" ref="R49" xml:space="preserve"> IFERROR( INDEX($F$5:$F$64, MATCH(TRUE, EXACT($P49, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="R49" xml:space="preserve"> IFERROR( INDEX($F$5:$F$63, MATCH(TRUE, EXACT($P49, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="S49" s="35" t="str" cm="1">
-        <f t="array" ref="S49" xml:space="preserve"> IFERROR( INDEX($G$5:$G$64, MATCH(TRUE, EXACT($P49, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="S49" xml:space="preserve"> IFERROR( INDEX($G$5:$G$63, MATCH(TRUE, EXACT($P49, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
     </row>
     <row r="50" spans="2:32">
       <c r="B50" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>46</v>
       </c>
-      <c r="C50" s="6" t="str">
-        <f xml:space="preserve"> CHAR(32)</f>
-        <v xml:space="preserve"> </v>
+      <c r="C50" s="6">
+        <v>4</v>
       </c>
       <c r="D50" s="19" t="s">
-        <v>326</v>
+        <v>14</v>
       </c>
       <c r="E50" s="271"/>
       <c r="F50" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G50" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I50" s="32">
         <f t="shared" si="3"/>
@@ -15054,15 +15358,15 @@
         <v>292</v>
       </c>
       <c r="K50" s="21" t="str" cm="1">
-        <f t="array" ref="K50" xml:space="preserve"> IFERROR( INDEX($D$5:$D$64, MATCH(TRUE, EXACT($J50, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="K50" xml:space="preserve"> IFERROR( INDEX($D$5:$D$63, MATCH(TRUE, EXACT($J50, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="L50" s="15" t="str" cm="1">
-        <f t="array" ref="L50" xml:space="preserve"> IFERROR( INDEX($F$5:$F$64, MATCH(TRUE, EXACT($J50, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="L50" xml:space="preserve"> IFERROR( INDEX($F$5:$F$63, MATCH(TRUE, EXACT($J50, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="M50" s="37" t="str" cm="1">
-        <f t="array" ref="M50" xml:space="preserve"> IFERROR( INDEX($G$5:$G$64, MATCH(TRUE, EXACT($J50, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="M50" xml:space="preserve"> IFERROR( INDEX($G$5:$G$63, MATCH(TRUE, EXACT($J50, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="O50" s="32">
@@ -15073,35 +15377,35 @@
         <v>310</v>
       </c>
       <c r="Q50" s="21" t="str" cm="1">
-        <f t="array" ref="Q50" xml:space="preserve"> IFERROR( INDEX($D$5:$D$64, MATCH(TRUE, EXACT($P50, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="Q50" xml:space="preserve"> IFERROR( INDEX($D$5:$D$63, MATCH(TRUE, EXACT($P50, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="R50" s="15" t="str" cm="1">
-        <f t="array" ref="R50" xml:space="preserve"> IFERROR( INDEX($F$5:$F$64, MATCH(TRUE, EXACT($P50, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="R50" xml:space="preserve"> IFERROR( INDEX($F$5:$F$63, MATCH(TRUE, EXACT($P50, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
       <c r="S50" s="37" t="str" cm="1">
-        <f t="array" ref="S50" xml:space="preserve"> IFERROR( INDEX($G$5:$G$64, MATCH(TRUE, EXACT($P50, $C$5:$C$64),0)), "")</f>
+        <f t="array" ref="S50" xml:space="preserve"> IFERROR( INDEX($G$5:$G$63, MATCH(TRUE, EXACT($P50, $C$5:$C$63),0)), "")</f>
         <v/>
       </c>
     </row>
     <row r="51" spans="2:32">
       <c r="B51" s="22">
-        <f t="shared" si="5"/>
+        <f xml:space="preserve"> ROW() - 4</f>
         <v>47</v>
       </c>
       <c r="C51" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D51" s="19" t="s">
-        <v>14</v>
+        <v>304</v>
       </c>
       <c r="E51" s="271"/>
       <c r="F51" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G51" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I51" s="3">
         <f t="shared" si="3"/>
@@ -15118,31 +15422,33 @@
       <c r="P51" s="6"/>
       <c r="Q51" s="19"/>
       <c r="R51" s="13" t="str">
-        <f t="shared" ref="R51:R59" si="7" xml:space="preserve"> IFERROR( INDEX($F$5:$F$64, MATCH($Q51, $D$5:$D$64,0)), "")</f>
+        <f xml:space="preserve"> IFERROR( INDEX($F$5:$F$63, MATCH($Q51, $D$5:$D$63,0)), "")</f>
         <v/>
       </c>
       <c r="S51" s="7" t="str">
-        <f t="shared" ref="S51:S59" si="8" xml:space="preserve"> IFERROR( INDEX($G$5:$G$64, MATCH($Q51, $D$5:$D$64,0)), "")</f>
+        <f xml:space="preserve"> IFERROR( INDEX($G$5:$G$63, MATCH($Q51, $D$5:$D$63,0)), "")</f>
         <v/>
       </c>
     </row>
     <row r="52" spans="2:32">
       <c r="B52" s="22">
-        <f xml:space="preserve"> ROW() - 4</f>
+        <f t="shared" si="7"/>
         <v>48</v>
       </c>
       <c r="C52" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D52" s="19" t="s">
-        <v>304</v>
-      </c>
-      <c r="E52" s="271"/>
+        <v>723</v>
+      </c>
+      <c r="E52" s="271" t="s">
+        <v>732</v>
+      </c>
       <c r="F52" s="13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G52" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I52" s="3">
         <f t="shared" si="3"/>
@@ -15159,31 +15465,31 @@
       <c r="P52" s="6"/>
       <c r="Q52" s="19"/>
       <c r="R52" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f xml:space="preserve"> IFERROR( INDEX($F$5:$F$63, MATCH($Q52, $D$5:$D$63,0)), "")</f>
         <v/>
       </c>
       <c r="S52" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f xml:space="preserve"> IFERROR( INDEX($G$5:$G$63, MATCH($Q52, $D$5:$D$63,0)), "")</f>
         <v/>
       </c>
     </row>
     <row r="53" spans="2:32">
       <c r="B53" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>49</v>
       </c>
       <c r="C53" s="6">
-        <v>6</v>
-      </c>
-      <c r="D53" s="19" t="s">
-        <v>723</v>
+        <v>5</v>
+      </c>
+      <c r="D53" s="267" t="s">
+        <v>305</v>
       </c>
       <c r="E53" s="271"/>
       <c r="F53" s="13">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G53" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I53" s="3">
         <f t="shared" si="3"/>
@@ -15200,31 +15506,31 @@
       <c r="P53" s="6"/>
       <c r="Q53" s="19"/>
       <c r="R53" s="13" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX($F$5:$F$63, MATCH($Q53, $D$5:$D$63,0)), "")</f>
+        <v/>
+      </c>
+      <c r="S53" s="5" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX($G$5:$G$63, MATCH($Q53, $D$5:$D$63,0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="2:32">
+      <c r="B54" s="198">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="S53" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="2:32">
-      <c r="B54" s="22">
-        <f t="shared" si="6"/>
         <v>50</v>
       </c>
-      <c r="C54" s="6">
-        <v>5</v>
-      </c>
-      <c r="D54" s="267" t="s">
-        <v>305</v>
-      </c>
-      <c r="E54" s="271"/>
-      <c r="F54" s="13">
+      <c r="C54" s="11">
         <v>7</v>
       </c>
-      <c r="G54" s="5">
-        <v>7</v>
+      <c r="D54" s="21" t="s">
+        <v>732</v>
+      </c>
+      <c r="E54" s="273"/>
+      <c r="F54" s="15">
+        <v>8</v>
+      </c>
+      <c r="G54" s="10">
+        <v>0</v>
       </c>
       <c r="I54" s="3">
         <f t="shared" si="3"/>
@@ -15241,32 +15547,15 @@
       <c r="P54" s="6"/>
       <c r="Q54" s="19"/>
       <c r="R54" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f xml:space="preserve"> IFERROR( INDEX($F$5:$F$63, MATCH($Q54, $D$5:$D$63,0)), "")</f>
         <v/>
       </c>
       <c r="S54" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f xml:space="preserve"> IFERROR( INDEX($G$5:$G$63, MATCH($Q54, $D$5:$D$63,0)), "")</f>
         <v/>
       </c>
     </row>
     <row r="55" spans="2:32">
-      <c r="B55" s="198">
-        <f t="shared" si="6"/>
-        <v>51</v>
-      </c>
-      <c r="C55" s="11">
-        <v>7</v>
-      </c>
-      <c r="D55" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="E55" s="273"/>
-      <c r="F55" s="15">
-        <v>8</v>
-      </c>
-      <c r="G55" s="10">
-        <v>0</v>
-      </c>
       <c r="I55" s="3">
         <f t="shared" si="3"/>
         <v>51</v>
@@ -15282,15 +15571,25 @@
       <c r="P55" s="6"/>
       <c r="Q55" s="19"/>
       <c r="R55" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f xml:space="preserve"> IFERROR( INDEX($F$5:$F$63, MATCH($Q55, $D$5:$D$63,0)), "")</f>
         <v/>
       </c>
       <c r="S55" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f xml:space="preserve"> IFERROR( INDEX($G$5:$G$63, MATCH($Q55, $D$5:$D$63,0)), "")</f>
         <v/>
       </c>
     </row>
     <row r="56" spans="2:32">
+      <c r="B56" s="50">
+        <v>49</v>
+      </c>
+      <c r="C56" s="9"/>
+      <c r="D56" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E56" s="20"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="8"/>
       <c r="I56" s="3">
         <f t="shared" si="3"/>
         <v>52</v>
@@ -15306,25 +15605,25 @@
       <c r="P56" s="6"/>
       <c r="Q56" s="19"/>
       <c r="R56" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f xml:space="preserve"> IFERROR( INDEX($F$5:$F$63, MATCH($Q56, $D$5:$D$63,0)), "")</f>
         <v/>
       </c>
       <c r="S56" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f xml:space="preserve"> IFERROR( INDEX($G$5:$G$63, MATCH($Q56, $D$5:$D$63,0)), "")</f>
         <v/>
       </c>
     </row>
     <row r="57" spans="2:32">
-      <c r="B57" s="50">
-        <v>49</v>
-      </c>
-      <c r="C57" s="9"/>
-      <c r="D57" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E57" s="20"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="8"/>
+      <c r="B57" s="22">
+        <v>50</v>
+      </c>
+      <c r="C57" s="6"/>
+      <c r="D57" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="E57" s="19"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="5"/>
       <c r="I57" s="3">
         <f t="shared" si="3"/>
         <v>53</v>
@@ -15340,21 +15639,21 @@
       <c r="P57" s="6"/>
       <c r="Q57" s="19"/>
       <c r="R57" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f xml:space="preserve"> IFERROR( INDEX($F$5:$F$63, MATCH($Q57, $D$5:$D$63,0)), "")</f>
         <v/>
       </c>
       <c r="S57" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f xml:space="preserve"> IFERROR( INDEX($G$5:$G$63, MATCH($Q57, $D$5:$D$63,0)), "")</f>
         <v/>
       </c>
     </row>
     <row r="58" spans="2:32">
       <c r="B58" s="22">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C58" s="6"/>
       <c r="D58" s="19" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="E58" s="19"/>
       <c r="F58" s="13"/>
@@ -15374,11 +15673,11 @@
       <c r="P58" s="6"/>
       <c r="Q58" s="19"/>
       <c r="R58" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f xml:space="preserve"> IFERROR( INDEX($F$5:$F$63, MATCH($Q58, $D$5:$D$63,0)), "")</f>
         <v/>
       </c>
       <c r="S58" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f xml:space="preserve"> IFERROR( INDEX($G$5:$G$63, MATCH($Q58, $D$5:$D$63,0)), "")</f>
         <v/>
       </c>
       <c r="AB58" s="207"/>
@@ -15387,16 +15686,16 @@
       <c r="AE58" s="207"/>
     </row>
     <row r="59" spans="2:32">
-      <c r="B59" s="22">
-        <v>51</v>
-      </c>
-      <c r="C59" s="6"/>
-      <c r="D59" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="E59" s="19"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="5"/>
+      <c r="B59" s="198">
+        <v>52</v>
+      </c>
+      <c r="C59" s="11"/>
+      <c r="D59" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E59" s="21"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="10"/>
       <c r="I59" s="3">
         <f t="shared" si="3"/>
         <v>55</v>
@@ -15412,11 +15711,11 @@
       <c r="P59" s="6"/>
       <c r="Q59" s="19"/>
       <c r="R59" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f xml:space="preserve"> IFERROR( INDEX($F$5:$F$63, MATCH($Q59, $D$5:$D$63,0)), "")</f>
         <v/>
       </c>
       <c r="S59" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f xml:space="preserve"> IFERROR( INDEX($G$5:$G$63, MATCH($Q59, $D$5:$D$63,0)), "")</f>
         <v/>
       </c>
       <c r="AB59" s="206">
@@ -15429,16 +15728,18 @@
       <c r="AE59" s="207"/>
     </row>
     <row r="60" spans="2:32">
-      <c r="B60" s="198">
-        <v>52</v>
-      </c>
-      <c r="C60" s="11"/>
-      <c r="D60" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="E60" s="21"/>
-      <c r="F60" s="15"/>
-      <c r="G60" s="10"/>
+      <c r="B60" s="22">
+        <v>53</v>
+      </c>
+      <c r="C60" s="6"/>
+      <c r="D60" s="211" t="s">
+        <v>346</v>
+      </c>
+      <c r="E60" s="211"/>
+      <c r="F60" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="G60" s="5"/>
       <c r="AB60" s="206"/>
       <c r="AC60" s="206"/>
       <c r="AD60" s="207"/>
@@ -15446,15 +15747,15 @@
     </row>
     <row r="61" spans="2:32">
       <c r="B61" s="22">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C61" s="6"/>
       <c r="D61" s="211" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E61" s="211"/>
       <c r="F61" s="13" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G61" s="5"/>
       <c r="AB61" s="206">
@@ -15468,15 +15769,15 @@
     </row>
     <row r="62" spans="2:32">
       <c r="B62" s="22">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C62" s="6"/>
       <c r="D62" s="211" t="s">
-        <v>347</v>
+        <v>234</v>
       </c>
       <c r="E62" s="211"/>
       <c r="F62" s="13" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G62" s="5"/>
       <c r="AB62" s="207"/>
@@ -15489,15 +15790,16 @@
     </row>
     <row r="63" spans="2:32">
       <c r="B63" s="22">
-        <v>55</v>
+        <f>B62+1</f>
+        <v>56</v>
       </c>
       <c r="C63" s="6"/>
       <c r="D63" s="211" t="s">
-        <v>234</v>
+        <v>94</v>
       </c>
       <c r="E63" s="211"/>
       <c r="F63" s="13" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="G63" s="5"/>
       <c r="AB63" s="207"/>
@@ -15506,19 +15808,9 @@
       <c r="AE63" s="207"/>
     </row>
     <row r="64" spans="2:32">
-      <c r="B64" s="22">
-        <f>B63+1</f>
-        <v>56</v>
-      </c>
-      <c r="C64" s="6"/>
-      <c r="D64" s="211" t="s">
-        <v>94</v>
-      </c>
-      <c r="E64" s="211"/>
-      <c r="F64" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="G64" s="5"/>
+      <c r="D64" s="18" t="s">
+        <v>117</v>
+      </c>
       <c r="AB64" s="207"/>
       <c r="AC64" s="207"/>
       <c r="AD64" s="207"/>
@@ -16236,7 +16528,7 @@
   <dimension ref="B2:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AZ27" sqref="AZ27"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
@@ -16569,6 +16861,461 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D15AEE0A-7B2F-4EE2-B806-3A35F1DC081A}">
+  <dimension ref="B2:O31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="25.5"/>
+  <cols>
+    <col min="1" max="1" width="4.796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.296875" style="1" customWidth="1"/>
+    <col min="3" max="6" width="8.796875" style="326"/>
+    <col min="7" max="8" width="8.796875" style="1"/>
+    <col min="9" max="9" width="34.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.69921875" style="331" customWidth="1"/>
+    <col min="11" max="11" width="8.59765625" style="331" customWidth="1"/>
+    <col min="12" max="12" width="9.19921875" style="331" customWidth="1"/>
+    <col min="13" max="13" width="8.796875" style="1"/>
+    <col min="14" max="14" width="10.5" style="1" customWidth="1"/>
+    <col min="15" max="15" width="14.09765625" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.796875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15">
+      <c r="B2" s="327" t="s">
+        <v>736</v>
+      </c>
+      <c r="C2" s="328" t="s">
+        <v>348</v>
+      </c>
+      <c r="D2" s="328" t="s">
+        <v>349</v>
+      </c>
+      <c r="E2" s="328" t="s">
+        <v>350</v>
+      </c>
+      <c r="F2" s="328" t="s">
+        <v>351</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="335" t="s">
+        <v>733</v>
+      </c>
+      <c r="C4" s="336">
+        <v>1</v>
+      </c>
+      <c r="D4" s="336">
+        <v>2</v>
+      </c>
+      <c r="E4" s="336">
+        <v>3</v>
+      </c>
+      <c r="F4" s="336">
+        <v>4</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="J4" s="333" t="str">
+        <f>D7</f>
+        <v>ㄚˋ</v>
+      </c>
+      <c r="K4" s="332" t="s">
+        <v>745</v>
+      </c>
+      <c r="L4" s="333" t="str">
+        <f>C7</f>
+        <v>ㄚ</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="335" t="s">
+        <v>778</v>
+      </c>
+      <c r="C5" s="336" t="s">
+        <v>779</v>
+      </c>
+      <c r="D5" s="336" t="s">
+        <v>780</v>
+      </c>
+      <c r="E5" s="336" t="s">
+        <v>781</v>
+      </c>
+      <c r="F5" s="336" t="s">
+        <v>782</v>
+      </c>
+      <c r="J5" s="331">
+        <v>53</v>
+      </c>
+      <c r="L5" s="331" t="s">
+        <v>355</v>
+      </c>
+      <c r="N5" s="334">
+        <v>2</v>
+      </c>
+      <c r="O5" s="334">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="337" t="s">
+        <v>735</v>
+      </c>
+      <c r="C6" s="338" t="s">
+        <v>765</v>
+      </c>
+      <c r="D6" s="338" t="s">
+        <v>764</v>
+      </c>
+      <c r="E6" s="338"/>
+      <c r="F6" s="338"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="327" t="s">
+        <v>739</v>
+      </c>
+      <c r="C7" s="329" t="s">
+        <v>387</v>
+      </c>
+      <c r="D7" s="212" t="s">
+        <v>740</v>
+      </c>
+      <c r="E7" s="212" t="s">
+        <v>742</v>
+      </c>
+      <c r="F7" s="212" t="s">
+        <v>389</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="J7" s="333" t="str">
+        <f>C14</f>
+        <v>ㄚˇ</v>
+      </c>
+      <c r="K7" s="332" t="s">
+        <v>745</v>
+      </c>
+      <c r="L7" s="333" t="str">
+        <f>E14</f>
+        <v>ㄚ+</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="327" t="s">
+        <v>734</v>
+      </c>
+      <c r="C8" s="330" t="s">
+        <v>365</v>
+      </c>
+      <c r="D8" s="330" t="s">
+        <v>366</v>
+      </c>
+      <c r="E8" s="330" t="s">
+        <v>738</v>
+      </c>
+      <c r="F8" s="330" t="s">
+        <v>768</v>
+      </c>
+      <c r="J8" s="331">
+        <v>13</v>
+      </c>
+      <c r="L8" s="331" t="s">
+        <v>763</v>
+      </c>
+      <c r="N8" s="334">
+        <v>5</v>
+      </c>
+      <c r="O8" s="334">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="327" t="s">
+        <v>761</v>
+      </c>
+      <c r="C9" s="330" t="s">
+        <v>355</v>
+      </c>
+      <c r="D9" s="330">
+        <v>53</v>
+      </c>
+      <c r="E9" s="330" t="s">
+        <v>762</v>
+      </c>
+      <c r="F9" s="330"/>
+    </row>
+    <row r="10" spans="2:15">
+      <c r="H10" s="1">
+        <v>3</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="J10" s="333" t="str">
+        <f>C7</f>
+        <v>ㄚ</v>
+      </c>
+      <c r="K10" s="332" t="s">
+        <v>745</v>
+      </c>
+      <c r="L10" s="333" t="str">
+        <f>E14</f>
+        <v>ㄚ+</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15">
+      <c r="B11" s="335" t="s">
+        <v>733</v>
+      </c>
+      <c r="C11" s="336">
+        <v>5</v>
+      </c>
+      <c r="D11" s="336">
+        <v>6</v>
+      </c>
+      <c r="E11" s="336">
+        <v>7</v>
+      </c>
+      <c r="F11" s="336">
+        <v>8</v>
+      </c>
+      <c r="J11" s="331" t="s">
+        <v>355</v>
+      </c>
+      <c r="L11" s="331" t="s">
+        <v>763</v>
+      </c>
+      <c r="N11" s="334">
+        <v>1</v>
+      </c>
+      <c r="O11" s="334">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15">
+      <c r="B12" s="335" t="s">
+        <v>778</v>
+      </c>
+      <c r="C12" s="336" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="336" t="s">
+        <v>783</v>
+      </c>
+      <c r="E12" s="336" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="336" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15">
+      <c r="B13" s="337" t="s">
+        <v>735</v>
+      </c>
+      <c r="C13" s="338" t="s">
+        <v>766</v>
+      </c>
+      <c r="D13" s="338"/>
+      <c r="E13" s="338"/>
+      <c r="F13" s="338" t="s">
+        <v>767</v>
+      </c>
+      <c r="H13" s="1">
+        <v>4</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="J13" s="333" t="str">
+        <f>E14</f>
+        <v>ㄚ+</v>
+      </c>
+      <c r="K13" s="332" t="s">
+        <v>745</v>
+      </c>
+      <c r="L13" s="333" t="str">
+        <f>E7</f>
+        <v>ㄚ_</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15">
+      <c r="B14" s="327" t="s">
+        <v>739</v>
+      </c>
+      <c r="C14" s="212" t="s">
+        <v>741</v>
+      </c>
+      <c r="D14" s="328"/>
+      <c r="E14" s="212" t="s">
+        <v>743</v>
+      </c>
+      <c r="F14" s="212" t="s">
+        <v>390</v>
+      </c>
+      <c r="J14" s="331" t="s">
+        <v>763</v>
+      </c>
+      <c r="L14" s="331" t="s">
+        <v>762</v>
+      </c>
+      <c r="N14" s="334">
+        <v>7</v>
+      </c>
+      <c r="O14" s="334">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15">
+      <c r="B15" s="327" t="s">
+        <v>734</v>
+      </c>
+      <c r="C15" s="330" t="s">
+        <v>737</v>
+      </c>
+      <c r="D15" s="330"/>
+      <c r="E15" s="330" t="s">
+        <v>369</v>
+      </c>
+      <c r="F15" s="330" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15">
+      <c r="B16" s="327" t="s">
+        <v>761</v>
+      </c>
+      <c r="C16" s="330">
+        <v>13</v>
+      </c>
+      <c r="D16" s="330"/>
+      <c r="E16" s="330" t="s">
+        <v>763</v>
+      </c>
+      <c r="F16" s="330"/>
+      <c r="H16" s="1">
+        <v>5</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="J16" s="333" t="str">
+        <f>E7</f>
+        <v>ㄚ_</v>
+      </c>
+      <c r="K16" s="332" t="s">
+        <v>745</v>
+      </c>
+      <c r="L16" s="333" t="str">
+        <f>D7</f>
+        <v>ㄚˋ</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15">
+      <c r="J17" s="331" t="s">
+        <v>762</v>
+      </c>
+      <c r="L17" s="331">
+        <v>53</v>
+      </c>
+      <c r="N17" s="334">
+        <v>3</v>
+      </c>
+      <c r="O17" s="334">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15">
+      <c r="I19" s="1" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15">
+      <c r="I20" s="1" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15">
+      <c r="B21" s="1" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15">
+      <c r="B23" s="1" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15">
+      <c r="B25" s="1" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15">
+      <c r="B27" s="1" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15">
+      <c r="B29" s="1" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15">
+      <c r="B31" s="1" t="s">
+        <v>774</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19DE9CFD-53AD-45A2-806F-6419AEAB025D}">
   <dimension ref="B2:Q67"/>
   <sheetViews>
@@ -16582,14 +17329,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7">
-      <c r="B2" s="309" t="s">
+      <c r="B2" s="308" t="s">
         <v>421</v>
       </c>
-      <c r="C2" s="309"/>
-      <c r="D2" s="309"/>
-      <c r="E2" s="309"/>
-      <c r="F2" s="309"/>
-      <c r="G2" s="309"/>
+      <c r="C2" s="308"/>
+      <c r="D2" s="308"/>
+      <c r="E2" s="308"/>
+      <c r="F2" s="308"/>
+      <c r="G2" s="308"/>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="214" t="s">
@@ -16618,16 +17365,16 @@
       <c r="C5" s="216" t="s">
         <v>426</v>
       </c>
-      <c r="D5" s="307" t="s">
+      <c r="D5" s="304" t="s">
         <v>428</v>
       </c>
-      <c r="E5" s="316" t="s">
+      <c r="E5" s="306" t="s">
         <v>159</v>
       </c>
       <c r="F5" s="216" t="s">
         <v>429</v>
       </c>
-      <c r="G5" s="307" t="s">
+      <c r="G5" s="304" t="s">
         <v>431</v>
       </c>
     </row>
@@ -16636,12 +17383,12 @@
       <c r="C6" s="217" t="s">
         <v>427</v>
       </c>
-      <c r="D6" s="308"/>
-      <c r="E6" s="317"/>
+      <c r="D6" s="305"/>
+      <c r="E6" s="307"/>
       <c r="F6" s="217" t="s">
         <v>430</v>
       </c>
-      <c r="G6" s="308"/>
+      <c r="G6" s="305"/>
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="302" t="s">
@@ -16650,16 +17397,16 @@
       <c r="C7" s="216" t="s">
         <v>432</v>
       </c>
-      <c r="D7" s="307" t="s">
+      <c r="D7" s="304" t="s">
         <v>434</v>
       </c>
-      <c r="E7" s="316" t="s">
+      <c r="E7" s="306" t="s">
         <v>162</v>
       </c>
       <c r="F7" s="216" t="s">
         <v>435</v>
       </c>
-      <c r="G7" s="307" t="s">
+      <c r="G7" s="304" t="s">
         <v>437</v>
       </c>
     </row>
@@ -16668,12 +17415,12 @@
       <c r="C8" s="217" t="s">
         <v>433</v>
       </c>
-      <c r="D8" s="308"/>
-      <c r="E8" s="317"/>
+      <c r="D8" s="305"/>
+      <c r="E8" s="307"/>
       <c r="F8" s="217" t="s">
         <v>436</v>
       </c>
-      <c r="G8" s="308"/>
+      <c r="G8" s="305"/>
     </row>
     <row r="9" spans="2:7">
       <c r="B9" s="302" t="s">
@@ -16682,16 +17429,16 @@
       <c r="C9" s="216" t="s">
         <v>438</v>
       </c>
-      <c r="D9" s="307" t="s">
+      <c r="D9" s="304" t="s">
         <v>440</v>
       </c>
-      <c r="E9" s="316" t="s">
+      <c r="E9" s="306" t="s">
         <v>441</v>
       </c>
-      <c r="F9" s="316" t="s">
+      <c r="F9" s="306" t="s">
         <v>441</v>
       </c>
-      <c r="G9" s="316" t="s">
+      <c r="G9" s="306" t="s">
         <v>441</v>
       </c>
     </row>
@@ -16700,10 +17447,10 @@
       <c r="C10" s="217" t="s">
         <v>439</v>
       </c>
-      <c r="D10" s="308"/>
-      <c r="E10" s="317"/>
-      <c r="F10" s="317"/>
-      <c r="G10" s="317"/>
+      <c r="D10" s="305"/>
+      <c r="E10" s="307"/>
+      <c r="F10" s="307"/>
+      <c r="G10" s="307"/>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="302" t="s">
@@ -16712,16 +17459,16 @@
       <c r="C11" s="216" t="s">
         <v>442</v>
       </c>
-      <c r="D11" s="307" t="s">
+      <c r="D11" s="304" t="s">
         <v>444</v>
       </c>
-      <c r="E11" s="316" t="s">
+      <c r="E11" s="306" t="s">
         <v>161</v>
       </c>
       <c r="F11" s="216" t="s">
         <v>445</v>
       </c>
-      <c r="G11" s="307" t="s">
+      <c r="G11" s="304" t="s">
         <v>447</v>
       </c>
     </row>
@@ -16730,12 +17477,12 @@
       <c r="C12" s="217" t="s">
         <v>443</v>
       </c>
-      <c r="D12" s="308"/>
-      <c r="E12" s="317"/>
+      <c r="D12" s="305"/>
+      <c r="E12" s="307"/>
       <c r="F12" s="217" t="s">
         <v>446</v>
       </c>
-      <c r="G12" s="308"/>
+      <c r="G12" s="305"/>
     </row>
     <row r="13" spans="2:7">
       <c r="B13" s="302" t="s">
@@ -16744,16 +17491,16 @@
       <c r="C13" s="216" t="s">
         <v>448</v>
       </c>
-      <c r="D13" s="307" t="s">
+      <c r="D13" s="304" t="s">
         <v>450</v>
       </c>
-      <c r="E13" s="316" t="s">
+      <c r="E13" s="306" t="s">
         <v>441</v>
       </c>
-      <c r="F13" s="316" t="s">
+      <c r="F13" s="306" t="s">
         <v>441</v>
       </c>
-      <c r="G13" s="316" t="s">
+      <c r="G13" s="306" t="s">
         <v>441</v>
       </c>
     </row>
@@ -16762,10 +17509,10 @@
       <c r="C14" s="217" t="s">
         <v>449</v>
       </c>
-      <c r="D14" s="308"/>
-      <c r="E14" s="317"/>
-      <c r="F14" s="317"/>
-      <c r="G14" s="317"/>
+      <c r="D14" s="305"/>
+      <c r="E14" s="307"/>
+      <c r="F14" s="307"/>
+      <c r="G14" s="307"/>
     </row>
     <row r="15" spans="2:7">
       <c r="B15" s="302" t="s">
@@ -16774,16 +17521,16 @@
       <c r="C15" s="216" t="s">
         <v>452</v>
       </c>
-      <c r="D15" s="307" t="s">
+      <c r="D15" s="304" t="s">
         <v>454</v>
       </c>
-      <c r="E15" s="316" t="s">
+      <c r="E15" s="306" t="s">
         <v>160</v>
       </c>
       <c r="F15" s="216" t="s">
         <v>455</v>
       </c>
-      <c r="G15" s="307" t="s">
+      <c r="G15" s="304" t="s">
         <v>457</v>
       </c>
     </row>
@@ -16792,12 +17539,12 @@
       <c r="C16" s="217" t="s">
         <v>453</v>
       </c>
-      <c r="D16" s="308"/>
-      <c r="E16" s="317"/>
+      <c r="D16" s="305"/>
+      <c r="E16" s="307"/>
       <c r="F16" s="217" t="s">
         <v>456</v>
       </c>
-      <c r="G16" s="308"/>
+      <c r="G16" s="305"/>
     </row>
     <row r="17" spans="2:12">
       <c r="B17" s="218" t="s">
@@ -16810,14 +17557,14 @@
       </c>
     </row>
     <row r="19" spans="2:12">
-      <c r="B19" s="309" t="s">
+      <c r="B19" s="308" t="s">
         <v>460</v>
       </c>
-      <c r="C19" s="309"/>
-      <c r="D19" s="309"/>
-      <c r="E19" s="309"/>
-      <c r="F19" s="309"/>
-      <c r="G19" s="309"/>
+      <c r="C19" s="308"/>
+      <c r="D19" s="308"/>
+      <c r="E19" s="308"/>
+      <c r="F19" s="308"/>
+      <c r="G19" s="308"/>
     </row>
     <row r="21" spans="2:12">
       <c r="B21" s="214" t="s">
@@ -16846,19 +17593,19 @@
       <c r="C22" s="216" t="s">
         <v>461</v>
       </c>
-      <c r="D22" s="316" t="s">
+      <c r="D22" s="306" t="s">
         <v>463</v>
       </c>
-      <c r="E22" s="316" t="s">
+      <c r="E22" s="306" t="s">
         <v>464</v>
       </c>
       <c r="F22" s="216" t="s">
         <v>465</v>
       </c>
-      <c r="G22" s="316" t="s">
+      <c r="G22" s="306" t="s">
         <v>463</v>
       </c>
-      <c r="I22" s="304" t="s">
+      <c r="I22" s="317" t="s">
         <v>591</v>
       </c>
       <c r="J22" s="302" t="s">
@@ -16873,12 +17620,12 @@
       <c r="C23" s="217" t="s">
         <v>462</v>
       </c>
-      <c r="D23" s="317"/>
-      <c r="E23" s="317"/>
+      <c r="D23" s="307"/>
+      <c r="E23" s="307"/>
       <c r="F23" s="217" t="s">
         <v>466</v>
       </c>
-      <c r="G23" s="317"/>
+      <c r="G23" s="307"/>
       <c r="I23" s="303"/>
       <c r="J23" s="303"/>
       <c r="L23" t="s">
@@ -16892,19 +17639,19 @@
       <c r="C24" s="216" t="s">
         <v>467</v>
       </c>
-      <c r="D24" s="316" t="s">
+      <c r="D24" s="306" t="s">
         <v>463</v>
       </c>
-      <c r="E24" s="316" t="s">
+      <c r="E24" s="306" t="s">
         <v>441</v>
       </c>
-      <c r="F24" s="316" t="s">
+      <c r="F24" s="306" t="s">
         <v>441</v>
       </c>
-      <c r="G24" s="316" t="s">
+      <c r="G24" s="306" t="s">
         <v>441</v>
       </c>
-      <c r="I24" s="304" t="s">
+      <c r="I24" s="317" t="s">
         <v>592</v>
       </c>
       <c r="J24" s="302" t="s">
@@ -16919,10 +17666,10 @@
       <c r="C25" s="217" t="s">
         <v>468</v>
       </c>
-      <c r="D25" s="317"/>
-      <c r="E25" s="317"/>
-      <c r="F25" s="317"/>
-      <c r="G25" s="317"/>
+      <c r="D25" s="307"/>
+      <c r="E25" s="307"/>
+      <c r="F25" s="307"/>
+      <c r="G25" s="307"/>
       <c r="I25" s="303"/>
       <c r="J25" s="303"/>
       <c r="L25" t="s">
@@ -16936,19 +17683,19 @@
       <c r="C26" s="216" t="s">
         <v>470</v>
       </c>
-      <c r="D26" s="316" t="s">
+      <c r="D26" s="306" t="s">
         <v>463</v>
       </c>
-      <c r="E26" s="316" t="s">
+      <c r="E26" s="306" t="s">
         <v>472</v>
       </c>
       <c r="F26" s="216" t="s">
         <v>473</v>
       </c>
-      <c r="G26" s="316" t="s">
+      <c r="G26" s="306" t="s">
         <v>463</v>
       </c>
-      <c r="I26" s="304" t="s">
+      <c r="I26" s="317" t="s">
         <v>593</v>
       </c>
       <c r="J26" s="302" t="s">
@@ -16963,12 +17710,12 @@
       <c r="C27" s="217" t="s">
         <v>471</v>
       </c>
-      <c r="D27" s="317"/>
-      <c r="E27" s="317"/>
+      <c r="D27" s="307"/>
+      <c r="E27" s="307"/>
       <c r="F27" s="217" t="s">
         <v>474</v>
       </c>
-      <c r="G27" s="317"/>
+      <c r="G27" s="307"/>
       <c r="I27" s="303"/>
       <c r="J27" s="303"/>
       <c r="L27" t="s">
@@ -16982,19 +17729,19 @@
       <c r="C28" s="216" t="s">
         <v>476</v>
       </c>
-      <c r="D28" s="316" t="s">
+      <c r="D28" s="306" t="s">
         <v>463</v>
       </c>
-      <c r="E28" s="316" t="s">
+      <c r="E28" s="306" t="s">
         <v>478</v>
       </c>
       <c r="F28" s="216" t="s">
         <v>479</v>
       </c>
-      <c r="G28" s="316" t="s">
+      <c r="G28" s="306" t="s">
         <v>463</v>
       </c>
-      <c r="I28" s="304" t="str">
+      <c r="I28" s="317" t="str">
         <f xml:space="preserve"> L23 &amp; L24</f>
         <v>ㄧㄨ</v>
       </c>
@@ -17007,12 +17754,12 @@
       <c r="C29" s="217" t="s">
         <v>477</v>
       </c>
-      <c r="D29" s="317"/>
-      <c r="E29" s="317"/>
+      <c r="D29" s="307"/>
+      <c r="E29" s="307"/>
       <c r="F29" s="217" t="s">
         <v>480</v>
       </c>
-      <c r="G29" s="317"/>
+      <c r="G29" s="307"/>
       <c r="I29" s="303"/>
       <c r="J29" s="303"/>
       <c r="L29" t="s">
@@ -17026,16 +17773,16 @@
       <c r="C30" s="216" t="s">
         <v>482</v>
       </c>
-      <c r="D30" s="316" t="s">
+      <c r="D30" s="306" t="s">
         <v>463</v>
       </c>
-      <c r="E30" s="316" t="s">
+      <c r="E30" s="306" t="s">
         <v>484</v>
       </c>
       <c r="F30" s="216" t="s">
         <v>485</v>
       </c>
-      <c r="G30" s="316" t="s">
+      <c r="G30" s="306" t="s">
         <v>463</v>
       </c>
       <c r="I30" s="302" t="str">
@@ -17054,12 +17801,12 @@
       <c r="C31" s="217" t="s">
         <v>483</v>
       </c>
-      <c r="D31" s="317"/>
-      <c r="E31" s="317"/>
+      <c r="D31" s="307"/>
+      <c r="E31" s="307"/>
       <c r="F31" s="217" t="s">
         <v>480</v>
       </c>
-      <c r="G31" s="317"/>
+      <c r="G31" s="307"/>
       <c r="I31" s="303"/>
       <c r="J31" s="303"/>
       <c r="L31" t="s">
@@ -17073,16 +17820,16 @@
       <c r="C32" s="216" t="s">
         <v>487</v>
       </c>
-      <c r="D32" s="316" t="s">
+      <c r="D32" s="306" t="s">
         <v>463</v>
       </c>
-      <c r="E32" s="316" t="s">
+      <c r="E32" s="306" t="s">
         <v>489</v>
       </c>
       <c r="F32" s="216" t="s">
         <v>441</v>
       </c>
-      <c r="G32" s="316" t="s">
+      <c r="G32" s="306" t="s">
         <v>463</v>
       </c>
       <c r="I32" s="302" t="str">
@@ -17098,12 +17845,12 @@
       <c r="C33" s="217" t="s">
         <v>488</v>
       </c>
-      <c r="D33" s="317"/>
-      <c r="E33" s="317"/>
+      <c r="D33" s="307"/>
+      <c r="E33" s="307"/>
       <c r="F33" s="217" t="s">
         <v>441</v>
       </c>
-      <c r="G33" s="317"/>
+      <c r="G33" s="307"/>
       <c r="I33" s="303"/>
       <c r="J33" s="303"/>
       <c r="L33" t="s">
@@ -17117,16 +17864,16 @@
       <c r="C34" s="216" t="s">
         <v>491</v>
       </c>
-      <c r="D34" s="316" t="s">
+      <c r="D34" s="306" t="s">
         <v>463</v>
       </c>
-      <c r="E34" s="316" t="s">
+      <c r="E34" s="306" t="s">
         <v>493</v>
       </c>
       <c r="F34" s="216" t="s">
         <v>494</v>
       </c>
-      <c r="G34" s="316" t="s">
+      <c r="G34" s="306" t="s">
         <v>463</v>
       </c>
       <c r="I34" s="302" t="str">
@@ -17145,12 +17892,12 @@
       <c r="C35" s="217" t="s">
         <v>492</v>
       </c>
-      <c r="D35" s="317"/>
-      <c r="E35" s="317"/>
+      <c r="D35" s="307"/>
+      <c r="E35" s="307"/>
       <c r="F35" s="217" t="s">
         <v>495</v>
       </c>
-      <c r="G35" s="317"/>
+      <c r="G35" s="307"/>
       <c r="I35" s="303"/>
       <c r="J35" s="303"/>
       <c r="L35" t="s">
@@ -17164,16 +17911,16 @@
       <c r="C36" s="216" t="s">
         <v>496</v>
       </c>
-      <c r="D36" s="316" t="s">
+      <c r="D36" s="306" t="s">
         <v>463</v>
       </c>
-      <c r="E36" s="316" t="s">
+      <c r="E36" s="306" t="s">
         <v>441</v>
       </c>
-      <c r="F36" s="316" t="s">
+      <c r="F36" s="306" t="s">
         <v>441</v>
       </c>
-      <c r="G36" s="316" t="s">
+      <c r="G36" s="306" t="s">
         <v>441</v>
       </c>
       <c r="I36" s="302" t="str">
@@ -17189,10 +17936,10 @@
       <c r="C37" s="217" t="s">
         <v>497</v>
       </c>
-      <c r="D37" s="317"/>
-      <c r="E37" s="317"/>
-      <c r="F37" s="317"/>
-      <c r="G37" s="317"/>
+      <c r="D37" s="307"/>
+      <c r="E37" s="307"/>
+      <c r="F37" s="307"/>
+      <c r="G37" s="307"/>
       <c r="I37" s="303"/>
       <c r="J37" s="303"/>
     </row>
@@ -17203,16 +17950,16 @@
       <c r="C38" s="216" t="s">
         <v>498</v>
       </c>
-      <c r="D38" s="316" t="s">
+      <c r="D38" s="306" t="s">
         <v>463</v>
       </c>
-      <c r="E38" s="316" t="s">
+      <c r="E38" s="306" t="s">
         <v>500</v>
       </c>
       <c r="F38" s="216" t="s">
         <v>501</v>
       </c>
-      <c r="G38" s="316" t="s">
+      <c r="G38" s="306" t="s">
         <v>463</v>
       </c>
       <c r="I38" s="302" t="str">
@@ -17228,12 +17975,12 @@
       <c r="C39" s="217" t="s">
         <v>499</v>
       </c>
-      <c r="D39" s="317"/>
-      <c r="E39" s="317"/>
+      <c r="D39" s="307"/>
+      <c r="E39" s="307"/>
       <c r="F39" s="217" t="s">
         <v>502</v>
       </c>
-      <c r="G39" s="317"/>
+      <c r="G39" s="307"/>
       <c r="I39" s="303"/>
       <c r="J39" s="303"/>
     </row>
@@ -17248,23 +17995,23 @@
       </c>
     </row>
     <row r="42" spans="2:12">
-      <c r="B42" s="309" t="s">
+      <c r="B42" s="308" t="s">
         <v>504</v>
       </c>
-      <c r="C42" s="309"/>
-      <c r="D42" s="309"/>
-      <c r="E42" s="309"/>
-      <c r="F42" s="309"/>
-      <c r="G42" s="309"/>
+      <c r="C42" s="308"/>
+      <c r="D42" s="308"/>
+      <c r="E42" s="308"/>
+      <c r="F42" s="308"/>
+      <c r="G42" s="308"/>
     </row>
     <row r="44" spans="2:12">
       <c r="B44" s="220" t="s">
         <v>505</v>
       </c>
-      <c r="C44" s="312" t="s">
+      <c r="C44" s="309" t="s">
         <v>423</v>
       </c>
-      <c r="D44" s="312" t="s">
+      <c r="D44" s="309" t="s">
         <v>424</v>
       </c>
     </row>
@@ -17272,8 +18019,8 @@
       <c r="B45" s="221" t="s">
         <v>422</v>
       </c>
-      <c r="C45" s="313"/>
-      <c r="D45" s="313"/>
+      <c r="C45" s="310"/>
+      <c r="D45" s="310"/>
     </row>
     <row r="46" spans="2:12">
       <c r="B46" s="302" t="s">
@@ -17282,7 +18029,7 @@
       <c r="C46" s="216" t="s">
         <v>506</v>
       </c>
-      <c r="D46" s="316" t="s">
+      <c r="D46" s="306" t="s">
         <v>508</v>
       </c>
     </row>
@@ -17291,7 +18038,7 @@
       <c r="C47" s="217" t="s">
         <v>507</v>
       </c>
-      <c r="D47" s="317"/>
+      <c r="D47" s="307"/>
     </row>
     <row r="48" spans="2:12">
       <c r="B48" s="302" t="s">
@@ -17300,7 +18047,7 @@
       <c r="C48" s="216" t="s">
         <v>509</v>
       </c>
-      <c r="D48" s="316" t="s">
+      <c r="D48" s="306" t="s">
         <v>511</v>
       </c>
     </row>
@@ -17309,7 +18056,7 @@
       <c r="C49" s="217" t="s">
         <v>510</v>
       </c>
-      <c r="D49" s="317"/>
+      <c r="D49" s="307"/>
     </row>
     <row r="52" spans="2:17">
       <c r="B52" s="218" t="s">
@@ -17322,92 +18069,92 @@
       </c>
     </row>
     <row r="54" spans="2:17">
-      <c r="B54" s="309" t="s">
+      <c r="B54" s="308" t="s">
         <v>513</v>
       </c>
-      <c r="C54" s="309"/>
-      <c r="D54" s="309"/>
-      <c r="E54" s="309"/>
-      <c r="F54" s="309"/>
-      <c r="G54" s="309"/>
-      <c r="H54" s="309"/>
-      <c r="I54" s="309"/>
-      <c r="J54" s="309"/>
-      <c r="K54" s="309"/>
-      <c r="L54" s="309"/>
-      <c r="M54" s="309"/>
-      <c r="N54" s="309"/>
-      <c r="O54" s="309"/>
-      <c r="P54" s="309"/>
-      <c r="Q54" s="309"/>
+      <c r="C54" s="308"/>
+      <c r="D54" s="308"/>
+      <c r="E54" s="308"/>
+      <c r="F54" s="308"/>
+      <c r="G54" s="308"/>
+      <c r="H54" s="308"/>
+      <c r="I54" s="308"/>
+      <c r="J54" s="308"/>
+      <c r="K54" s="308"/>
+      <c r="L54" s="308"/>
+      <c r="M54" s="308"/>
+      <c r="N54" s="308"/>
+      <c r="O54" s="308"/>
+      <c r="P54" s="308"/>
+      <c r="Q54" s="308"/>
     </row>
     <row r="56" spans="2:17">
-      <c r="B56" s="309" t="s">
+      <c r="B56" s="308" t="s">
         <v>514</v>
       </c>
-      <c r="C56" s="309"/>
-      <c r="D56" s="309"/>
-      <c r="E56" s="309"/>
-      <c r="F56" s="309"/>
-      <c r="G56" s="309"/>
-      <c r="H56" s="309"/>
-      <c r="I56" s="309"/>
-      <c r="J56" s="309"/>
-      <c r="K56" s="309"/>
-      <c r="L56" s="309"/>
-      <c r="M56" s="309"/>
-      <c r="N56" s="309"/>
-      <c r="O56" s="309"/>
-      <c r="P56" s="309"/>
-      <c r="Q56" s="309"/>
+      <c r="C56" s="308"/>
+      <c r="D56" s="308"/>
+      <c r="E56" s="308"/>
+      <c r="F56" s="308"/>
+      <c r="G56" s="308"/>
+      <c r="H56" s="308"/>
+      <c r="I56" s="308"/>
+      <c r="J56" s="308"/>
+      <c r="K56" s="308"/>
+      <c r="L56" s="308"/>
+      <c r="M56" s="308"/>
+      <c r="N56" s="308"/>
+      <c r="O56" s="308"/>
+      <c r="P56" s="308"/>
+      <c r="Q56" s="308"/>
     </row>
     <row r="58" spans="2:17">
       <c r="B58" s="222" t="s">
         <v>515</v>
       </c>
-      <c r="C58" s="314" t="s">
+      <c r="C58" s="313" t="s">
         <v>517</v>
       </c>
-      <c r="D58" s="312" t="s">
+      <c r="D58" s="309" t="s">
         <v>423</v>
       </c>
-      <c r="E58" s="312" t="s">
+      <c r="E58" s="309" t="s">
         <v>424</v>
       </c>
       <c r="F58" s="220" t="s">
         <v>518</v>
       </c>
-      <c r="G58" s="312" t="s">
+      <c r="G58" s="309" t="s">
         <v>423</v>
       </c>
-      <c r="H58" s="312" t="s">
+      <c r="H58" s="309" t="s">
         <v>424</v>
       </c>
       <c r="I58" s="220" t="s">
         <v>518</v>
       </c>
-      <c r="J58" s="312" t="s">
+      <c r="J58" s="309" t="s">
         <v>423</v>
       </c>
-      <c r="K58" s="312" t="s">
+      <c r="K58" s="309" t="s">
         <v>424</v>
       </c>
-      <c r="L58" s="314" t="s">
+      <c r="L58" s="313" t="s">
         <v>521</v>
       </c>
-      <c r="M58" s="312" t="s">
+      <c r="M58" s="309" t="s">
         <v>423</v>
       </c>
-      <c r="N58" s="312" t="s">
+      <c r="N58" s="309" t="s">
         <v>424</v>
       </c>
-      <c r="O58" s="314" t="s">
+      <c r="O58" s="313" t="s">
         <v>522</v>
       </c>
-      <c r="P58" s="312" t="s">
+      <c r="P58" s="309" t="s">
         <v>423</v>
       </c>
-      <c r="Q58" s="312" t="s">
+      <c r="Q58" s="309" t="s">
         <v>424</v>
       </c>
     </row>
@@ -17415,25 +18162,25 @@
       <c r="B59" s="223" t="s">
         <v>516</v>
       </c>
-      <c r="C59" s="315"/>
-      <c r="D59" s="313"/>
-      <c r="E59" s="313"/>
+      <c r="C59" s="314"/>
+      <c r="D59" s="310"/>
+      <c r="E59" s="310"/>
       <c r="F59" s="221" t="s">
         <v>519</v>
       </c>
-      <c r="G59" s="313"/>
-      <c r="H59" s="313"/>
+      <c r="G59" s="310"/>
+      <c r="H59" s="310"/>
       <c r="I59" s="221" t="s">
         <v>520</v>
       </c>
-      <c r="J59" s="313"/>
-      <c r="K59" s="313"/>
-      <c r="L59" s="315"/>
-      <c r="M59" s="313"/>
-      <c r="N59" s="313"/>
-      <c r="O59" s="315"/>
-      <c r="P59" s="313"/>
-      <c r="Q59" s="313"/>
+      <c r="J59" s="310"/>
+      <c r="K59" s="310"/>
+      <c r="L59" s="314"/>
+      <c r="M59" s="310"/>
+      <c r="N59" s="310"/>
+      <c r="O59" s="314"/>
+      <c r="P59" s="310"/>
+      <c r="Q59" s="310"/>
     </row>
     <row r="60" spans="2:17" ht="28.5">
       <c r="B60" s="224" t="s">
@@ -17445,7 +18192,7 @@
       <c r="D60" s="216" t="s">
         <v>525</v>
       </c>
-      <c r="E60" s="307" t="s">
+      <c r="E60" s="304" t="s">
         <v>527</v>
       </c>
       <c r="F60" s="302" t="s">
@@ -17454,7 +18201,7 @@
       <c r="G60" s="216" t="s">
         <v>528</v>
       </c>
-      <c r="H60" s="307" t="s">
+      <c r="H60" s="304" t="s">
         <v>530</v>
       </c>
       <c r="I60" s="302" t="s">
@@ -17463,7 +18210,7 @@
       <c r="J60" s="216" t="s">
         <v>531</v>
       </c>
-      <c r="K60" s="307" t="s">
+      <c r="K60" s="304" t="s">
         <v>533</v>
       </c>
       <c r="L60" s="302" t="s">
@@ -17472,12 +18219,12 @@
       <c r="M60" s="216" t="s">
         <v>534</v>
       </c>
-      <c r="N60" s="307" t="s">
+      <c r="N60" s="304" t="s">
         <v>536</v>
       </c>
-      <c r="O60" s="310"/>
-      <c r="P60" s="305"/>
-      <c r="Q60" s="305"/>
+      <c r="O60" s="311"/>
+      <c r="P60" s="315"/>
+      <c r="Q60" s="315"/>
     </row>
     <row r="61" spans="2:17">
       <c r="B61" s="225" t="s">
@@ -17487,40 +18234,40 @@
       <c r="D61" s="217" t="s">
         <v>526</v>
       </c>
-      <c r="E61" s="308"/>
+      <c r="E61" s="305"/>
       <c r="F61" s="303"/>
       <c r="G61" s="217" t="s">
         <v>529</v>
       </c>
-      <c r="H61" s="308"/>
+      <c r="H61" s="305"/>
       <c r="I61" s="303"/>
       <c r="J61" s="217" t="s">
         <v>532</v>
       </c>
-      <c r="K61" s="308"/>
+      <c r="K61" s="305"/>
       <c r="L61" s="303"/>
       <c r="M61" s="217" t="s">
         <v>535</v>
       </c>
-      <c r="N61" s="308"/>
-      <c r="O61" s="311"/>
-      <c r="P61" s="306"/>
-      <c r="Q61" s="306"/>
+      <c r="N61" s="305"/>
+      <c r="O61" s="312"/>
+      <c r="P61" s="316"/>
+      <c r="Q61" s="316"/>
     </row>
     <row r="62" spans="2:17" ht="28.5">
       <c r="B62" s="224" t="s">
         <v>537</v>
       </c>
-      <c r="C62" s="310"/>
-      <c r="D62" s="305"/>
-      <c r="E62" s="305"/>
+      <c r="C62" s="311"/>
+      <c r="D62" s="315"/>
+      <c r="E62" s="315"/>
       <c r="F62" s="302" t="s">
         <v>11</v>
       </c>
       <c r="G62" s="216" t="s">
         <v>539</v>
       </c>
-      <c r="H62" s="307" t="s">
+      <c r="H62" s="304" t="s">
         <v>541</v>
       </c>
       <c r="I62" s="302" t="s">
@@ -17529,7 +18276,7 @@
       <c r="J62" s="216" t="s">
         <v>542</v>
       </c>
-      <c r="K62" s="307" t="s">
+      <c r="K62" s="304" t="s">
         <v>544</v>
       </c>
       <c r="L62" s="302" t="s">
@@ -17538,7 +18285,7 @@
       <c r="M62" s="216" t="s">
         <v>545</v>
       </c>
-      <c r="N62" s="307" t="s">
+      <c r="N62" s="304" t="s">
         <v>547</v>
       </c>
       <c r="O62" s="302" t="s">
@@ -17547,7 +18294,7 @@
       <c r="P62" s="216" t="s">
         <v>548</v>
       </c>
-      <c r="Q62" s="307" t="s">
+      <c r="Q62" s="304" t="s">
         <v>550</v>
       </c>
     </row>
@@ -17555,29 +18302,29 @@
       <c r="B63" s="225" t="s">
         <v>538</v>
       </c>
-      <c r="C63" s="311"/>
-      <c r="D63" s="306"/>
-      <c r="E63" s="306"/>
+      <c r="C63" s="312"/>
+      <c r="D63" s="316"/>
+      <c r="E63" s="316"/>
       <c r="F63" s="303"/>
       <c r="G63" s="217" t="s">
         <v>540</v>
       </c>
-      <c r="H63" s="308"/>
+      <c r="H63" s="305"/>
       <c r="I63" s="303"/>
       <c r="J63" s="217" t="s">
         <v>543</v>
       </c>
-      <c r="K63" s="308"/>
+      <c r="K63" s="305"/>
       <c r="L63" s="303"/>
       <c r="M63" s="217" t="s">
         <v>546</v>
       </c>
-      <c r="N63" s="308"/>
+      <c r="N63" s="305"/>
       <c r="O63" s="303"/>
       <c r="P63" s="217" t="s">
         <v>549</v>
       </c>
-      <c r="Q63" s="308"/>
+      <c r="Q63" s="305"/>
     </row>
     <row r="64" spans="2:17" ht="28.5">
       <c r="B64" s="224" t="s">
@@ -17589,7 +18336,7 @@
       <c r="D64" s="216" t="s">
         <v>553</v>
       </c>
-      <c r="E64" s="307" t="s">
+      <c r="E64" s="304" t="s">
         <v>555</v>
       </c>
       <c r="F64" s="302" t="s">
@@ -17598,7 +18345,7 @@
       <c r="G64" s="216" t="s">
         <v>556</v>
       </c>
-      <c r="H64" s="307" t="s">
+      <c r="H64" s="304" t="s">
         <v>558</v>
       </c>
       <c r="I64" s="302" t="s">
@@ -17607,7 +18354,7 @@
       <c r="J64" s="216" t="s">
         <v>559</v>
       </c>
-      <c r="K64" s="307" t="s">
+      <c r="K64" s="304" t="s">
         <v>561</v>
       </c>
       <c r="L64" s="302" t="s">
@@ -17616,7 +18363,7 @@
       <c r="M64" s="216" t="s">
         <v>562</v>
       </c>
-      <c r="N64" s="307" t="s">
+      <c r="N64" s="304" t="s">
         <v>564</v>
       </c>
       <c r="O64" s="302" t="s">
@@ -17625,7 +18372,7 @@
       <c r="P64" s="216" t="s">
         <v>565</v>
       </c>
-      <c r="Q64" s="307" t="s">
+      <c r="Q64" s="304" t="s">
         <v>567</v>
       </c>
     </row>
@@ -17637,27 +18384,27 @@
       <c r="D65" s="217" t="s">
         <v>554</v>
       </c>
-      <c r="E65" s="308"/>
+      <c r="E65" s="305"/>
       <c r="F65" s="303"/>
       <c r="G65" s="217" t="s">
         <v>557</v>
       </c>
-      <c r="H65" s="308"/>
+      <c r="H65" s="305"/>
       <c r="I65" s="303"/>
       <c r="J65" s="217" t="s">
         <v>560</v>
       </c>
-      <c r="K65" s="308"/>
+      <c r="K65" s="305"/>
       <c r="L65" s="303"/>
       <c r="M65" s="217" t="s">
         <v>563</v>
       </c>
-      <c r="N65" s="308"/>
+      <c r="N65" s="305"/>
       <c r="O65" s="303"/>
       <c r="P65" s="217" t="s">
         <v>566</v>
       </c>
-      <c r="Q65" s="308"/>
+      <c r="Q65" s="305"/>
     </row>
     <row r="66" spans="2:17" ht="28.5">
       <c r="B66" s="224" t="s">
@@ -17669,7 +18416,7 @@
       <c r="D66" s="216" t="s">
         <v>570</v>
       </c>
-      <c r="E66" s="307" t="s">
+      <c r="E66" s="304" t="s">
         <v>572</v>
       </c>
       <c r="F66" s="302" t="s">
@@ -17678,7 +18425,7 @@
       <c r="G66" s="216" t="s">
         <v>573</v>
       </c>
-      <c r="H66" s="307" t="s">
+      <c r="H66" s="304" t="s">
         <v>575</v>
       </c>
       <c r="I66" s="302" t="s">
@@ -17687,19 +18434,19 @@
       <c r="J66" s="216" t="s">
         <v>576</v>
       </c>
-      <c r="K66" s="307" t="s">
+      <c r="K66" s="304" t="s">
         <v>578</v>
       </c>
-      <c r="L66" s="310"/>
-      <c r="M66" s="305"/>
-      <c r="N66" s="305"/>
+      <c r="L66" s="311"/>
+      <c r="M66" s="315"/>
+      <c r="N66" s="315"/>
       <c r="O66" s="302" t="s">
         <v>99</v>
       </c>
       <c r="P66" s="216" t="s">
         <v>579</v>
       </c>
-      <c r="Q66" s="307" t="s">
+      <c r="Q66" s="304" t="s">
         <v>581</v>
       </c>
     </row>
@@ -17711,77 +18458,104 @@
       <c r="D67" s="217" t="s">
         <v>571</v>
       </c>
-      <c r="E67" s="308"/>
+      <c r="E67" s="305"/>
       <c r="F67" s="303"/>
       <c r="G67" s="217" t="s">
         <v>574</v>
       </c>
-      <c r="H67" s="308"/>
+      <c r="H67" s="305"/>
       <c r="I67" s="303"/>
       <c r="J67" s="217" t="s">
         <v>577</v>
       </c>
-      <c r="K67" s="308"/>
-      <c r="L67" s="311"/>
-      <c r="M67" s="306"/>
-      <c r="N67" s="306"/>
+      <c r="K67" s="305"/>
+      <c r="L67" s="312"/>
+      <c r="M67" s="316"/>
+      <c r="N67" s="316"/>
       <c r="O67" s="303"/>
       <c r="P67" s="217" t="s">
         <v>580</v>
       </c>
-      <c r="Q67" s="308"/>
+      <c r="Q67" s="305"/>
     </row>
   </sheetData>
   <mergeCells count="149">
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="M66:M67"/>
+    <mergeCell ref="N66:N67"/>
+    <mergeCell ref="O66:O67"/>
+    <mergeCell ref="Q66:Q67"/>
+    <mergeCell ref="B54:Q54"/>
+    <mergeCell ref="B56:Q56"/>
+    <mergeCell ref="N64:N65"/>
+    <mergeCell ref="O64:O65"/>
+    <mergeCell ref="Q64:Q65"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="I66:I67"/>
+    <mergeCell ref="K66:K67"/>
+    <mergeCell ref="L66:L67"/>
+    <mergeCell ref="N62:N63"/>
+    <mergeCell ref="O62:O63"/>
+    <mergeCell ref="Q62:Q63"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="I64:I65"/>
+    <mergeCell ref="K64:K65"/>
+    <mergeCell ref="L64:L65"/>
+    <mergeCell ref="P60:P61"/>
+    <mergeCell ref="Q60:Q61"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="I62:I63"/>
+    <mergeCell ref="K62:K63"/>
+    <mergeCell ref="L62:L63"/>
+    <mergeCell ref="Q58:Q59"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="K60:K61"/>
+    <mergeCell ref="L60:L61"/>
+    <mergeCell ref="N60:N61"/>
+    <mergeCell ref="O60:O61"/>
+    <mergeCell ref="K58:K59"/>
+    <mergeCell ref="L58:L59"/>
+    <mergeCell ref="M58:M59"/>
+    <mergeCell ref="N58:N59"/>
+    <mergeCell ref="O58:O59"/>
+    <mergeCell ref="P58:P59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="J58:J59"/>
     <mergeCell ref="B46:B47"/>
     <mergeCell ref="D46:D47"/>
     <mergeCell ref="B48:B49"/>
@@ -17806,82 +18580,55 @@
     <mergeCell ref="G36:G37"/>
     <mergeCell ref="B30:B31"/>
     <mergeCell ref="D30:D31"/>
-    <mergeCell ref="Q58:Q59"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="I60:I61"/>
-    <mergeCell ref="K60:K61"/>
-    <mergeCell ref="L60:L61"/>
-    <mergeCell ref="N60:N61"/>
-    <mergeCell ref="O60:O61"/>
-    <mergeCell ref="K58:K59"/>
-    <mergeCell ref="L58:L59"/>
-    <mergeCell ref="M58:M59"/>
-    <mergeCell ref="N58:N59"/>
-    <mergeCell ref="O58:O59"/>
-    <mergeCell ref="P58:P59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="J58:J59"/>
-    <mergeCell ref="K64:K65"/>
-    <mergeCell ref="L64:L65"/>
-    <mergeCell ref="P60:P61"/>
-    <mergeCell ref="Q60:Q61"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="I62:I63"/>
-    <mergeCell ref="K62:K63"/>
-    <mergeCell ref="L62:L63"/>
-    <mergeCell ref="M66:M67"/>
-    <mergeCell ref="N66:N67"/>
-    <mergeCell ref="O66:O67"/>
-    <mergeCell ref="Q66:Q67"/>
-    <mergeCell ref="B54:Q54"/>
-    <mergeCell ref="B56:Q56"/>
-    <mergeCell ref="N64:N65"/>
-    <mergeCell ref="O64:O65"/>
-    <mergeCell ref="Q64:Q65"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="I66:I67"/>
-    <mergeCell ref="K66:K67"/>
-    <mergeCell ref="L66:L67"/>
-    <mergeCell ref="N62:N63"/>
-    <mergeCell ref="O62:O63"/>
-    <mergeCell ref="Q62:Q63"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="H64:H65"/>
-    <mergeCell ref="I64:I65"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="J34:J35"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -17920,7 +18667,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E644ABDB-3D7B-43C6-8568-322C35562DB9}">
   <dimension ref="B2:L36"/>
   <sheetViews>

--- a/docs/鍵盤設計規格_台語135拼音.xlsx
+++ b/docs/鍵盤設計規格_台語135拼音.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\home\alanjui\workspace\rime\rime-tlpa\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B6026D-69FC-49FC-A5D0-0812C45FA637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5547691D-1B3A-4FCD-9988-8B7C571AC9E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8ADEA2FE-7CD1-466B-8EB5-9AA2577FE19A}"/>
   </bookViews>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1331" uniqueCount="791">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="791">
   <si>
     <t>2 @</t>
   </si>
@@ -5072,6 +5072,39 @@
     <xf numFmtId="0" fontId="114" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="3" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="3" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="3" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5090,21 +5123,6 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5117,24 +5135,6 @@
     <xf numFmtId="0" fontId="57" fillId="3" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="3" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="3" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="3" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -5144,7 +5144,37 @@
     <xf numFmtId="0" fontId="91" fillId="21" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="95" fillId="21" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="92" fillId="18" borderId="25" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="18" borderId="26" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="18" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="18" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="20" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="20" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="21" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="21" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="19" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="19" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="90" fillId="18" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5153,37 +5183,7 @@
     <xf numFmtId="0" fontId="90" fillId="18" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="92" fillId="18" borderId="25" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="92" fillId="18" borderId="26" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="91" fillId="21" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="91" fillId="21" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="91" fillId="20" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="91" fillId="20" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="91" fillId="19" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="91" fillId="19" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="90" fillId="18" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="90" fillId="18" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="95" fillId="21" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="98" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -5748,66 +5748,66 @@
     </row>
     <row r="2" spans="1:72" s="79" customFormat="1" ht="31.5" customHeight="1">
       <c r="A2" s="77"/>
-      <c r="B2" s="296" t="s">
+      <c r="B2" s="293" t="s">
         <v>316</v>
       </c>
-      <c r="C2" s="297"/>
-      <c r="D2" s="298"/>
-      <c r="E2" s="296" t="s">
+      <c r="C2" s="294"/>
+      <c r="D2" s="295"/>
+      <c r="E2" s="293" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="297"/>
-      <c r="G2" s="298"/>
-      <c r="H2" s="305" t="s">
+      <c r="F2" s="294"/>
+      <c r="G2" s="295"/>
+      <c r="H2" s="290" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="306"/>
-      <c r="J2" s="307"/>
-      <c r="K2" s="305" t="s">
+      <c r="I2" s="291"/>
+      <c r="J2" s="292"/>
+      <c r="K2" s="290" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="306"/>
-      <c r="M2" s="307"/>
-      <c r="N2" s="308">
+      <c r="L2" s="291"/>
+      <c r="M2" s="292"/>
+      <c r="N2" s="296">
         <v>0.05</v>
       </c>
-      <c r="O2" s="309"/>
-      <c r="P2" s="310"/>
-      <c r="Q2" s="305" t="s">
+      <c r="O2" s="297"/>
+      <c r="P2" s="298"/>
+      <c r="Q2" s="290" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="306"/>
-      <c r="S2" s="307"/>
-      <c r="T2" s="305" t="s">
+      <c r="R2" s="291"/>
+      <c r="S2" s="292"/>
+      <c r="T2" s="290" t="s">
         <v>4</v>
       </c>
-      <c r="U2" s="306"/>
-      <c r="V2" s="307"/>
-      <c r="W2" s="290" t="s">
+      <c r="U2" s="291"/>
+      <c r="V2" s="292"/>
+      <c r="W2" s="301" t="s">
         <v>317</v>
       </c>
-      <c r="X2" s="291"/>
-      <c r="Y2" s="292"/>
-      <c r="Z2" s="290" t="s">
+      <c r="X2" s="302"/>
+      <c r="Y2" s="303"/>
+      <c r="Z2" s="301" t="s">
         <v>318</v>
       </c>
-      <c r="AA2" s="291"/>
-      <c r="AB2" s="292"/>
-      <c r="AC2" s="290" t="s">
+      <c r="AA2" s="302"/>
+      <c r="AB2" s="303"/>
+      <c r="AC2" s="301" t="s">
         <v>5</v>
       </c>
-      <c r="AD2" s="291"/>
-      <c r="AE2" s="292"/>
-      <c r="AF2" s="293" t="s">
+      <c r="AD2" s="302"/>
+      <c r="AE2" s="303"/>
+      <c r="AF2" s="304" t="s">
         <v>6</v>
       </c>
-      <c r="AG2" s="294"/>
-      <c r="AH2" s="295"/>
-      <c r="AI2" s="293" t="s">
+      <c r="AG2" s="305"/>
+      <c r="AH2" s="306"/>
+      <c r="AI2" s="304" t="s">
         <v>7</v>
       </c>
-      <c r="AJ2" s="294"/>
-      <c r="AK2" s="295"/>
+      <c r="AJ2" s="305"/>
+      <c r="AK2" s="306"/>
       <c r="AL2" s="77"/>
       <c r="AM2" s="77"/>
       <c r="AN2" s="77"/>
@@ -5933,38 +5933,38 @@
       <c r="G4" s="191" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="301" t="s">
+      <c r="H4" s="307" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="302"/>
+      <c r="I4" s="308"/>
       <c r="J4" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="303" t="s">
+      <c r="K4" s="309" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="304"/>
+      <c r="L4" s="310"/>
       <c r="M4" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="N4" s="301" t="s">
+      <c r="N4" s="307" t="s">
         <v>16</v>
       </c>
-      <c r="O4" s="302"/>
+      <c r="O4" s="308"/>
       <c r="P4" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="Q4" s="303" t="s">
+      <c r="Q4" s="309" t="s">
         <v>18</v>
       </c>
-      <c r="R4" s="304"/>
+      <c r="R4" s="310"/>
       <c r="S4" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="T4" s="301" t="s">
+      <c r="T4" s="307" t="s">
         <v>322</v>
       </c>
-      <c r="U4" s="302"/>
+      <c r="U4" s="308"/>
       <c r="V4" s="101" t="s">
         <v>323</v>
       </c>
@@ -6051,71 +6051,71 @@
     <row r="5" spans="1:72" s="79" customFormat="1" ht="31.5" customHeight="1">
       <c r="A5" s="77"/>
       <c r="B5" s="77"/>
-      <c r="C5" s="296" t="s">
+      <c r="C5" s="293" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="297"/>
-      <c r="E5" s="298"/>
-      <c r="F5" s="296" t="s">
+      <c r="D5" s="294"/>
+      <c r="E5" s="295"/>
+      <c r="F5" s="293" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="297"/>
-      <c r="H5" s="298"/>
-      <c r="I5" s="296" t="s">
+      <c r="G5" s="294"/>
+      <c r="H5" s="295"/>
+      <c r="I5" s="293" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="297"/>
-      <c r="K5" s="298"/>
-      <c r="L5" s="296" t="s">
+      <c r="J5" s="294"/>
+      <c r="K5" s="295"/>
+      <c r="L5" s="293" t="s">
         <v>27</v>
       </c>
-      <c r="M5" s="297"/>
-      <c r="N5" s="298"/>
-      <c r="O5" s="296" t="s">
+      <c r="M5" s="294"/>
+      <c r="N5" s="295"/>
+      <c r="O5" s="293" t="s">
         <v>28</v>
       </c>
-      <c r="P5" s="297"/>
-      <c r="Q5" s="298"/>
-      <c r="R5" s="296" t="s">
+      <c r="P5" s="294"/>
+      <c r="Q5" s="295"/>
+      <c r="R5" s="293" t="s">
         <v>29</v>
       </c>
-      <c r="S5" s="297"/>
-      <c r="T5" s="298"/>
-      <c r="U5" s="290" t="s">
+      <c r="S5" s="294"/>
+      <c r="T5" s="295"/>
+      <c r="U5" s="301" t="s">
         <v>30</v>
       </c>
-      <c r="V5" s="291"/>
-      <c r="W5" s="292"/>
-      <c r="X5" s="290" t="s">
+      <c r="V5" s="302"/>
+      <c r="W5" s="303"/>
+      <c r="X5" s="301" t="s">
         <v>31</v>
       </c>
-      <c r="Y5" s="291"/>
-      <c r="Z5" s="292"/>
-      <c r="AA5" s="290" t="s">
+      <c r="Y5" s="302"/>
+      <c r="Z5" s="303"/>
+      <c r="AA5" s="301" t="s">
         <v>32</v>
       </c>
-      <c r="AB5" s="291"/>
-      <c r="AC5" s="292"/>
-      <c r="AD5" s="290" t="s">
+      <c r="AB5" s="302"/>
+      <c r="AC5" s="303"/>
+      <c r="AD5" s="301" t="s">
         <v>33</v>
       </c>
-      <c r="AE5" s="291"/>
-      <c r="AF5" s="292"/>
-      <c r="AG5" s="290" t="s">
+      <c r="AE5" s="302"/>
+      <c r="AF5" s="303"/>
+      <c r="AG5" s="301" t="s">
         <v>34</v>
       </c>
-      <c r="AH5" s="291"/>
-      <c r="AI5" s="292"/>
-      <c r="AJ5" s="290" t="s">
+      <c r="AH5" s="302"/>
+      <c r="AI5" s="303"/>
+      <c r="AJ5" s="301" t="s">
         <v>35</v>
       </c>
-      <c r="AK5" s="291"/>
-      <c r="AL5" s="292"/>
-      <c r="AM5" s="293" t="s">
+      <c r="AK5" s="302"/>
+      <c r="AL5" s="303"/>
+      <c r="AM5" s="304" t="s">
         <v>36</v>
       </c>
-      <c r="AN5" s="294"/>
-      <c r="AO5" s="295"/>
+      <c r="AN5" s="305"/>
+      <c r="AO5" s="306"/>
       <c r="AP5" s="77"/>
       <c r="AQ5" s="77"/>
       <c r="AR5" s="78"/>
@@ -6389,61 +6389,61 @@
       <c r="A8" s="77"/>
       <c r="B8" s="77"/>
       <c r="C8" s="112"/>
-      <c r="D8" s="296" t="s">
+      <c r="D8" s="293" t="s">
         <v>157</v>
       </c>
-      <c r="E8" s="297"/>
-      <c r="F8" s="298"/>
-      <c r="G8" s="296" t="s">
+      <c r="E8" s="294"/>
+      <c r="F8" s="295"/>
+      <c r="G8" s="293" t="s">
         <v>56</v>
       </c>
-      <c r="H8" s="297"/>
-      <c r="I8" s="298"/>
-      <c r="J8" s="296" t="s">
+      <c r="H8" s="294"/>
+      <c r="I8" s="295"/>
+      <c r="J8" s="293" t="s">
         <v>57</v>
       </c>
-      <c r="K8" s="297"/>
-      <c r="L8" s="298"/>
-      <c r="M8" s="296" t="s">
+      <c r="K8" s="294"/>
+      <c r="L8" s="295"/>
+      <c r="M8" s="293" t="s">
         <v>58</v>
       </c>
-      <c r="N8" s="297"/>
-      <c r="O8" s="298"/>
-      <c r="P8" s="296" t="s">
+      <c r="N8" s="294"/>
+      <c r="O8" s="295"/>
+      <c r="P8" s="293" t="s">
         <v>59</v>
       </c>
-      <c r="Q8" s="297"/>
-      <c r="R8" s="298"/>
-      <c r="S8" s="296" t="s">
+      <c r="Q8" s="294"/>
+      <c r="R8" s="295"/>
+      <c r="S8" s="293" t="s">
         <v>60</v>
       </c>
-      <c r="T8" s="297"/>
-      <c r="U8" s="298"/>
-      <c r="V8" s="290" t="s">
+      <c r="T8" s="294"/>
+      <c r="U8" s="295"/>
+      <c r="V8" s="301" t="s">
         <v>61</v>
       </c>
-      <c r="W8" s="291"/>
-      <c r="X8" s="292"/>
-      <c r="Y8" s="290" t="s">
+      <c r="W8" s="302"/>
+      <c r="X8" s="303"/>
+      <c r="Y8" s="301" t="s">
         <v>62</v>
       </c>
-      <c r="Z8" s="291"/>
-      <c r="AA8" s="292"/>
-      <c r="AB8" s="290" t="s">
+      <c r="Z8" s="302"/>
+      <c r="AA8" s="303"/>
+      <c r="AB8" s="301" t="s">
         <v>63</v>
       </c>
-      <c r="AC8" s="291"/>
-      <c r="AD8" s="292"/>
-      <c r="AE8" s="290" t="s">
+      <c r="AC8" s="302"/>
+      <c r="AD8" s="303"/>
+      <c r="AE8" s="301" t="s">
         <v>64</v>
       </c>
-      <c r="AF8" s="291"/>
-      <c r="AG8" s="292"/>
-      <c r="AH8" s="293" t="s">
+      <c r="AF8" s="302"/>
+      <c r="AG8" s="303"/>
+      <c r="AH8" s="304" t="s">
         <v>65</v>
       </c>
-      <c r="AI8" s="294"/>
-      <c r="AJ8" s="295"/>
+      <c r="AI8" s="305"/>
+      <c r="AJ8" s="306"/>
       <c r="AK8" s="77"/>
       <c r="AL8" s="77"/>
       <c r="AM8" s="77"/>
@@ -6725,56 +6725,56 @@
       <c r="B11" s="77"/>
       <c r="C11" s="77"/>
       <c r="D11" s="77"/>
-      <c r="E11" s="296" t="s">
+      <c r="E11" s="293" t="s">
         <v>284</v>
       </c>
-      <c r="F11" s="297"/>
-      <c r="G11" s="298"/>
-      <c r="H11" s="296" t="s">
+      <c r="F11" s="294"/>
+      <c r="G11" s="295"/>
+      <c r="H11" s="293" t="s">
         <v>82</v>
       </c>
-      <c r="I11" s="297"/>
-      <c r="J11" s="298"/>
-      <c r="K11" s="296" t="s">
+      <c r="I11" s="294"/>
+      <c r="J11" s="295"/>
+      <c r="K11" s="293" t="s">
         <v>83</v>
       </c>
-      <c r="L11" s="297"/>
-      <c r="M11" s="298"/>
-      <c r="N11" s="296" t="s">
+      <c r="L11" s="294"/>
+      <c r="M11" s="295"/>
+      <c r="N11" s="293" t="s">
         <v>84</v>
       </c>
-      <c r="O11" s="297"/>
-      <c r="P11" s="298"/>
-      <c r="Q11" s="296" t="s">
+      <c r="O11" s="294"/>
+      <c r="P11" s="295"/>
+      <c r="Q11" s="293" t="s">
         <v>85</v>
       </c>
-      <c r="R11" s="297"/>
-      <c r="S11" s="298"/>
-      <c r="T11" s="296" t="s">
+      <c r="R11" s="294"/>
+      <c r="S11" s="295"/>
+      <c r="T11" s="293" t="s">
         <v>86</v>
       </c>
-      <c r="U11" s="297"/>
-      <c r="V11" s="298"/>
-      <c r="W11" s="290" t="s">
+      <c r="U11" s="294"/>
+      <c r="V11" s="295"/>
+      <c r="W11" s="301" t="s">
         <v>87</v>
       </c>
-      <c r="X11" s="291"/>
-      <c r="Y11" s="292"/>
-      <c r="Z11" s="290" t="s">
+      <c r="X11" s="302"/>
+      <c r="Y11" s="303"/>
+      <c r="Z11" s="301" t="s">
         <v>324</v>
       </c>
-      <c r="AA11" s="291"/>
-      <c r="AB11" s="292"/>
-      <c r="AC11" s="290" t="s">
+      <c r="AA11" s="302"/>
+      <c r="AB11" s="303"/>
+      <c r="AC11" s="301" t="s">
         <v>88</v>
       </c>
-      <c r="AD11" s="291"/>
-      <c r="AE11" s="292"/>
-      <c r="AF11" s="293" t="s">
+      <c r="AD11" s="302"/>
+      <c r="AE11" s="303"/>
+      <c r="AF11" s="304" t="s">
         <v>89</v>
       </c>
-      <c r="AG11" s="294"/>
-      <c r="AH11" s="295"/>
+      <c r="AG11" s="305"/>
+      <c r="AH11" s="306"/>
       <c r="AI11" s="77"/>
       <c r="AJ11" s="77"/>
       <c r="AK11" s="77"/>
@@ -6887,7 +6887,9 @@
       <c r="AN12" s="77"/>
       <c r="AO12" s="77"/>
       <c r="AP12" s="77"/>
-      <c r="AQ12" s="77"/>
+      <c r="AQ12" s="77" t="s">
+        <v>283</v>
+      </c>
       <c r="AR12" s="78"/>
       <c r="AS12" s="78"/>
       <c r="AT12" s="77"/>
@@ -11434,52 +11436,6 @@
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="T2:V2"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="AI2:AK2"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="U5:W5"/>
-    <mergeCell ref="X5:Z5"/>
-    <mergeCell ref="AA5:AC5"/>
-    <mergeCell ref="AD5:AF5"/>
-    <mergeCell ref="R5:T5"/>
-    <mergeCell ref="V8:X8"/>
-    <mergeCell ref="Y8:AA8"/>
-    <mergeCell ref="AB8:AD8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="AH10:AI10"/>
-    <mergeCell ref="AM5:AO5"/>
-    <mergeCell ref="AG7:AH7"/>
-    <mergeCell ref="AJ7:AK7"/>
-    <mergeCell ref="AM7:AN7"/>
-    <mergeCell ref="AG5:AI5"/>
-    <mergeCell ref="AJ5:AL5"/>
-    <mergeCell ref="AE8:AG8"/>
-    <mergeCell ref="AH8:AJ8"/>
     <mergeCell ref="W11:Y11"/>
     <mergeCell ref="Z11:AB11"/>
     <mergeCell ref="AC11:AE11"/>
@@ -11490,6 +11446,52 @@
     <mergeCell ref="N11:P11"/>
     <mergeCell ref="Q11:S11"/>
     <mergeCell ref="T11:V11"/>
+    <mergeCell ref="AH10:AI10"/>
+    <mergeCell ref="AM5:AO5"/>
+    <mergeCell ref="AG7:AH7"/>
+    <mergeCell ref="AJ7:AK7"/>
+    <mergeCell ref="AM7:AN7"/>
+    <mergeCell ref="AG5:AI5"/>
+    <mergeCell ref="AJ5:AL5"/>
+    <mergeCell ref="AE8:AG8"/>
+    <mergeCell ref="AH8:AJ8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="U5:W5"/>
+    <mergeCell ref="X5:Z5"/>
+    <mergeCell ref="AA5:AC5"/>
+    <mergeCell ref="AD5:AF5"/>
+    <mergeCell ref="R5:T5"/>
+    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="Y8:AA8"/>
+    <mergeCell ref="AB8:AD8"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="AI2:AK2"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:P2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15488,11 +15490,11 @@
       <c r="P51" s="6"/>
       <c r="Q51" s="19"/>
       <c r="R51" s="13" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX($F$9:$F$63, MATCH($Q51, $D$5:$D$63,0)), "")</f>
+        <f t="shared" ref="R51:R59" si="7" xml:space="preserve"> IFERROR( INDEX($F$9:$F$63, MATCH($Q51, $D$5:$D$63,0)), "")</f>
         <v/>
       </c>
       <c r="S51" s="7" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX($G$5:$G$63, MATCH($Q51, $D$5:$D$63,0)), "")</f>
+        <f t="shared" ref="S51:S59" si="8" xml:space="preserve"> IFERROR( INDEX($G$5:$G$63, MATCH($Q51, $D$5:$D$63,0)), "")</f>
         <v/>
       </c>
     </row>
@@ -15531,11 +15533,11 @@
       <c r="P52" s="6"/>
       <c r="Q52" s="19"/>
       <c r="R52" s="13" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX($F$9:$F$63, MATCH($Q52, $D$5:$D$63,0)), "")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="S52" s="5" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX($G$5:$G$63, MATCH($Q52, $D$5:$D$63,0)), "")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -15572,11 +15574,11 @@
       <c r="P53" s="6"/>
       <c r="Q53" s="19"/>
       <c r="R53" s="13" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX($F$9:$F$63, MATCH($Q53, $D$5:$D$63,0)), "")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="S53" s="5" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX($G$5:$G$63, MATCH($Q53, $D$5:$D$63,0)), "")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -15613,11 +15615,11 @@
       <c r="P54" s="6"/>
       <c r="Q54" s="19"/>
       <c r="R54" s="13" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX($F$9:$F$63, MATCH($Q54, $D$5:$D$63,0)), "")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="S54" s="5" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX($G$5:$G$63, MATCH($Q54, $D$5:$D$63,0)), "")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -15637,11 +15639,11 @@
       <c r="P55" s="6"/>
       <c r="Q55" s="19"/>
       <c r="R55" s="13" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX($F$9:$F$63, MATCH($Q55, $D$5:$D$63,0)), "")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="S55" s="7" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX($G$5:$G$63, MATCH($Q55, $D$5:$D$63,0)), "")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -15671,11 +15673,11 @@
       <c r="P56" s="6"/>
       <c r="Q56" s="19"/>
       <c r="R56" s="13" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX($F$9:$F$63, MATCH($Q56, $D$5:$D$63,0)), "")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="S56" s="5" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX($G$5:$G$63, MATCH($Q56, $D$5:$D$63,0)), "")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -15705,11 +15707,11 @@
       <c r="P57" s="6"/>
       <c r="Q57" s="19"/>
       <c r="R57" s="13" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX($F$9:$F$63, MATCH($Q57, $D$5:$D$63,0)), "")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="S57" s="5" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX($G$5:$G$63, MATCH($Q57, $D$5:$D$63,0)), "")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -15739,11 +15741,11 @@
       <c r="P58" s="6"/>
       <c r="Q58" s="19"/>
       <c r="R58" s="13" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX($F$9:$F$63, MATCH($Q58, $D$5:$D$63,0)), "")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="S58" s="5" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX($G$5:$G$63, MATCH($Q58, $D$5:$D$63,0)), "")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AB58" s="206"/>
@@ -15777,11 +15779,11 @@
       <c r="P59" s="6"/>
       <c r="Q59" s="19"/>
       <c r="R59" s="13" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX($F$9:$F$63, MATCH($Q59, $D$5:$D$63,0)), "")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="S59" s="7" t="str">
-        <f xml:space="preserve"> IFERROR( INDEX($G$5:$G$63, MATCH($Q59, $D$5:$D$63,0)), "")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AB59" s="205">
@@ -17395,14 +17397,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7">
-      <c r="B2" s="319" t="s">
+      <c r="B2" s="318" t="s">
         <v>421</v>
       </c>
-      <c r="C2" s="319"/>
-      <c r="D2" s="319"/>
-      <c r="E2" s="319"/>
-      <c r="F2" s="319"/>
-      <c r="G2" s="319"/>
+      <c r="C2" s="318"/>
+      <c r="D2" s="318"/>
+      <c r="E2" s="318"/>
+      <c r="F2" s="318"/>
+      <c r="G2" s="318"/>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="213" t="s">
@@ -17431,16 +17433,16 @@
       <c r="C5" s="215" t="s">
         <v>426</v>
       </c>
-      <c r="D5" s="317" t="s">
+      <c r="D5" s="314" t="s">
         <v>428</v>
       </c>
-      <c r="E5" s="326" t="s">
+      <c r="E5" s="316" t="s">
         <v>159</v>
       </c>
       <c r="F5" s="215" t="s">
         <v>429</v>
       </c>
-      <c r="G5" s="317" t="s">
+      <c r="G5" s="314" t="s">
         <v>431</v>
       </c>
     </row>
@@ -17449,12 +17451,12 @@
       <c r="C6" s="216" t="s">
         <v>427</v>
       </c>
-      <c r="D6" s="318"/>
-      <c r="E6" s="327"/>
+      <c r="D6" s="315"/>
+      <c r="E6" s="317"/>
       <c r="F6" s="216" t="s">
         <v>430</v>
       </c>
-      <c r="G6" s="318"/>
+      <c r="G6" s="315"/>
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="312" t="s">
@@ -17463,16 +17465,16 @@
       <c r="C7" s="215" t="s">
         <v>432</v>
       </c>
-      <c r="D7" s="317" t="s">
+      <c r="D7" s="314" t="s">
         <v>434</v>
       </c>
-      <c r="E7" s="326" t="s">
+      <c r="E7" s="316" t="s">
         <v>162</v>
       </c>
       <c r="F7" s="215" t="s">
         <v>435</v>
       </c>
-      <c r="G7" s="317" t="s">
+      <c r="G7" s="314" t="s">
         <v>437</v>
       </c>
     </row>
@@ -17481,12 +17483,12 @@
       <c r="C8" s="216" t="s">
         <v>433</v>
       </c>
-      <c r="D8" s="318"/>
-      <c r="E8" s="327"/>
+      <c r="D8" s="315"/>
+      <c r="E8" s="317"/>
       <c r="F8" s="216" t="s">
         <v>436</v>
       </c>
-      <c r="G8" s="318"/>
+      <c r="G8" s="315"/>
     </row>
     <row r="9" spans="2:7">
       <c r="B9" s="312" t="s">
@@ -17495,16 +17497,16 @@
       <c r="C9" s="215" t="s">
         <v>438</v>
       </c>
-      <c r="D9" s="317" t="s">
+      <c r="D9" s="314" t="s">
         <v>440</v>
       </c>
-      <c r="E9" s="326" t="s">
+      <c r="E9" s="316" t="s">
         <v>441</v>
       </c>
-      <c r="F9" s="326" t="s">
+      <c r="F9" s="316" t="s">
         <v>441</v>
       </c>
-      <c r="G9" s="326" t="s">
+      <c r="G9" s="316" t="s">
         <v>441</v>
       </c>
     </row>
@@ -17513,10 +17515,10 @@
       <c r="C10" s="216" t="s">
         <v>439</v>
       </c>
-      <c r="D10" s="318"/>
-      <c r="E10" s="327"/>
-      <c r="F10" s="327"/>
-      <c r="G10" s="327"/>
+      <c r="D10" s="315"/>
+      <c r="E10" s="317"/>
+      <c r="F10" s="317"/>
+      <c r="G10" s="317"/>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="312" t="s">
@@ -17525,16 +17527,16 @@
       <c r="C11" s="215" t="s">
         <v>442</v>
       </c>
-      <c r="D11" s="317" t="s">
+      <c r="D11" s="314" t="s">
         <v>444</v>
       </c>
-      <c r="E11" s="326" t="s">
+      <c r="E11" s="316" t="s">
         <v>161</v>
       </c>
       <c r="F11" s="215" t="s">
         <v>445</v>
       </c>
-      <c r="G11" s="317" t="s">
+      <c r="G11" s="314" t="s">
         <v>447</v>
       </c>
     </row>
@@ -17543,12 +17545,12 @@
       <c r="C12" s="216" t="s">
         <v>443</v>
       </c>
-      <c r="D12" s="318"/>
-      <c r="E12" s="327"/>
+      <c r="D12" s="315"/>
+      <c r="E12" s="317"/>
       <c r="F12" s="216" t="s">
         <v>446</v>
       </c>
-      <c r="G12" s="318"/>
+      <c r="G12" s="315"/>
     </row>
     <row r="13" spans="2:7">
       <c r="B13" s="312" t="s">
@@ -17557,16 +17559,16 @@
       <c r="C13" s="215" t="s">
         <v>448</v>
       </c>
-      <c r="D13" s="317" t="s">
+      <c r="D13" s="314" t="s">
         <v>450</v>
       </c>
-      <c r="E13" s="326" t="s">
+      <c r="E13" s="316" t="s">
         <v>441</v>
       </c>
-      <c r="F13" s="326" t="s">
+      <c r="F13" s="316" t="s">
         <v>441</v>
       </c>
-      <c r="G13" s="326" t="s">
+      <c r="G13" s="316" t="s">
         <v>441</v>
       </c>
     </row>
@@ -17575,10 +17577,10 @@
       <c r="C14" s="216" t="s">
         <v>449</v>
       </c>
-      <c r="D14" s="318"/>
-      <c r="E14" s="327"/>
-      <c r="F14" s="327"/>
-      <c r="G14" s="327"/>
+      <c r="D14" s="315"/>
+      <c r="E14" s="317"/>
+      <c r="F14" s="317"/>
+      <c r="G14" s="317"/>
     </row>
     <row r="15" spans="2:7">
       <c r="B15" s="312" t="s">
@@ -17587,16 +17589,16 @@
       <c r="C15" s="215" t="s">
         <v>452</v>
       </c>
-      <c r="D15" s="317" t="s">
+      <c r="D15" s="314" t="s">
         <v>454</v>
       </c>
-      <c r="E15" s="326" t="s">
+      <c r="E15" s="316" t="s">
         <v>160</v>
       </c>
       <c r="F15" s="215" t="s">
         <v>455</v>
       </c>
-      <c r="G15" s="317" t="s">
+      <c r="G15" s="314" t="s">
         <v>457</v>
       </c>
     </row>
@@ -17605,12 +17607,12 @@
       <c r="C16" s="216" t="s">
         <v>453</v>
       </c>
-      <c r="D16" s="318"/>
-      <c r="E16" s="327"/>
+      <c r="D16" s="315"/>
+      <c r="E16" s="317"/>
       <c r="F16" s="216" t="s">
         <v>456</v>
       </c>
-      <c r="G16" s="318"/>
+      <c r="G16" s="315"/>
     </row>
     <row r="17" spans="2:12">
       <c r="B17" s="217" t="s">
@@ -17623,14 +17625,14 @@
       </c>
     </row>
     <row r="19" spans="2:12">
-      <c r="B19" s="319" t="s">
+      <c r="B19" s="318" t="s">
         <v>460</v>
       </c>
-      <c r="C19" s="319"/>
-      <c r="D19" s="319"/>
-      <c r="E19" s="319"/>
-      <c r="F19" s="319"/>
-      <c r="G19" s="319"/>
+      <c r="C19" s="318"/>
+      <c r="D19" s="318"/>
+      <c r="E19" s="318"/>
+      <c r="F19" s="318"/>
+      <c r="G19" s="318"/>
     </row>
     <row r="21" spans="2:12">
       <c r="B21" s="213" t="s">
@@ -17659,19 +17661,19 @@
       <c r="C22" s="215" t="s">
         <v>461</v>
       </c>
-      <c r="D22" s="326" t="s">
+      <c r="D22" s="316" t="s">
         <v>463</v>
       </c>
-      <c r="E22" s="326" t="s">
+      <c r="E22" s="316" t="s">
         <v>464</v>
       </c>
       <c r="F22" s="215" t="s">
         <v>465</v>
       </c>
-      <c r="G22" s="326" t="s">
+      <c r="G22" s="316" t="s">
         <v>463</v>
       </c>
-      <c r="I22" s="314" t="s">
+      <c r="I22" s="327" t="s">
         <v>591</v>
       </c>
       <c r="J22" s="312" t="s">
@@ -17686,12 +17688,12 @@
       <c r="C23" s="216" t="s">
         <v>462</v>
       </c>
-      <c r="D23" s="327"/>
-      <c r="E23" s="327"/>
+      <c r="D23" s="317"/>
+      <c r="E23" s="317"/>
       <c r="F23" s="216" t="s">
         <v>466</v>
       </c>
-      <c r="G23" s="327"/>
+      <c r="G23" s="317"/>
       <c r="I23" s="313"/>
       <c r="J23" s="313"/>
       <c r="L23" t="s">
@@ -17705,19 +17707,19 @@
       <c r="C24" s="215" t="s">
         <v>467</v>
       </c>
-      <c r="D24" s="326" t="s">
+      <c r="D24" s="316" t="s">
         <v>463</v>
       </c>
-      <c r="E24" s="326" t="s">
+      <c r="E24" s="316" t="s">
         <v>441</v>
       </c>
-      <c r="F24" s="326" t="s">
+      <c r="F24" s="316" t="s">
         <v>441</v>
       </c>
-      <c r="G24" s="326" t="s">
+      <c r="G24" s="316" t="s">
         <v>441</v>
       </c>
-      <c r="I24" s="314" t="s">
+      <c r="I24" s="327" t="s">
         <v>592</v>
       </c>
       <c r="J24" s="312" t="s">
@@ -17732,10 +17734,10 @@
       <c r="C25" s="216" t="s">
         <v>468</v>
       </c>
-      <c r="D25" s="327"/>
-      <c r="E25" s="327"/>
-      <c r="F25" s="327"/>
-      <c r="G25" s="327"/>
+      <c r="D25" s="317"/>
+      <c r="E25" s="317"/>
+      <c r="F25" s="317"/>
+      <c r="G25" s="317"/>
       <c r="I25" s="313"/>
       <c r="J25" s="313"/>
       <c r="L25" t="s">
@@ -17749,19 +17751,19 @@
       <c r="C26" s="215" t="s">
         <v>470</v>
       </c>
-      <c r="D26" s="326" t="s">
+      <c r="D26" s="316" t="s">
         <v>463</v>
       </c>
-      <c r="E26" s="326" t="s">
+      <c r="E26" s="316" t="s">
         <v>472</v>
       </c>
       <c r="F26" s="215" t="s">
         <v>473</v>
       </c>
-      <c r="G26" s="326" t="s">
+      <c r="G26" s="316" t="s">
         <v>463</v>
       </c>
-      <c r="I26" s="314" t="s">
+      <c r="I26" s="327" t="s">
         <v>593</v>
       </c>
       <c r="J26" s="312" t="s">
@@ -17776,12 +17778,12 @@
       <c r="C27" s="216" t="s">
         <v>471</v>
       </c>
-      <c r="D27" s="327"/>
-      <c r="E27" s="327"/>
+      <c r="D27" s="317"/>
+      <c r="E27" s="317"/>
       <c r="F27" s="216" t="s">
         <v>474</v>
       </c>
-      <c r="G27" s="327"/>
+      <c r="G27" s="317"/>
       <c r="I27" s="313"/>
       <c r="J27" s="313"/>
       <c r="L27" t="s">
@@ -17795,19 +17797,19 @@
       <c r="C28" s="215" t="s">
         <v>476</v>
       </c>
-      <c r="D28" s="326" t="s">
+      <c r="D28" s="316" t="s">
         <v>463</v>
       </c>
-      <c r="E28" s="326" t="s">
+      <c r="E28" s="316" t="s">
         <v>478</v>
       </c>
       <c r="F28" s="215" t="s">
         <v>479</v>
       </c>
-      <c r="G28" s="326" t="s">
+      <c r="G28" s="316" t="s">
         <v>463</v>
       </c>
-      <c r="I28" s="314" t="str">
+      <c r="I28" s="327" t="str">
         <f xml:space="preserve"> L23 &amp; L24</f>
         <v>ㄧㄨ</v>
       </c>
@@ -17820,12 +17822,12 @@
       <c r="C29" s="216" t="s">
         <v>477</v>
       </c>
-      <c r="D29" s="327"/>
-      <c r="E29" s="327"/>
+      <c r="D29" s="317"/>
+      <c r="E29" s="317"/>
       <c r="F29" s="216" t="s">
         <v>480</v>
       </c>
-      <c r="G29" s="327"/>
+      <c r="G29" s="317"/>
       <c r="I29" s="313"/>
       <c r="J29" s="313"/>
       <c r="L29" t="s">
@@ -17839,16 +17841,16 @@
       <c r="C30" s="215" t="s">
         <v>482</v>
       </c>
-      <c r="D30" s="326" t="s">
+      <c r="D30" s="316" t="s">
         <v>463</v>
       </c>
-      <c r="E30" s="326" t="s">
+      <c r="E30" s="316" t="s">
         <v>484</v>
       </c>
       <c r="F30" s="215" t="s">
         <v>485</v>
       </c>
-      <c r="G30" s="326" t="s">
+      <c r="G30" s="316" t="s">
         <v>463</v>
       </c>
       <c r="I30" s="312" t="str">
@@ -17867,12 +17869,12 @@
       <c r="C31" s="216" t="s">
         <v>483</v>
       </c>
-      <c r="D31" s="327"/>
-      <c r="E31" s="327"/>
+      <c r="D31" s="317"/>
+      <c r="E31" s="317"/>
       <c r="F31" s="216" t="s">
         <v>480</v>
       </c>
-      <c r="G31" s="327"/>
+      <c r="G31" s="317"/>
       <c r="I31" s="313"/>
       <c r="J31" s="313"/>
       <c r="L31" t="s">
@@ -17886,16 +17888,16 @@
       <c r="C32" s="215" t="s">
         <v>487</v>
       </c>
-      <c r="D32" s="326" t="s">
+      <c r="D32" s="316" t="s">
         <v>463</v>
       </c>
-      <c r="E32" s="326" t="s">
+      <c r="E32" s="316" t="s">
         <v>489</v>
       </c>
       <c r="F32" s="215" t="s">
         <v>441</v>
       </c>
-      <c r="G32" s="326" t="s">
+      <c r="G32" s="316" t="s">
         <v>463</v>
       </c>
       <c r="I32" s="312" t="str">
@@ -17911,12 +17913,12 @@
       <c r="C33" s="216" t="s">
         <v>488</v>
       </c>
-      <c r="D33" s="327"/>
-      <c r="E33" s="327"/>
+      <c r="D33" s="317"/>
+      <c r="E33" s="317"/>
       <c r="F33" s="216" t="s">
         <v>441</v>
       </c>
-      <c r="G33" s="327"/>
+      <c r="G33" s="317"/>
       <c r="I33" s="313"/>
       <c r="J33" s="313"/>
       <c r="L33" t="s">
@@ -17930,16 +17932,16 @@
       <c r="C34" s="215" t="s">
         <v>491</v>
       </c>
-      <c r="D34" s="326" t="s">
+      <c r="D34" s="316" t="s">
         <v>463</v>
       </c>
-      <c r="E34" s="326" t="s">
+      <c r="E34" s="316" t="s">
         <v>493</v>
       </c>
       <c r="F34" s="215" t="s">
         <v>494</v>
       </c>
-      <c r="G34" s="326" t="s">
+      <c r="G34" s="316" t="s">
         <v>463</v>
       </c>
       <c r="I34" s="312" t="str">
@@ -17958,12 +17960,12 @@
       <c r="C35" s="216" t="s">
         <v>492</v>
       </c>
-      <c r="D35" s="327"/>
-      <c r="E35" s="327"/>
+      <c r="D35" s="317"/>
+      <c r="E35" s="317"/>
       <c r="F35" s="216" t="s">
         <v>495</v>
       </c>
-      <c r="G35" s="327"/>
+      <c r="G35" s="317"/>
       <c r="I35" s="313"/>
       <c r="J35" s="313"/>
       <c r="L35" t="s">
@@ -17977,16 +17979,16 @@
       <c r="C36" s="215" t="s">
         <v>496</v>
       </c>
-      <c r="D36" s="326" t="s">
+      <c r="D36" s="316" t="s">
         <v>463</v>
       </c>
-      <c r="E36" s="326" t="s">
+      <c r="E36" s="316" t="s">
         <v>441</v>
       </c>
-      <c r="F36" s="326" t="s">
+      <c r="F36" s="316" t="s">
         <v>441</v>
       </c>
-      <c r="G36" s="326" t="s">
+      <c r="G36" s="316" t="s">
         <v>441</v>
       </c>
       <c r="I36" s="312" t="str">
@@ -18002,10 +18004,10 @@
       <c r="C37" s="216" t="s">
         <v>497</v>
       </c>
-      <c r="D37" s="327"/>
-      <c r="E37" s="327"/>
-      <c r="F37" s="327"/>
-      <c r="G37" s="327"/>
+      <c r="D37" s="317"/>
+      <c r="E37" s="317"/>
+      <c r="F37" s="317"/>
+      <c r="G37" s="317"/>
       <c r="I37" s="313"/>
       <c r="J37" s="313"/>
     </row>
@@ -18016,16 +18018,16 @@
       <c r="C38" s="215" t="s">
         <v>498</v>
       </c>
-      <c r="D38" s="326" t="s">
+      <c r="D38" s="316" t="s">
         <v>463</v>
       </c>
-      <c r="E38" s="326" t="s">
+      <c r="E38" s="316" t="s">
         <v>500</v>
       </c>
       <c r="F38" s="215" t="s">
         <v>501</v>
       </c>
-      <c r="G38" s="326" t="s">
+      <c r="G38" s="316" t="s">
         <v>463</v>
       </c>
       <c r="I38" s="312" t="str">
@@ -18041,12 +18043,12 @@
       <c r="C39" s="216" t="s">
         <v>499</v>
       </c>
-      <c r="D39" s="327"/>
-      <c r="E39" s="327"/>
+      <c r="D39" s="317"/>
+      <c r="E39" s="317"/>
       <c r="F39" s="216" t="s">
         <v>502</v>
       </c>
-      <c r="G39" s="327"/>
+      <c r="G39" s="317"/>
       <c r="I39" s="313"/>
       <c r="J39" s="313"/>
     </row>
@@ -18061,23 +18063,23 @@
       </c>
     </row>
     <row r="42" spans="2:12">
-      <c r="B42" s="319" t="s">
+      <c r="B42" s="318" t="s">
         <v>504</v>
       </c>
-      <c r="C42" s="319"/>
-      <c r="D42" s="319"/>
-      <c r="E42" s="319"/>
-      <c r="F42" s="319"/>
-      <c r="G42" s="319"/>
+      <c r="C42" s="318"/>
+      <c r="D42" s="318"/>
+      <c r="E42" s="318"/>
+      <c r="F42" s="318"/>
+      <c r="G42" s="318"/>
     </row>
     <row r="44" spans="2:12">
       <c r="B44" s="219" t="s">
         <v>505</v>
       </c>
-      <c r="C44" s="322" t="s">
+      <c r="C44" s="319" t="s">
         <v>423</v>
       </c>
-      <c r="D44" s="322" t="s">
+      <c r="D44" s="319" t="s">
         <v>424</v>
       </c>
     </row>
@@ -18085,8 +18087,8 @@
       <c r="B45" s="220" t="s">
         <v>422</v>
       </c>
-      <c r="C45" s="323"/>
-      <c r="D45" s="323"/>
+      <c r="C45" s="320"/>
+      <c r="D45" s="320"/>
     </row>
     <row r="46" spans="2:12">
       <c r="B46" s="312" t="s">
@@ -18095,7 +18097,7 @@
       <c r="C46" s="215" t="s">
         <v>506</v>
       </c>
-      <c r="D46" s="326" t="s">
+      <c r="D46" s="316" t="s">
         <v>508</v>
       </c>
     </row>
@@ -18104,7 +18106,7 @@
       <c r="C47" s="216" t="s">
         <v>507</v>
       </c>
-      <c r="D47" s="327"/>
+      <c r="D47" s="317"/>
     </row>
     <row r="48" spans="2:12">
       <c r="B48" s="312" t="s">
@@ -18113,7 +18115,7 @@
       <c r="C48" s="215" t="s">
         <v>509</v>
       </c>
-      <c r="D48" s="326" t="s">
+      <c r="D48" s="316" t="s">
         <v>511</v>
       </c>
     </row>
@@ -18122,7 +18124,7 @@
       <c r="C49" s="216" t="s">
         <v>510</v>
       </c>
-      <c r="D49" s="327"/>
+      <c r="D49" s="317"/>
     </row>
     <row r="52" spans="2:17">
       <c r="B52" s="217" t="s">
@@ -18135,92 +18137,92 @@
       </c>
     </row>
     <row r="54" spans="2:17">
-      <c r="B54" s="319" t="s">
+      <c r="B54" s="318" t="s">
         <v>513</v>
       </c>
-      <c r="C54" s="319"/>
-      <c r="D54" s="319"/>
-      <c r="E54" s="319"/>
-      <c r="F54" s="319"/>
-      <c r="G54" s="319"/>
-      <c r="H54" s="319"/>
-      <c r="I54" s="319"/>
-      <c r="J54" s="319"/>
-      <c r="K54" s="319"/>
-      <c r="L54" s="319"/>
-      <c r="M54" s="319"/>
-      <c r="N54" s="319"/>
-      <c r="O54" s="319"/>
-      <c r="P54" s="319"/>
-      <c r="Q54" s="319"/>
+      <c r="C54" s="318"/>
+      <c r="D54" s="318"/>
+      <c r="E54" s="318"/>
+      <c r="F54" s="318"/>
+      <c r="G54" s="318"/>
+      <c r="H54" s="318"/>
+      <c r="I54" s="318"/>
+      <c r="J54" s="318"/>
+      <c r="K54" s="318"/>
+      <c r="L54" s="318"/>
+      <c r="M54" s="318"/>
+      <c r="N54" s="318"/>
+      <c r="O54" s="318"/>
+      <c r="P54" s="318"/>
+      <c r="Q54" s="318"/>
     </row>
     <row r="56" spans="2:17">
-      <c r="B56" s="319" t="s">
+      <c r="B56" s="318" t="s">
         <v>514</v>
       </c>
-      <c r="C56" s="319"/>
-      <c r="D56" s="319"/>
-      <c r="E56" s="319"/>
-      <c r="F56" s="319"/>
-      <c r="G56" s="319"/>
-      <c r="H56" s="319"/>
-      <c r="I56" s="319"/>
-      <c r="J56" s="319"/>
-      <c r="K56" s="319"/>
-      <c r="L56" s="319"/>
-      <c r="M56" s="319"/>
-      <c r="N56" s="319"/>
-      <c r="O56" s="319"/>
-      <c r="P56" s="319"/>
-      <c r="Q56" s="319"/>
+      <c r="C56" s="318"/>
+      <c r="D56" s="318"/>
+      <c r="E56" s="318"/>
+      <c r="F56" s="318"/>
+      <c r="G56" s="318"/>
+      <c r="H56" s="318"/>
+      <c r="I56" s="318"/>
+      <c r="J56" s="318"/>
+      <c r="K56" s="318"/>
+      <c r="L56" s="318"/>
+      <c r="M56" s="318"/>
+      <c r="N56" s="318"/>
+      <c r="O56" s="318"/>
+      <c r="P56" s="318"/>
+      <c r="Q56" s="318"/>
     </row>
     <row r="58" spans="2:17">
       <c r="B58" s="221" t="s">
         <v>515</v>
       </c>
-      <c r="C58" s="324" t="s">
+      <c r="C58" s="323" t="s">
         <v>517</v>
       </c>
-      <c r="D58" s="322" t="s">
+      <c r="D58" s="319" t="s">
         <v>423</v>
       </c>
-      <c r="E58" s="322" t="s">
+      <c r="E58" s="319" t="s">
         <v>424</v>
       </c>
       <c r="F58" s="219" t="s">
         <v>518</v>
       </c>
-      <c r="G58" s="322" t="s">
+      <c r="G58" s="319" t="s">
         <v>423</v>
       </c>
-      <c r="H58" s="322" t="s">
+      <c r="H58" s="319" t="s">
         <v>424</v>
       </c>
       <c r="I58" s="219" t="s">
         <v>518</v>
       </c>
-      <c r="J58" s="322" t="s">
+      <c r="J58" s="319" t="s">
         <v>423</v>
       </c>
-      <c r="K58" s="322" t="s">
+      <c r="K58" s="319" t="s">
         <v>424</v>
       </c>
-      <c r="L58" s="324" t="s">
+      <c r="L58" s="323" t="s">
         <v>521</v>
       </c>
-      <c r="M58" s="322" t="s">
+      <c r="M58" s="319" t="s">
         <v>423</v>
       </c>
-      <c r="N58" s="322" t="s">
+      <c r="N58" s="319" t="s">
         <v>424</v>
       </c>
-      <c r="O58" s="324" t="s">
+      <c r="O58" s="323" t="s">
         <v>522</v>
       </c>
-      <c r="P58" s="322" t="s">
+      <c r="P58" s="319" t="s">
         <v>423</v>
       </c>
-      <c r="Q58" s="322" t="s">
+      <c r="Q58" s="319" t="s">
         <v>424</v>
       </c>
     </row>
@@ -18228,25 +18230,25 @@
       <c r="B59" s="222" t="s">
         <v>516</v>
       </c>
-      <c r="C59" s="325"/>
-      <c r="D59" s="323"/>
-      <c r="E59" s="323"/>
+      <c r="C59" s="324"/>
+      <c r="D59" s="320"/>
+      <c r="E59" s="320"/>
       <c r="F59" s="220" t="s">
         <v>519</v>
       </c>
-      <c r="G59" s="323"/>
-      <c r="H59" s="323"/>
+      <c r="G59" s="320"/>
+      <c r="H59" s="320"/>
       <c r="I59" s="220" t="s">
         <v>520</v>
       </c>
-      <c r="J59" s="323"/>
-      <c r="K59" s="323"/>
-      <c r="L59" s="325"/>
-      <c r="M59" s="323"/>
-      <c r="N59" s="323"/>
-      <c r="O59" s="325"/>
-      <c r="P59" s="323"/>
-      <c r="Q59" s="323"/>
+      <c r="J59" s="320"/>
+      <c r="K59" s="320"/>
+      <c r="L59" s="324"/>
+      <c r="M59" s="320"/>
+      <c r="N59" s="320"/>
+      <c r="O59" s="324"/>
+      <c r="P59" s="320"/>
+      <c r="Q59" s="320"/>
     </row>
     <row r="60" spans="2:17" ht="28.5">
       <c r="B60" s="223" t="s">
@@ -18258,7 +18260,7 @@
       <c r="D60" s="215" t="s">
         <v>525</v>
       </c>
-      <c r="E60" s="317" t="s">
+      <c r="E60" s="314" t="s">
         <v>527</v>
       </c>
       <c r="F60" s="312" t="s">
@@ -18267,7 +18269,7 @@
       <c r="G60" s="215" t="s">
         <v>528</v>
       </c>
-      <c r="H60" s="317" t="s">
+      <c r="H60" s="314" t="s">
         <v>530</v>
       </c>
       <c r="I60" s="312" t="s">
@@ -18276,7 +18278,7 @@
       <c r="J60" s="215" t="s">
         <v>531</v>
       </c>
-      <c r="K60" s="317" t="s">
+      <c r="K60" s="314" t="s">
         <v>533</v>
       </c>
       <c r="L60" s="312" t="s">
@@ -18285,12 +18287,12 @@
       <c r="M60" s="215" t="s">
         <v>534</v>
       </c>
-      <c r="N60" s="317" t="s">
+      <c r="N60" s="314" t="s">
         <v>536</v>
       </c>
-      <c r="O60" s="320"/>
-      <c r="P60" s="315"/>
-      <c r="Q60" s="315"/>
+      <c r="O60" s="321"/>
+      <c r="P60" s="325"/>
+      <c r="Q60" s="325"/>
     </row>
     <row r="61" spans="2:17">
       <c r="B61" s="224" t="s">
@@ -18300,40 +18302,40 @@
       <c r="D61" s="216" t="s">
         <v>526</v>
       </c>
-      <c r="E61" s="318"/>
+      <c r="E61" s="315"/>
       <c r="F61" s="313"/>
       <c r="G61" s="216" t="s">
         <v>529</v>
       </c>
-      <c r="H61" s="318"/>
+      <c r="H61" s="315"/>
       <c r="I61" s="313"/>
       <c r="J61" s="216" t="s">
         <v>532</v>
       </c>
-      <c r="K61" s="318"/>
+      <c r="K61" s="315"/>
       <c r="L61" s="313"/>
       <c r="M61" s="216" t="s">
         <v>535</v>
       </c>
-      <c r="N61" s="318"/>
-      <c r="O61" s="321"/>
-      <c r="P61" s="316"/>
-      <c r="Q61" s="316"/>
+      <c r="N61" s="315"/>
+      <c r="O61" s="322"/>
+      <c r="P61" s="326"/>
+      <c r="Q61" s="326"/>
     </row>
     <row r="62" spans="2:17" ht="28.5">
       <c r="B62" s="223" t="s">
         <v>537</v>
       </c>
-      <c r="C62" s="320"/>
-      <c r="D62" s="315"/>
-      <c r="E62" s="315"/>
+      <c r="C62" s="321"/>
+      <c r="D62" s="325"/>
+      <c r="E62" s="325"/>
       <c r="F62" s="312" t="s">
         <v>11</v>
       </c>
       <c r="G62" s="215" t="s">
         <v>539</v>
       </c>
-      <c r="H62" s="317" t="s">
+      <c r="H62" s="314" t="s">
         <v>541</v>
       </c>
       <c r="I62" s="312" t="s">
@@ -18342,7 +18344,7 @@
       <c r="J62" s="215" t="s">
         <v>542</v>
       </c>
-      <c r="K62" s="317" t="s">
+      <c r="K62" s="314" t="s">
         <v>544</v>
       </c>
       <c r="L62" s="312" t="s">
@@ -18351,7 +18353,7 @@
       <c r="M62" s="215" t="s">
         <v>545</v>
       </c>
-      <c r="N62" s="317" t="s">
+      <c r="N62" s="314" t="s">
         <v>547</v>
       </c>
       <c r="O62" s="312" t="s">
@@ -18360,7 +18362,7 @@
       <c r="P62" s="215" t="s">
         <v>548</v>
       </c>
-      <c r="Q62" s="317" t="s">
+      <c r="Q62" s="314" t="s">
         <v>550</v>
       </c>
     </row>
@@ -18368,29 +18370,29 @@
       <c r="B63" s="224" t="s">
         <v>538</v>
       </c>
-      <c r="C63" s="321"/>
-      <c r="D63" s="316"/>
-      <c r="E63" s="316"/>
+      <c r="C63" s="322"/>
+      <c r="D63" s="326"/>
+      <c r="E63" s="326"/>
       <c r="F63" s="313"/>
       <c r="G63" s="216" t="s">
         <v>540</v>
       </c>
-      <c r="H63" s="318"/>
+      <c r="H63" s="315"/>
       <c r="I63" s="313"/>
       <c r="J63" s="216" t="s">
         <v>543</v>
       </c>
-      <c r="K63" s="318"/>
+      <c r="K63" s="315"/>
       <c r="L63" s="313"/>
       <c r="M63" s="216" t="s">
         <v>546</v>
       </c>
-      <c r="N63" s="318"/>
+      <c r="N63" s="315"/>
       <c r="O63" s="313"/>
       <c r="P63" s="216" t="s">
         <v>549</v>
       </c>
-      <c r="Q63" s="318"/>
+      <c r="Q63" s="315"/>
     </row>
     <row r="64" spans="2:17" ht="28.5">
       <c r="B64" s="223" t="s">
@@ -18402,7 +18404,7 @@
       <c r="D64" s="215" t="s">
         <v>553</v>
       </c>
-      <c r="E64" s="317" t="s">
+      <c r="E64" s="314" t="s">
         <v>555</v>
       </c>
       <c r="F64" s="312" t="s">
@@ -18411,7 +18413,7 @@
       <c r="G64" s="215" t="s">
         <v>556</v>
       </c>
-      <c r="H64" s="317" t="s">
+      <c r="H64" s="314" t="s">
         <v>558</v>
       </c>
       <c r="I64" s="312" t="s">
@@ -18420,7 +18422,7 @@
       <c r="J64" s="215" t="s">
         <v>559</v>
       </c>
-      <c r="K64" s="317" t="s">
+      <c r="K64" s="314" t="s">
         <v>561</v>
       </c>
       <c r="L64" s="312" t="s">
@@ -18429,7 +18431,7 @@
       <c r="M64" s="215" t="s">
         <v>562</v>
       </c>
-      <c r="N64" s="317" t="s">
+      <c r="N64" s="314" t="s">
         <v>564</v>
       </c>
       <c r="O64" s="312" t="s">
@@ -18438,7 +18440,7 @@
       <c r="P64" s="215" t="s">
         <v>565</v>
       </c>
-      <c r="Q64" s="317" t="s">
+      <c r="Q64" s="314" t="s">
         <v>567</v>
       </c>
     </row>
@@ -18450,27 +18452,27 @@
       <c r="D65" s="216" t="s">
         <v>554</v>
       </c>
-      <c r="E65" s="318"/>
+      <c r="E65" s="315"/>
       <c r="F65" s="313"/>
       <c r="G65" s="216" t="s">
         <v>557</v>
       </c>
-      <c r="H65" s="318"/>
+      <c r="H65" s="315"/>
       <c r="I65" s="313"/>
       <c r="J65" s="216" t="s">
         <v>560</v>
       </c>
-      <c r="K65" s="318"/>
+      <c r="K65" s="315"/>
       <c r="L65" s="313"/>
       <c r="M65" s="216" t="s">
         <v>563</v>
       </c>
-      <c r="N65" s="318"/>
+      <c r="N65" s="315"/>
       <c r="O65" s="313"/>
       <c r="P65" s="216" t="s">
         <v>566</v>
       </c>
-      <c r="Q65" s="318"/>
+      <c r="Q65" s="315"/>
     </row>
     <row r="66" spans="2:17" ht="28.5">
       <c r="B66" s="223" t="s">
@@ -18482,7 +18484,7 @@
       <c r="D66" s="215" t="s">
         <v>570</v>
       </c>
-      <c r="E66" s="317" t="s">
+      <c r="E66" s="314" t="s">
         <v>572</v>
       </c>
       <c r="F66" s="312" t="s">
@@ -18491,7 +18493,7 @@
       <c r="G66" s="215" t="s">
         <v>573</v>
       </c>
-      <c r="H66" s="317" t="s">
+      <c r="H66" s="314" t="s">
         <v>575</v>
       </c>
       <c r="I66" s="312" t="s">
@@ -18500,19 +18502,19 @@
       <c r="J66" s="215" t="s">
         <v>576</v>
       </c>
-      <c r="K66" s="317" t="s">
+      <c r="K66" s="314" t="s">
         <v>578</v>
       </c>
-      <c r="L66" s="320"/>
-      <c r="M66" s="315"/>
-      <c r="N66" s="315"/>
+      <c r="L66" s="321"/>
+      <c r="M66" s="325"/>
+      <c r="N66" s="325"/>
       <c r="O66" s="312" t="s">
         <v>99</v>
       </c>
       <c r="P66" s="215" t="s">
         <v>579</v>
       </c>
-      <c r="Q66" s="317" t="s">
+      <c r="Q66" s="314" t="s">
         <v>581</v>
       </c>
     </row>
@@ -18524,77 +18526,104 @@
       <c r="D67" s="216" t="s">
         <v>571</v>
       </c>
-      <c r="E67" s="318"/>
+      <c r="E67" s="315"/>
       <c r="F67" s="313"/>
       <c r="G67" s="216" t="s">
         <v>574</v>
       </c>
-      <c r="H67" s="318"/>
+      <c r="H67" s="315"/>
       <c r="I67" s="313"/>
       <c r="J67" s="216" t="s">
         <v>577</v>
       </c>
-      <c r="K67" s="318"/>
-      <c r="L67" s="321"/>
-      <c r="M67" s="316"/>
-      <c r="N67" s="316"/>
+      <c r="K67" s="315"/>
+      <c r="L67" s="322"/>
+      <c r="M67" s="326"/>
+      <c r="N67" s="326"/>
       <c r="O67" s="313"/>
       <c r="P67" s="216" t="s">
         <v>580</v>
       </c>
-      <c r="Q67" s="318"/>
+      <c r="Q67" s="315"/>
     </row>
   </sheetData>
   <mergeCells count="149">
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="M66:M67"/>
+    <mergeCell ref="N66:N67"/>
+    <mergeCell ref="O66:O67"/>
+    <mergeCell ref="Q66:Q67"/>
+    <mergeCell ref="B54:Q54"/>
+    <mergeCell ref="B56:Q56"/>
+    <mergeCell ref="N64:N65"/>
+    <mergeCell ref="O64:O65"/>
+    <mergeCell ref="Q64:Q65"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="I66:I67"/>
+    <mergeCell ref="K66:K67"/>
+    <mergeCell ref="L66:L67"/>
+    <mergeCell ref="N62:N63"/>
+    <mergeCell ref="O62:O63"/>
+    <mergeCell ref="Q62:Q63"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="I64:I65"/>
+    <mergeCell ref="K64:K65"/>
+    <mergeCell ref="L64:L65"/>
+    <mergeCell ref="P60:P61"/>
+    <mergeCell ref="Q60:Q61"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="I62:I63"/>
+    <mergeCell ref="K62:K63"/>
+    <mergeCell ref="L62:L63"/>
+    <mergeCell ref="Q58:Q59"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="K60:K61"/>
+    <mergeCell ref="L60:L61"/>
+    <mergeCell ref="N60:N61"/>
+    <mergeCell ref="O60:O61"/>
+    <mergeCell ref="K58:K59"/>
+    <mergeCell ref="L58:L59"/>
+    <mergeCell ref="M58:M59"/>
+    <mergeCell ref="N58:N59"/>
+    <mergeCell ref="O58:O59"/>
+    <mergeCell ref="P58:P59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="J58:J59"/>
     <mergeCell ref="B46:B47"/>
     <mergeCell ref="D46:D47"/>
     <mergeCell ref="B48:B49"/>
@@ -18619,82 +18648,55 @@
     <mergeCell ref="G36:G37"/>
     <mergeCell ref="B30:B31"/>
     <mergeCell ref="D30:D31"/>
-    <mergeCell ref="Q58:Q59"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="I60:I61"/>
-    <mergeCell ref="K60:K61"/>
-    <mergeCell ref="L60:L61"/>
-    <mergeCell ref="N60:N61"/>
-    <mergeCell ref="O60:O61"/>
-    <mergeCell ref="K58:K59"/>
-    <mergeCell ref="L58:L59"/>
-    <mergeCell ref="M58:M59"/>
-    <mergeCell ref="N58:N59"/>
-    <mergeCell ref="O58:O59"/>
-    <mergeCell ref="P58:P59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="J58:J59"/>
-    <mergeCell ref="K64:K65"/>
-    <mergeCell ref="L64:L65"/>
-    <mergeCell ref="P60:P61"/>
-    <mergeCell ref="Q60:Q61"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="I62:I63"/>
-    <mergeCell ref="K62:K63"/>
-    <mergeCell ref="L62:L63"/>
-    <mergeCell ref="M66:M67"/>
-    <mergeCell ref="N66:N67"/>
-    <mergeCell ref="O66:O67"/>
-    <mergeCell ref="Q66:Q67"/>
-    <mergeCell ref="B54:Q54"/>
-    <mergeCell ref="B56:Q56"/>
-    <mergeCell ref="N64:N65"/>
-    <mergeCell ref="O64:O65"/>
-    <mergeCell ref="Q64:Q65"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="I66:I67"/>
-    <mergeCell ref="K66:K67"/>
-    <mergeCell ref="L66:L67"/>
-    <mergeCell ref="N62:N63"/>
-    <mergeCell ref="O62:O63"/>
-    <mergeCell ref="Q62:Q63"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="H64:H65"/>
-    <mergeCell ref="I64:I65"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="J34:J35"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>

--- a/docs/鍵盤設計規格_台語135拼音.xlsx
+++ b/docs/鍵盤設計規格_台語135拼音.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\home\alanjui\workspace\rime\rime-tlpa\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F0879C-0957-4AC7-9520-DABF2BC01D54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{F9F02FDC-9465-45A8-BEAC-ECA5098DA202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="703" firstSheet="3" activeTab="4" xr2:uid="{8ADEA2FE-7CD1-466B-8EB5-9AA2577FE19A}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="703" firstSheet="3" activeTab="9" xr2:uid="{8ADEA2FE-7CD1-466B-8EB5-9AA2577FE19A}"/>
   </bookViews>
   <sheets>
     <sheet name="135拼音-注音符號與台語音標" sheetId="18" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2157" uniqueCount="974">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2187" uniqueCount="1000">
   <si>
     <t>(TLPA)</t>
     <phoneticPr fontId="46" type="noConversion"/>
@@ -3766,6 +3766,153 @@
     <t>ㄪ</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>洛</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lok8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ㄌ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ㄜ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ㄎˊ</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>恩</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ern1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>er</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ㄣ</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> iang5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>僧</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>serng¹</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㄧㄥ</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㄥ+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地方腔轉換</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lerng⁵</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄌㄧㄥˇ</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>淡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tam⁷</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄚㄇ"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄢㄇ+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>舌齒音轉換</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>之</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>zi¹</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>zian⁷</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗㄧㄢ"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧㄢ"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>賤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -3776,7 +3923,7 @@
     <numFmt numFmtId="177" formatCode="&quot;[&quot;\ @\ &quot;]&quot;"/>
     <numFmt numFmtId="178" formatCode="&quot;/ &quot;@&quot; /&quot;"/>
   </numFmts>
-  <fonts count="144">
+  <fonts count="147">
     <font>
       <sz val="16"/>
       <color rgb="FF000000"/>
@@ -4733,6 +4880,28 @@
       <family val="3"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="30">
     <fill>
@@ -5278,7 +5447,7 @@
     <xf numFmtId="0" fontId="92" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="113" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="423">
+  <cellXfs count="426">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6185,6 +6354,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6469,6 +6641,12 @@
     </xf>
     <xf numFmtId="0" fontId="143" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -7965,19 +8143,20 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBB27E10-7997-439F-809E-9020723A0FFC}">
-  <dimension ref="B2:L31"/>
+  <dimension ref="B2:R50"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28:E30"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
   <cols>
-    <col min="3" max="10" width="11.5" customWidth="1"/>
+    <col min="3" max="10" width="11.5" style="314" customWidth="1"/>
+    <col min="11" max="18" width="8.796875" style="314"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12">
-      <c r="B2" s="391" t="s">
+    <row r="2" spans="2:14">
+      <c r="B2" s="392" t="s">
         <v>891</v>
       </c>
       <c r="C2" s="315" t="s">
@@ -7987,27 +8166,27 @@
         <v>893</v>
       </c>
     </row>
-    <row r="3" spans="2:12" ht="21" customHeight="1">
-      <c r="B3" s="391"/>
-      <c r="C3" s="389" t="s">
+    <row r="3" spans="2:14" ht="21" customHeight="1">
+      <c r="B3" s="392"/>
+      <c r="C3" s="390" t="s">
         <v>894</v>
       </c>
-      <c r="D3" s="389" t="s">
+      <c r="D3" s="390" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="21" customHeight="1">
-      <c r="B4" s="391"/>
-      <c r="C4" s="389"/>
-      <c r="D4" s="389"/>
-    </row>
-    <row r="5" spans="2:12" ht="21" customHeight="1">
-      <c r="B5" s="391"/>
-      <c r="C5" s="389"/>
-      <c r="D5" s="389"/>
-    </row>
-    <row r="6" spans="2:12">
-      <c r="B6" s="391"/>
+    <row r="4" spans="2:14" ht="21" customHeight="1">
+      <c r="B4" s="392"/>
+      <c r="C4" s="390"/>
+      <c r="D4" s="390"/>
+    </row>
+    <row r="5" spans="2:14" ht="21" customHeight="1">
+      <c r="B5" s="392"/>
+      <c r="C5" s="390"/>
+      <c r="D5" s="390"/>
+    </row>
+    <row r="6" spans="2:14">
+      <c r="B6" s="392"/>
       <c r="C6" s="318" t="s">
         <v>896</v>
       </c>
@@ -8015,375 +8194,540 @@
         <v>897</v>
       </c>
     </row>
-    <row r="8" spans="2:12" s="314" customFormat="1">
-      <c r="B8" s="391" t="s">
+    <row r="9" spans="2:14" s="314" customFormat="1">
+      <c r="B9" s="392" t="s">
         <v>898</v>
       </c>
-      <c r="C8" s="315" t="s">
+      <c r="C9" s="315" t="s">
         <v>899</v>
       </c>
-      <c r="D8" s="315" t="s">
+      <c r="D9" s="315" t="s">
         <v>900</v>
       </c>
-      <c r="E8" s="315" t="s">
+      <c r="E9" s="315" t="s">
         <v>901</v>
       </c>
-      <c r="F8" s="315" t="s">
+      <c r="F9" s="315" t="s">
         <v>902</v>
       </c>
-      <c r="G8" s="315" t="s">
+      <c r="G9" s="315" t="s">
         <v>903</v>
       </c>
-      <c r="H8" s="315" t="s">
+      <c r="H9" s="315" t="s">
         <v>904</v>
       </c>
-      <c r="I8" s="315" t="s">
+      <c r="I9" s="315" t="s">
         <v>905</v>
       </c>
-      <c r="J8" s="315" t="s">
+      <c r="J9" s="315" t="s">
         <v>906</v>
       </c>
-      <c r="K8" s="315" t="s">
+      <c r="K9" s="315" t="s">
         <v>907</v>
       </c>
-    </row>
-    <row r="9" spans="2:12" ht="21" customHeight="1">
-      <c r="B9" s="391"/>
-      <c r="C9" s="389" t="s">
+      <c r="L9" s="315" t="s">
+        <v>975</v>
+      </c>
+      <c r="M9" s="315" t="s">
+        <v>978</v>
+      </c>
+      <c r="N9" s="315" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" ht="21" customHeight="1">
+      <c r="B10" s="392"/>
+      <c r="C10" s="390" t="s">
         <v>908</v>
       </c>
-      <c r="D9" s="389" t="s">
+      <c r="D10" s="390" t="s">
         <v>167</v>
       </c>
-      <c r="E9" s="389" t="s">
+      <c r="E10" s="390" t="s">
         <v>909</v>
       </c>
-      <c r="F9" s="389" t="s">
+      <c r="F10" s="390" t="s">
         <v>910</v>
       </c>
-      <c r="G9" s="389" t="s">
+      <c r="G10" s="390" t="s">
         <v>911</v>
       </c>
-      <c r="H9" s="389" t="s">
+      <c r="H10" s="390" t="s">
         <v>912</v>
       </c>
-      <c r="I9" s="389" t="s">
+      <c r="I10" s="390" t="s">
         <v>912</v>
       </c>
-      <c r="J9" s="389" t="s">
+      <c r="J10" s="390" t="s">
         <v>913</v>
       </c>
-      <c r="K9" s="389" t="s">
+      <c r="K10" s="390" t="s">
         <v>913</v>
       </c>
-      <c r="L9" s="389"/>
-    </row>
-    <row r="10" spans="2:12" ht="21" customHeight="1">
-      <c r="B10" s="391"/>
-      <c r="C10" s="389"/>
-      <c r="D10" s="389"/>
-      <c r="E10" s="389"/>
-      <c r="F10" s="389"/>
-      <c r="G10" s="389"/>
-      <c r="H10" s="389"/>
-      <c r="I10" s="389"/>
-      <c r="J10" s="389"/>
-      <c r="K10" s="389"/>
-      <c r="L10" s="389"/>
-    </row>
-    <row r="11" spans="2:12" ht="21" customHeight="1">
-      <c r="B11" s="391"/>
-      <c r="C11" s="389"/>
-      <c r="D11" s="389"/>
-      <c r="E11" s="389"/>
-      <c r="F11" s="389"/>
-      <c r="G11" s="389"/>
-      <c r="H11" s="389"/>
-      <c r="I11" s="389"/>
-      <c r="J11" s="389"/>
-      <c r="K11" s="389"/>
-      <c r="L11" s="389"/>
-    </row>
-    <row r="12" spans="2:12" s="314" customFormat="1">
-      <c r="B12" s="391"/>
-      <c r="C12" s="316" t="s">
+      <c r="L10" s="391" t="s">
+        <v>974</v>
+      </c>
+      <c r="M10" s="391" t="s">
+        <v>977</v>
+      </c>
+      <c r="N10" s="391" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" ht="21" customHeight="1">
+      <c r="B11" s="392"/>
+      <c r="C11" s="390"/>
+      <c r="D11" s="390"/>
+      <c r="E11" s="390"/>
+      <c r="F11" s="390"/>
+      <c r="G11" s="390"/>
+      <c r="H11" s="390"/>
+      <c r="I11" s="390"/>
+      <c r="J11" s="390"/>
+      <c r="K11" s="390"/>
+      <c r="L11" s="391"/>
+      <c r="M11" s="391"/>
+      <c r="N11" s="391"/>
+    </row>
+    <row r="12" spans="2:14" ht="21" customHeight="1">
+      <c r="B12" s="392"/>
+      <c r="C12" s="390"/>
+      <c r="D12" s="390"/>
+      <c r="E12" s="390"/>
+      <c r="F12" s="390"/>
+      <c r="G12" s="390"/>
+      <c r="H12" s="390"/>
+      <c r="I12" s="390"/>
+      <c r="J12" s="390"/>
+      <c r="K12" s="390"/>
+      <c r="L12" s="391"/>
+      <c r="M12" s="391"/>
+      <c r="N12" s="391"/>
+    </row>
+    <row r="13" spans="2:14" s="314" customFormat="1">
+      <c r="B13" s="392"/>
+      <c r="C13" s="316" t="s">
         <v>914</v>
       </c>
-      <c r="D12" s="317" t="s">
+      <c r="D13" s="317" t="s">
         <v>174</v>
       </c>
-      <c r="E12" s="317" t="s">
+      <c r="E13" s="317" t="s">
         <v>915</v>
       </c>
-      <c r="F12" s="317" t="s">
+      <c r="F13" s="317" t="s">
         <v>916</v>
       </c>
-      <c r="G12" s="316" t="s">
+      <c r="G13" s="316" t="s">
         <v>917</v>
       </c>
-      <c r="H12" s="317" t="s">
+      <c r="H13" s="317" t="s">
         <v>918</v>
       </c>
-      <c r="I12" s="317" t="s">
+      <c r="I13" s="317" t="s">
         <v>919</v>
       </c>
-      <c r="J12" s="317" t="s">
+      <c r="J13" s="317" t="s">
         <v>920</v>
       </c>
-      <c r="K12" s="314" t="s">
+      <c r="K13" s="314" t="s">
         <v>921</v>
       </c>
-    </row>
-    <row r="14" spans="2:12" s="314" customFormat="1">
-      <c r="B14" s="392" t="s">
+      <c r="L13" s="314" t="s">
+        <v>976</v>
+      </c>
+      <c r="M13" s="424" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" s="314" customFormat="1">
+      <c r="B14" s="327"/>
+      <c r="C14" s="316"/>
+      <c r="D14" s="317"/>
+      <c r="E14" s="317"/>
+      <c r="F14" s="317"/>
+      <c r="G14" s="316"/>
+      <c r="H14" s="317"/>
+      <c r="I14" s="317"/>
+      <c r="J14" s="317"/>
+      <c r="M14" s="424"/>
+    </row>
+    <row r="16" spans="2:14" s="314" customFormat="1">
+      <c r="B16" s="393" t="s">
         <v>922</v>
       </c>
-      <c r="C14" s="315" t="s">
+      <c r="C16" s="315" t="s">
         <v>923</v>
       </c>
-      <c r="D14" s="315" t="s">
+      <c r="D16" s="315" t="s">
         <v>924</v>
       </c>
-      <c r="E14" s="315" t="s">
+      <c r="E16" s="315" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="15" spans="2:12" ht="21" customHeight="1">
-      <c r="B15" s="392"/>
-      <c r="C15" s="390" t="s">
+    <row r="17" spans="2:12" ht="21" customHeight="1">
+      <c r="B17" s="393"/>
+      <c r="C17" s="391" t="s">
         <v>926</v>
       </c>
-      <c r="D15" s="390" t="s">
+      <c r="D17" s="391" t="s">
         <v>927</v>
       </c>
-      <c r="E15" s="390" t="s">
+      <c r="E17" s="391" t="s">
         <v>928</v>
       </c>
-      <c r="F15" s="389"/>
-      <c r="G15" s="389"/>
-      <c r="H15" s="389"/>
-      <c r="I15" s="389"/>
-      <c r="J15" s="389"/>
-      <c r="K15" s="389"/>
-      <c r="L15" s="389"/>
-    </row>
-    <row r="16" spans="2:12" ht="21" customHeight="1">
-      <c r="B16" s="392"/>
-      <c r="C16" s="390"/>
-      <c r="D16" s="390"/>
-      <c r="E16" s="390"/>
-      <c r="F16" s="389"/>
-      <c r="G16" s="389"/>
-      <c r="H16" s="389"/>
-      <c r="I16" s="389"/>
-      <c r="J16" s="389"/>
-      <c r="K16" s="389"/>
-      <c r="L16" s="389"/>
-    </row>
-    <row r="17" spans="2:12" ht="21" customHeight="1">
-      <c r="B17" s="392"/>
-      <c r="C17" s="390"/>
-      <c r="D17" s="390"/>
-      <c r="E17" s="390"/>
-      <c r="F17" s="389"/>
-      <c r="G17" s="389"/>
-      <c r="H17" s="389"/>
-      <c r="I17" s="389"/>
-      <c r="J17" s="389"/>
-      <c r="K17" s="389"/>
-      <c r="L17" s="389"/>
-    </row>
-    <row r="18" spans="2:12" s="314" customFormat="1">
-      <c r="B18" s="392"/>
-      <c r="C18" s="316" t="s">
+      <c r="F17" s="390"/>
+      <c r="G17" s="390"/>
+      <c r="H17" s="390"/>
+      <c r="I17" s="390"/>
+      <c r="J17" s="390"/>
+      <c r="K17" s="390"/>
+      <c r="L17" s="390"/>
+    </row>
+    <row r="18" spans="2:12" ht="21" customHeight="1">
+      <c r="B18" s="393"/>
+      <c r="C18" s="391"/>
+      <c r="D18" s="391"/>
+      <c r="E18" s="391"/>
+      <c r="F18" s="390"/>
+      <c r="G18" s="390"/>
+      <c r="H18" s="390"/>
+      <c r="I18" s="390"/>
+      <c r="J18" s="390"/>
+      <c r="K18" s="390"/>
+      <c r="L18" s="390"/>
+    </row>
+    <row r="19" spans="2:12" ht="21" customHeight="1">
+      <c r="B19" s="393"/>
+      <c r="C19" s="391"/>
+      <c r="D19" s="391"/>
+      <c r="E19" s="391"/>
+      <c r="F19" s="390"/>
+      <c r="G19" s="390"/>
+      <c r="H19" s="390"/>
+      <c r="I19" s="390"/>
+      <c r="J19" s="390"/>
+      <c r="K19" s="390"/>
+      <c r="L19" s="390"/>
+    </row>
+    <row r="20" spans="2:12" s="314" customFormat="1">
+      <c r="B20" s="393"/>
+      <c r="C20" s="316" t="s">
         <v>929</v>
       </c>
-      <c r="D18" s="317" t="s">
+      <c r="D20" s="317" t="s">
         <v>930</v>
       </c>
-      <c r="E18" s="317" t="s">
+      <c r="E20" s="317" t="s">
         <v>931</v>
       </c>
     </row>
-    <row r="21" spans="2:12" s="314" customFormat="1">
-      <c r="B21" s="392" t="s">
+    <row r="23" spans="2:12" s="314" customFormat="1">
+      <c r="B23" s="393" t="s">
         <v>770</v>
       </c>
-      <c r="C21" s="315" t="s">
+      <c r="C23" s="315" t="s">
         <v>932</v>
       </c>
-      <c r="D21" s="315" t="s">
+      <c r="D23" s="315" t="s">
         <v>933</v>
       </c>
-      <c r="E21" s="315" t="s">
+      <c r="E23" s="315" t="s">
         <v>933</v>
       </c>
-      <c r="F21" s="315" t="s">
+      <c r="F23" s="315" t="s">
         <v>934</v>
       </c>
     </row>
-    <row r="22" spans="2:12" ht="21" customHeight="1">
-      <c r="B22" s="392"/>
-      <c r="C22" s="389" t="s">
+    <row r="24" spans="2:12" ht="21" customHeight="1">
+      <c r="B24" s="393"/>
+      <c r="C24" s="390" t="s">
         <v>935</v>
       </c>
-      <c r="D22" s="389" t="s">
+      <c r="D24" s="390" t="s">
         <v>935</v>
       </c>
-      <c r="E22" s="389" t="s">
+      <c r="E24" s="390" t="s">
         <v>936</v>
       </c>
-      <c r="F22" s="390" t="s">
+      <c r="F24" s="391" t="s">
         <v>937</v>
       </c>
-      <c r="G22" s="389"/>
-      <c r="H22" s="389"/>
-      <c r="I22" s="389"/>
-      <c r="J22" s="389"/>
-      <c r="K22" s="389"/>
-      <c r="L22" s="389"/>
-    </row>
-    <row r="23" spans="2:12" ht="21" customHeight="1">
-      <c r="B23" s="392"/>
-      <c r="C23" s="389"/>
-      <c r="D23" s="389"/>
-      <c r="E23" s="389"/>
-      <c r="F23" s="390"/>
-      <c r="G23" s="389"/>
-      <c r="H23" s="389"/>
-      <c r="I23" s="389"/>
-      <c r="J23" s="389"/>
-      <c r="K23" s="389"/>
-      <c r="L23" s="389"/>
-    </row>
-    <row r="24" spans="2:12" ht="21" customHeight="1">
-      <c r="B24" s="392"/>
-      <c r="C24" s="389"/>
-      <c r="D24" s="389"/>
-      <c r="E24" s="389"/>
-      <c r="F24" s="390"/>
-      <c r="G24" s="389"/>
-      <c r="H24" s="389"/>
-      <c r="I24" s="389"/>
-      <c r="J24" s="389"/>
-      <c r="K24" s="389"/>
-      <c r="L24" s="389"/>
-    </row>
-    <row r="25" spans="2:12" s="314" customFormat="1">
-      <c r="B25" s="392"/>
-      <c r="C25" s="316" t="s">
+      <c r="G24" s="390"/>
+      <c r="H24" s="390"/>
+      <c r="I24" s="390"/>
+      <c r="J24" s="390"/>
+      <c r="K24" s="390"/>
+      <c r="L24" s="390"/>
+    </row>
+    <row r="25" spans="2:12" ht="21" customHeight="1">
+      <c r="B25" s="393"/>
+      <c r="C25" s="390"/>
+      <c r="D25" s="390"/>
+      <c r="E25" s="390"/>
+      <c r="F25" s="391"/>
+      <c r="G25" s="390"/>
+      <c r="H25" s="390"/>
+      <c r="I25" s="390"/>
+      <c r="J25" s="390"/>
+      <c r="K25" s="390"/>
+      <c r="L25" s="390"/>
+    </row>
+    <row r="26" spans="2:12" ht="21" customHeight="1">
+      <c r="B26" s="393"/>
+      <c r="C26" s="390"/>
+      <c r="D26" s="390"/>
+      <c r="E26" s="390"/>
+      <c r="F26" s="391"/>
+      <c r="G26" s="390"/>
+      <c r="H26" s="390"/>
+      <c r="I26" s="390"/>
+      <c r="J26" s="390"/>
+      <c r="K26" s="390"/>
+      <c r="L26" s="390"/>
+    </row>
+    <row r="27" spans="2:12" s="314" customFormat="1">
+      <c r="B27" s="393"/>
+      <c r="C27" s="316" t="s">
         <v>938</v>
       </c>
-      <c r="D25" s="316" t="s">
+      <c r="D27" s="316" t="s">
         <v>939</v>
       </c>
-      <c r="E25" s="316" t="s">
+      <c r="E27" s="316" t="s">
         <v>939</v>
       </c>
-      <c r="F25" s="316" t="s">
+      <c r="F27" s="316" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="26" spans="2:12">
-      <c r="D26" s="319" t="s">
+    <row r="28" spans="2:12">
+      <c r="D28" s="319" t="s">
         <v>941</v>
       </c>
-      <c r="F26" s="319" t="s">
+      <c r="F28" s="319" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="27" spans="2:12">
-      <c r="B27" s="391" t="s">
+    <row r="29" spans="2:12">
+      <c r="D29" s="319"/>
+      <c r="F29" s="319"/>
+    </row>
+    <row r="30" spans="2:12">
+      <c r="B30" s="392" t="s">
         <v>943</v>
       </c>
-      <c r="C27" s="315" t="s">
+      <c r="C30" s="315" t="s">
         <v>944</v>
       </c>
-      <c r="D27" s="315" t="s">
+      <c r="D30" s="315" t="s">
         <v>945</v>
       </c>
-      <c r="E27" s="315" t="s">
+      <c r="E30" s="315" t="s">
         <v>946</v>
       </c>
-    </row>
-    <row r="28" spans="2:12">
-      <c r="B28" s="391"/>
-      <c r="C28" s="389" t="s">
+      <c r="F30" s="315" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" ht="21" customHeight="1">
+      <c r="B31" s="392"/>
+      <c r="C31" s="390" t="s">
         <v>947</v>
       </c>
-      <c r="D28" s="389" t="s">
+      <c r="D31" s="390" t="s">
         <v>948</v>
       </c>
-      <c r="E28" s="389" t="s">
+      <c r="E31" s="390" t="s">
         <v>949</v>
       </c>
-    </row>
-    <row r="29" spans="2:12">
-      <c r="B29" s="391"/>
-      <c r="C29" s="389"/>
-      <c r="D29" s="389"/>
-      <c r="E29" s="389"/>
-    </row>
-    <row r="30" spans="2:12">
-      <c r="B30" s="391"/>
-      <c r="C30" s="389"/>
-      <c r="D30" s="389"/>
-      <c r="E30" s="389"/>
-    </row>
-    <row r="31" spans="2:12">
-      <c r="B31" s="391"/>
-      <c r="C31" s="316" t="s">
+      <c r="F31" s="390" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" ht="21" customHeight="1">
+      <c r="B32" s="392"/>
+      <c r="C32" s="390"/>
+      <c r="D32" s="390"/>
+      <c r="E32" s="390"/>
+      <c r="F32" s="390"/>
+    </row>
+    <row r="33" spans="2:6" ht="21" customHeight="1">
+      <c r="B33" s="392"/>
+      <c r="C33" s="390"/>
+      <c r="D33" s="390"/>
+      <c r="E33" s="390"/>
+      <c r="F33" s="390"/>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" s="392"/>
+      <c r="C34" s="316" t="s">
         <v>950</v>
       </c>
-      <c r="D31" s="317" t="s">
+      <c r="D34" s="317" t="s">
         <v>951</v>
       </c>
-      <c r="E31" s="317" t="s">
+      <c r="E34" s="317" t="s">
         <v>952</v>
       </c>
+      <c r="F34" s="317" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="F35" s="319" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="F36" s="319"/>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37" s="392" t="s">
+        <v>985</v>
+      </c>
+      <c r="C37" s="315" t="s">
+        <v>982</v>
+      </c>
+      <c r="D37" s="315" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38" s="392"/>
+      <c r="C38" s="390" t="s">
+        <v>981</v>
+      </c>
+      <c r="D38" s="390" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="B39" s="392"/>
+      <c r="C39" s="390"/>
+      <c r="D39" s="390"/>
+    </row>
+    <row r="40" spans="2:6">
+      <c r="B40" s="392"/>
+      <c r="C40" s="390"/>
+      <c r="D40" s="390"/>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="B41" s="392"/>
+      <c r="C41" s="425" t="s">
+        <v>983</v>
+      </c>
+      <c r="D41" s="425" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6">
+      <c r="C42" s="314" t="s">
+        <v>984</v>
+      </c>
+      <c r="D42" s="314" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6">
+      <c r="B45" s="392" t="s">
+        <v>993</v>
+      </c>
+      <c r="C45" s="315" t="s">
+        <v>995</v>
+      </c>
+      <c r="D45" s="315" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6">
+      <c r="B46" s="392"/>
+      <c r="C46" s="390" t="s">
+        <v>994</v>
+      </c>
+      <c r="D46" s="390" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6">
+      <c r="B47" s="392"/>
+      <c r="C47" s="390"/>
+      <c r="D47" s="390"/>
+    </row>
+    <row r="48" spans="2:6">
+      <c r="B48" s="392"/>
+      <c r="C48" s="390"/>
+      <c r="D48" s="390"/>
+    </row>
+    <row r="49" spans="2:4">
+      <c r="B49" s="392"/>
+      <c r="C49" s="316" t="s">
+        <v>390</v>
+      </c>
+      <c r="D49" s="316" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4">
+      <c r="C50" s="319" t="s">
+        <v>391</v>
+      </c>
+      <c r="D50" s="319" t="s">
+        <v>997</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="E28:E30"/>
-    <mergeCell ref="J22:J24"/>
-    <mergeCell ref="K22:K24"/>
-    <mergeCell ref="L22:L24"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="F22:F24"/>
-    <mergeCell ref="G22:G24"/>
-    <mergeCell ref="H22:H24"/>
-    <mergeCell ref="I22:I24"/>
+  <mergeCells count="49">
+    <mergeCell ref="B45:B49"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="M10:M12"/>
+    <mergeCell ref="N10:N12"/>
+    <mergeCell ref="B37:B41"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="F31:F33"/>
+    <mergeCell ref="E31:E33"/>
+    <mergeCell ref="J24:J26"/>
+    <mergeCell ref="K24:K26"/>
+    <mergeCell ref="L24:L26"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="H24:H26"/>
+    <mergeCell ref="I24:I26"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="D3:D5"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="B16:B20"/>
     <mergeCell ref="B2:B6"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="J15:J17"/>
-    <mergeCell ref="K15:K17"/>
-    <mergeCell ref="K9:K11"/>
-    <mergeCell ref="H9:H11"/>
-    <mergeCell ref="L15:L17"/>
-    <mergeCell ref="L9:L11"/>
-    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="K17:K19"/>
+    <mergeCell ref="K10:K12"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="L17:L19"/>
+    <mergeCell ref="L10:L12"/>
+    <mergeCell ref="J10:J12"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8705,18 +9049,18 @@
       </c>
     </row>
     <row r="22" spans="2:12" ht="147.75" customHeight="1">
-      <c r="C22" s="327" t="s">
+      <c r="C22" s="328" t="s">
         <v>189</v>
       </c>
-      <c r="D22" s="327"/>
-      <c r="E22" s="327"/>
-      <c r="F22" s="327"/>
-      <c r="G22" s="327"/>
-      <c r="H22" s="327"/>
-      <c r="I22" s="327"/>
-      <c r="J22" s="327"/>
-      <c r="K22" s="327"/>
-      <c r="L22" s="327"/>
+      <c r="D22" s="328"/>
+      <c r="E22" s="328"/>
+      <c r="F22" s="328"/>
+      <c r="G22" s="328"/>
+      <c r="H22" s="328"/>
+      <c r="I22" s="328"/>
+      <c r="J22" s="328"/>
+      <c r="K22" s="328"/>
+      <c r="L22" s="328"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9189,8 +9533,8 @@
   </sheetPr>
   <dimension ref="A1:BY68"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AD7" sqref="AD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.19921875" defaultRowHeight="27.75"/>
@@ -9263,66 +9607,66 @@
     </row>
     <row r="2" spans="1:75" s="79" customFormat="1" ht="31.5" customHeight="1">
       <c r="A2" s="77"/>
-      <c r="B2" s="334" t="s">
+      <c r="B2" s="335" t="s">
         <v>244</v>
       </c>
-      <c r="C2" s="335"/>
-      <c r="D2" s="336"/>
-      <c r="E2" s="334" t="s">
+      <c r="C2" s="336"/>
+      <c r="D2" s="337"/>
+      <c r="E2" s="335" t="s">
         <v>245</v>
       </c>
-      <c r="F2" s="335"/>
-      <c r="G2" s="336"/>
-      <c r="H2" s="343" t="s">
+      <c r="F2" s="336"/>
+      <c r="G2" s="337"/>
+      <c r="H2" s="344" t="s">
         <v>246</v>
       </c>
-      <c r="I2" s="344"/>
-      <c r="J2" s="345"/>
-      <c r="K2" s="343" t="s">
+      <c r="I2" s="345"/>
+      <c r="J2" s="346"/>
+      <c r="K2" s="344" t="s">
         <v>247</v>
       </c>
-      <c r="L2" s="344"/>
-      <c r="M2" s="345"/>
-      <c r="N2" s="346">
+      <c r="L2" s="345"/>
+      <c r="M2" s="346"/>
+      <c r="N2" s="347">
         <v>0.05</v>
       </c>
-      <c r="O2" s="347"/>
-      <c r="P2" s="348"/>
-      <c r="Q2" s="343" t="s">
+      <c r="O2" s="348"/>
+      <c r="P2" s="349"/>
+      <c r="Q2" s="344" t="s">
         <v>248</v>
       </c>
-      <c r="R2" s="344"/>
-      <c r="S2" s="345"/>
-      <c r="T2" s="343" t="s">
+      <c r="R2" s="345"/>
+      <c r="S2" s="346"/>
+      <c r="T2" s="344" t="s">
         <v>249</v>
       </c>
-      <c r="U2" s="344"/>
-      <c r="V2" s="345"/>
-      <c r="W2" s="328" t="s">
+      <c r="U2" s="345"/>
+      <c r="V2" s="346"/>
+      <c r="W2" s="329" t="s">
         <v>250</v>
       </c>
-      <c r="X2" s="329"/>
-      <c r="Y2" s="330"/>
-      <c r="Z2" s="328" t="s">
+      <c r="X2" s="330"/>
+      <c r="Y2" s="331"/>
+      <c r="Z2" s="329" t="s">
         <v>251</v>
       </c>
-      <c r="AA2" s="329"/>
-      <c r="AB2" s="330"/>
-      <c r="AC2" s="328" t="s">
+      <c r="AA2" s="330"/>
+      <c r="AB2" s="331"/>
+      <c r="AC2" s="329" t="s">
         <v>252</v>
       </c>
-      <c r="AD2" s="329"/>
-      <c r="AE2" s="330"/>
-      <c r="AF2" s="331" t="s">
+      <c r="AD2" s="330"/>
+      <c r="AE2" s="331"/>
+      <c r="AF2" s="332" t="s">
         <v>253</v>
       </c>
-      <c r="AG2" s="332"/>
-      <c r="AH2" s="333"/>
-      <c r="AI2" s="331" t="s">
+      <c r="AG2" s="333"/>
+      <c r="AH2" s="334"/>
+      <c r="AI2" s="332" t="s">
         <v>254</v>
       </c>
-      <c r="AJ2" s="332"/>
-      <c r="AK2" s="333"/>
+      <c r="AJ2" s="333"/>
+      <c r="AK2" s="334"/>
       <c r="AL2" s="77"/>
       <c r="AM2" s="77"/>
       <c r="AN2" s="77"/>
@@ -9454,38 +9798,38 @@
       <c r="G4" s="187" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="339" t="s">
+      <c r="H4" s="340" t="s">
         <v>262</v>
       </c>
-      <c r="I4" s="340"/>
+      <c r="I4" s="341"/>
       <c r="J4" s="101" t="s">
         <v>263</v>
       </c>
-      <c r="K4" s="341" t="s">
+      <c r="K4" s="342" t="s">
         <v>264</v>
       </c>
-      <c r="L4" s="342"/>
+      <c r="L4" s="343"/>
       <c r="M4" s="101" t="s">
         <v>265</v>
       </c>
-      <c r="N4" s="339" t="s">
+      <c r="N4" s="340" t="s">
         <v>266</v>
       </c>
-      <c r="O4" s="340"/>
+      <c r="O4" s="341"/>
       <c r="P4" s="101" t="s">
         <v>222</v>
       </c>
-      <c r="Q4" s="341" t="s">
+      <c r="Q4" s="342" t="s">
         <v>267</v>
       </c>
-      <c r="R4" s="342"/>
+      <c r="R4" s="343"/>
       <c r="S4" s="101" t="s">
         <v>220</v>
       </c>
-      <c r="T4" s="339" t="s">
+      <c r="T4" s="340" t="s">
         <v>268</v>
       </c>
-      <c r="U4" s="340"/>
+      <c r="U4" s="341"/>
       <c r="V4" s="101" t="s">
         <v>269</v>
       </c>
@@ -9525,8 +9869,8 @@
         <f ca="1">AV19</f>
         <v>N</v>
       </c>
-      <c r="AI4" s="337"/>
-      <c r="AJ4" s="338"/>
+      <c r="AI4" s="338"/>
+      <c r="AJ4" s="339"/>
       <c r="AK4" s="105"/>
       <c r="AL4" s="97"/>
       <c r="AM4" s="97"/>
@@ -9584,71 +9928,71 @@
     <row r="5" spans="1:75" s="79" customFormat="1" ht="31.5" customHeight="1">
       <c r="A5" s="77"/>
       <c r="B5" s="77"/>
-      <c r="C5" s="334" t="s">
+      <c r="C5" s="335" t="s">
         <v>270</v>
       </c>
-      <c r="D5" s="335"/>
-      <c r="E5" s="336"/>
-      <c r="F5" s="334" t="s">
+      <c r="D5" s="336"/>
+      <c r="E5" s="337"/>
+      <c r="F5" s="335" t="s">
         <v>271</v>
       </c>
-      <c r="G5" s="335"/>
-      <c r="H5" s="336"/>
-      <c r="I5" s="334" t="s">
+      <c r="G5" s="336"/>
+      <c r="H5" s="337"/>
+      <c r="I5" s="335" t="s">
         <v>272</v>
       </c>
-      <c r="J5" s="335"/>
-      <c r="K5" s="336"/>
-      <c r="L5" s="334" t="s">
+      <c r="J5" s="336"/>
+      <c r="K5" s="337"/>
+      <c r="L5" s="335" t="s">
         <v>273</v>
       </c>
-      <c r="M5" s="335"/>
-      <c r="N5" s="336"/>
-      <c r="O5" s="334" t="s">
+      <c r="M5" s="336"/>
+      <c r="N5" s="337"/>
+      <c r="O5" s="335" t="s">
         <v>26</v>
       </c>
-      <c r="P5" s="335"/>
-      <c r="Q5" s="336"/>
-      <c r="R5" s="334" t="s">
+      <c r="P5" s="336"/>
+      <c r="Q5" s="337"/>
+      <c r="R5" s="335" t="s">
         <v>274</v>
       </c>
-      <c r="S5" s="335"/>
-      <c r="T5" s="336"/>
-      <c r="U5" s="328" t="s">
+      <c r="S5" s="336"/>
+      <c r="T5" s="337"/>
+      <c r="U5" s="329" t="s">
         <v>275</v>
       </c>
-      <c r="V5" s="329"/>
-      <c r="W5" s="330"/>
-      <c r="X5" s="328" t="s">
+      <c r="V5" s="330"/>
+      <c r="W5" s="331"/>
+      <c r="X5" s="329" t="s">
         <v>276</v>
       </c>
-      <c r="Y5" s="329"/>
-      <c r="Z5" s="330"/>
-      <c r="AA5" s="328" t="s">
+      <c r="Y5" s="330"/>
+      <c r="Z5" s="331"/>
+      <c r="AA5" s="329" t="s">
         <v>277</v>
       </c>
-      <c r="AB5" s="329"/>
-      <c r="AC5" s="330"/>
-      <c r="AD5" s="328" t="s">
+      <c r="AB5" s="330"/>
+      <c r="AC5" s="331"/>
+      <c r="AD5" s="329" t="s">
         <v>11</v>
       </c>
-      <c r="AE5" s="329"/>
-      <c r="AF5" s="330"/>
-      <c r="AG5" s="328" t="s">
+      <c r="AE5" s="330"/>
+      <c r="AF5" s="331"/>
+      <c r="AG5" s="329" t="s">
         <v>278</v>
       </c>
-      <c r="AH5" s="329"/>
-      <c r="AI5" s="330"/>
-      <c r="AJ5" s="328" t="s">
+      <c r="AH5" s="330"/>
+      <c r="AI5" s="331"/>
+      <c r="AJ5" s="329" t="s">
         <v>279</v>
       </c>
-      <c r="AK5" s="329"/>
-      <c r="AL5" s="330"/>
-      <c r="AM5" s="331" t="s">
+      <c r="AK5" s="330"/>
+      <c r="AL5" s="331"/>
+      <c r="AM5" s="332" t="s">
         <v>280</v>
       </c>
-      <c r="AN5" s="332"/>
-      <c r="AO5" s="333"/>
+      <c r="AN5" s="333"/>
+      <c r="AO5" s="334"/>
       <c r="AP5" s="77"/>
       <c r="AQ5" s="77"/>
       <c r="AR5" s="78"/>
@@ -9896,14 +10240,14 @@
         <f ca="1">AU19</f>
         <v>n</v>
       </c>
-      <c r="AG7" s="337"/>
-      <c r="AH7" s="338"/>
+      <c r="AG7" s="338"/>
+      <c r="AH7" s="339"/>
       <c r="AI7" s="105"/>
-      <c r="AJ7" s="337"/>
-      <c r="AK7" s="338"/>
+      <c r="AJ7" s="338"/>
+      <c r="AK7" s="339"/>
       <c r="AL7" s="105"/>
-      <c r="AM7" s="337"/>
-      <c r="AN7" s="338"/>
+      <c r="AM7" s="338"/>
+      <c r="AN7" s="339"/>
       <c r="AO7" s="105"/>
       <c r="AP7" s="97"/>
       <c r="AQ7" s="97"/>
@@ -9958,61 +10302,61 @@
       <c r="A8" s="77"/>
       <c r="B8" s="77"/>
       <c r="C8" s="111"/>
-      <c r="D8" s="334" t="s">
+      <c r="D8" s="335" t="s">
         <v>283</v>
       </c>
-      <c r="E8" s="335"/>
-      <c r="F8" s="336"/>
-      <c r="G8" s="334" t="s">
+      <c r="E8" s="336"/>
+      <c r="F8" s="337"/>
+      <c r="G8" s="335" t="s">
         <v>284</v>
       </c>
-      <c r="H8" s="335"/>
-      <c r="I8" s="336"/>
-      <c r="J8" s="334" t="s">
+      <c r="H8" s="336"/>
+      <c r="I8" s="337"/>
+      <c r="J8" s="335" t="s">
         <v>285</v>
       </c>
-      <c r="K8" s="335"/>
-      <c r="L8" s="336"/>
-      <c r="M8" s="334" t="s">
+      <c r="K8" s="336"/>
+      <c r="L8" s="337"/>
+      <c r="M8" s="335" t="s">
         <v>286</v>
       </c>
-      <c r="N8" s="335"/>
-      <c r="O8" s="336"/>
-      <c r="P8" s="334" t="s">
+      <c r="N8" s="336"/>
+      <c r="O8" s="337"/>
+      <c r="P8" s="335" t="s">
         <v>287</v>
       </c>
-      <c r="Q8" s="335"/>
-      <c r="R8" s="336"/>
-      <c r="S8" s="334" t="s">
+      <c r="Q8" s="336"/>
+      <c r="R8" s="337"/>
+      <c r="S8" s="335" t="s">
         <v>288</v>
       </c>
-      <c r="T8" s="335"/>
-      <c r="U8" s="336"/>
-      <c r="V8" s="328" t="s">
+      <c r="T8" s="336"/>
+      <c r="U8" s="337"/>
+      <c r="V8" s="329" t="s">
         <v>289</v>
       </c>
-      <c r="W8" s="329"/>
-      <c r="X8" s="330"/>
-      <c r="Y8" s="328" t="s">
+      <c r="W8" s="330"/>
+      <c r="X8" s="331"/>
+      <c r="Y8" s="329" t="s">
         <v>56</v>
       </c>
-      <c r="Z8" s="329"/>
-      <c r="AA8" s="330"/>
-      <c r="AB8" s="328" t="s">
+      <c r="Z8" s="330"/>
+      <c r="AA8" s="331"/>
+      <c r="AB8" s="329" t="s">
         <v>290</v>
       </c>
-      <c r="AC8" s="329"/>
-      <c r="AD8" s="330"/>
-      <c r="AE8" s="328" t="s">
+      <c r="AC8" s="330"/>
+      <c r="AD8" s="331"/>
+      <c r="AE8" s="329" t="s">
         <v>291</v>
       </c>
-      <c r="AF8" s="329"/>
-      <c r="AG8" s="330"/>
-      <c r="AH8" s="331" t="s">
+      <c r="AF8" s="330"/>
+      <c r="AG8" s="331"/>
+      <c r="AH8" s="332" t="s">
         <v>292</v>
       </c>
-      <c r="AI8" s="332"/>
-      <c r="AJ8" s="333"/>
+      <c r="AI8" s="333"/>
+      <c r="AJ8" s="334"/>
       <c r="AK8" s="77"/>
       <c r="AL8" s="77"/>
       <c r="AM8" s="77"/>
@@ -10267,8 +10611,8 @@
         <f ca="1">AQ19</f>
         <v>ang</v>
       </c>
-      <c r="AH10" s="337"/>
-      <c r="AI10" s="338"/>
+      <c r="AH10" s="338"/>
+      <c r="AI10" s="339"/>
       <c r="AJ10" s="105"/>
       <c r="AK10" s="97"/>
       <c r="AL10" s="97"/>
@@ -10329,56 +10673,56 @@
       <c r="B11" s="77"/>
       <c r="C11" s="77"/>
       <c r="D11" s="77"/>
-      <c r="E11" s="334" t="s">
+      <c r="E11" s="335" t="s">
         <v>293</v>
       </c>
-      <c r="F11" s="335"/>
-      <c r="G11" s="336"/>
-      <c r="H11" s="334" t="s">
+      <c r="F11" s="336"/>
+      <c r="G11" s="337"/>
+      <c r="H11" s="335" t="s">
         <v>294</v>
       </c>
-      <c r="I11" s="335"/>
-      <c r="J11" s="336"/>
-      <c r="K11" s="334" t="s">
+      <c r="I11" s="336"/>
+      <c r="J11" s="337"/>
+      <c r="K11" s="335" t="s">
         <v>42</v>
       </c>
-      <c r="L11" s="335"/>
-      <c r="M11" s="336"/>
-      <c r="N11" s="334" t="s">
+      <c r="L11" s="336"/>
+      <c r="M11" s="337"/>
+      <c r="N11" s="335" t="s">
         <v>295</v>
       </c>
-      <c r="O11" s="335"/>
-      <c r="P11" s="336"/>
-      <c r="Q11" s="334" t="s">
+      <c r="O11" s="336"/>
+      <c r="P11" s="337"/>
+      <c r="Q11" s="335" t="s">
         <v>296</v>
       </c>
-      <c r="R11" s="335"/>
-      <c r="S11" s="336"/>
-      <c r="T11" s="334" t="s">
+      <c r="R11" s="336"/>
+      <c r="S11" s="337"/>
+      <c r="T11" s="335" t="s">
         <v>297</v>
       </c>
-      <c r="U11" s="335"/>
-      <c r="V11" s="336"/>
-      <c r="W11" s="328" t="s">
+      <c r="U11" s="336"/>
+      <c r="V11" s="337"/>
+      <c r="W11" s="329" t="s">
         <v>298</v>
       </c>
-      <c r="X11" s="329"/>
-      <c r="Y11" s="330"/>
-      <c r="Z11" s="328" t="s">
+      <c r="X11" s="330"/>
+      <c r="Y11" s="331"/>
+      <c r="Z11" s="329" t="s">
         <v>299</v>
       </c>
-      <c r="AA11" s="329"/>
-      <c r="AB11" s="330"/>
-      <c r="AC11" s="328" t="s">
+      <c r="AA11" s="330"/>
+      <c r="AB11" s="331"/>
+      <c r="AC11" s="329" t="s">
         <v>300</v>
       </c>
-      <c r="AD11" s="329"/>
-      <c r="AE11" s="330"/>
-      <c r="AF11" s="331" t="s">
+      <c r="AD11" s="330"/>
+      <c r="AE11" s="331"/>
+      <c r="AF11" s="332" t="s">
         <v>301</v>
       </c>
-      <c r="AG11" s="332"/>
-      <c r="AH11" s="333"/>
+      <c r="AG11" s="333"/>
+      <c r="AH11" s="334"/>
       <c r="AI11" s="77"/>
       <c r="AJ11" s="77"/>
       <c r="AK11" s="77"/>
@@ -10479,7 +10823,7 @@
       <c r="AC12" s="181"/>
       <c r="AD12" s="91"/>
       <c r="AE12" s="93"/>
-      <c r="AF12" s="418" t="str">
+      <c r="AF12" s="419" t="str">
         <f ca="1">O18</f>
         <v>ㄫ</v>
       </c>
@@ -13766,19 +14110,19 @@
       <c r="AJ35" s="148"/>
       <c r="AK35" s="135"/>
       <c r="AL35" s="135"/>
-      <c r="AM35" s="405" t="s">
+      <c r="AM35" s="406" t="s">
         <v>312</v>
       </c>
-      <c r="AN35" s="405" t="s">
+      <c r="AN35" s="406" t="s">
         <v>313</v>
       </c>
-      <c r="AO35" s="405" t="s">
+      <c r="AO35" s="406" t="s">
         <v>307</v>
       </c>
-      <c r="AP35" s="405" t="s">
+      <c r="AP35" s="406" t="s">
         <v>283</v>
       </c>
-      <c r="AQ35" s="405" t="s">
+      <c r="AQ35" s="406" t="s">
         <v>464</v>
       </c>
       <c r="AR35" s="135"/>
@@ -13881,23 +14225,23 @@
       <c r="AJ36" s="143"/>
       <c r="AK36" s="135"/>
       <c r="AL36" s="135"/>
-      <c r="AM36" s="405">
+      <c r="AM36" s="406">
         <f ca="1" xml:space="preserve"> FIND(AM35, $E$34)</f>
         <v>2</v>
       </c>
-      <c r="AN36" s="405">
+      <c r="AN36" s="406">
         <f t="shared" ref="AN36:AO36" ca="1" si="5" xml:space="preserve"> FIND(AN35, $E$34)</f>
         <v>10</v>
       </c>
-      <c r="AO36" s="405">
+      <c r="AO36" s="406">
         <f t="shared" ca="1" si="5"/>
         <v>39</v>
       </c>
-      <c r="AP36" s="405">
+      <c r="AP36" s="406">
         <f t="shared" ref="AP36" ca="1" si="6" xml:space="preserve"> FIND(AP35, $E$34)</f>
         <v>38</v>
       </c>
-      <c r="AQ36" s="405">
+      <c r="AQ36" s="406">
         <f t="shared" ref="AQ36" ca="1" si="7" xml:space="preserve"> FIND(AQ35, $E$34)</f>
         <v>37</v>
       </c>
@@ -13998,23 +14342,23 @@
       <c r="AJ37" s="303"/>
       <c r="AK37" s="135"/>
       <c r="AL37" s="135"/>
-      <c r="AM37" s="405" t="str">
+      <c r="AM37" s="406" t="str">
         <f ca="1" xml:space="preserve"> MID($E$35,AM36,1)</f>
         <v>ㆠ</v>
       </c>
-      <c r="AN37" s="405" t="str">
+      <c r="AN37" s="406" t="str">
         <f t="shared" ref="AN37:AQ37" ca="1" si="10" xml:space="preserve"> MID($E$35,AN36,1)</f>
         <v>ㆣ</v>
       </c>
-      <c r="AO37" s="405" t="str">
+      <c r="AO37" s="406" t="str">
         <f t="shared" ca="1" si="10"/>
         <v>ㆲ</v>
       </c>
-      <c r="AP37" s="405" t="str">
+      <c r="AP37" s="406" t="str">
         <f t="shared" ca="1" si="10"/>
         <v>ㆰ</v>
       </c>
-      <c r="AQ37" s="405" t="str">
+      <c r="AQ37" s="406" t="str">
         <f t="shared" ca="1" si="10"/>
         <v>ㆱ</v>
       </c>
@@ -14140,7 +14484,7 @@
         <f t="shared" ca="1" si="11"/>
         <v>1qa2wsxed?yhnbYHNcuUjJ8*,&lt;iIk09(lLO;o/mp- 43657</v>
       </c>
-      <c r="AQ38" s="417" t="str">
+      <c r="AQ38" s="418" t="str">
         <f t="shared" ca="1" si="11"/>
         <v>1qa2wsxed?yhnbYHNcuUjJ8*,&lt;iIk09(lL;o/mp- 43657</v>
       </c>
@@ -14266,7 +14610,7 @@
         <f t="shared" ca="1" si="12"/>
         <v>ㄅㄆㄇㄉㄊㄋㄌㄍㄎㄫㄗㄘㄙㆡㄐㄑㄒㄏㄧㆪㄨㆫㄚㆩㄝㆥㄛㆧㄜㄢㄞㆮㄠㆯㆱㄤㆨㆭㆬㄣㄪˉˋ_ˇ+˙</v>
       </c>
-      <c r="AQ39" s="417" t="str">
+      <c r="AQ39" s="418" t="str">
         <f t="shared" ca="1" si="12"/>
         <v>ㄅㄆㄇㄉㄊㄋㄌㄍㄎㄫㄗㄘㄙㆡㄐㄑㄒㄏㄧㆪㄨㆫㄚㆩㄝㆥㄛㆧㄜㄢㄞㆮㄠㆯㄤㆨㆭㆬㄣㄪˉˋ_ˇ+˙</v>
       </c>
@@ -16357,8 +16701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86FD1CD5-4651-439A-98A6-5245A83D236D}">
   <dimension ref="B1:AT70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="32.25" outlineLevelCol="1"/>
@@ -16473,22 +16817,22 @@
       <c r="AT3" s="79"/>
     </row>
     <row r="4" spans="2:46" s="4" customFormat="1" ht="28.5">
-      <c r="B4" s="406" t="s">
+      <c r="B4" s="407" t="s">
         <v>303</v>
       </c>
-      <c r="C4" s="419" t="s">
+      <c r="C4" s="420" t="s">
         <v>257</v>
       </c>
-      <c r="D4" s="422" t="s">
+      <c r="D4" s="423" t="s">
         <v>258</v>
       </c>
-      <c r="E4" s="422" t="s">
+      <c r="E4" s="423" t="s">
         <v>259</v>
       </c>
-      <c r="F4" s="420" t="s">
+      <c r="F4" s="421" t="s">
         <v>260</v>
       </c>
-      <c r="G4" s="421" t="s">
+      <c r="G4" s="422" t="s">
         <v>70</v>
       </c>
       <c r="H4" s="320"/>
@@ -16664,23 +17008,23 @@
       <c r="AT5" s="79"/>
     </row>
     <row r="6" spans="2:46">
-      <c r="B6" s="393">
+      <c r="B6" s="394">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="C6" s="394" t="s">
+      <c r="C6" s="395" t="s">
         <v>331</v>
       </c>
-      <c r="D6" s="395" t="s">
+      <c r="D6" s="396" t="s">
         <v>332</v>
       </c>
-      <c r="E6" s="396" t="s">
+      <c r="E6" s="397" t="s">
         <v>314</v>
       </c>
-      <c r="F6" s="397" t="s">
+      <c r="F6" s="398" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="398" t="s">
+      <c r="G6" s="399" t="s">
         <v>16</v>
       </c>
       <c r="H6" s="321"/>
@@ -16762,24 +17106,24 @@
       <c r="AT6" s="79"/>
     </row>
     <row r="7" spans="2:46">
-      <c r="B7" s="393">
+      <c r="B7" s="394">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="C7" s="394" t="s">
+      <c r="C7" s="395" t="s">
         <v>335</v>
       </c>
-      <c r="D7" s="395" t="str">
+      <c r="D7" s="396" t="str">
         <f>E7</f>
         <v>ㄆ</v>
       </c>
-      <c r="E7" s="396" t="s">
+      <c r="E7" s="397" t="s">
         <v>336</v>
       </c>
-      <c r="F7" s="399" t="s">
+      <c r="F7" s="400" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="398" t="s">
+      <c r="G7" s="399" t="s">
         <v>12</v>
       </c>
       <c r="H7" s="321"/>
@@ -17054,24 +17398,24 @@
       <c r="AT9" s="79"/>
     </row>
     <row r="10" spans="2:46">
-      <c r="B10" s="393">
+      <c r="B10" s="394">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="C10" s="394" t="s">
+      <c r="C10" s="395" t="s">
         <v>344</v>
       </c>
-      <c r="D10" s="396" t="s">
+      <c r="D10" s="397" t="s">
         <v>345</v>
       </c>
-      <c r="E10" s="395" t="str">
+      <c r="E10" s="396" t="str">
         <f t="shared" si="5"/>
         <v>ㄊ</v>
       </c>
-      <c r="F10" s="399" t="s">
+      <c r="F10" s="400" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="398" t="s">
+      <c r="G10" s="399" t="s">
         <v>27</v>
       </c>
       <c r="H10" s="321"/>
@@ -17151,24 +17495,24 @@
       </c>
     </row>
     <row r="11" spans="2:46">
-      <c r="B11" s="393">
+      <c r="B11" s="394">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="C11" s="394" t="s">
+      <c r="C11" s="395" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="396" t="s">
+      <c r="D11" s="397" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="395" t="str">
+      <c r="E11" s="396" t="str">
         <f t="shared" si="5"/>
         <v>ㄋ</v>
       </c>
-      <c r="F11" s="399" t="s">
+      <c r="F11" s="400" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="398" t="s">
+      <c r="G11" s="399" t="s">
         <v>31</v>
       </c>
       <c r="H11" s="321"/>
@@ -17443,23 +17787,23 @@
       </c>
     </row>
     <row r="14" spans="2:46">
-      <c r="B14" s="393">
+      <c r="B14" s="394">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="C14" s="394" t="s">
+      <c r="C14" s="395" t="s">
         <v>272</v>
       </c>
-      <c r="D14" s="395" t="s">
+      <c r="D14" s="396" t="s">
         <v>356</v>
       </c>
-      <c r="E14" s="396" t="s">
+      <c r="E14" s="397" t="s">
         <v>315</v>
       </c>
-      <c r="F14" s="399" t="s">
+      <c r="F14" s="400" t="s">
         <v>60</v>
       </c>
-      <c r="G14" s="398" t="s">
+      <c r="G14" s="399" t="s">
         <v>60</v>
       </c>
       <c r="H14" s="321"/>
@@ -17542,24 +17886,24 @@
       </c>
     </row>
     <row r="15" spans="2:46">
-      <c r="B15" s="393">
+      <c r="B15" s="394">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="C15" s="394" t="s">
+      <c r="C15" s="395" t="s">
         <v>358</v>
       </c>
-      <c r="D15" s="395" t="str">
+      <c r="D15" s="396" t="str">
         <f>E15</f>
         <v>ㄎ</v>
       </c>
-      <c r="E15" s="396" t="s">
+      <c r="E15" s="397" t="s">
         <v>359</v>
       </c>
-      <c r="F15" s="399" t="s">
+      <c r="F15" s="400" t="s">
         <v>56</v>
       </c>
-      <c r="G15" s="398" t="s">
+      <c r="G15" s="399" t="s">
         <v>57</v>
       </c>
       <c r="H15" s="321"/>
@@ -17648,10 +17992,10 @@
       <c r="C16" s="11" t="s">
         <v>972</v>
       </c>
-      <c r="D16" s="409" t="s">
+      <c r="D16" s="410" t="s">
         <v>489</v>
       </c>
-      <c r="E16" s="410" t="s">
+      <c r="E16" s="411" t="s">
         <v>963</v>
       </c>
       <c r="F16" s="10" t="s">
@@ -17828,24 +18172,24 @@
       <c r="AT17" s="123"/>
     </row>
     <row r="18" spans="2:46">
-      <c r="B18" s="393">
+      <c r="B18" s="394">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="C18" s="394" t="s">
+      <c r="C18" s="395" t="s">
         <v>374</v>
       </c>
-      <c r="D18" s="396" t="s">
+      <c r="D18" s="397" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="395" t="str">
+      <c r="E18" s="396" t="str">
         <f t="shared" si="6"/>
         <v>ㄘ</v>
       </c>
-      <c r="F18" s="399" t="s">
+      <c r="F18" s="400" t="s">
         <v>39</v>
       </c>
-      <c r="G18" s="398" t="s">
+      <c r="G18" s="399" t="s">
         <v>375</v>
       </c>
       <c r="H18" s="321"/>
@@ -17919,24 +18263,24 @@
       <c r="AT18" s="123"/>
     </row>
     <row r="19" spans="2:46">
-      <c r="B19" s="393">
+      <c r="B19" s="394">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="C19" s="394" t="s">
+      <c r="C19" s="395" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="396" t="s">
+      <c r="D19" s="397" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="395" t="str">
+      <c r="E19" s="396" t="str">
         <f t="shared" si="6"/>
         <v>ㄙ</v>
       </c>
-      <c r="F19" s="399" t="s">
+      <c r="F19" s="400" t="s">
         <v>50</v>
       </c>
-      <c r="G19" s="398" t="s">
+      <c r="G19" s="399" t="s">
         <v>50</v>
       </c>
       <c r="H19" s="321"/>
@@ -18017,10 +18361,10 @@
       <c r="C20" s="11" t="s">
         <v>382</v>
       </c>
-      <c r="D20" s="409" t="s">
+      <c r="D20" s="410" t="s">
         <v>383</v>
       </c>
-      <c r="E20" s="410" t="s">
+      <c r="E20" s="411" t="s">
         <v>384</v>
       </c>
       <c r="F20" s="10" t="s">
@@ -18196,23 +18540,23 @@
       <c r="AT21" s="130"/>
     </row>
     <row r="22" spans="2:46">
-      <c r="B22" s="393">
+      <c r="B22" s="394">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="C22" s="394" t="s">
+      <c r="C22" s="395" t="s">
         <v>288</v>
       </c>
-      <c r="D22" s="395" t="s">
+      <c r="D22" s="396" t="s">
         <v>968</v>
       </c>
-      <c r="E22" s="396" t="s">
+      <c r="E22" s="397" t="s">
         <v>380</v>
       </c>
-      <c r="F22" s="399" t="s">
+      <c r="F22" s="400" t="s">
         <v>42</v>
       </c>
-      <c r="G22" s="398" t="s">
+      <c r="G22" s="399" t="s">
         <v>397</v>
       </c>
       <c r="H22" s="321" t="s">
@@ -18380,23 +18724,23 @@
       <c r="AT23" s="130"/>
     </row>
     <row r="24" spans="2:46">
-      <c r="B24" s="411">
+      <c r="B24" s="412">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="C24" s="412" t="s">
+      <c r="C24" s="413" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="413" t="s">
+      <c r="D24" s="414" t="s">
         <v>364</v>
       </c>
-      <c r="E24" s="414" t="s">
+      <c r="E24" s="415" t="s">
         <v>364</v>
       </c>
-      <c r="F24" s="415" t="s">
+      <c r="F24" s="416" t="s">
         <v>67</v>
       </c>
-      <c r="G24" s="416" t="s">
+      <c r="G24" s="417" t="s">
         <v>67</v>
       </c>
       <c r="H24" s="322"/>
@@ -18567,24 +18911,24 @@
       <c r="AT25" s="130"/>
     </row>
     <row r="26" spans="2:46">
-      <c r="B26" s="403">
+      <c r="B26" s="404">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="C26" s="394" t="s">
+      <c r="C26" s="395" t="s">
         <v>275</v>
       </c>
-      <c r="D26" s="395" t="str">
+      <c r="D26" s="396" t="str">
         <f xml:space="preserve"> "ㄥ" &amp; E25</f>
         <v>ㄥㄧ</v>
       </c>
-      <c r="E26" s="396" t="s">
+      <c r="E26" s="397" t="s">
         <v>411</v>
       </c>
-      <c r="F26" s="399" t="s">
+      <c r="F26" s="400" t="s">
         <v>412</v>
       </c>
-      <c r="G26" s="398" t="s">
+      <c r="G26" s="399" t="s">
         <v>413</v>
       </c>
       <c r="H26" s="321"/>
@@ -18658,24 +19002,24 @@
       <c r="AT26" s="130"/>
     </row>
     <row r="27" spans="2:46">
-      <c r="B27" s="403">
+      <c r="B27" s="404">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="C27" s="394" t="s">
+      <c r="C27" s="395" t="s">
         <v>386</v>
       </c>
-      <c r="D27" s="395" t="str">
+      <c r="D27" s="396" t="str">
         <f>E27</f>
         <v>ㄨ</v>
       </c>
-      <c r="E27" s="396" t="s">
+      <c r="E27" s="397" t="s">
         <v>85</v>
       </c>
-      <c r="F27" s="399" t="s">
+      <c r="F27" s="400" t="s">
         <v>86</v>
       </c>
-      <c r="G27" s="398" t="s">
+      <c r="G27" s="399" t="s">
         <v>86</v>
       </c>
       <c r="H27" s="321"/>
@@ -18749,24 +19093,24 @@
       <c r="AT27" s="130"/>
     </row>
     <row r="28" spans="2:46">
-      <c r="B28" s="403">
+      <c r="B28" s="404">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="C28" s="394" t="s">
+      <c r="C28" s="395" t="s">
         <v>289</v>
       </c>
-      <c r="D28" s="395" t="str">
+      <c r="D28" s="396" t="str">
         <f xml:space="preserve"> "ㄥ" &amp; E27</f>
         <v>ㄥㄨ</v>
       </c>
-      <c r="E28" s="396" t="s">
+      <c r="E28" s="397" t="s">
         <v>416</v>
       </c>
-      <c r="F28" s="399" t="s">
+      <c r="F28" s="400" t="s">
         <v>417</v>
       </c>
-      <c r="G28" s="398" t="s">
+      <c r="G28" s="399" t="s">
         <v>418</v>
       </c>
       <c r="H28" s="321"/>
@@ -18840,24 +19184,24 @@
       <c r="AT28" s="130"/>
     </row>
     <row r="29" spans="2:46">
-      <c r="B29" s="403">
+      <c r="B29" s="404">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="C29" s="394">
+      <c r="C29" s="395">
         <v>8</v>
       </c>
-      <c r="D29" s="395" t="str">
+      <c r="D29" s="396" t="str">
         <f>E29</f>
         <v>ㄚ</v>
       </c>
-      <c r="E29" s="396" t="s">
+      <c r="E29" s="397" t="s">
         <v>74</v>
       </c>
-      <c r="F29" s="399" t="s">
+      <c r="F29" s="400" t="s">
         <v>75</v>
       </c>
-      <c r="G29" s="398" t="s">
+      <c r="G29" s="399" t="s">
         <v>75</v>
       </c>
       <c r="H29" s="321"/>
@@ -18937,24 +19281,24 @@
       <c r="AT29" s="130"/>
     </row>
     <row r="30" spans="2:46">
-      <c r="B30" s="403">
+      <c r="B30" s="404">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="C30" s="394" t="s">
+      <c r="C30" s="395" t="s">
         <v>422</v>
       </c>
-      <c r="D30" s="395" t="str">
+      <c r="D30" s="396" t="str">
         <f xml:space="preserve"> "ㄥ" &amp; E29</f>
         <v>ㄥㄚ</v>
       </c>
-      <c r="E30" s="396" t="s">
+      <c r="E30" s="397" t="s">
         <v>423</v>
       </c>
-      <c r="F30" s="399" t="s">
+      <c r="F30" s="400" t="s">
         <v>283</v>
       </c>
-      <c r="G30" s="398" t="s">
+      <c r="G30" s="399" t="s">
         <v>424</v>
       </c>
       <c r="H30" s="321"/>
@@ -19028,24 +19372,24 @@
       <c r="AT30" s="130"/>
     </row>
     <row r="31" spans="2:46">
-      <c r="B31" s="403">
+      <c r="B31" s="404">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="C31" s="404" t="s">
+      <c r="C31" s="405" t="s">
         <v>427</v>
       </c>
-      <c r="D31" s="395" t="str">
+      <c r="D31" s="396" t="str">
         <f>E31</f>
         <v>ㄝ</v>
       </c>
-      <c r="E31" s="396" t="s">
+      <c r="E31" s="397" t="s">
         <v>92</v>
       </c>
-      <c r="F31" s="399" t="s">
+      <c r="F31" s="400" t="s">
         <v>93</v>
       </c>
-      <c r="G31" s="398" t="s">
+      <c r="G31" s="399" t="s">
         <v>93</v>
       </c>
       <c r="H31" s="321"/>
@@ -19119,24 +19463,24 @@
       <c r="AT31" s="130"/>
     </row>
     <row r="32" spans="2:46">
-      <c r="B32" s="403">
+      <c r="B32" s="404">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="C32" s="404" t="s">
+      <c r="C32" s="405" t="s">
         <v>431</v>
       </c>
-      <c r="D32" s="395" t="str">
+      <c r="D32" s="396" t="str">
         <f xml:space="preserve"> "ㄥ" &amp; E31</f>
         <v>ㄥㄝ</v>
       </c>
-      <c r="E32" s="396" t="s">
+      <c r="E32" s="397" t="s">
         <v>432</v>
       </c>
-      <c r="F32" s="399" t="s">
+      <c r="F32" s="400" t="s">
         <v>272</v>
       </c>
-      <c r="G32" s="398" t="s">
+      <c r="G32" s="399" t="s">
         <v>433</v>
       </c>
       <c r="H32" s="321"/>
@@ -19210,24 +19554,24 @@
       <c r="AT32" s="130"/>
     </row>
     <row r="33" spans="2:46">
-      <c r="B33" s="403">
+      <c r="B33" s="404">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="C33" s="394" t="s">
+      <c r="C33" s="395" t="s">
         <v>72</v>
       </c>
-      <c r="D33" s="395" t="str">
+      <c r="D33" s="396" t="str">
         <f>E33</f>
         <v>ㄛ</v>
       </c>
-      <c r="E33" s="396" t="s">
+      <c r="E33" s="397" t="s">
         <v>436</v>
       </c>
-      <c r="F33" s="399" t="s">
+      <c r="F33" s="400" t="s">
         <v>277</v>
       </c>
-      <c r="G33" s="398" t="s">
+      <c r="G33" s="399" t="s">
         <v>101</v>
       </c>
       <c r="H33" s="321"/>
@@ -19301,24 +19645,24 @@
       <c r="AT33" s="130"/>
     </row>
     <row r="34" spans="2:46">
-      <c r="B34" s="403">
+      <c r="B34" s="404">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="C34" s="394" t="s">
+      <c r="C34" s="395" t="s">
         <v>276</v>
       </c>
-      <c r="D34" s="395" t="str">
+      <c r="D34" s="396" t="str">
         <f xml:space="preserve"> "ㄥ" &amp; E33</f>
         <v>ㄥㄛ</v>
       </c>
-      <c r="E34" s="396" t="s">
+      <c r="E34" s="397" t="s">
         <v>441</v>
       </c>
-      <c r="F34" s="399" t="s">
+      <c r="F34" s="400" t="s">
         <v>334</v>
       </c>
-      <c r="G34" s="398" t="s">
+      <c r="G34" s="399" t="s">
         <v>442</v>
       </c>
       <c r="H34" s="321"/>
@@ -19392,24 +19736,24 @@
       <c r="AT34" s="130"/>
     </row>
     <row r="35" spans="2:46">
-      <c r="B35" s="403">
+      <c r="B35" s="404">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="C35" s="394" t="s">
+      <c r="C35" s="395" t="s">
         <v>53</v>
       </c>
-      <c r="D35" s="395" t="str">
+      <c r="D35" s="396" t="str">
         <f>E35</f>
         <v>ㄜ</v>
       </c>
-      <c r="E35" s="396" t="s">
+      <c r="E35" s="397" t="s">
         <v>447</v>
       </c>
-      <c r="F35" s="399" t="s">
+      <c r="F35" s="400" t="s">
         <v>100</v>
       </c>
-      <c r="G35" s="398" t="s">
+      <c r="G35" s="399" t="s">
         <v>100</v>
       </c>
       <c r="H35" s="321"/>
@@ -19483,24 +19827,24 @@
       <c r="AT35" s="130"/>
     </row>
     <row r="36" spans="2:46">
-      <c r="B36" s="403">
+      <c r="B36" s="404">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="C36" s="394">
+      <c r="C36" s="395">
         <v>0</v>
       </c>
-      <c r="D36" s="395" t="str">
+      <c r="D36" s="396" t="str">
         <f>E36</f>
         <v>ㄢ</v>
       </c>
-      <c r="E36" s="396" t="s">
+      <c r="E36" s="397" t="s">
         <v>452</v>
       </c>
-      <c r="F36" s="399" t="s">
+      <c r="F36" s="400" t="s">
         <v>342</v>
       </c>
-      <c r="G36" s="398" t="s">
+      <c r="G36" s="399" t="s">
         <v>450</v>
       </c>
       <c r="H36" s="321"/>
@@ -19580,24 +19924,24 @@
       <c r="AT36" s="130"/>
     </row>
     <row r="37" spans="2:46">
-      <c r="B37" s="403">
+      <c r="B37" s="404">
         <f xml:space="preserve"> ROW() -4</f>
         <v>33</v>
       </c>
-      <c r="C37" s="394">
+      <c r="C37" s="395">
         <v>9</v>
       </c>
-      <c r="D37" s="395" t="str">
+      <c r="D37" s="396" t="str">
         <f>E37</f>
         <v>ㄞ</v>
       </c>
-      <c r="E37" s="396" t="s">
+      <c r="E37" s="397" t="s">
         <v>435</v>
       </c>
-      <c r="F37" s="399" t="s">
+      <c r="F37" s="400" t="s">
         <v>368</v>
       </c>
-      <c r="G37" s="398" t="s">
+      <c r="G37" s="399" t="s">
         <v>456</v>
       </c>
       <c r="H37" s="321"/>
@@ -19671,24 +20015,24 @@
       <c r="AT37" s="130"/>
     </row>
     <row r="38" spans="2:46">
-      <c r="B38" s="403">
+      <c r="B38" s="404">
         <f t="shared" ref="B38:B51" si="7" xml:space="preserve"> ROW() -4</f>
         <v>34</v>
       </c>
-      <c r="C38" s="394" t="s">
+      <c r="C38" s="395" t="s">
         <v>461</v>
       </c>
-      <c r="D38" s="395" t="str">
+      <c r="D38" s="396" t="str">
         <f xml:space="preserve"> "ㄥ" &amp; E37</f>
         <v>ㄥㄞ</v>
       </c>
-      <c r="E38" s="396" t="s">
+      <c r="E38" s="397" t="s">
         <v>438</v>
       </c>
-      <c r="F38" s="399" t="s">
+      <c r="F38" s="400" t="s">
         <v>414</v>
       </c>
-      <c r="G38" s="398" t="s">
+      <c r="G38" s="399" t="s">
         <v>462</v>
       </c>
       <c r="H38" s="321"/>
@@ -19762,24 +20106,24 @@
       <c r="AT38" s="130"/>
     </row>
     <row r="39" spans="2:46">
-      <c r="B39" s="403">
+      <c r="B39" s="404">
         <f t="shared" si="7"/>
         <v>35</v>
       </c>
-      <c r="C39" s="394" t="s">
+      <c r="C39" s="395" t="s">
         <v>35</v>
       </c>
-      <c r="D39" s="395" t="str">
+      <c r="D39" s="396" t="str">
         <f>E39</f>
         <v>ㄠ</v>
       </c>
-      <c r="E39" s="396" t="s">
+      <c r="E39" s="397" t="s">
         <v>444</v>
       </c>
-      <c r="F39" s="399" t="s">
+      <c r="F39" s="400" t="s">
         <v>351</v>
       </c>
-      <c r="G39" s="398" t="s">
+      <c r="G39" s="399" t="s">
         <v>439</v>
       </c>
       <c r="H39" s="321"/>
@@ -19940,23 +20284,23 @@
       </c>
     </row>
     <row r="41" spans="2:46">
-      <c r="B41" s="403">
+      <c r="B41" s="404">
         <f t="shared" si="7"/>
         <v>37</v>
       </c>
-      <c r="C41" s="404" t="s">
+      <c r="C41" s="405" t="s">
         <v>464</v>
       </c>
-      <c r="D41" s="407" t="s">
+      <c r="D41" s="408" t="s">
         <v>476</v>
       </c>
-      <c r="E41" s="408" t="s">
+      <c r="E41" s="409" t="s">
         <v>458</v>
       </c>
-      <c r="F41" s="399" t="s">
+      <c r="F41" s="400" t="s">
         <v>477</v>
       </c>
-      <c r="G41" s="398" t="s">
+      <c r="G41" s="399" t="s">
         <v>478</v>
       </c>
       <c r="H41" s="321"/>
@@ -20028,23 +20372,23 @@
       </c>
     </row>
     <row r="42" spans="2:46">
-      <c r="B42" s="403">
+      <c r="B42" s="404">
         <f t="shared" si="7"/>
         <v>38</v>
       </c>
-      <c r="C42" s="404" t="s">
+      <c r="C42" s="405" t="s">
         <v>283</v>
       </c>
-      <c r="D42" s="407" t="s">
+      <c r="D42" s="408" t="s">
         <v>482</v>
       </c>
-      <c r="E42" s="408" t="s">
+      <c r="E42" s="409" t="s">
         <v>453</v>
       </c>
-      <c r="F42" s="399" t="s">
+      <c r="F42" s="400" t="s">
         <v>483</v>
       </c>
-      <c r="G42" s="398" t="s">
+      <c r="G42" s="399" t="s">
         <v>474</v>
       </c>
       <c r="H42" s="321"/>
@@ -20116,23 +20460,23 @@
       </c>
     </row>
     <row r="43" spans="2:46">
-      <c r="B43" s="403">
+      <c r="B43" s="404">
         <f t="shared" ref="B43:B55" si="8" xml:space="preserve"> ROW() - 4</f>
         <v>39</v>
       </c>
-      <c r="C43" s="404" t="s">
+      <c r="C43" s="405" t="s">
         <v>307</v>
       </c>
-      <c r="D43" s="407" t="s">
+      <c r="D43" s="408" t="s">
         <v>486</v>
       </c>
-      <c r="E43" s="408" t="s">
+      <c r="E43" s="409" t="s">
         <v>485</v>
       </c>
-      <c r="F43" s="399" t="s">
+      <c r="F43" s="400" t="s">
         <v>487</v>
       </c>
-      <c r="G43" s="398" t="s">
+      <c r="G43" s="399" t="s">
         <v>445</v>
       </c>
       <c r="H43" s="321"/>
@@ -20212,24 +20556,24 @@
       </c>
     </row>
     <row r="44" spans="2:46">
-      <c r="B44" s="403">
+      <c r="B44" s="404">
         <f t="shared" si="8"/>
         <v>40</v>
       </c>
-      <c r="C44" s="404" t="s">
+      <c r="C44" s="405" t="s">
         <v>488</v>
       </c>
-      <c r="D44" s="395" t="str">
+      <c r="D44" s="396" t="str">
         <f>E44</f>
         <v>ㄤ</v>
       </c>
-      <c r="E44" s="396" t="s">
+      <c r="E44" s="397" t="s">
         <v>480</v>
       </c>
-      <c r="F44" s="399" t="s">
+      <c r="F44" s="400" t="s">
         <v>490</v>
       </c>
-      <c r="G44" s="398" t="s">
+      <c r="G44" s="399" t="s">
         <v>459</v>
       </c>
       <c r="H44" s="321"/>
@@ -20309,7 +20653,7 @@
       </c>
     </row>
     <row r="45" spans="2:46">
-      <c r="B45" s="403">
+      <c r="B45" s="404">
         <f t="shared" si="8"/>
         <v>41</v>
       </c>
@@ -20495,23 +20839,23 @@
       </c>
     </row>
     <row r="47" spans="2:46">
-      <c r="B47" s="403">
+      <c r="B47" s="404">
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="C47" s="394" t="s">
+      <c r="C47" s="395" t="s">
         <v>338</v>
       </c>
-      <c r="D47" s="400" t="s">
+      <c r="D47" s="401" t="s">
         <v>18</v>
       </c>
-      <c r="E47" s="401" t="s">
+      <c r="E47" s="402" t="s">
         <v>465</v>
       </c>
-      <c r="F47" s="399" t="s">
+      <c r="F47" s="400" t="s">
         <v>298</v>
       </c>
-      <c r="G47" s="402" t="s">
+      <c r="G47" s="403" t="s">
         <v>338</v>
       </c>
       <c r="H47" s="322"/>
@@ -21014,19 +21358,19 @@
         <f t="shared" si="8"/>
         <v>51</v>
       </c>
-      <c r="C55" s="394">
+      <c r="C55" s="395">
         <v>7</v>
       </c>
-      <c r="D55" s="396" t="s">
+      <c r="D55" s="397" t="s">
         <v>505</v>
       </c>
-      <c r="E55" s="395" t="s">
+      <c r="E55" s="396" t="s">
         <v>506</v>
       </c>
-      <c r="F55" s="399">
+      <c r="F55" s="400">
         <v>0</v>
       </c>
-      <c r="G55" s="398">
+      <c r="G55" s="399">
         <v>8</v>
       </c>
       <c r="N55" s="3">
@@ -26565,14 +26909,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7">
-      <c r="B2" s="356" t="s">
+      <c r="B2" s="357" t="s">
         <v>508</v>
       </c>
-      <c r="C2" s="356"/>
-      <c r="D2" s="356"/>
-      <c r="E2" s="356"/>
-      <c r="F2" s="356"/>
-      <c r="G2" s="356"/>
+      <c r="C2" s="357"/>
+      <c r="D2" s="357"/>
+      <c r="E2" s="357"/>
+      <c r="F2" s="357"/>
+      <c r="G2" s="357"/>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="208" t="s">
@@ -26595,192 +26939,192 @@
       </c>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="349" t="s">
+      <c r="B5" s="350" t="s">
         <v>75</v>
       </c>
       <c r="C5" s="210" t="s">
         <v>513</v>
       </c>
-      <c r="D5" s="354" t="s">
+      <c r="D5" s="355" t="s">
         <v>514</v>
       </c>
-      <c r="E5" s="363" t="s">
+      <c r="E5" s="364" t="s">
         <v>79</v>
       </c>
       <c r="F5" s="210" t="s">
         <v>515</v>
       </c>
-      <c r="G5" s="354" t="s">
+      <c r="G5" s="355" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="350"/>
+      <c r="B6" s="351"/>
       <c r="C6" s="211" t="s">
         <v>517</v>
       </c>
-      <c r="D6" s="355"/>
-      <c r="E6" s="364"/>
+      <c r="D6" s="356"/>
+      <c r="E6" s="365"/>
       <c r="F6" s="211" t="s">
         <v>518</v>
       </c>
-      <c r="G6" s="355"/>
+      <c r="G6" s="356"/>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="349" t="s">
+      <c r="B7" s="350" t="s">
         <v>72</v>
       </c>
       <c r="C7" s="210" t="s">
         <v>519</v>
       </c>
-      <c r="D7" s="354" t="s">
+      <c r="D7" s="355" t="s">
         <v>520</v>
       </c>
-      <c r="E7" s="363" t="s">
+      <c r="E7" s="364" t="s">
         <v>82</v>
       </c>
       <c r="F7" s="210" t="s">
         <v>521</v>
       </c>
-      <c r="G7" s="354" t="s">
+      <c r="G7" s="355" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="350"/>
+      <c r="B8" s="351"/>
       <c r="C8" s="211" t="s">
         <v>523</v>
       </c>
-      <c r="D8" s="355"/>
-      <c r="E8" s="364"/>
+      <c r="D8" s="356"/>
+      <c r="E8" s="365"/>
       <c r="F8" s="211" t="s">
         <v>524</v>
       </c>
-      <c r="G8" s="355"/>
+      <c r="G8" s="356"/>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="349" t="s">
+      <c r="B9" s="350" t="s">
         <v>86</v>
       </c>
       <c r="C9" s="210" t="s">
         <v>525</v>
       </c>
-      <c r="D9" s="354" t="s">
+      <c r="D9" s="355" t="s">
         <v>526</v>
       </c>
-      <c r="E9" s="363" t="s">
+      <c r="E9" s="364" t="s">
         <v>527</v>
       </c>
-      <c r="F9" s="363" t="s">
+      <c r="F9" s="364" t="s">
         <v>527</v>
       </c>
-      <c r="G9" s="363" t="s">
+      <c r="G9" s="364" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="350"/>
+      <c r="B10" s="351"/>
       <c r="C10" s="211" t="s">
         <v>528</v>
       </c>
-      <c r="D10" s="355"/>
-      <c r="E10" s="364"/>
-      <c r="F10" s="364"/>
-      <c r="G10" s="364"/>
+      <c r="D10" s="356"/>
+      <c r="E10" s="365"/>
+      <c r="F10" s="365"/>
+      <c r="G10" s="365"/>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="349" t="s">
+      <c r="B11" s="350" t="s">
         <v>93</v>
       </c>
       <c r="C11" s="210" t="s">
         <v>529</v>
       </c>
-      <c r="D11" s="354" t="s">
+      <c r="D11" s="355" t="s">
         <v>530</v>
       </c>
-      <c r="E11" s="363" t="s">
+      <c r="E11" s="364" t="s">
         <v>97</v>
       </c>
       <c r="F11" s="210" t="s">
         <v>531</v>
       </c>
-      <c r="G11" s="354" t="s">
+      <c r="G11" s="355" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="350"/>
+      <c r="B12" s="351"/>
       <c r="C12" s="211" t="s">
         <v>533</v>
       </c>
-      <c r="D12" s="355"/>
-      <c r="E12" s="364"/>
+      <c r="D12" s="356"/>
+      <c r="E12" s="365"/>
       <c r="F12" s="211" t="s">
         <v>534</v>
       </c>
-      <c r="G12" s="355"/>
+      <c r="G12" s="356"/>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="349" t="s">
+      <c r="B13" s="350" t="s">
         <v>100</v>
       </c>
       <c r="C13" s="210" t="s">
         <v>535</v>
       </c>
-      <c r="D13" s="354" t="s">
+      <c r="D13" s="355" t="s">
         <v>536</v>
       </c>
-      <c r="E13" s="363" t="s">
+      <c r="E13" s="364" t="s">
         <v>527</v>
       </c>
-      <c r="F13" s="363" t="s">
+      <c r="F13" s="364" t="s">
         <v>527</v>
       </c>
-      <c r="G13" s="363" t="s">
+      <c r="G13" s="364" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="350"/>
+      <c r="B14" s="351"/>
       <c r="C14" s="211" t="s">
         <v>537</v>
       </c>
-      <c r="D14" s="355"/>
-      <c r="E14" s="364"/>
-      <c r="F14" s="364"/>
-      <c r="G14" s="364"/>
+      <c r="D14" s="356"/>
+      <c r="E14" s="365"/>
+      <c r="F14" s="365"/>
+      <c r="G14" s="365"/>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="349" t="s">
+      <c r="B15" s="350" t="s">
         <v>538</v>
       </c>
       <c r="C15" s="210" t="s">
         <v>539</v>
       </c>
-      <c r="D15" s="354" t="s">
+      <c r="D15" s="355" t="s">
         <v>540</v>
       </c>
-      <c r="E15" s="363" t="s">
+      <c r="E15" s="364" t="s">
         <v>105</v>
       </c>
       <c r="F15" s="210" t="s">
         <v>541</v>
       </c>
-      <c r="G15" s="354" t="s">
+      <c r="G15" s="355" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="350"/>
+      <c r="B16" s="351"/>
       <c r="C16" s="211" t="s">
         <v>543</v>
       </c>
-      <c r="D16" s="355"/>
-      <c r="E16" s="364"/>
+      <c r="D16" s="356"/>
+      <c r="E16" s="365"/>
       <c r="F16" s="211" t="s">
         <v>544</v>
       </c>
-      <c r="G16" s="355"/>
+      <c r="G16" s="356"/>
     </row>
     <row r="17" spans="2:12">
       <c r="B17" s="212" t="s">
@@ -26793,14 +27137,14 @@
       </c>
     </row>
     <row r="19" spans="2:12">
-      <c r="B19" s="356" t="s">
+      <c r="B19" s="357" t="s">
         <v>547</v>
       </c>
-      <c r="C19" s="356"/>
-      <c r="D19" s="356"/>
-      <c r="E19" s="356"/>
-      <c r="F19" s="356"/>
-      <c r="G19" s="356"/>
+      <c r="C19" s="357"/>
+      <c r="D19" s="357"/>
+      <c r="E19" s="357"/>
+      <c r="F19" s="357"/>
+      <c r="G19" s="357"/>
     </row>
     <row r="21" spans="2:12">
       <c r="B21" s="208" t="s">
@@ -26823,28 +27167,28 @@
       </c>
     </row>
     <row r="22" spans="2:12">
-      <c r="B22" s="349" t="s">
+      <c r="B22" s="350" t="s">
         <v>429</v>
       </c>
       <c r="C22" s="210" t="s">
         <v>548</v>
       </c>
-      <c r="D22" s="363" t="s">
+      <c r="D22" s="364" t="s">
         <v>549</v>
       </c>
-      <c r="E22" s="363" t="s">
+      <c r="E22" s="364" t="s">
         <v>550</v>
       </c>
       <c r="F22" s="210" t="s">
         <v>551</v>
       </c>
-      <c r="G22" s="363" t="s">
+      <c r="G22" s="364" t="s">
         <v>549</v>
       </c>
-      <c r="I22" s="351" t="s">
+      <c r="I22" s="352" t="s">
         <v>552</v>
       </c>
-      <c r="J22" s="349" t="s">
+      <c r="J22" s="350" t="s">
         <v>429</v>
       </c>
       <c r="L22" t="s">
@@ -26852,45 +27196,45 @@
       </c>
     </row>
     <row r="23" spans="2:12">
-      <c r="B23" s="350"/>
+      <c r="B23" s="351"/>
       <c r="C23" s="211" t="s">
         <v>553</v>
       </c>
-      <c r="D23" s="364"/>
-      <c r="E23" s="364"/>
+      <c r="D23" s="365"/>
+      <c r="E23" s="365"/>
       <c r="F23" s="211" t="s">
         <v>554</v>
       </c>
-      <c r="G23" s="364"/>
-      <c r="I23" s="350"/>
-      <c r="J23" s="350"/>
+      <c r="G23" s="365"/>
+      <c r="I23" s="351"/>
+      <c r="J23" s="351"/>
       <c r="L23" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="24" spans="2:12">
-      <c r="B24" s="349" t="s">
+      <c r="B24" s="350" t="s">
         <v>439</v>
       </c>
       <c r="C24" s="210" t="s">
         <v>555</v>
       </c>
-      <c r="D24" s="363" t="s">
+      <c r="D24" s="364" t="s">
         <v>549</v>
       </c>
-      <c r="E24" s="363" t="s">
+      <c r="E24" s="364" t="s">
         <v>527</v>
       </c>
-      <c r="F24" s="363" t="s">
+      <c r="F24" s="364" t="s">
         <v>527</v>
       </c>
-      <c r="G24" s="363" t="s">
+      <c r="G24" s="364" t="s">
         <v>527</v>
       </c>
-      <c r="I24" s="351" t="s">
+      <c r="I24" s="352" t="s">
         <v>556</v>
       </c>
-      <c r="J24" s="349" t="s">
+      <c r="J24" s="350" t="s">
         <v>439</v>
       </c>
       <c r="L24" t="s">
@@ -26898,43 +27242,43 @@
       </c>
     </row>
     <row r="25" spans="2:12">
-      <c r="B25" s="350"/>
+      <c r="B25" s="351"/>
       <c r="C25" s="211" t="s">
         <v>557</v>
       </c>
-      <c r="D25" s="364"/>
-      <c r="E25" s="364"/>
-      <c r="F25" s="364"/>
-      <c r="G25" s="364"/>
-      <c r="I25" s="350"/>
-      <c r="J25" s="350"/>
+      <c r="D25" s="365"/>
+      <c r="E25" s="365"/>
+      <c r="F25" s="365"/>
+      <c r="G25" s="365"/>
+      <c r="I25" s="351"/>
+      <c r="J25" s="351"/>
       <c r="L25" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="26" spans="2:12">
-      <c r="B26" s="349" t="s">
+      <c r="B26" s="350" t="s">
         <v>558</v>
       </c>
       <c r="C26" s="210" t="s">
         <v>559</v>
       </c>
-      <c r="D26" s="363" t="s">
+      <c r="D26" s="364" t="s">
         <v>549</v>
       </c>
-      <c r="E26" s="363" t="s">
+      <c r="E26" s="364" t="s">
         <v>560</v>
       </c>
       <c r="F26" s="210" t="s">
         <v>561</v>
       </c>
-      <c r="G26" s="363" t="s">
+      <c r="G26" s="364" t="s">
         <v>549</v>
       </c>
-      <c r="I26" s="351" t="s">
+      <c r="I26" s="352" t="s">
         <v>562</v>
       </c>
-      <c r="J26" s="349" t="s">
+      <c r="J26" s="350" t="s">
         <v>558</v>
       </c>
       <c r="L26" t="s">
@@ -26942,90 +27286,90 @@
       </c>
     </row>
     <row r="27" spans="2:12">
-      <c r="B27" s="350"/>
+      <c r="B27" s="351"/>
       <c r="C27" s="211" t="s">
         <v>563</v>
       </c>
-      <c r="D27" s="364"/>
-      <c r="E27" s="364"/>
+      <c r="D27" s="365"/>
+      <c r="E27" s="365"/>
       <c r="F27" s="211" t="s">
         <v>564</v>
       </c>
-      <c r="G27" s="364"/>
-      <c r="I27" s="350"/>
-      <c r="J27" s="350"/>
+      <c r="G27" s="365"/>
+      <c r="I27" s="351"/>
+      <c r="J27" s="351"/>
       <c r="L27" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="28" spans="2:12">
-      <c r="B28" s="349" t="s">
+      <c r="B28" s="350" t="s">
         <v>565</v>
       </c>
       <c r="C28" s="210" t="s">
         <v>566</v>
       </c>
-      <c r="D28" s="363" t="s">
+      <c r="D28" s="364" t="s">
         <v>549</v>
       </c>
-      <c r="E28" s="363" t="s">
+      <c r="E28" s="364" t="s">
         <v>567</v>
       </c>
       <c r="F28" s="210" t="s">
         <v>568</v>
       </c>
-      <c r="G28" s="363" t="s">
+      <c r="G28" s="364" t="s">
         <v>549</v>
       </c>
-      <c r="I28" s="351" t="str">
+      <c r="I28" s="352" t="str">
         <f xml:space="preserve"> L23 &amp; L24</f>
         <v>ㄧㄨ</v>
       </c>
-      <c r="J28" s="349" t="s">
+      <c r="J28" s="350" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="29" spans="2:12">
-      <c r="B29" s="350"/>
+      <c r="B29" s="351"/>
       <c r="C29" s="211" t="s">
         <v>569</v>
       </c>
-      <c r="D29" s="364"/>
-      <c r="E29" s="364"/>
+      <c r="D29" s="365"/>
+      <c r="E29" s="365"/>
       <c r="F29" s="211" t="s">
         <v>570</v>
       </c>
-      <c r="G29" s="364"/>
-      <c r="I29" s="350"/>
-      <c r="J29" s="350"/>
+      <c r="G29" s="365"/>
+      <c r="I29" s="351"/>
+      <c r="J29" s="351"/>
       <c r="L29" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="30" spans="2:12">
-      <c r="B30" s="349" t="s">
+      <c r="B30" s="350" t="s">
         <v>571</v>
       </c>
       <c r="C30" s="210" t="s">
         <v>572</v>
       </c>
-      <c r="D30" s="363" t="s">
+      <c r="D30" s="364" t="s">
         <v>549</v>
       </c>
-      <c r="E30" s="363" t="s">
+      <c r="E30" s="364" t="s">
         <v>573</v>
       </c>
       <c r="F30" s="210" t="s">
         <v>574</v>
       </c>
-      <c r="G30" s="363" t="s">
+      <c r="G30" s="364" t="s">
         <v>549</v>
       </c>
-      <c r="I30" s="349" t="str">
+      <c r="I30" s="350" t="str">
         <f>L23 &amp; L27</f>
         <v>ㄧㄜ</v>
       </c>
-      <c r="J30" s="349" t="s">
+      <c r="J30" s="350" t="s">
         <v>571</v>
       </c>
       <c r="L30" t="s">
@@ -27033,90 +27377,90 @@
       </c>
     </row>
     <row r="31" spans="2:12">
-      <c r="B31" s="350"/>
+      <c r="B31" s="351"/>
       <c r="C31" s="211" t="s">
         <v>575</v>
       </c>
-      <c r="D31" s="364"/>
-      <c r="E31" s="364"/>
+      <c r="D31" s="365"/>
+      <c r="E31" s="365"/>
       <c r="F31" s="211" t="s">
         <v>570</v>
       </c>
-      <c r="G31" s="364"/>
-      <c r="I31" s="350"/>
-      <c r="J31" s="350"/>
+      <c r="G31" s="365"/>
+      <c r="I31" s="351"/>
+      <c r="J31" s="351"/>
       <c r="L31" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="32" spans="2:12">
-      <c r="B32" s="349" t="s">
+      <c r="B32" s="350" t="s">
         <v>576</v>
       </c>
       <c r="C32" s="210" t="s">
         <v>577</v>
       </c>
-      <c r="D32" s="363" t="s">
+      <c r="D32" s="364" t="s">
         <v>549</v>
       </c>
-      <c r="E32" s="363" t="s">
+      <c r="E32" s="364" t="s">
         <v>578</v>
       </c>
       <c r="F32" s="210" t="s">
         <v>527</v>
       </c>
-      <c r="G32" s="363" t="s">
+      <c r="G32" s="364" t="s">
         <v>549</v>
       </c>
-      <c r="I32" s="349" t="str">
+      <c r="I32" s="350" t="str">
         <f xml:space="preserve"> L23 &amp; I24</f>
         <v>ㄧㄠ</v>
       </c>
-      <c r="J32" s="349" t="s">
+      <c r="J32" s="350" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="33" spans="2:12">
-      <c r="B33" s="350"/>
+      <c r="B33" s="351"/>
       <c r="C33" s="211" t="s">
         <v>579</v>
       </c>
-      <c r="D33" s="364"/>
-      <c r="E33" s="364"/>
+      <c r="D33" s="365"/>
+      <c r="E33" s="365"/>
       <c r="F33" s="211" t="s">
         <v>527</v>
       </c>
-      <c r="G33" s="364"/>
-      <c r="I33" s="350"/>
-      <c r="J33" s="350"/>
+      <c r="G33" s="365"/>
+      <c r="I33" s="351"/>
+      <c r="J33" s="351"/>
       <c r="L33" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="34" spans="2:12">
-      <c r="B34" s="349" t="s">
+      <c r="B34" s="350" t="s">
         <v>581</v>
       </c>
       <c r="C34" s="210" t="s">
         <v>582</v>
       </c>
-      <c r="D34" s="363" t="s">
+      <c r="D34" s="364" t="s">
         <v>549</v>
       </c>
-      <c r="E34" s="363" t="s">
+      <c r="E34" s="364" t="s">
         <v>583</v>
       </c>
       <c r="F34" s="210" t="s">
         <v>584</v>
       </c>
-      <c r="G34" s="363" t="s">
+      <c r="G34" s="364" t="s">
         <v>549</v>
       </c>
-      <c r="I34" s="349" t="str">
+      <c r="I34" s="350" t="str">
         <f>L24 &amp; L22</f>
         <v>ㄨㄚ</v>
       </c>
-      <c r="J34" s="349" t="s">
+      <c r="J34" s="350" t="s">
         <v>581</v>
       </c>
       <c r="L34" t="s">
@@ -27124,101 +27468,101 @@
       </c>
     </row>
     <row r="35" spans="2:12">
-      <c r="B35" s="350"/>
+      <c r="B35" s="351"/>
       <c r="C35" s="211" t="s">
         <v>585</v>
       </c>
-      <c r="D35" s="364"/>
-      <c r="E35" s="364"/>
+      <c r="D35" s="365"/>
+      <c r="E35" s="365"/>
       <c r="F35" s="211" t="s">
         <v>586</v>
       </c>
-      <c r="G35" s="364"/>
-      <c r="I35" s="350"/>
-      <c r="J35" s="350"/>
+      <c r="G35" s="365"/>
+      <c r="I35" s="351"/>
+      <c r="J35" s="351"/>
       <c r="L35" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="36" spans="2:12">
-      <c r="B36" s="349" t="s">
+      <c r="B36" s="350" t="s">
         <v>587</v>
       </c>
       <c r="C36" s="210" t="s">
         <v>588</v>
       </c>
-      <c r="D36" s="363" t="s">
+      <c r="D36" s="364" t="s">
         <v>549</v>
       </c>
-      <c r="E36" s="363" t="s">
+      <c r="E36" s="364" t="s">
         <v>527</v>
       </c>
-      <c r="F36" s="363" t="s">
+      <c r="F36" s="364" t="s">
         <v>527</v>
       </c>
-      <c r="G36" s="363" t="s">
+      <c r="G36" s="364" t="s">
         <v>527</v>
       </c>
-      <c r="I36" s="349" t="str">
+      <c r="I36" s="350" t="str">
         <f xml:space="preserve"> L24 &amp; L25</f>
         <v>ㄨㄝ</v>
       </c>
-      <c r="J36" s="349" t="s">
+      <c r="J36" s="350" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="37" spans="2:12">
-      <c r="B37" s="350"/>
+      <c r="B37" s="351"/>
       <c r="C37" s="211" t="s">
         <v>589</v>
       </c>
-      <c r="D37" s="364"/>
-      <c r="E37" s="364"/>
-      <c r="F37" s="364"/>
-      <c r="G37" s="364"/>
-      <c r="I37" s="350"/>
-      <c r="J37" s="350"/>
+      <c r="D37" s="365"/>
+      <c r="E37" s="365"/>
+      <c r="F37" s="365"/>
+      <c r="G37" s="365"/>
+      <c r="I37" s="351"/>
+      <c r="J37" s="351"/>
     </row>
     <row r="38" spans="2:12">
-      <c r="B38" s="349" t="s">
+      <c r="B38" s="350" t="s">
         <v>590</v>
       </c>
       <c r="C38" s="210" t="s">
         <v>591</v>
       </c>
-      <c r="D38" s="363" t="s">
+      <c r="D38" s="364" t="s">
         <v>549</v>
       </c>
-      <c r="E38" s="363" t="s">
+      <c r="E38" s="364" t="s">
         <v>592</v>
       </c>
       <c r="F38" s="210" t="s">
         <v>593</v>
       </c>
-      <c r="G38" s="363" t="s">
+      <c r="G38" s="364" t="s">
         <v>549</v>
       </c>
-      <c r="I38" s="349" t="str">
+      <c r="I38" s="350" t="str">
         <f xml:space="preserve"> L24 &amp; I22</f>
         <v>ㄨㄞ</v>
       </c>
-      <c r="J38" s="349" t="s">
+      <c r="J38" s="350" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="39" spans="2:12">
-      <c r="B39" s="350"/>
+      <c r="B39" s="351"/>
       <c r="C39" s="211" t="s">
         <v>594</v>
       </c>
-      <c r="D39" s="364"/>
-      <c r="E39" s="364"/>
+      <c r="D39" s="365"/>
+      <c r="E39" s="365"/>
       <c r="F39" s="211" t="s">
         <v>595</v>
       </c>
-      <c r="G39" s="364"/>
-      <c r="I39" s="350"/>
-      <c r="J39" s="350"/>
+      <c r="G39" s="365"/>
+      <c r="I39" s="351"/>
+      <c r="J39" s="351"/>
     </row>
     <row r="40" spans="2:12">
       <c r="B40" s="212" t="s">
@@ -27231,23 +27575,23 @@
       </c>
     </row>
     <row r="42" spans="2:12">
-      <c r="B42" s="356" t="s">
+      <c r="B42" s="357" t="s">
         <v>597</v>
       </c>
-      <c r="C42" s="356"/>
-      <c r="D42" s="356"/>
-      <c r="E42" s="356"/>
-      <c r="F42" s="356"/>
-      <c r="G42" s="356"/>
+      <c r="C42" s="357"/>
+      <c r="D42" s="357"/>
+      <c r="E42" s="357"/>
+      <c r="F42" s="357"/>
+      <c r="G42" s="357"/>
     </row>
     <row r="44" spans="2:12">
       <c r="B44" s="214" t="s">
         <v>598</v>
       </c>
-      <c r="C44" s="359" t="s">
+      <c r="C44" s="360" t="s">
         <v>510</v>
       </c>
-      <c r="D44" s="359" t="s">
+      <c r="D44" s="360" t="s">
         <v>511</v>
       </c>
     </row>
@@ -27255,44 +27599,44 @@
       <c r="B45" s="215" t="s">
         <v>509</v>
       </c>
-      <c r="C45" s="360"/>
-      <c r="D45" s="360"/>
+      <c r="C45" s="361"/>
+      <c r="D45" s="361"/>
     </row>
     <row r="46" spans="2:12">
-      <c r="B46" s="349" t="s">
+      <c r="B46" s="350" t="s">
         <v>20</v>
       </c>
       <c r="C46" s="210" t="s">
         <v>599</v>
       </c>
-      <c r="D46" s="363" t="s">
+      <c r="D46" s="364" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="47" spans="2:12">
-      <c r="B47" s="350"/>
+      <c r="B47" s="351"/>
       <c r="C47" s="211" t="s">
         <v>601</v>
       </c>
-      <c r="D47" s="364"/>
+      <c r="D47" s="365"/>
     </row>
     <row r="48" spans="2:12">
-      <c r="B48" s="349" t="s">
+      <c r="B48" s="350" t="s">
         <v>64</v>
       </c>
       <c r="C48" s="210" t="s">
         <v>602</v>
       </c>
-      <c r="D48" s="363" t="s">
+      <c r="D48" s="364" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="49" spans="2:17">
-      <c r="B49" s="350"/>
+      <c r="B49" s="351"/>
       <c r="C49" s="211" t="s">
         <v>604</v>
       </c>
-      <c r="D49" s="364"/>
+      <c r="D49" s="365"/>
     </row>
     <row r="52" spans="2:17">
       <c r="B52" s="212" t="s">
@@ -27305,92 +27649,92 @@
       </c>
     </row>
     <row r="54" spans="2:17">
-      <c r="B54" s="356" t="s">
+      <c r="B54" s="357" t="s">
         <v>606</v>
       </c>
-      <c r="C54" s="356"/>
-      <c r="D54" s="356"/>
-      <c r="E54" s="356"/>
-      <c r="F54" s="356"/>
-      <c r="G54" s="356"/>
-      <c r="H54" s="356"/>
-      <c r="I54" s="356"/>
-      <c r="J54" s="356"/>
-      <c r="K54" s="356"/>
-      <c r="L54" s="356"/>
-      <c r="M54" s="356"/>
-      <c r="N54" s="356"/>
-      <c r="O54" s="356"/>
-      <c r="P54" s="356"/>
-      <c r="Q54" s="356"/>
+      <c r="C54" s="357"/>
+      <c r="D54" s="357"/>
+      <c r="E54" s="357"/>
+      <c r="F54" s="357"/>
+      <c r="G54" s="357"/>
+      <c r="H54" s="357"/>
+      <c r="I54" s="357"/>
+      <c r="J54" s="357"/>
+      <c r="K54" s="357"/>
+      <c r="L54" s="357"/>
+      <c r="M54" s="357"/>
+      <c r="N54" s="357"/>
+      <c r="O54" s="357"/>
+      <c r="P54" s="357"/>
+      <c r="Q54" s="357"/>
     </row>
     <row r="56" spans="2:17">
-      <c r="B56" s="356" t="s">
+      <c r="B56" s="357" t="s">
         <v>607</v>
       </c>
-      <c r="C56" s="356"/>
-      <c r="D56" s="356"/>
-      <c r="E56" s="356"/>
-      <c r="F56" s="356"/>
-      <c r="G56" s="356"/>
-      <c r="H56" s="356"/>
-      <c r="I56" s="356"/>
-      <c r="J56" s="356"/>
-      <c r="K56" s="356"/>
-      <c r="L56" s="356"/>
-      <c r="M56" s="356"/>
-      <c r="N56" s="356"/>
-      <c r="O56" s="356"/>
-      <c r="P56" s="356"/>
-      <c r="Q56" s="356"/>
+      <c r="C56" s="357"/>
+      <c r="D56" s="357"/>
+      <c r="E56" s="357"/>
+      <c r="F56" s="357"/>
+      <c r="G56" s="357"/>
+      <c r="H56" s="357"/>
+      <c r="I56" s="357"/>
+      <c r="J56" s="357"/>
+      <c r="K56" s="357"/>
+      <c r="L56" s="357"/>
+      <c r="M56" s="357"/>
+      <c r="N56" s="357"/>
+      <c r="O56" s="357"/>
+      <c r="P56" s="357"/>
+      <c r="Q56" s="357"/>
     </row>
     <row r="58" spans="2:17">
       <c r="B58" s="216" t="s">
         <v>608</v>
       </c>
-      <c r="C58" s="361" t="s">
+      <c r="C58" s="362" t="s">
         <v>609</v>
       </c>
-      <c r="D58" s="359" t="s">
+      <c r="D58" s="360" t="s">
         <v>510</v>
       </c>
-      <c r="E58" s="359" t="s">
+      <c r="E58" s="360" t="s">
         <v>511</v>
       </c>
       <c r="F58" s="214" t="s">
         <v>610</v>
       </c>
-      <c r="G58" s="359" t="s">
+      <c r="G58" s="360" t="s">
         <v>510</v>
       </c>
-      <c r="H58" s="359" t="s">
+      <c r="H58" s="360" t="s">
         <v>511</v>
       </c>
       <c r="I58" s="214" t="s">
         <v>610</v>
       </c>
-      <c r="J58" s="359" t="s">
+      <c r="J58" s="360" t="s">
         <v>510</v>
       </c>
-      <c r="K58" s="359" t="s">
+      <c r="K58" s="360" t="s">
         <v>511</v>
       </c>
-      <c r="L58" s="361" t="s">
+      <c r="L58" s="362" t="s">
         <v>611</v>
       </c>
-      <c r="M58" s="359" t="s">
+      <c r="M58" s="360" t="s">
         <v>510</v>
       </c>
-      <c r="N58" s="359" t="s">
+      <c r="N58" s="360" t="s">
         <v>511</v>
       </c>
-      <c r="O58" s="361" t="s">
+      <c r="O58" s="362" t="s">
         <v>612</v>
       </c>
-      <c r="P58" s="359" t="s">
+      <c r="P58" s="360" t="s">
         <v>510</v>
       </c>
-      <c r="Q58" s="359" t="s">
+      <c r="Q58" s="360" t="s">
         <v>511</v>
       </c>
     </row>
@@ -27398,139 +27742,139 @@
       <c r="B59" s="217" t="s">
         <v>613</v>
       </c>
-      <c r="C59" s="362"/>
-      <c r="D59" s="360"/>
-      <c r="E59" s="360"/>
+      <c r="C59" s="363"/>
+      <c r="D59" s="361"/>
+      <c r="E59" s="361"/>
       <c r="F59" s="215" t="s">
         <v>614</v>
       </c>
-      <c r="G59" s="360"/>
-      <c r="H59" s="360"/>
+      <c r="G59" s="361"/>
+      <c r="H59" s="361"/>
       <c r="I59" s="215" t="s">
         <v>615</v>
       </c>
-      <c r="J59" s="360"/>
-      <c r="K59" s="360"/>
-      <c r="L59" s="362"/>
-      <c r="M59" s="360"/>
-      <c r="N59" s="360"/>
-      <c r="O59" s="362"/>
-      <c r="P59" s="360"/>
-      <c r="Q59" s="360"/>
+      <c r="J59" s="361"/>
+      <c r="K59" s="361"/>
+      <c r="L59" s="363"/>
+      <c r="M59" s="361"/>
+      <c r="N59" s="361"/>
+      <c r="O59" s="363"/>
+      <c r="P59" s="361"/>
+      <c r="Q59" s="361"/>
     </row>
     <row r="60" spans="2:17" ht="28.5">
       <c r="B60" s="218" t="s">
         <v>616</v>
       </c>
-      <c r="C60" s="349" t="s">
+      <c r="C60" s="350" t="s">
         <v>16</v>
       </c>
       <c r="D60" s="210" t="s">
         <v>617</v>
       </c>
-      <c r="E60" s="354" t="s">
+      <c r="E60" s="355" t="s">
         <v>618</v>
       </c>
-      <c r="F60" s="349" t="s">
+      <c r="F60" s="350" t="s">
         <v>8</v>
       </c>
       <c r="G60" s="210" t="s">
         <v>619</v>
       </c>
-      <c r="H60" s="354" t="s">
+      <c r="H60" s="355" t="s">
         <v>620</v>
       </c>
-      <c r="I60" s="349" t="s">
+      <c r="I60" s="350" t="s">
         <v>12</v>
       </c>
       <c r="J60" s="210" t="s">
         <v>621</v>
       </c>
-      <c r="K60" s="354" t="s">
+      <c r="K60" s="355" t="s">
         <v>622</v>
       </c>
-      <c r="L60" s="349" t="s">
+      <c r="L60" s="350" t="s">
         <v>20</v>
       </c>
       <c r="M60" s="210" t="s">
         <v>623</v>
       </c>
-      <c r="N60" s="354" t="s">
+      <c r="N60" s="355" t="s">
         <v>624</v>
       </c>
-      <c r="O60" s="357"/>
-      <c r="P60" s="352"/>
-      <c r="Q60" s="352"/>
+      <c r="O60" s="358"/>
+      <c r="P60" s="353"/>
+      <c r="Q60" s="353"/>
     </row>
     <row r="61" spans="2:17">
       <c r="B61" s="219" t="s">
         <v>625</v>
       </c>
-      <c r="C61" s="350"/>
+      <c r="C61" s="351"/>
       <c r="D61" s="211" t="s">
         <v>626</v>
       </c>
-      <c r="E61" s="355"/>
-      <c r="F61" s="350"/>
+      <c r="E61" s="356"/>
+      <c r="F61" s="351"/>
       <c r="G61" s="211" t="s">
         <v>627</v>
       </c>
-      <c r="H61" s="355"/>
-      <c r="I61" s="350"/>
+      <c r="H61" s="356"/>
+      <c r="I61" s="351"/>
       <c r="J61" s="211" t="s">
         <v>628</v>
       </c>
-      <c r="K61" s="355"/>
-      <c r="L61" s="350"/>
+      <c r="K61" s="356"/>
+      <c r="L61" s="351"/>
       <c r="M61" s="211" t="s">
         <v>629</v>
       </c>
-      <c r="N61" s="355"/>
-      <c r="O61" s="358"/>
-      <c r="P61" s="353"/>
-      <c r="Q61" s="353"/>
+      <c r="N61" s="356"/>
+      <c r="O61" s="359"/>
+      <c r="P61" s="354"/>
+      <c r="Q61" s="354"/>
     </row>
     <row r="62" spans="2:17" ht="28.5">
       <c r="B62" s="218" t="s">
         <v>630</v>
       </c>
-      <c r="C62" s="357"/>
-      <c r="D62" s="352"/>
-      <c r="E62" s="352"/>
-      <c r="F62" s="349" t="s">
+      <c r="C62" s="358"/>
+      <c r="D62" s="353"/>
+      <c r="E62" s="353"/>
+      <c r="F62" s="350" t="s">
         <v>23</v>
       </c>
       <c r="G62" s="210" t="s">
         <v>631</v>
       </c>
-      <c r="H62" s="354" t="s">
+      <c r="H62" s="355" t="s">
         <v>632</v>
       </c>
-      <c r="I62" s="349" t="s">
+      <c r="I62" s="350" t="s">
         <v>27</v>
       </c>
       <c r="J62" s="210" t="s">
         <v>633</v>
       </c>
-      <c r="K62" s="354" t="s">
+      <c r="K62" s="355" t="s">
         <v>634</v>
       </c>
-      <c r="L62" s="349" t="s">
+      <c r="L62" s="350" t="s">
         <v>31</v>
       </c>
       <c r="M62" s="210" t="s">
         <v>635</v>
       </c>
-      <c r="N62" s="354" t="s">
+      <c r="N62" s="355" t="s">
         <v>636</v>
       </c>
-      <c r="O62" s="349" t="s">
+      <c r="O62" s="350" t="s">
         <v>35</v>
       </c>
       <c r="P62" s="210" t="s">
         <v>637</v>
       </c>
-      <c r="Q62" s="354" t="s">
+      <c r="Q62" s="355" t="s">
         <v>638</v>
       </c>
     </row>
@@ -27538,77 +27882,77 @@
       <c r="B63" s="219" t="s">
         <v>639</v>
       </c>
-      <c r="C63" s="358"/>
-      <c r="D63" s="353"/>
-      <c r="E63" s="353"/>
-      <c r="F63" s="350"/>
+      <c r="C63" s="359"/>
+      <c r="D63" s="354"/>
+      <c r="E63" s="354"/>
+      <c r="F63" s="351"/>
       <c r="G63" s="211" t="s">
         <v>640</v>
       </c>
-      <c r="H63" s="355"/>
-      <c r="I63" s="350"/>
+      <c r="H63" s="356"/>
+      <c r="I63" s="351"/>
       <c r="J63" s="211" t="s">
         <v>641</v>
       </c>
-      <c r="K63" s="355"/>
-      <c r="L63" s="350"/>
+      <c r="K63" s="356"/>
+      <c r="L63" s="351"/>
       <c r="M63" s="211" t="s">
         <v>642</v>
       </c>
-      <c r="N63" s="355"/>
-      <c r="O63" s="350"/>
+      <c r="N63" s="356"/>
+      <c r="O63" s="351"/>
       <c r="P63" s="211" t="s">
         <v>643</v>
       </c>
-      <c r="Q63" s="355"/>
+      <c r="Q63" s="356"/>
     </row>
     <row r="64" spans="2:17" ht="28.5">
       <c r="B64" s="218" t="s">
         <v>644</v>
       </c>
-      <c r="C64" s="349" t="s">
+      <c r="C64" s="350" t="s">
         <v>60</v>
       </c>
       <c r="D64" s="210" t="s">
         <v>645</v>
       </c>
-      <c r="E64" s="354" t="s">
+      <c r="E64" s="355" t="s">
         <v>646</v>
       </c>
-      <c r="F64" s="349" t="s">
+      <c r="F64" s="350" t="s">
         <v>53</v>
       </c>
       <c r="G64" s="210" t="s">
         <v>647</v>
       </c>
-      <c r="H64" s="354" t="s">
+      <c r="H64" s="355" t="s">
         <v>648</v>
       </c>
-      <c r="I64" s="349" t="s">
+      <c r="I64" s="350" t="s">
         <v>57</v>
       </c>
       <c r="J64" s="210" t="s">
         <v>649</v>
       </c>
-      <c r="K64" s="354" t="s">
+      <c r="K64" s="355" t="s">
         <v>650</v>
       </c>
-      <c r="L64" s="349" t="s">
+      <c r="L64" s="350" t="s">
         <v>64</v>
       </c>
       <c r="M64" s="210" t="s">
         <v>651</v>
       </c>
-      <c r="N64" s="354" t="s">
+      <c r="N64" s="355" t="s">
         <v>652</v>
       </c>
-      <c r="O64" s="349" t="s">
+      <c r="O64" s="350" t="s">
         <v>67</v>
       </c>
       <c r="P64" s="210" t="s">
         <v>653</v>
       </c>
-      <c r="Q64" s="354" t="s">
+      <c r="Q64" s="355" t="s">
         <v>654</v>
       </c>
     </row>
@@ -27616,73 +27960,73 @@
       <c r="B65" s="219" t="s">
         <v>655</v>
       </c>
-      <c r="C65" s="350"/>
+      <c r="C65" s="351"/>
       <c r="D65" s="211" t="s">
         <v>656</v>
       </c>
-      <c r="E65" s="355"/>
-      <c r="F65" s="350"/>
+      <c r="E65" s="356"/>
+      <c r="F65" s="351"/>
       <c r="G65" s="211" t="s">
         <v>657</v>
       </c>
-      <c r="H65" s="355"/>
-      <c r="I65" s="350"/>
+      <c r="H65" s="356"/>
+      <c r="I65" s="351"/>
       <c r="J65" s="211" t="s">
         <v>658</v>
       </c>
-      <c r="K65" s="355"/>
-      <c r="L65" s="350"/>
+      <c r="K65" s="356"/>
+      <c r="L65" s="351"/>
       <c r="M65" s="211" t="s">
         <v>659</v>
       </c>
-      <c r="N65" s="355"/>
-      <c r="O65" s="350"/>
+      <c r="N65" s="356"/>
+      <c r="O65" s="351"/>
       <c r="P65" s="211" t="s">
         <v>660</v>
       </c>
-      <c r="Q65" s="355"/>
+      <c r="Q65" s="356"/>
     </row>
     <row r="66" spans="2:17" ht="28.5">
       <c r="B66" s="218" t="s">
         <v>661</v>
       </c>
-      <c r="C66" s="349" t="s">
+      <c r="C66" s="350" t="s">
         <v>386</v>
       </c>
       <c r="D66" s="210" t="s">
         <v>662</v>
       </c>
-      <c r="E66" s="354" t="s">
+      <c r="E66" s="355" t="s">
         <v>663</v>
       </c>
-      <c r="F66" s="349" t="s">
+      <c r="F66" s="350" t="s">
         <v>664</v>
       </c>
       <c r="G66" s="210" t="s">
         <v>665</v>
       </c>
-      <c r="H66" s="354" t="s">
+      <c r="H66" s="355" t="s">
         <v>666</v>
       </c>
-      <c r="I66" s="349" t="s">
+      <c r="I66" s="350" t="s">
         <v>667</v>
       </c>
       <c r="J66" s="210" t="s">
         <v>668</v>
       </c>
-      <c r="K66" s="354" t="s">
+      <c r="K66" s="355" t="s">
         <v>669</v>
       </c>
-      <c r="L66" s="357"/>
-      <c r="M66" s="352"/>
-      <c r="N66" s="352"/>
-      <c r="O66" s="349" t="s">
+      <c r="L66" s="358"/>
+      <c r="M66" s="353"/>
+      <c r="N66" s="353"/>
+      <c r="O66" s="350" t="s">
         <v>50</v>
       </c>
       <c r="P66" s="210" t="s">
         <v>670</v>
       </c>
-      <c r="Q66" s="354" t="s">
+      <c r="Q66" s="355" t="s">
         <v>671</v>
       </c>
     </row>
@@ -27690,29 +28034,29 @@
       <c r="B67" s="219" t="s">
         <v>672</v>
       </c>
-      <c r="C67" s="350"/>
+      <c r="C67" s="351"/>
       <c r="D67" s="211" t="s">
         <v>673</v>
       </c>
-      <c r="E67" s="355"/>
-      <c r="F67" s="350"/>
+      <c r="E67" s="356"/>
+      <c r="F67" s="351"/>
       <c r="G67" s="211" t="s">
         <v>674</v>
       </c>
-      <c r="H67" s="355"/>
-      <c r="I67" s="350"/>
+      <c r="H67" s="356"/>
+      <c r="I67" s="351"/>
       <c r="J67" s="211" t="s">
         <v>675</v>
       </c>
-      <c r="K67" s="355"/>
-      <c r="L67" s="358"/>
-      <c r="M67" s="353"/>
-      <c r="N67" s="353"/>
-      <c r="O67" s="350"/>
+      <c r="K67" s="356"/>
+      <c r="L67" s="359"/>
+      <c r="M67" s="354"/>
+      <c r="N67" s="354"/>
+      <c r="O67" s="351"/>
       <c r="P67" s="211" t="s">
         <v>676</v>
       </c>
-      <c r="Q67" s="355"/>
+      <c r="Q67" s="356"/>
     </row>
   </sheetData>
   <mergeCells count="149">
@@ -27932,161 +28276,161 @@
   <sheetData>
     <row r="1" spans="2:16" ht="9" hidden="1" customHeight="1" outlineLevel="1"/>
     <row r="2" spans="2:16" s="284" customFormat="1" ht="33" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B2" s="365" t="s">
+      <c r="B2" s="366" t="s">
         <v>677</v>
       </c>
-      <c r="C2" s="365"/>
-      <c r="D2" s="365"/>
-      <c r="E2" s="365" t="s">
+      <c r="C2" s="366"/>
+      <c r="D2" s="366"/>
+      <c r="E2" s="366" t="s">
         <v>678</v>
       </c>
-      <c r="F2" s="365"/>
-      <c r="G2" s="365" t="s">
+      <c r="F2" s="366"/>
+      <c r="G2" s="366" t="s">
         <v>679</v>
       </c>
-      <c r="H2" s="365"/>
-      <c r="I2" s="365" t="s">
+      <c r="H2" s="366"/>
+      <c r="I2" s="366" t="s">
         <v>680</v>
       </c>
-      <c r="J2" s="365"/>
-      <c r="K2" s="365" t="s">
+      <c r="J2" s="366"/>
+      <c r="K2" s="366" t="s">
         <v>681</v>
       </c>
-      <c r="L2" s="365"/>
-      <c r="M2" s="365"/>
-      <c r="N2" s="365"/>
-      <c r="O2" s="365" t="s">
+      <c r="L2" s="366"/>
+      <c r="M2" s="366"/>
+      <c r="N2" s="366"/>
+      <c r="O2" s="366" t="s">
         <v>682</v>
       </c>
-      <c r="P2" s="365"/>
+      <c r="P2" s="366"/>
     </row>
     <row r="3" spans="2:16" s="284" customFormat="1" ht="33" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B3" s="365" t="s">
+      <c r="B3" s="366" t="s">
         <v>683</v>
       </c>
-      <c r="C3" s="365"/>
-      <c r="D3" s="365"/>
-      <c r="E3" s="365" t="s">
+      <c r="C3" s="366"/>
+      <c r="D3" s="366"/>
+      <c r="E3" s="366" t="s">
         <v>678</v>
       </c>
-      <c r="F3" s="365"/>
-      <c r="G3" s="365" t="s">
+      <c r="F3" s="366"/>
+      <c r="G3" s="366" t="s">
         <v>684</v>
       </c>
-      <c r="H3" s="365"/>
-      <c r="I3" s="365" t="s">
+      <c r="H3" s="366"/>
+      <c r="I3" s="366" t="s">
         <v>685</v>
       </c>
-      <c r="J3" s="365"/>
-      <c r="K3" s="365" t="s">
+      <c r="J3" s="366"/>
+      <c r="K3" s="366" t="s">
         <v>686</v>
       </c>
-      <c r="L3" s="365"/>
-      <c r="M3" s="365"/>
-      <c r="N3" s="365"/>
-      <c r="O3" s="365" t="s">
+      <c r="L3" s="366"/>
+      <c r="M3" s="366"/>
+      <c r="N3" s="366"/>
+      <c r="O3" s="366" t="s">
         <v>682</v>
       </c>
-      <c r="P3" s="365"/>
+      <c r="P3" s="366"/>
     </row>
     <row r="4" spans="2:16" s="284" customFormat="1" ht="33" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B4" s="365" t="s">
+      <c r="B4" s="366" t="s">
         <v>687</v>
       </c>
-      <c r="C4" s="365"/>
-      <c r="D4" s="365"/>
-      <c r="E4" s="365" t="s">
+      <c r="C4" s="366"/>
+      <c r="D4" s="366"/>
+      <c r="E4" s="366" t="s">
         <v>678</v>
       </c>
-      <c r="F4" s="365"/>
-      <c r="G4" s="365" t="s">
+      <c r="F4" s="366"/>
+      <c r="G4" s="366" t="s">
         <v>688</v>
       </c>
-      <c r="H4" s="365"/>
-      <c r="I4" s="365" t="s">
+      <c r="H4" s="366"/>
+      <c r="I4" s="366" t="s">
         <v>685</v>
       </c>
-      <c r="J4" s="365"/>
-      <c r="K4" s="365" t="s">
+      <c r="J4" s="366"/>
+      <c r="K4" s="366" t="s">
         <v>689</v>
       </c>
-      <c r="L4" s="365"/>
-      <c r="M4" s="365"/>
-      <c r="N4" s="365"/>
-      <c r="O4" s="365" t="s">
+      <c r="L4" s="366"/>
+      <c r="M4" s="366"/>
+      <c r="N4" s="366"/>
+      <c r="O4" s="366" t="s">
         <v>682</v>
       </c>
-      <c r="P4" s="365"/>
+      <c r="P4" s="366"/>
     </row>
     <row r="5" spans="2:16" s="284" customFormat="1" ht="33" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B5" s="365" t="s">
+      <c r="B5" s="366" t="s">
         <v>690</v>
       </c>
-      <c r="C5" s="365"/>
-      <c r="D5" s="365"/>
-      <c r="E5" s="365" t="s">
+      <c r="C5" s="366"/>
+      <c r="D5" s="366"/>
+      <c r="E5" s="366" t="s">
         <v>691</v>
       </c>
-      <c r="F5" s="365"/>
-      <c r="G5" s="365" t="s">
+      <c r="F5" s="366"/>
+      <c r="G5" s="366" t="s">
         <v>692</v>
       </c>
-      <c r="H5" s="365"/>
-      <c r="I5" s="365" t="s">
+      <c r="H5" s="366"/>
+      <c r="I5" s="366" t="s">
         <v>693</v>
       </c>
-      <c r="J5" s="365"/>
-      <c r="K5" s="365" t="s">
+      <c r="J5" s="366"/>
+      <c r="K5" s="366" t="s">
         <v>692</v>
       </c>
-      <c r="L5" s="365"/>
-      <c r="M5" s="365"/>
-      <c r="N5" s="365"/>
-      <c r="O5" s="365" t="s">
+      <c r="L5" s="366"/>
+      <c r="M5" s="366"/>
+      <c r="N5" s="366"/>
+      <c r="O5" s="366" t="s">
         <v>694</v>
       </c>
-      <c r="P5" s="365"/>
+      <c r="P5" s="366"/>
     </row>
     <row r="6" spans="2:16" ht="9" customHeight="1" collapsed="1"/>
     <row r="7" spans="2:16" ht="69.95" customHeight="1">
-      <c r="B7" s="374" t="s">
+      <c r="B7" s="375" t="s">
         <v>695</v>
       </c>
-      <c r="C7" s="375"/>
-      <c r="D7" s="376"/>
-      <c r="E7" s="377" t="s">
+      <c r="C7" s="376"/>
+      <c r="D7" s="377"/>
+      <c r="E7" s="378" t="s">
         <v>691</v>
       </c>
-      <c r="F7" s="378"/>
-      <c r="G7" s="366" t="s">
+      <c r="F7" s="379"/>
+      <c r="G7" s="367" t="s">
         <v>696</v>
       </c>
-      <c r="H7" s="367"/>
-      <c r="I7" s="379" t="s">
+      <c r="H7" s="368"/>
+      <c r="I7" s="380" t="s">
         <v>697</v>
       </c>
-      <c r="J7" s="380"/>
-      <c r="K7" s="366" t="s">
+      <c r="J7" s="381"/>
+      <c r="K7" s="367" t="s">
         <v>698</v>
       </c>
-      <c r="L7" s="367"/>
-      <c r="M7" s="366" t="s">
+      <c r="L7" s="368"/>
+      <c r="M7" s="367" t="s">
         <v>699</v>
       </c>
-      <c r="N7" s="367"/>
-      <c r="O7" s="366" t="s">
+      <c r="N7" s="368"/>
+      <c r="O7" s="367" t="s">
         <v>700</v>
       </c>
-      <c r="P7" s="367"/>
+      <c r="P7" s="368"/>
     </row>
     <row r="8" spans="2:16" ht="39" customHeight="1">
-      <c r="B8" s="368" t="s">
+      <c r="B8" s="369" t="s">
         <v>701</v>
       </c>
-      <c r="C8" s="369" t="s">
+      <c r="C8" s="370" t="s">
         <v>610</v>
       </c>
-      <c r="D8" s="370" t="s">
+      <c r="D8" s="371" t="s">
         <v>702</v>
       </c>
       <c r="E8" s="285" t="s">
@@ -28119,9 +28463,9 @@
       </c>
     </row>
     <row r="9" spans="2:16" ht="39" customHeight="1">
-      <c r="B9" s="368"/>
-      <c r="C9" s="369"/>
-      <c r="D9" s="370"/>
+      <c r="B9" s="369"/>
+      <c r="C9" s="370"/>
+      <c r="D9" s="371"/>
       <c r="E9" s="289" t="s">
         <v>7</v>
       </c>
@@ -28152,9 +28496,9 @@
       </c>
     </row>
     <row r="10" spans="2:16" ht="39" customHeight="1">
-      <c r="B10" s="368"/>
-      <c r="C10" s="369"/>
-      <c r="D10" s="371" t="s">
+      <c r="B10" s="369"/>
+      <c r="C10" s="370"/>
+      <c r="D10" s="372" t="s">
         <v>710</v>
       </c>
       <c r="E10" s="285" t="s">
@@ -28183,9 +28527,9 @@
       <c r="P10" s="286"/>
     </row>
     <row r="11" spans="2:16" ht="39" customHeight="1">
-      <c r="B11" s="368"/>
-      <c r="C11" s="369"/>
-      <c r="D11" s="371"/>
+      <c r="B11" s="369"/>
+      <c r="C11" s="370"/>
+      <c r="D11" s="372"/>
       <c r="E11" s="289" t="s">
         <v>336</v>
       </c>
@@ -28212,11 +28556,11 @@
       <c r="P11" s="290"/>
     </row>
     <row r="12" spans="2:16" ht="39" customHeight="1">
-      <c r="B12" s="368"/>
-      <c r="C12" s="372" t="s">
+      <c r="B12" s="369"/>
+      <c r="C12" s="373" t="s">
         <v>609</v>
       </c>
-      <c r="D12" s="373" t="s">
+      <c r="D12" s="374" t="s">
         <v>614</v>
       </c>
       <c r="E12" s="285" t="s">
@@ -28241,9 +28585,9 @@
       <c r="P12" s="286"/>
     </row>
     <row r="13" spans="2:16" ht="39" customHeight="1">
-      <c r="B13" s="368"/>
-      <c r="C13" s="372"/>
-      <c r="D13" s="373"/>
+      <c r="B13" s="369"/>
+      <c r="C13" s="373"/>
+      <c r="D13" s="374"/>
       <c r="E13" s="289" t="s">
         <v>717</v>
       </c>
@@ -28266,13 +28610,13 @@
       <c r="P13" s="290"/>
     </row>
     <row r="14" spans="2:16" ht="39" customHeight="1">
-      <c r="B14" s="368" t="s">
+      <c r="B14" s="369" t="s">
         <v>721</v>
       </c>
-      <c r="C14" s="381" t="s">
+      <c r="C14" s="382" t="s">
         <v>610</v>
       </c>
-      <c r="D14" s="382" t="s">
+      <c r="D14" s="383" t="s">
         <v>702</v>
       </c>
       <c r="E14" s="285"/>
@@ -28297,9 +28641,9 @@
       <c r="P14" s="286"/>
     </row>
     <row r="15" spans="2:16" ht="39" customHeight="1">
-      <c r="B15" s="368"/>
-      <c r="C15" s="381"/>
-      <c r="D15" s="382"/>
+      <c r="B15" s="369"/>
+      <c r="C15" s="382"/>
+      <c r="D15" s="383"/>
       <c r="E15" s="289"/>
       <c r="F15" s="290"/>
       <c r="G15" s="291"/>
@@ -28322,9 +28666,9 @@
       <c r="P15" s="290"/>
     </row>
     <row r="16" spans="2:16" ht="39" customHeight="1">
-      <c r="B16" s="368"/>
-      <c r="C16" s="381"/>
-      <c r="D16" s="371" t="s">
+      <c r="B16" s="369"/>
+      <c r="C16" s="382"/>
+      <c r="D16" s="372" t="s">
         <v>710</v>
       </c>
       <c r="E16" s="285"/>
@@ -28349,9 +28693,9 @@
       <c r="P16" s="286"/>
     </row>
     <row r="17" spans="2:17" ht="39" customHeight="1">
-      <c r="B17" s="368"/>
-      <c r="C17" s="381"/>
-      <c r="D17" s="371"/>
+      <c r="B17" s="369"/>
+      <c r="C17" s="382"/>
+      <c r="D17" s="372"/>
       <c r="E17" s="289"/>
       <c r="F17" s="290"/>
       <c r="G17" s="291"/>
@@ -28374,11 +28718,11 @@
       <c r="P17" s="290"/>
     </row>
     <row r="18" spans="2:17" ht="39" customHeight="1">
-      <c r="B18" s="368"/>
-      <c r="C18" s="372" t="s">
+      <c r="B18" s="369"/>
+      <c r="C18" s="373" t="s">
         <v>609</v>
       </c>
-      <c r="D18" s="382" t="s">
+      <c r="D18" s="383" t="s">
         <v>614</v>
       </c>
       <c r="E18" s="285"/>
@@ -28403,9 +28747,9 @@
       <c r="P18" s="286"/>
     </row>
     <row r="19" spans="2:17" ht="39" customHeight="1">
-      <c r="B19" s="368"/>
-      <c r="C19" s="372"/>
-      <c r="D19" s="382"/>
+      <c r="B19" s="369"/>
+      <c r="C19" s="373"/>
+      <c r="D19" s="383"/>
       <c r="E19" s="289"/>
       <c r="F19" s="290"/>
       <c r="G19" s="291"/>
@@ -28428,13 +28772,13 @@
       <c r="P19" s="290"/>
     </row>
     <row r="20" spans="2:17" ht="39" customHeight="1">
-      <c r="B20" s="368" t="s">
+      <c r="B20" s="369" t="s">
         <v>741</v>
       </c>
-      <c r="C20" s="381" t="s">
+      <c r="C20" s="382" t="s">
         <v>610</v>
       </c>
-      <c r="D20" s="382" t="s">
+      <c r="D20" s="383" t="s">
         <v>614</v>
       </c>
       <c r="E20" s="285"/>
@@ -28459,9 +28803,9 @@
       <c r="P20" s="286"/>
     </row>
     <row r="21" spans="2:17" ht="39" customHeight="1">
-      <c r="B21" s="368"/>
-      <c r="C21" s="381"/>
-      <c r="D21" s="382"/>
+      <c r="B21" s="369"/>
+      <c r="C21" s="382"/>
+      <c r="D21" s="383"/>
       <c r="E21" s="289"/>
       <c r="F21" s="290"/>
       <c r="G21" s="291"/>
@@ -28484,9 +28828,9 @@
       <c r="P21" s="290"/>
     </row>
     <row r="22" spans="2:17" ht="39" customHeight="1">
-      <c r="B22" s="368"/>
-      <c r="C22" s="381"/>
-      <c r="D22" s="383" t="s">
+      <c r="B22" s="369"/>
+      <c r="C22" s="382"/>
+      <c r="D22" s="384" t="s">
         <v>615</v>
       </c>
       <c r="E22" s="285"/>
@@ -28507,9 +28851,9 @@
       </c>
     </row>
     <row r="23" spans="2:17" ht="39" customHeight="1">
-      <c r="B23" s="368"/>
-      <c r="C23" s="381"/>
-      <c r="D23" s="383"/>
+      <c r="B23" s="369"/>
+      <c r="C23" s="382"/>
+      <c r="D23" s="384"/>
       <c r="E23" s="289"/>
       <c r="F23" s="290"/>
       <c r="G23" s="291"/>
@@ -28528,13 +28872,13 @@
       </c>
     </row>
     <row r="24" spans="2:17" ht="39" customHeight="1">
-      <c r="B24" s="368" t="s">
+      <c r="B24" s="369" t="s">
         <v>611</v>
       </c>
-      <c r="C24" s="372" t="s">
+      <c r="C24" s="373" t="s">
         <v>609</v>
       </c>
-      <c r="D24" s="382" t="s">
+      <c r="D24" s="383" t="s">
         <v>614</v>
       </c>
       <c r="E24" s="285" t="s">
@@ -28563,9 +28907,9 @@
       <c r="P24" s="286"/>
     </row>
     <row r="25" spans="2:17" ht="39" customHeight="1">
-      <c r="B25" s="368"/>
-      <c r="C25" s="372"/>
-      <c r="D25" s="382"/>
+      <c r="B25" s="369"/>
+      <c r="C25" s="373"/>
+      <c r="D25" s="383"/>
       <c r="E25" s="289" t="s">
         <v>580</v>
       </c>
@@ -28592,13 +28936,13 @@
       <c r="P25" s="290"/>
     </row>
     <row r="26" spans="2:17" ht="39" customHeight="1">
-      <c r="B26" s="368" t="s">
+      <c r="B26" s="369" t="s">
         <v>756</v>
       </c>
-      <c r="C26" s="372" t="s">
+      <c r="C26" s="373" t="s">
         <v>609</v>
       </c>
-      <c r="D26" s="382" t="s">
+      <c r="D26" s="383" t="s">
         <v>614</v>
       </c>
       <c r="E26" s="285"/>
@@ -28619,9 +28963,9 @@
       <c r="P26" s="286"/>
     </row>
     <row r="27" spans="2:17" ht="39" customHeight="1">
-      <c r="B27" s="368"/>
-      <c r="C27" s="372"/>
-      <c r="D27" s="382"/>
+      <c r="B27" s="369"/>
+      <c r="C27" s="373"/>
+      <c r="D27" s="383"/>
       <c r="E27" s="289"/>
       <c r="F27" s="290"/>
       <c r="G27" s="291" t="s">
@@ -28643,23 +28987,23 @@
       <c r="B29" s="293" t="s">
         <v>760</v>
       </c>
-      <c r="C29" s="384" t="s">
+      <c r="C29" s="385" t="s">
         <v>761</v>
       </c>
-      <c r="D29" s="384"/>
-      <c r="E29" s="384"/>
-      <c r="F29" s="384"/>
-      <c r="G29" s="384"/>
-      <c r="H29" s="384"/>
-      <c r="I29" s="384"/>
-      <c r="J29" s="384"/>
-      <c r="K29" s="384"/>
-      <c r="L29" s="384"/>
-      <c r="M29" s="384"/>
-      <c r="N29" s="384"/>
-      <c r="O29" s="384"/>
-      <c r="P29" s="384"/>
-      <c r="Q29" s="384"/>
+      <c r="D29" s="385"/>
+      <c r="E29" s="385"/>
+      <c r="F29" s="385"/>
+      <c r="G29" s="385"/>
+      <c r="H29" s="385"/>
+      <c r="I29" s="385"/>
+      <c r="J29" s="385"/>
+      <c r="K29" s="385"/>
+      <c r="L29" s="385"/>
+      <c r="M29" s="385"/>
+      <c r="N29" s="385"/>
+      <c r="O29" s="385"/>
+      <c r="P29" s="385"/>
+      <c r="Q29" s="385"/>
     </row>
     <row r="30" spans="2:17" s="295" customFormat="1" ht="25.5">
       <c r="B30" s="293"/>
@@ -28703,10 +29047,10 @@
       <c r="B32" s="296" t="s">
         <v>764</v>
       </c>
-      <c r="C32" s="385" t="s">
+      <c r="C32" s="386" t="s">
         <v>765</v>
       </c>
-      <c r="D32" s="386"/>
+      <c r="D32" s="387"/>
     </row>
     <row r="33" spans="2:4" ht="30">
       <c r="B33" s="296" t="s">
@@ -28824,18 +29168,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="39">
-      <c r="B2" s="388" t="s">
+      <c r="B2" s="389" t="s">
         <v>769</v>
       </c>
-      <c r="C2" s="388"/>
-      <c r="D2" s="388"/>
-      <c r="E2" s="388"/>
-      <c r="F2" s="387" t="s">
+      <c r="C2" s="389"/>
+      <c r="D2" s="389"/>
+      <c r="E2" s="389"/>
+      <c r="F2" s="388" t="s">
         <v>770</v>
       </c>
-      <c r="G2" s="387"/>
-      <c r="H2" s="387"/>
-      <c r="I2" s="387"/>
+      <c r="G2" s="388"/>
+      <c r="H2" s="388"/>
+      <c r="I2" s="388"/>
     </row>
     <row r="3" spans="2:12" ht="25.5">
       <c r="B3" s="231" t="s">

--- a/docs/鍵盤設計規格_台語135拼音.xlsx
+++ b/docs/鍵盤設計規格_台語135拼音.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\home\alanjui\workspace\rime\rime-tlpa\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30EB9595-3E62-4F06-9D76-C46BC8322F5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F35526F4-7BC8-4517-B99D-2DD05236D61B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28740" yWindow="0" windowWidth="15330" windowHeight="10920" tabRatio="703" firstSheet="2" activeTab="9" xr2:uid="{8ADEA2FE-7CD1-466B-8EB5-9AA2577FE19A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" tabRatio="703" firstSheet="2" activeTab="9" xr2:uid="{8ADEA2FE-7CD1-466B-8EB5-9AA2577FE19A}"/>
   </bookViews>
   <sheets>
     <sheet name="國語注音符號" sheetId="32" r:id="rId1"/>
@@ -4362,7 +4362,6 @@
       <rPr>
         <sz val="16"/>
         <rFont val="宋体"/>
-        <charset val="136"/>
       </rPr>
       <t>ɔ</t>
     </r>
@@ -4388,7 +4387,6 @@
       <rPr>
         <sz val="16"/>
         <rFont val="宋体"/>
-        <charset val="136"/>
       </rPr>
       <t>ɔ</t>
     </r>
@@ -4500,7 +4498,6 @@
       <rPr>
         <sz val="16"/>
         <rFont val="宋体"/>
-        <charset val="136"/>
       </rPr>
       <t>ɔ</t>
     </r>
@@ -4550,7 +4547,6 @@
       <rPr>
         <sz val="16"/>
         <rFont val="宋体"/>
-        <charset val="136"/>
       </rPr>
       <t>ŋ</t>
     </r>
@@ -4580,7 +4576,6 @@
       <rPr>
         <sz val="16"/>
         <rFont val="宋体"/>
-        <charset val="136"/>
       </rPr>
       <t>ɔŋ</t>
     </r>
@@ -4610,7 +4605,6 @@
       <rPr>
         <sz val="16"/>
         <rFont val="宋体"/>
-        <charset val="136"/>
       </rPr>
       <t>ŋ</t>
     </r>
@@ -4640,7 +4634,6 @@
       <rPr>
         <sz val="16"/>
         <rFont val="宋体"/>
-        <charset val="136"/>
       </rPr>
       <t>ŋ</t>
     </r>
@@ -4878,7 +4871,6 @@
       <rPr>
         <sz val="26"/>
         <rFont val="宋体"/>
-        <charset val="136"/>
       </rPr>
       <t>ŋ</t>
     </r>
@@ -5685,7 +5677,7 @@
     <numFmt numFmtId="177" formatCode="&quot;[&quot;\ @\ &quot;]&quot;"/>
     <numFmt numFmtId="178" formatCode="&quot;/ &quot;@&quot; /&quot;"/>
   </numFmts>
-  <fonts count="209">
+  <fonts count="208">
     <font>
       <sz val="16"/>
       <color rgb="FF000000"/>
@@ -5717,14 +5709,12 @@
     <font>
       <sz val="20"/>
       <name val="宋体"/>
-      <charset val="136"/>
     </font>
     <font>
       <b/>
       <sz val="20"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <charset val="136"/>
     </font>
     <font>
       <b/>
@@ -5781,7 +5771,6 @@
     <font>
       <sz val="18"/>
       <name val="宋体"/>
-      <charset val="136"/>
     </font>
     <font>
       <sz val="18"/>
@@ -5881,7 +5870,6 @@
       <sz val="18"/>
       <color rgb="FF0070C0"/>
       <name val="宋体"/>
-      <charset val="136"/>
     </font>
     <font>
       <sz val="18"/>
@@ -5979,7 +5967,6 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <charset val="136"/>
     </font>
     <font>
       <sz val="24"/>
@@ -6011,7 +5998,6 @@
     <font>
       <sz val="12"/>
       <name val="宋体"/>
-      <charset val="136"/>
     </font>
     <font>
       <sz val="9"/>
@@ -6159,7 +6145,6 @@
       <sz val="20"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <charset val="136"/>
     </font>
     <font>
       <sz val="18"/>
@@ -6679,7 +6664,6 @@
     <font>
       <sz val="12"/>
       <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="28"/>
@@ -6788,7 +6772,6 @@
     <font>
       <sz val="16"/>
       <name val="宋体"/>
-      <charset val="136"/>
     </font>
     <font>
       <sz val="18"/>
@@ -6812,7 +6795,6 @@
     <font>
       <sz val="26"/>
       <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="26"/>
@@ -6826,11 +6808,6 @@
       <color rgb="FF0000FF"/>
       <name val="LXGW WenKai Mono TC"/>
       <family val="3"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="26"/>
-      <name val="宋体"/>
       <charset val="136"/>
     </font>
     <font>
@@ -8714,6 +8691,9 @@
     <xf numFmtId="0" fontId="159" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="171" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="172" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -8721,70 +8701,67 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="174" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="175" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="175" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="178" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="178" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="179" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="180" fillId="30" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="180" fillId="30" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="181" fillId="30" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="182" fillId="30" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="176" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="179" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="179" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="180" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="181" fillId="30" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="181" fillId="30" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="182" fillId="30" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="183" fillId="30" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="177" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="183" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="184" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="185" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="187" fillId="30" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="186" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="188" fillId="30" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="188" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="189" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="190" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="190" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="189" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="191" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="192" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="193" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="194" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="195" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="197" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="196" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="61" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8793,27 +8770,27 @@
     <xf numFmtId="0" fontId="133" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="198" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="197" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="198" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="197" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="199" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="198" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="199" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="201" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="199" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="200" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="201" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="202" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="202" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="203" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="187" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="186" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="14" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8849,13 +8826,13 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="204" fillId="12" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="203" fillId="12" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="204" fillId="12" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="203" fillId="12" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="204" fillId="12" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="203" fillId="12" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8864,13 +8841,13 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="204" fillId="12" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="205" fillId="12" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="206" fillId="12" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="204" fillId="12" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="203" fillId="12" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8882,24 +8859,72 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="207" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="206" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="17" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="208" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="207" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="11" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="11" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="114" fillId="11" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="115" fillId="11" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="11" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="11" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="124" fillId="11" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="116" fillId="11" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="11" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="11" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="11" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="11" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="11" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="11" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="11" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="11" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="125" fillId="11" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="126" fillId="11" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="127" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -8909,62 +8934,59 @@
     <xf numFmtId="0" fontId="125" fillId="26" borderId="9" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="115" fillId="11" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="177" fillId="30" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="126" fillId="11" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="177" fillId="30" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="123" fillId="11" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="177" fillId="30" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="113" fillId="11" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="113" fillId="11" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="115" fillId="11" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="116" fillId="11" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="116" fillId="11" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="113" fillId="11" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="113" fillId="11" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="113" fillId="11" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="113" fillId="11" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="113" fillId="11" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="113" fillId="11" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="113" fillId="11" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="178" fillId="30" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="178" fillId="30" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="178" fillId="30" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="3" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="3" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -8975,15 +8997,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="6" fillId="3" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8993,90 +9006,54 @@
     <xf numFmtId="9" fontId="6" fillId="3" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="3" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="3" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="89" fillId="21" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="89" fillId="21" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="93" fillId="21" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="18" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="18" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="90" fillId="18" borderId="25" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="90" fillId="18" borderId="26" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="21" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="21" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="20" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="20" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="19" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="19" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="88" fillId="18" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="88" fillId="18" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="20" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="20" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="21" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="21" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="19" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="19" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="88" fillId="18" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="88" fillId="18" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="93" fillId="21" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="96" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -9086,11 +9063,11 @@
     <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="134" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="134" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
@@ -10178,8 +10155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86FD1CD5-4651-439A-98A6-5245A83D236D}">
   <dimension ref="B1:AV72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="32.25" outlineLevelCol="1"/>
@@ -15470,14 +15447,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7">
-      <c r="B2" s="483" t="s">
+      <c r="B2" s="484" t="s">
         <v>488</v>
       </c>
-      <c r="C2" s="483"/>
-      <c r="D2" s="483"/>
-      <c r="E2" s="483"/>
-      <c r="F2" s="483"/>
-      <c r="G2" s="483"/>
+      <c r="C2" s="484"/>
+      <c r="D2" s="484"/>
+      <c r="E2" s="484"/>
+      <c r="F2" s="484"/>
+      <c r="G2" s="484"/>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="189" t="s">
@@ -15506,16 +15483,16 @@
       <c r="C5" s="191" t="s">
         <v>493</v>
       </c>
-      <c r="D5" s="479" t="s">
+      <c r="D5" s="482" t="s">
         <v>494</v>
       </c>
-      <c r="E5" s="481" t="s">
+      <c r="E5" s="491" t="s">
         <v>79</v>
       </c>
       <c r="F5" s="191" t="s">
         <v>495</v>
       </c>
-      <c r="G5" s="479" t="s">
+      <c r="G5" s="482" t="s">
         <v>496</v>
       </c>
     </row>
@@ -15524,12 +15501,12 @@
       <c r="C6" s="192" t="s">
         <v>497</v>
       </c>
-      <c r="D6" s="480"/>
-      <c r="E6" s="482"/>
+      <c r="D6" s="483"/>
+      <c r="E6" s="492"/>
       <c r="F6" s="192" t="s">
         <v>498</v>
       </c>
-      <c r="G6" s="480"/>
+      <c r="G6" s="483"/>
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="477" t="s">
@@ -15538,16 +15515,16 @@
       <c r="C7" s="191" t="s">
         <v>499</v>
       </c>
-      <c r="D7" s="479" t="s">
+      <c r="D7" s="482" t="s">
         <v>500</v>
       </c>
-      <c r="E7" s="481" t="s">
+      <c r="E7" s="491" t="s">
         <v>82</v>
       </c>
       <c r="F7" s="191" t="s">
         <v>501</v>
       </c>
-      <c r="G7" s="479" t="s">
+      <c r="G7" s="482" t="s">
         <v>502</v>
       </c>
     </row>
@@ -15556,12 +15533,12 @@
       <c r="C8" s="192" t="s">
         <v>503</v>
       </c>
-      <c r="D8" s="480"/>
-      <c r="E8" s="482"/>
+      <c r="D8" s="483"/>
+      <c r="E8" s="492"/>
       <c r="F8" s="192" t="s">
         <v>504</v>
       </c>
-      <c r="G8" s="480"/>
+      <c r="G8" s="483"/>
     </row>
     <row r="9" spans="2:7">
       <c r="B9" s="477" t="s">
@@ -15570,16 +15547,16 @@
       <c r="C9" s="191" t="s">
         <v>505</v>
       </c>
-      <c r="D9" s="479" t="s">
+      <c r="D9" s="482" t="s">
         <v>506</v>
       </c>
-      <c r="E9" s="481" t="s">
+      <c r="E9" s="491" t="s">
         <v>507</v>
       </c>
-      <c r="F9" s="481" t="s">
+      <c r="F9" s="491" t="s">
         <v>507</v>
       </c>
-      <c r="G9" s="481" t="s">
+      <c r="G9" s="491" t="s">
         <v>507</v>
       </c>
     </row>
@@ -15588,10 +15565,10 @@
       <c r="C10" s="192" t="s">
         <v>508</v>
       </c>
-      <c r="D10" s="480"/>
-      <c r="E10" s="482"/>
-      <c r="F10" s="482"/>
-      <c r="G10" s="482"/>
+      <c r="D10" s="483"/>
+      <c r="E10" s="492"/>
+      <c r="F10" s="492"/>
+      <c r="G10" s="492"/>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="477" t="s">
@@ -15600,16 +15577,16 @@
       <c r="C11" s="191" t="s">
         <v>509</v>
       </c>
-      <c r="D11" s="479" t="s">
+      <c r="D11" s="482" t="s">
         <v>510</v>
       </c>
-      <c r="E11" s="481" t="s">
+      <c r="E11" s="491" t="s">
         <v>97</v>
       </c>
       <c r="F11" s="191" t="s">
         <v>511</v>
       </c>
-      <c r="G11" s="479" t="s">
+      <c r="G11" s="482" t="s">
         <v>512</v>
       </c>
     </row>
@@ -15618,12 +15595,12 @@
       <c r="C12" s="192" t="s">
         <v>513</v>
       </c>
-      <c r="D12" s="480"/>
-      <c r="E12" s="482"/>
+      <c r="D12" s="483"/>
+      <c r="E12" s="492"/>
       <c r="F12" s="192" t="s">
         <v>514</v>
       </c>
-      <c r="G12" s="480"/>
+      <c r="G12" s="483"/>
     </row>
     <row r="13" spans="2:7">
       <c r="B13" s="477" t="s">
@@ -15632,16 +15609,16 @@
       <c r="C13" s="191" t="s">
         <v>515</v>
       </c>
-      <c r="D13" s="479" t="s">
+      <c r="D13" s="482" t="s">
         <v>516</v>
       </c>
-      <c r="E13" s="481" t="s">
+      <c r="E13" s="491" t="s">
         <v>507</v>
       </c>
-      <c r="F13" s="481" t="s">
+      <c r="F13" s="491" t="s">
         <v>507</v>
       </c>
-      <c r="G13" s="481" t="s">
+      <c r="G13" s="491" t="s">
         <v>507</v>
       </c>
     </row>
@@ -15650,10 +15627,10 @@
       <c r="C14" s="192" t="s">
         <v>517</v>
       </c>
-      <c r="D14" s="480"/>
-      <c r="E14" s="482"/>
-      <c r="F14" s="482"/>
-      <c r="G14" s="482"/>
+      <c r="D14" s="483"/>
+      <c r="E14" s="492"/>
+      <c r="F14" s="492"/>
+      <c r="G14" s="492"/>
     </row>
     <row r="15" spans="2:7">
       <c r="B15" s="477" t="s">
@@ -15662,16 +15639,16 @@
       <c r="C15" s="191" t="s">
         <v>519</v>
       </c>
-      <c r="D15" s="479" t="s">
+      <c r="D15" s="482" t="s">
         <v>520</v>
       </c>
-      <c r="E15" s="481" t="s">
+      <c r="E15" s="491" t="s">
         <v>105</v>
       </c>
       <c r="F15" s="191" t="s">
         <v>521</v>
       </c>
-      <c r="G15" s="479" t="s">
+      <c r="G15" s="482" t="s">
         <v>522</v>
       </c>
     </row>
@@ -15680,12 +15657,12 @@
       <c r="C16" s="192" t="s">
         <v>523</v>
       </c>
-      <c r="D16" s="480"/>
-      <c r="E16" s="482"/>
+      <c r="D16" s="483"/>
+      <c r="E16" s="492"/>
       <c r="F16" s="192" t="s">
         <v>524</v>
       </c>
-      <c r="G16" s="480"/>
+      <c r="G16" s="483"/>
     </row>
     <row r="17" spans="2:12">
       <c r="B17" s="193" t="s">
@@ -15698,14 +15675,14 @@
       </c>
     </row>
     <row r="19" spans="2:12">
-      <c r="B19" s="483" t="s">
+      <c r="B19" s="484" t="s">
         <v>527</v>
       </c>
-      <c r="C19" s="483"/>
-      <c r="D19" s="483"/>
-      <c r="E19" s="483"/>
-      <c r="F19" s="483"/>
-      <c r="G19" s="483"/>
+      <c r="C19" s="484"/>
+      <c r="D19" s="484"/>
+      <c r="E19" s="484"/>
+      <c r="F19" s="484"/>
+      <c r="G19" s="484"/>
     </row>
     <row r="21" spans="2:12">
       <c r="B21" s="189" t="s">
@@ -15734,19 +15711,19 @@
       <c r="C22" s="191" t="s">
         <v>528</v>
       </c>
-      <c r="D22" s="481" t="s">
+      <c r="D22" s="491" t="s">
         <v>529</v>
       </c>
-      <c r="E22" s="481" t="s">
+      <c r="E22" s="491" t="s">
         <v>530</v>
       </c>
       <c r="F22" s="191" t="s">
         <v>531</v>
       </c>
-      <c r="G22" s="481" t="s">
+      <c r="G22" s="491" t="s">
         <v>529</v>
       </c>
-      <c r="I22" s="492" t="s">
+      <c r="I22" s="479" t="s">
         <v>532</v>
       </c>
       <c r="J22" s="477" t="s">
@@ -15761,12 +15738,12 @@
       <c r="C23" s="192" t="s">
         <v>533</v>
       </c>
-      <c r="D23" s="482"/>
-      <c r="E23" s="482"/>
+      <c r="D23" s="492"/>
+      <c r="E23" s="492"/>
       <c r="F23" s="192" t="s">
         <v>534</v>
       </c>
-      <c r="G23" s="482"/>
+      <c r="G23" s="492"/>
       <c r="I23" s="478"/>
       <c r="J23" s="478"/>
       <c r="L23" t="s">
@@ -15780,19 +15757,19 @@
       <c r="C24" s="191" t="s">
         <v>535</v>
       </c>
-      <c r="D24" s="481" t="s">
+      <c r="D24" s="491" t="s">
         <v>529</v>
       </c>
-      <c r="E24" s="481" t="s">
+      <c r="E24" s="491" t="s">
         <v>507</v>
       </c>
-      <c r="F24" s="481" t="s">
+      <c r="F24" s="491" t="s">
         <v>507</v>
       </c>
-      <c r="G24" s="481" t="s">
+      <c r="G24" s="491" t="s">
         <v>507</v>
       </c>
-      <c r="I24" s="492" t="s">
+      <c r="I24" s="479" t="s">
         <v>536</v>
       </c>
       <c r="J24" s="477" t="s">
@@ -15807,10 +15784,10 @@
       <c r="C25" s="192" t="s">
         <v>537</v>
       </c>
-      <c r="D25" s="482"/>
-      <c r="E25" s="482"/>
-      <c r="F25" s="482"/>
-      <c r="G25" s="482"/>
+      <c r="D25" s="492"/>
+      <c r="E25" s="492"/>
+      <c r="F25" s="492"/>
+      <c r="G25" s="492"/>
       <c r="I25" s="478"/>
       <c r="J25" s="478"/>
       <c r="L25" t="s">
@@ -15824,19 +15801,19 @@
       <c r="C26" s="191" t="s">
         <v>539</v>
       </c>
-      <c r="D26" s="481" t="s">
+      <c r="D26" s="491" t="s">
         <v>529</v>
       </c>
-      <c r="E26" s="481" t="s">
+      <c r="E26" s="491" t="s">
         <v>540</v>
       </c>
       <c r="F26" s="191" t="s">
         <v>541</v>
       </c>
-      <c r="G26" s="481" t="s">
+      <c r="G26" s="491" t="s">
         <v>529</v>
       </c>
-      <c r="I26" s="492" t="s">
+      <c r="I26" s="479" t="s">
         <v>542</v>
       </c>
       <c r="J26" s="477" t="s">
@@ -15851,12 +15828,12 @@
       <c r="C27" s="192" t="s">
         <v>543</v>
       </c>
-      <c r="D27" s="482"/>
-      <c r="E27" s="482"/>
+      <c r="D27" s="492"/>
+      <c r="E27" s="492"/>
       <c r="F27" s="192" t="s">
         <v>544</v>
       </c>
-      <c r="G27" s="482"/>
+      <c r="G27" s="492"/>
       <c r="I27" s="478"/>
       <c r="J27" s="478"/>
       <c r="L27" t="s">
@@ -15870,19 +15847,19 @@
       <c r="C28" s="191" t="s">
         <v>546</v>
       </c>
-      <c r="D28" s="481" t="s">
+      <c r="D28" s="491" t="s">
         <v>529</v>
       </c>
-      <c r="E28" s="481" t="s">
+      <c r="E28" s="491" t="s">
         <v>547</v>
       </c>
       <c r="F28" s="191" t="s">
         <v>548</v>
       </c>
-      <c r="G28" s="481" t="s">
+      <c r="G28" s="491" t="s">
         <v>529</v>
       </c>
-      <c r="I28" s="492" t="str">
+      <c r="I28" s="479" t="str">
         <f xml:space="preserve"> L23 &amp; L24</f>
         <v>ㄧㄨ</v>
       </c>
@@ -15895,12 +15872,12 @@
       <c r="C29" s="192" t="s">
         <v>549</v>
       </c>
-      <c r="D29" s="482"/>
-      <c r="E29" s="482"/>
+      <c r="D29" s="492"/>
+      <c r="E29" s="492"/>
       <c r="F29" s="192" t="s">
         <v>550</v>
       </c>
-      <c r="G29" s="482"/>
+      <c r="G29" s="492"/>
       <c r="I29" s="478"/>
       <c r="J29" s="478"/>
       <c r="L29" t="s">
@@ -15914,16 +15891,16 @@
       <c r="C30" s="191" t="s">
         <v>552</v>
       </c>
-      <c r="D30" s="481" t="s">
+      <c r="D30" s="491" t="s">
         <v>529</v>
       </c>
-      <c r="E30" s="481" t="s">
+      <c r="E30" s="491" t="s">
         <v>553</v>
       </c>
       <c r="F30" s="191" t="s">
         <v>554</v>
       </c>
-      <c r="G30" s="481" t="s">
+      <c r="G30" s="491" t="s">
         <v>529</v>
       </c>
       <c r="I30" s="477" t="str">
@@ -15942,12 +15919,12 @@
       <c r="C31" s="192" t="s">
         <v>555</v>
       </c>
-      <c r="D31" s="482"/>
-      <c r="E31" s="482"/>
+      <c r="D31" s="492"/>
+      <c r="E31" s="492"/>
       <c r="F31" s="192" t="s">
         <v>550</v>
       </c>
-      <c r="G31" s="482"/>
+      <c r="G31" s="492"/>
       <c r="I31" s="478"/>
       <c r="J31" s="478"/>
       <c r="L31" t="s">
@@ -15961,16 +15938,16 @@
       <c r="C32" s="191" t="s">
         <v>557</v>
       </c>
-      <c r="D32" s="481" t="s">
+      <c r="D32" s="491" t="s">
         <v>529</v>
       </c>
-      <c r="E32" s="481" t="s">
+      <c r="E32" s="491" t="s">
         <v>558</v>
       </c>
       <c r="F32" s="191" t="s">
         <v>507</v>
       </c>
-      <c r="G32" s="481" t="s">
+      <c r="G32" s="491" t="s">
         <v>529</v>
       </c>
       <c r="I32" s="477" t="str">
@@ -15986,12 +15963,12 @@
       <c r="C33" s="192" t="s">
         <v>559</v>
       </c>
-      <c r="D33" s="482"/>
-      <c r="E33" s="482"/>
+      <c r="D33" s="492"/>
+      <c r="E33" s="492"/>
       <c r="F33" s="192" t="s">
         <v>507</v>
       </c>
-      <c r="G33" s="482"/>
+      <c r="G33" s="492"/>
       <c r="I33" s="478"/>
       <c r="J33" s="478"/>
       <c r="L33" t="s">
@@ -16005,16 +15982,16 @@
       <c r="C34" s="191" t="s">
         <v>562</v>
       </c>
-      <c r="D34" s="481" t="s">
+      <c r="D34" s="491" t="s">
         <v>529</v>
       </c>
-      <c r="E34" s="481" t="s">
+      <c r="E34" s="491" t="s">
         <v>563</v>
       </c>
       <c r="F34" s="191" t="s">
         <v>564</v>
       </c>
-      <c r="G34" s="481" t="s">
+      <c r="G34" s="491" t="s">
         <v>529</v>
       </c>
       <c r="I34" s="477" t="str">
@@ -16033,12 +16010,12 @@
       <c r="C35" s="192" t="s">
         <v>565</v>
       </c>
-      <c r="D35" s="482"/>
-      <c r="E35" s="482"/>
+      <c r="D35" s="492"/>
+      <c r="E35" s="492"/>
       <c r="F35" s="192" t="s">
         <v>566</v>
       </c>
-      <c r="G35" s="482"/>
+      <c r="G35" s="492"/>
       <c r="I35" s="478"/>
       <c r="J35" s="478"/>
       <c r="L35" t="s">
@@ -16052,16 +16029,16 @@
       <c r="C36" s="191" t="s">
         <v>568</v>
       </c>
-      <c r="D36" s="481" t="s">
+      <c r="D36" s="491" t="s">
         <v>529</v>
       </c>
-      <c r="E36" s="481" t="s">
+      <c r="E36" s="491" t="s">
         <v>507</v>
       </c>
-      <c r="F36" s="481" t="s">
+      <c r="F36" s="491" t="s">
         <v>507</v>
       </c>
-      <c r="G36" s="481" t="s">
+      <c r="G36" s="491" t="s">
         <v>507</v>
       </c>
       <c r="I36" s="477" t="str">
@@ -16077,10 +16054,10 @@
       <c r="C37" s="192" t="s">
         <v>569</v>
       </c>
-      <c r="D37" s="482"/>
-      <c r="E37" s="482"/>
-      <c r="F37" s="482"/>
-      <c r="G37" s="482"/>
+      <c r="D37" s="492"/>
+      <c r="E37" s="492"/>
+      <c r="F37" s="492"/>
+      <c r="G37" s="492"/>
       <c r="I37" s="478"/>
       <c r="J37" s="478"/>
     </row>
@@ -16091,16 +16068,16 @@
       <c r="C38" s="191" t="s">
         <v>571</v>
       </c>
-      <c r="D38" s="481" t="s">
+      <c r="D38" s="491" t="s">
         <v>529</v>
       </c>
-      <c r="E38" s="481" t="s">
+      <c r="E38" s="491" t="s">
         <v>572</v>
       </c>
       <c r="F38" s="191" t="s">
         <v>573</v>
       </c>
-      <c r="G38" s="481" t="s">
+      <c r="G38" s="491" t="s">
         <v>529</v>
       </c>
       <c r="I38" s="477" t="str">
@@ -16116,12 +16093,12 @@
       <c r="C39" s="192" t="s">
         <v>574</v>
       </c>
-      <c r="D39" s="482"/>
-      <c r="E39" s="482"/>
+      <c r="D39" s="492"/>
+      <c r="E39" s="492"/>
       <c r="F39" s="192" t="s">
         <v>575</v>
       </c>
-      <c r="G39" s="482"/>
+      <c r="G39" s="492"/>
       <c r="I39" s="478"/>
       <c r="J39" s="478"/>
     </row>
@@ -16136,23 +16113,23 @@
       </c>
     </row>
     <row r="42" spans="2:12">
-      <c r="B42" s="483" t="s">
+      <c r="B42" s="484" t="s">
         <v>577</v>
       </c>
-      <c r="C42" s="483"/>
-      <c r="D42" s="483"/>
-      <c r="E42" s="483"/>
-      <c r="F42" s="483"/>
-      <c r="G42" s="483"/>
+      <c r="C42" s="484"/>
+      <c r="D42" s="484"/>
+      <c r="E42" s="484"/>
+      <c r="F42" s="484"/>
+      <c r="G42" s="484"/>
     </row>
     <row r="44" spans="2:12">
       <c r="B44" s="195" t="s">
         <v>578</v>
       </c>
-      <c r="C44" s="484" t="s">
+      <c r="C44" s="487" t="s">
         <v>490</v>
       </c>
-      <c r="D44" s="484" t="s">
+      <c r="D44" s="487" t="s">
         <v>491</v>
       </c>
     </row>
@@ -16160,8 +16137,8 @@
       <c r="B45" s="196" t="s">
         <v>489</v>
       </c>
-      <c r="C45" s="485"/>
-      <c r="D45" s="485"/>
+      <c r="C45" s="488"/>
+      <c r="D45" s="488"/>
     </row>
     <row r="46" spans="2:12">
       <c r="B46" s="477" t="s">
@@ -16170,7 +16147,7 @@
       <c r="C46" s="191" t="s">
         <v>579</v>
       </c>
-      <c r="D46" s="481" t="s">
+      <c r="D46" s="491" t="s">
         <v>580</v>
       </c>
     </row>
@@ -16179,7 +16156,7 @@
       <c r="C47" s="192" t="s">
         <v>581</v>
       </c>
-      <c r="D47" s="482"/>
+      <c r="D47" s="492"/>
     </row>
     <row r="48" spans="2:12">
       <c r="B48" s="477" t="s">
@@ -16188,7 +16165,7 @@
       <c r="C48" s="191" t="s">
         <v>582</v>
       </c>
-      <c r="D48" s="481" t="s">
+      <c r="D48" s="491" t="s">
         <v>583</v>
       </c>
     </row>
@@ -16197,7 +16174,7 @@
       <c r="C49" s="192" t="s">
         <v>584</v>
       </c>
-      <c r="D49" s="482"/>
+      <c r="D49" s="492"/>
     </row>
     <row r="52" spans="2:17">
       <c r="B52" s="193" t="s">
@@ -16210,92 +16187,92 @@
       </c>
     </row>
     <row r="54" spans="2:17">
-      <c r="B54" s="483" t="s">
+      <c r="B54" s="484" t="s">
         <v>586</v>
       </c>
-      <c r="C54" s="483"/>
-      <c r="D54" s="483"/>
-      <c r="E54" s="483"/>
-      <c r="F54" s="483"/>
-      <c r="G54" s="483"/>
-      <c r="H54" s="483"/>
-      <c r="I54" s="483"/>
-      <c r="J54" s="483"/>
-      <c r="K54" s="483"/>
-      <c r="L54" s="483"/>
-      <c r="M54" s="483"/>
-      <c r="N54" s="483"/>
-      <c r="O54" s="483"/>
-      <c r="P54" s="483"/>
-      <c r="Q54" s="483"/>
+      <c r="C54" s="484"/>
+      <c r="D54" s="484"/>
+      <c r="E54" s="484"/>
+      <c r="F54" s="484"/>
+      <c r="G54" s="484"/>
+      <c r="H54" s="484"/>
+      <c r="I54" s="484"/>
+      <c r="J54" s="484"/>
+      <c r="K54" s="484"/>
+      <c r="L54" s="484"/>
+      <c r="M54" s="484"/>
+      <c r="N54" s="484"/>
+      <c r="O54" s="484"/>
+      <c r="P54" s="484"/>
+      <c r="Q54" s="484"/>
     </row>
     <row r="56" spans="2:17">
-      <c r="B56" s="483" t="s">
+      <c r="B56" s="484" t="s">
         <v>587</v>
       </c>
-      <c r="C56" s="483"/>
-      <c r="D56" s="483"/>
-      <c r="E56" s="483"/>
-      <c r="F56" s="483"/>
-      <c r="G56" s="483"/>
-      <c r="H56" s="483"/>
-      <c r="I56" s="483"/>
-      <c r="J56" s="483"/>
-      <c r="K56" s="483"/>
-      <c r="L56" s="483"/>
-      <c r="M56" s="483"/>
-      <c r="N56" s="483"/>
-      <c r="O56" s="483"/>
-      <c r="P56" s="483"/>
-      <c r="Q56" s="483"/>
+      <c r="C56" s="484"/>
+      <c r="D56" s="484"/>
+      <c r="E56" s="484"/>
+      <c r="F56" s="484"/>
+      <c r="G56" s="484"/>
+      <c r="H56" s="484"/>
+      <c r="I56" s="484"/>
+      <c r="J56" s="484"/>
+      <c r="K56" s="484"/>
+      <c r="L56" s="484"/>
+      <c r="M56" s="484"/>
+      <c r="N56" s="484"/>
+      <c r="O56" s="484"/>
+      <c r="P56" s="484"/>
+      <c r="Q56" s="484"/>
     </row>
     <row r="58" spans="2:17">
       <c r="B58" s="197" t="s">
         <v>588</v>
       </c>
-      <c r="C58" s="488" t="s">
+      <c r="C58" s="489" t="s">
         <v>589</v>
       </c>
-      <c r="D58" s="484" t="s">
+      <c r="D58" s="487" t="s">
         <v>490</v>
       </c>
-      <c r="E58" s="484" t="s">
+      <c r="E58" s="487" t="s">
         <v>491</v>
       </c>
       <c r="F58" s="195" t="s">
         <v>590</v>
       </c>
-      <c r="G58" s="484" t="s">
+      <c r="G58" s="487" t="s">
         <v>490</v>
       </c>
-      <c r="H58" s="484" t="s">
+      <c r="H58" s="487" t="s">
         <v>491</v>
       </c>
       <c r="I58" s="195" t="s">
         <v>590</v>
       </c>
-      <c r="J58" s="484" t="s">
+      <c r="J58" s="487" t="s">
         <v>490</v>
       </c>
-      <c r="K58" s="484" t="s">
+      <c r="K58" s="487" t="s">
         <v>491</v>
       </c>
-      <c r="L58" s="488" t="s">
+      <c r="L58" s="489" t="s">
         <v>591</v>
       </c>
-      <c r="M58" s="484" t="s">
+      <c r="M58" s="487" t="s">
         <v>490</v>
       </c>
-      <c r="N58" s="484" t="s">
+      <c r="N58" s="487" t="s">
         <v>491</v>
       </c>
-      <c r="O58" s="488" t="s">
+      <c r="O58" s="489" t="s">
         <v>592</v>
       </c>
-      <c r="P58" s="484" t="s">
+      <c r="P58" s="487" t="s">
         <v>490</v>
       </c>
-      <c r="Q58" s="484" t="s">
+      <c r="Q58" s="487" t="s">
         <v>491</v>
       </c>
     </row>
@@ -16303,25 +16280,25 @@
       <c r="B59" s="198" t="s">
         <v>593</v>
       </c>
-      <c r="C59" s="489"/>
-      <c r="D59" s="485"/>
-      <c r="E59" s="485"/>
+      <c r="C59" s="490"/>
+      <c r="D59" s="488"/>
+      <c r="E59" s="488"/>
       <c r="F59" s="196" t="s">
         <v>594</v>
       </c>
-      <c r="G59" s="485"/>
-      <c r="H59" s="485"/>
+      <c r="G59" s="488"/>
+      <c r="H59" s="488"/>
       <c r="I59" s="196" t="s">
         <v>595</v>
       </c>
-      <c r="J59" s="485"/>
-      <c r="K59" s="485"/>
-      <c r="L59" s="489"/>
-      <c r="M59" s="485"/>
-      <c r="N59" s="485"/>
-      <c r="O59" s="489"/>
-      <c r="P59" s="485"/>
-      <c r="Q59" s="485"/>
+      <c r="J59" s="488"/>
+      <c r="K59" s="488"/>
+      <c r="L59" s="490"/>
+      <c r="M59" s="488"/>
+      <c r="N59" s="488"/>
+      <c r="O59" s="490"/>
+      <c r="P59" s="488"/>
+      <c r="Q59" s="488"/>
     </row>
     <row r="60" spans="2:17" ht="28.5">
       <c r="B60" s="199" t="s">
@@ -16333,7 +16310,7 @@
       <c r="D60" s="191" t="s">
         <v>597</v>
       </c>
-      <c r="E60" s="479" t="s">
+      <c r="E60" s="482" t="s">
         <v>598</v>
       </c>
       <c r="F60" s="477" t="s">
@@ -16342,7 +16319,7 @@
       <c r="G60" s="191" t="s">
         <v>599</v>
       </c>
-      <c r="H60" s="479" t="s">
+      <c r="H60" s="482" t="s">
         <v>600</v>
       </c>
       <c r="I60" s="477" t="s">
@@ -16351,7 +16328,7 @@
       <c r="J60" s="191" t="s">
         <v>601</v>
       </c>
-      <c r="K60" s="479" t="s">
+      <c r="K60" s="482" t="s">
         <v>602</v>
       </c>
       <c r="L60" s="477" t="s">
@@ -16360,12 +16337,12 @@
       <c r="M60" s="191" t="s">
         <v>603</v>
       </c>
-      <c r="N60" s="479" t="s">
+      <c r="N60" s="482" t="s">
         <v>604</v>
       </c>
-      <c r="O60" s="486"/>
-      <c r="P60" s="490"/>
-      <c r="Q60" s="490"/>
+      <c r="O60" s="485"/>
+      <c r="P60" s="480"/>
+      <c r="Q60" s="480"/>
     </row>
     <row r="61" spans="2:17">
       <c r="B61" s="200" t="s">
@@ -16375,40 +16352,40 @@
       <c r="D61" s="192" t="s">
         <v>606</v>
       </c>
-      <c r="E61" s="480"/>
+      <c r="E61" s="483"/>
       <c r="F61" s="478"/>
       <c r="G61" s="192" t="s">
         <v>607</v>
       </c>
-      <c r="H61" s="480"/>
+      <c r="H61" s="483"/>
       <c r="I61" s="478"/>
       <c r="J61" s="192" t="s">
         <v>608</v>
       </c>
-      <c r="K61" s="480"/>
+      <c r="K61" s="483"/>
       <c r="L61" s="478"/>
       <c r="M61" s="192" t="s">
         <v>609</v>
       </c>
-      <c r="N61" s="480"/>
-      <c r="O61" s="487"/>
-      <c r="P61" s="491"/>
-      <c r="Q61" s="491"/>
+      <c r="N61" s="483"/>
+      <c r="O61" s="486"/>
+      <c r="P61" s="481"/>
+      <c r="Q61" s="481"/>
     </row>
     <row r="62" spans="2:17" ht="28.5">
       <c r="B62" s="199" t="s">
         <v>610</v>
       </c>
-      <c r="C62" s="486"/>
-      <c r="D62" s="490"/>
-      <c r="E62" s="490"/>
+      <c r="C62" s="485"/>
+      <c r="D62" s="480"/>
+      <c r="E62" s="480"/>
       <c r="F62" s="477" t="s">
         <v>23</v>
       </c>
       <c r="G62" s="191" t="s">
         <v>611</v>
       </c>
-      <c r="H62" s="479" t="s">
+      <c r="H62" s="482" t="s">
         <v>612</v>
       </c>
       <c r="I62" s="477" t="s">
@@ -16417,7 +16394,7 @@
       <c r="J62" s="191" t="s">
         <v>613</v>
       </c>
-      <c r="K62" s="479" t="s">
+      <c r="K62" s="482" t="s">
         <v>614</v>
       </c>
       <c r="L62" s="477" t="s">
@@ -16426,7 +16403,7 @@
       <c r="M62" s="191" t="s">
         <v>615</v>
       </c>
-      <c r="N62" s="479" t="s">
+      <c r="N62" s="482" t="s">
         <v>616</v>
       </c>
       <c r="O62" s="477" t="s">
@@ -16435,7 +16412,7 @@
       <c r="P62" s="191" t="s">
         <v>617</v>
       </c>
-      <c r="Q62" s="479" t="s">
+      <c r="Q62" s="482" t="s">
         <v>618</v>
       </c>
     </row>
@@ -16443,29 +16420,29 @@
       <c r="B63" s="200" t="s">
         <v>619</v>
       </c>
-      <c r="C63" s="487"/>
-      <c r="D63" s="491"/>
-      <c r="E63" s="491"/>
+      <c r="C63" s="486"/>
+      <c r="D63" s="481"/>
+      <c r="E63" s="481"/>
       <c r="F63" s="478"/>
       <c r="G63" s="192" t="s">
         <v>620</v>
       </c>
-      <c r="H63" s="480"/>
+      <c r="H63" s="483"/>
       <c r="I63" s="478"/>
       <c r="J63" s="192" t="s">
         <v>621</v>
       </c>
-      <c r="K63" s="480"/>
+      <c r="K63" s="483"/>
       <c r="L63" s="478"/>
       <c r="M63" s="192" t="s">
         <v>622</v>
       </c>
-      <c r="N63" s="480"/>
+      <c r="N63" s="483"/>
       <c r="O63" s="478"/>
       <c r="P63" s="192" t="s">
         <v>623</v>
       </c>
-      <c r="Q63" s="480"/>
+      <c r="Q63" s="483"/>
     </row>
     <row r="64" spans="2:17" ht="28.5">
       <c r="B64" s="199" t="s">
@@ -16477,7 +16454,7 @@
       <c r="D64" s="191" t="s">
         <v>625</v>
       </c>
-      <c r="E64" s="479" t="s">
+      <c r="E64" s="482" t="s">
         <v>626</v>
       </c>
       <c r="F64" s="477" t="s">
@@ -16486,7 +16463,7 @@
       <c r="G64" s="191" t="s">
         <v>627</v>
       </c>
-      <c r="H64" s="479" t="s">
+      <c r="H64" s="482" t="s">
         <v>628</v>
       </c>
       <c r="I64" s="477" t="s">
@@ -16495,7 +16472,7 @@
       <c r="J64" s="191" t="s">
         <v>629</v>
       </c>
-      <c r="K64" s="479" t="s">
+      <c r="K64" s="482" t="s">
         <v>630</v>
       </c>
       <c r="L64" s="477" t="s">
@@ -16504,7 +16481,7 @@
       <c r="M64" s="191" t="s">
         <v>631</v>
       </c>
-      <c r="N64" s="479" t="s">
+      <c r="N64" s="482" t="s">
         <v>632</v>
       </c>
       <c r="O64" s="477" t="s">
@@ -16513,7 +16490,7 @@
       <c r="P64" s="191" t="s">
         <v>633</v>
       </c>
-      <c r="Q64" s="479" t="s">
+      <c r="Q64" s="482" t="s">
         <v>634</v>
       </c>
     </row>
@@ -16525,27 +16502,27 @@
       <c r="D65" s="192" t="s">
         <v>636</v>
       </c>
-      <c r="E65" s="480"/>
+      <c r="E65" s="483"/>
       <c r="F65" s="478"/>
       <c r="G65" s="192" t="s">
         <v>637</v>
       </c>
-      <c r="H65" s="480"/>
+      <c r="H65" s="483"/>
       <c r="I65" s="478"/>
       <c r="J65" s="192" t="s">
         <v>638</v>
       </c>
-      <c r="K65" s="480"/>
+      <c r="K65" s="483"/>
       <c r="L65" s="478"/>
       <c r="M65" s="192" t="s">
         <v>639</v>
       </c>
-      <c r="N65" s="480"/>
+      <c r="N65" s="483"/>
       <c r="O65" s="478"/>
       <c r="P65" s="192" t="s">
         <v>640</v>
       </c>
-      <c r="Q65" s="480"/>
+      <c r="Q65" s="483"/>
     </row>
     <row r="66" spans="2:17" ht="28.5">
       <c r="B66" s="199" t="s">
@@ -16557,7 +16534,7 @@
       <c r="D66" s="191" t="s">
         <v>642</v>
       </c>
-      <c r="E66" s="479" t="s">
+      <c r="E66" s="482" t="s">
         <v>643</v>
       </c>
       <c r="F66" s="477" t="s">
@@ -16566,7 +16543,7 @@
       <c r="G66" s="191" t="s">
         <v>645</v>
       </c>
-      <c r="H66" s="479" t="s">
+      <c r="H66" s="482" t="s">
         <v>646</v>
       </c>
       <c r="I66" s="477" t="s">
@@ -16575,19 +16552,19 @@
       <c r="J66" s="191" t="s">
         <v>648</v>
       </c>
-      <c r="K66" s="479" t="s">
+      <c r="K66" s="482" t="s">
         <v>649</v>
       </c>
-      <c r="L66" s="486"/>
-      <c r="M66" s="490"/>
-      <c r="N66" s="490"/>
+      <c r="L66" s="485"/>
+      <c r="M66" s="480"/>
+      <c r="N66" s="480"/>
       <c r="O66" s="477" t="s">
         <v>50</v>
       </c>
       <c r="P66" s="191" t="s">
         <v>650</v>
       </c>
-      <c r="Q66" s="479" t="s">
+      <c r="Q66" s="482" t="s">
         <v>651</v>
       </c>
     </row>
@@ -16599,46 +16576,135 @@
       <c r="D67" s="192" t="s">
         <v>653</v>
       </c>
-      <c r="E67" s="480"/>
+      <c r="E67" s="483"/>
       <c r="F67" s="478"/>
       <c r="G67" s="192" t="s">
         <v>654</v>
       </c>
-      <c r="H67" s="480"/>
+      <c r="H67" s="483"/>
       <c r="I67" s="478"/>
       <c r="J67" s="192" t="s">
         <v>655</v>
       </c>
-      <c r="K67" s="480"/>
-      <c r="L67" s="487"/>
-      <c r="M67" s="491"/>
-      <c r="N67" s="491"/>
+      <c r="K67" s="483"/>
+      <c r="L67" s="486"/>
+      <c r="M67" s="481"/>
+      <c r="N67" s="481"/>
       <c r="O67" s="478"/>
       <c r="P67" s="192" t="s">
         <v>656</v>
       </c>
-      <c r="Q67" s="480"/>
+      <c r="Q67" s="483"/>
     </row>
   </sheetData>
   <mergeCells count="149">
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="J34:J35"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="Q58:Q59"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="K60:K61"/>
+    <mergeCell ref="L60:L61"/>
+    <mergeCell ref="N60:N61"/>
+    <mergeCell ref="O60:O61"/>
+    <mergeCell ref="K58:K59"/>
+    <mergeCell ref="L58:L59"/>
+    <mergeCell ref="M58:M59"/>
+    <mergeCell ref="N58:N59"/>
+    <mergeCell ref="O58:O59"/>
+    <mergeCell ref="P58:P59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="J58:J59"/>
+    <mergeCell ref="K64:K65"/>
+    <mergeCell ref="L64:L65"/>
+    <mergeCell ref="P60:P61"/>
+    <mergeCell ref="Q60:Q61"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="I62:I63"/>
+    <mergeCell ref="K62:K63"/>
+    <mergeCell ref="L62:L63"/>
     <mergeCell ref="M66:M67"/>
     <mergeCell ref="N66:N67"/>
     <mergeCell ref="O66:O67"/>
@@ -16663,113 +16729,24 @@
     <mergeCell ref="F64:F65"/>
     <mergeCell ref="H64:H65"/>
     <mergeCell ref="I64:I65"/>
-    <mergeCell ref="K64:K65"/>
-    <mergeCell ref="L64:L65"/>
-    <mergeCell ref="P60:P61"/>
-    <mergeCell ref="Q60:Q61"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="I62:I63"/>
-    <mergeCell ref="K62:K63"/>
-    <mergeCell ref="L62:L63"/>
-    <mergeCell ref="Q58:Q59"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="I60:I61"/>
-    <mergeCell ref="K60:K61"/>
-    <mergeCell ref="L60:L61"/>
-    <mergeCell ref="N60:N61"/>
-    <mergeCell ref="O60:O61"/>
-    <mergeCell ref="K58:K59"/>
-    <mergeCell ref="L58:L59"/>
-    <mergeCell ref="M58:M59"/>
-    <mergeCell ref="N58:N59"/>
-    <mergeCell ref="O58:O59"/>
-    <mergeCell ref="P58:P59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="J58:J59"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B42:G42"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="I32:I33"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -17711,7 +17688,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14">
-      <c r="B2" s="496" t="s">
+      <c r="B2" s="497" t="s">
         <v>870</v>
       </c>
       <c r="C2" s="295" t="s">
@@ -17722,26 +17699,26 @@
       </c>
     </row>
     <row r="3" spans="2:14" ht="21" customHeight="1">
-      <c r="B3" s="496"/>
-      <c r="C3" s="497" t="s">
+      <c r="B3" s="497"/>
+      <c r="C3" s="496" t="s">
         <v>873</v>
       </c>
-      <c r="D3" s="497" t="s">
+      <c r="D3" s="496" t="s">
         <v>874</v>
       </c>
     </row>
     <row r="4" spans="2:14" ht="21" customHeight="1">
-      <c r="B4" s="496"/>
-      <c r="C4" s="497"/>
-      <c r="D4" s="497"/>
+      <c r="B4" s="497"/>
+      <c r="C4" s="496"/>
+      <c r="D4" s="496"/>
     </row>
     <row r="5" spans="2:14" ht="21" customHeight="1">
-      <c r="B5" s="496"/>
-      <c r="C5" s="497"/>
-      <c r="D5" s="497"/>
+      <c r="B5" s="497"/>
+      <c r="C5" s="496"/>
+      <c r="D5" s="496"/>
     </row>
     <row r="6" spans="2:14">
-      <c r="B6" s="496"/>
+      <c r="B6" s="497"/>
       <c r="C6" s="298" t="s">
         <v>875</v>
       </c>
@@ -17750,7 +17727,7 @@
       </c>
     </row>
     <row r="9" spans="2:14" s="294" customFormat="1">
-      <c r="B9" s="496" t="s">
+      <c r="B9" s="497" t="s">
         <v>877</v>
       </c>
       <c r="C9" s="295" t="s">
@@ -17791,32 +17768,32 @@
       </c>
     </row>
     <row r="10" spans="2:14" ht="21" customHeight="1">
-      <c r="B10" s="496"/>
-      <c r="C10" s="497" t="s">
+      <c r="B10" s="497"/>
+      <c r="C10" s="496" t="s">
         <v>890</v>
       </c>
-      <c r="D10" s="497" t="s">
+      <c r="D10" s="496" t="s">
         <v>150</v>
       </c>
-      <c r="E10" s="497" t="s">
+      <c r="E10" s="496" t="s">
         <v>891</v>
       </c>
-      <c r="F10" s="497" t="s">
+      <c r="F10" s="496" t="s">
         <v>892</v>
       </c>
-      <c r="G10" s="497" t="s">
+      <c r="G10" s="496" t="s">
         <v>893</v>
       </c>
-      <c r="H10" s="497" t="s">
+      <c r="H10" s="496" t="s">
         <v>894</v>
       </c>
-      <c r="I10" s="497" t="s">
+      <c r="I10" s="496" t="s">
         <v>894</v>
       </c>
-      <c r="J10" s="497" t="s">
+      <c r="J10" s="496" t="s">
         <v>895</v>
       </c>
-      <c r="K10" s="497" t="s">
+      <c r="K10" s="496" t="s">
         <v>895</v>
       </c>
       <c r="L10" s="495" t="s">
@@ -17830,37 +17807,37 @@
       </c>
     </row>
     <row r="11" spans="2:14" ht="21" customHeight="1">
-      <c r="B11" s="496"/>
-      <c r="C11" s="497"/>
-      <c r="D11" s="497"/>
-      <c r="E11" s="497"/>
-      <c r="F11" s="497"/>
-      <c r="G11" s="497"/>
-      <c r="H11" s="497"/>
-      <c r="I11" s="497"/>
-      <c r="J11" s="497"/>
-      <c r="K11" s="497"/>
+      <c r="B11" s="497"/>
+      <c r="C11" s="496"/>
+      <c r="D11" s="496"/>
+      <c r="E11" s="496"/>
+      <c r="F11" s="496"/>
+      <c r="G11" s="496"/>
+      <c r="H11" s="496"/>
+      <c r="I11" s="496"/>
+      <c r="J11" s="496"/>
+      <c r="K11" s="496"/>
       <c r="L11" s="495"/>
       <c r="M11" s="495"/>
       <c r="N11" s="495"/>
     </row>
     <row r="12" spans="2:14" ht="21" customHeight="1">
-      <c r="B12" s="496"/>
-      <c r="C12" s="497"/>
-      <c r="D12" s="497"/>
-      <c r="E12" s="497"/>
-      <c r="F12" s="497"/>
-      <c r="G12" s="497"/>
-      <c r="H12" s="497"/>
-      <c r="I12" s="497"/>
-      <c r="J12" s="497"/>
-      <c r="K12" s="497"/>
+      <c r="B12" s="497"/>
+      <c r="C12" s="496"/>
+      <c r="D12" s="496"/>
+      <c r="E12" s="496"/>
+      <c r="F12" s="496"/>
+      <c r="G12" s="496"/>
+      <c r="H12" s="496"/>
+      <c r="I12" s="496"/>
+      <c r="J12" s="496"/>
+      <c r="K12" s="496"/>
       <c r="L12" s="495"/>
       <c r="M12" s="495"/>
       <c r="N12" s="495"/>
     </row>
     <row r="13" spans="2:14" s="294" customFormat="1">
-      <c r="B13" s="496"/>
+      <c r="B13" s="497"/>
       <c r="C13" s="296" t="s">
         <v>898</v>
       </c>
@@ -17932,39 +17909,39 @@
       <c r="E17" s="495" t="s">
         <v>914</v>
       </c>
-      <c r="F17" s="497"/>
-      <c r="G17" s="497"/>
-      <c r="H17" s="497"/>
-      <c r="I17" s="497"/>
-      <c r="J17" s="497"/>
-      <c r="K17" s="497"/>
-      <c r="L17" s="497"/>
+      <c r="F17" s="496"/>
+      <c r="G17" s="496"/>
+      <c r="H17" s="496"/>
+      <c r="I17" s="496"/>
+      <c r="J17" s="496"/>
+      <c r="K17" s="496"/>
+      <c r="L17" s="496"/>
     </row>
     <row r="18" spans="2:12" ht="21" customHeight="1">
       <c r="B18" s="498"/>
       <c r="C18" s="495"/>
       <c r="D18" s="495"/>
       <c r="E18" s="495"/>
-      <c r="F18" s="497"/>
-      <c r="G18" s="497"/>
-      <c r="H18" s="497"/>
-      <c r="I18" s="497"/>
-      <c r="J18" s="497"/>
-      <c r="K18" s="497"/>
-      <c r="L18" s="497"/>
+      <c r="F18" s="496"/>
+      <c r="G18" s="496"/>
+      <c r="H18" s="496"/>
+      <c r="I18" s="496"/>
+      <c r="J18" s="496"/>
+      <c r="K18" s="496"/>
+      <c r="L18" s="496"/>
     </row>
     <row r="19" spans="2:12" ht="21" customHeight="1">
       <c r="B19" s="498"/>
       <c r="C19" s="495"/>
       <c r="D19" s="495"/>
       <c r="E19" s="495"/>
-      <c r="F19" s="497"/>
-      <c r="G19" s="497"/>
-      <c r="H19" s="497"/>
-      <c r="I19" s="497"/>
-      <c r="J19" s="497"/>
-      <c r="K19" s="497"/>
-      <c r="L19" s="497"/>
+      <c r="F19" s="496"/>
+      <c r="G19" s="496"/>
+      <c r="H19" s="496"/>
+      <c r="I19" s="496"/>
+      <c r="J19" s="496"/>
+      <c r="K19" s="496"/>
+      <c r="L19" s="496"/>
     </row>
     <row r="20" spans="2:12" s="294" customFormat="1">
       <c r="B20" s="498"/>
@@ -17997,50 +17974,50 @@
     </row>
     <row r="24" spans="2:12" ht="21" customHeight="1">
       <c r="B24" s="498"/>
-      <c r="C24" s="497" t="s">
+      <c r="C24" s="496" t="s">
         <v>921</v>
       </c>
-      <c r="D24" s="497" t="s">
+      <c r="D24" s="496" t="s">
         <v>921</v>
       </c>
-      <c r="E24" s="497" t="s">
+      <c r="E24" s="496" t="s">
         <v>922</v>
       </c>
       <c r="F24" s="495" t="s">
         <v>923</v>
       </c>
-      <c r="G24" s="497"/>
-      <c r="H24" s="497"/>
-      <c r="I24" s="497"/>
-      <c r="J24" s="497"/>
-      <c r="K24" s="497"/>
-      <c r="L24" s="497"/>
+      <c r="G24" s="496"/>
+      <c r="H24" s="496"/>
+      <c r="I24" s="496"/>
+      <c r="J24" s="496"/>
+      <c r="K24" s="496"/>
+      <c r="L24" s="496"/>
     </row>
     <row r="25" spans="2:12" ht="21" customHeight="1">
       <c r="B25" s="498"/>
-      <c r="C25" s="497"/>
-      <c r="D25" s="497"/>
-      <c r="E25" s="497"/>
+      <c r="C25" s="496"/>
+      <c r="D25" s="496"/>
+      <c r="E25" s="496"/>
       <c r="F25" s="495"/>
-      <c r="G25" s="497"/>
-      <c r="H25" s="497"/>
-      <c r="I25" s="497"/>
-      <c r="J25" s="497"/>
-      <c r="K25" s="497"/>
-      <c r="L25" s="497"/>
+      <c r="G25" s="496"/>
+      <c r="H25" s="496"/>
+      <c r="I25" s="496"/>
+      <c r="J25" s="496"/>
+      <c r="K25" s="496"/>
+      <c r="L25" s="496"/>
     </row>
     <row r="26" spans="2:12" ht="21" customHeight="1">
       <c r="B26" s="498"/>
-      <c r="C26" s="497"/>
-      <c r="D26" s="497"/>
-      <c r="E26" s="497"/>
+      <c r="C26" s="496"/>
+      <c r="D26" s="496"/>
+      <c r="E26" s="496"/>
       <c r="F26" s="495"/>
-      <c r="G26" s="497"/>
-      <c r="H26" s="497"/>
-      <c r="I26" s="497"/>
-      <c r="J26" s="497"/>
-      <c r="K26" s="497"/>
-      <c r="L26" s="497"/>
+      <c r="G26" s="496"/>
+      <c r="H26" s="496"/>
+      <c r="I26" s="496"/>
+      <c r="J26" s="496"/>
+      <c r="K26" s="496"/>
+      <c r="L26" s="496"/>
     </row>
     <row r="27" spans="2:12" s="294" customFormat="1">
       <c r="B27" s="498"/>
@@ -18070,7 +18047,7 @@
       <c r="F29" s="299"/>
     </row>
     <row r="30" spans="2:12">
-      <c r="B30" s="496" t="s">
+      <c r="B30" s="497" t="s">
         <v>929</v>
       </c>
       <c r="C30" s="295" t="s">
@@ -18087,36 +18064,36 @@
       </c>
     </row>
     <row r="31" spans="2:12" ht="21" customHeight="1">
-      <c r="B31" s="496"/>
-      <c r="C31" s="497" t="s">
+      <c r="B31" s="497"/>
+      <c r="C31" s="496" t="s">
         <v>934</v>
       </c>
-      <c r="D31" s="497" t="s">
+      <c r="D31" s="496" t="s">
         <v>935</v>
       </c>
-      <c r="E31" s="497" t="s">
+      <c r="E31" s="496" t="s">
         <v>936</v>
       </c>
-      <c r="F31" s="497" t="s">
+      <c r="F31" s="496" t="s">
         <v>937</v>
       </c>
     </row>
     <row r="32" spans="2:12" ht="21" customHeight="1">
-      <c r="B32" s="496"/>
-      <c r="C32" s="497"/>
-      <c r="D32" s="497"/>
-      <c r="E32" s="497"/>
-      <c r="F32" s="497"/>
+      <c r="B32" s="497"/>
+      <c r="C32" s="496"/>
+      <c r="D32" s="496"/>
+      <c r="E32" s="496"/>
+      <c r="F32" s="496"/>
     </row>
     <row r="33" spans="2:6" ht="21" customHeight="1">
-      <c r="B33" s="496"/>
-      <c r="C33" s="497"/>
-      <c r="D33" s="497"/>
-      <c r="E33" s="497"/>
-      <c r="F33" s="497"/>
+      <c r="B33" s="497"/>
+      <c r="C33" s="496"/>
+      <c r="D33" s="496"/>
+      <c r="E33" s="496"/>
+      <c r="F33" s="496"/>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="496"/>
+      <c r="B34" s="497"/>
       <c r="C34" s="296" t="s">
         <v>938</v>
       </c>
@@ -18139,7 +18116,7 @@
       <c r="F36" s="299"/>
     </row>
     <row r="37" spans="2:6">
-      <c r="B37" s="496" t="s">
+      <c r="B37" s="497" t="s">
         <v>943</v>
       </c>
       <c r="C37" s="295" t="s">
@@ -18150,26 +18127,26 @@
       </c>
     </row>
     <row r="38" spans="2:6">
-      <c r="B38" s="496"/>
-      <c r="C38" s="497" t="s">
+      <c r="B38" s="497"/>
+      <c r="C38" s="496" t="s">
         <v>946</v>
       </c>
-      <c r="D38" s="497" t="s">
+      <c r="D38" s="496" t="s">
         <v>947</v>
       </c>
     </row>
     <row r="39" spans="2:6">
-      <c r="B39" s="496"/>
-      <c r="C39" s="497"/>
-      <c r="D39" s="497"/>
+      <c r="B39" s="497"/>
+      <c r="C39" s="496"/>
+      <c r="D39" s="496"/>
     </row>
     <row r="40" spans="2:6">
-      <c r="B40" s="496"/>
-      <c r="C40" s="497"/>
-      <c r="D40" s="497"/>
+      <c r="B40" s="497"/>
+      <c r="C40" s="496"/>
+      <c r="D40" s="496"/>
     </row>
     <row r="41" spans="2:6">
-      <c r="B41" s="496"/>
+      <c r="B41" s="497"/>
       <c r="C41" s="321" t="s">
         <v>948</v>
       </c>
@@ -18186,7 +18163,7 @@
       </c>
     </row>
     <row r="45" spans="2:6">
-      <c r="B45" s="496" t="s">
+      <c r="B45" s="497" t="s">
         <v>951</v>
       </c>
       <c r="C45" s="295" t="s">
@@ -18197,26 +18174,26 @@
       </c>
     </row>
     <row r="46" spans="2:6">
-      <c r="B46" s="496"/>
-      <c r="C46" s="497" t="s">
+      <c r="B46" s="497"/>
+      <c r="C46" s="496" t="s">
         <v>954</v>
       </c>
-      <c r="D46" s="497" t="s">
+      <c r="D46" s="496" t="s">
         <v>955</v>
       </c>
     </row>
     <row r="47" spans="2:6">
-      <c r="B47" s="496"/>
-      <c r="C47" s="497"/>
-      <c r="D47" s="497"/>
+      <c r="B47" s="497"/>
+      <c r="C47" s="496"/>
+      <c r="D47" s="496"/>
     </row>
     <row r="48" spans="2:6">
-      <c r="B48" s="496"/>
-      <c r="C48" s="497"/>
-      <c r="D48" s="497"/>
+      <c r="B48" s="497"/>
+      <c r="C48" s="496"/>
+      <c r="D48" s="496"/>
     </row>
     <row r="49" spans="2:18">
-      <c r="B49" s="496"/>
+      <c r="B49" s="497"/>
       <c r="C49" s="296" t="s">
         <v>486</v>
       </c>
@@ -18325,13 +18302,38 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="K54:K56"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="J54:J56"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="D54:D56"/>
-    <mergeCell ref="I54:I56"/>
-    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="M10:M12"/>
+    <mergeCell ref="N10:N12"/>
+    <mergeCell ref="B37:B41"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="F31:F33"/>
+    <mergeCell ref="E31:E33"/>
+    <mergeCell ref="J24:J26"/>
+    <mergeCell ref="K24:K26"/>
+    <mergeCell ref="L24:L26"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="B45:B49"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="C17:C19"/>
     <mergeCell ref="L10:L12"/>
     <mergeCell ref="J10:J12"/>
     <mergeCell ref="D31:D33"/>
@@ -18348,38 +18350,13 @@
     <mergeCell ref="J17:J19"/>
     <mergeCell ref="K17:K19"/>
     <mergeCell ref="K10:K12"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="B45:B49"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="D46:D48"/>
-    <mergeCell ref="B30:B34"/>
-    <mergeCell ref="B16:B20"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="M10:M12"/>
-    <mergeCell ref="N10:N12"/>
-    <mergeCell ref="B37:B41"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="D38:D40"/>
-    <mergeCell ref="F31:F33"/>
-    <mergeCell ref="E31:E33"/>
-    <mergeCell ref="J24:J26"/>
-    <mergeCell ref="K24:K26"/>
-    <mergeCell ref="L24:L26"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="K54:K56"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="J54:J56"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="D54:D56"/>
+    <mergeCell ref="I54:I56"/>
+    <mergeCell ref="E54:E56"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19253,161 +19230,161 @@
   <sheetData>
     <row r="1" spans="2:16" ht="9" hidden="1" customHeight="1" outlineLevel="1"/>
     <row r="2" spans="2:16" s="264" customFormat="1" ht="33" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B2" s="452" t="s">
+      <c r="B2" s="431" t="s">
         <v>657</v>
       </c>
-      <c r="C2" s="452"/>
-      <c r="D2" s="452"/>
-      <c r="E2" s="452" t="s">
+      <c r="C2" s="431"/>
+      <c r="D2" s="431"/>
+      <c r="E2" s="431" t="s">
         <v>658</v>
       </c>
-      <c r="F2" s="452"/>
-      <c r="G2" s="452" t="s">
+      <c r="F2" s="431"/>
+      <c r="G2" s="431" t="s">
         <v>659</v>
       </c>
-      <c r="H2" s="452"/>
-      <c r="I2" s="452" t="s">
+      <c r="H2" s="431"/>
+      <c r="I2" s="431" t="s">
         <v>660</v>
       </c>
-      <c r="J2" s="452"/>
-      <c r="K2" s="452" t="s">
+      <c r="J2" s="431"/>
+      <c r="K2" s="431" t="s">
         <v>661</v>
       </c>
-      <c r="L2" s="452"/>
-      <c r="M2" s="452"/>
-      <c r="N2" s="452"/>
-      <c r="O2" s="452" t="s">
+      <c r="L2" s="431"/>
+      <c r="M2" s="431"/>
+      <c r="N2" s="431"/>
+      <c r="O2" s="431" t="s">
         <v>662</v>
       </c>
-      <c r="P2" s="452"/>
+      <c r="P2" s="431"/>
     </row>
     <row r="3" spans="2:16" s="264" customFormat="1" ht="33" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B3" s="452" t="s">
+      <c r="B3" s="431" t="s">
         <v>663</v>
       </c>
-      <c r="C3" s="452"/>
-      <c r="D3" s="452"/>
-      <c r="E3" s="452" t="s">
+      <c r="C3" s="431"/>
+      <c r="D3" s="431"/>
+      <c r="E3" s="431" t="s">
         <v>658</v>
       </c>
-      <c r="F3" s="452"/>
-      <c r="G3" s="452" t="s">
+      <c r="F3" s="431"/>
+      <c r="G3" s="431" t="s">
         <v>664</v>
       </c>
-      <c r="H3" s="452"/>
-      <c r="I3" s="452" t="s">
+      <c r="H3" s="431"/>
+      <c r="I3" s="431" t="s">
         <v>665</v>
       </c>
-      <c r="J3" s="452"/>
-      <c r="K3" s="452" t="s">
+      <c r="J3" s="431"/>
+      <c r="K3" s="431" t="s">
         <v>666</v>
       </c>
-      <c r="L3" s="452"/>
-      <c r="M3" s="452"/>
-      <c r="N3" s="452"/>
-      <c r="O3" s="452" t="s">
+      <c r="L3" s="431"/>
+      <c r="M3" s="431"/>
+      <c r="N3" s="431"/>
+      <c r="O3" s="431" t="s">
         <v>662</v>
       </c>
-      <c r="P3" s="452"/>
+      <c r="P3" s="431"/>
     </row>
     <row r="4" spans="2:16" s="264" customFormat="1" ht="33" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B4" s="452" t="s">
+      <c r="B4" s="431" t="s">
         <v>667</v>
       </c>
-      <c r="C4" s="452"/>
-      <c r="D4" s="452"/>
-      <c r="E4" s="452" t="s">
+      <c r="C4" s="431"/>
+      <c r="D4" s="431"/>
+      <c r="E4" s="431" t="s">
         <v>658</v>
       </c>
-      <c r="F4" s="452"/>
-      <c r="G4" s="452" t="s">
+      <c r="F4" s="431"/>
+      <c r="G4" s="431" t="s">
         <v>668</v>
       </c>
-      <c r="H4" s="452"/>
-      <c r="I4" s="452" t="s">
+      <c r="H4" s="431"/>
+      <c r="I4" s="431" t="s">
         <v>665</v>
       </c>
-      <c r="J4" s="452"/>
-      <c r="K4" s="452" t="s">
+      <c r="J4" s="431"/>
+      <c r="K4" s="431" t="s">
         <v>669</v>
       </c>
-      <c r="L4" s="452"/>
-      <c r="M4" s="452"/>
-      <c r="N4" s="452"/>
-      <c r="O4" s="452" t="s">
+      <c r="L4" s="431"/>
+      <c r="M4" s="431"/>
+      <c r="N4" s="431"/>
+      <c r="O4" s="431" t="s">
         <v>662</v>
       </c>
-      <c r="P4" s="452"/>
+      <c r="P4" s="431"/>
     </row>
     <row r="5" spans="2:16" s="264" customFormat="1" ht="33" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B5" s="452" t="s">
+      <c r="B5" s="431" t="s">
         <v>670</v>
       </c>
-      <c r="C5" s="452"/>
-      <c r="D5" s="452"/>
-      <c r="E5" s="452" t="s">
+      <c r="C5" s="431"/>
+      <c r="D5" s="431"/>
+      <c r="E5" s="431" t="s">
         <v>671</v>
       </c>
-      <c r="F5" s="452"/>
-      <c r="G5" s="452" t="s">
+      <c r="F5" s="431"/>
+      <c r="G5" s="431" t="s">
         <v>672</v>
       </c>
-      <c r="H5" s="452"/>
-      <c r="I5" s="452" t="s">
+      <c r="H5" s="431"/>
+      <c r="I5" s="431" t="s">
         <v>673</v>
       </c>
-      <c r="J5" s="452"/>
-      <c r="K5" s="452" t="s">
+      <c r="J5" s="431"/>
+      <c r="K5" s="431" t="s">
         <v>672</v>
       </c>
-      <c r="L5" s="452"/>
-      <c r="M5" s="452"/>
-      <c r="N5" s="452"/>
-      <c r="O5" s="452" t="s">
+      <c r="L5" s="431"/>
+      <c r="M5" s="431"/>
+      <c r="N5" s="431"/>
+      <c r="O5" s="431" t="s">
         <v>674</v>
       </c>
-      <c r="P5" s="452"/>
+      <c r="P5" s="431"/>
     </row>
     <row r="6" spans="2:16" ht="9" customHeight="1" collapsed="1"/>
     <row r="7" spans="2:16" ht="69.95" customHeight="1">
-      <c r="B7" s="445" t="s">
+      <c r="B7" s="440" t="s">
         <v>675</v>
       </c>
-      <c r="C7" s="446"/>
-      <c r="D7" s="447"/>
-      <c r="E7" s="448" t="s">
+      <c r="C7" s="441"/>
+      <c r="D7" s="442"/>
+      <c r="E7" s="443" t="s">
         <v>671</v>
       </c>
-      <c r="F7" s="449"/>
-      <c r="G7" s="440" t="s">
+      <c r="F7" s="444"/>
+      <c r="G7" s="432" t="s">
         <v>676</v>
       </c>
-      <c r="H7" s="441"/>
-      <c r="I7" s="450" t="s">
+      <c r="H7" s="433"/>
+      <c r="I7" s="445" t="s">
         <v>677</v>
       </c>
-      <c r="J7" s="451"/>
-      <c r="K7" s="440" t="s">
+      <c r="J7" s="446"/>
+      <c r="K7" s="432" t="s">
         <v>678</v>
       </c>
-      <c r="L7" s="441"/>
-      <c r="M7" s="440" t="s">
+      <c r="L7" s="433"/>
+      <c r="M7" s="432" t="s">
         <v>679</v>
       </c>
-      <c r="N7" s="441"/>
-      <c r="O7" s="440" t="s">
+      <c r="N7" s="433"/>
+      <c r="O7" s="432" t="s">
         <v>680</v>
       </c>
-      <c r="P7" s="441"/>
+      <c r="P7" s="433"/>
     </row>
     <row r="8" spans="2:16" ht="39" customHeight="1">
-      <c r="B8" s="431" t="s">
+      <c r="B8" s="434" t="s">
         <v>681</v>
       </c>
-      <c r="C8" s="442" t="s">
+      <c r="C8" s="435" t="s">
         <v>590</v>
       </c>
-      <c r="D8" s="443" t="s">
+      <c r="D8" s="436" t="s">
         <v>682</v>
       </c>
       <c r="E8" s="265" t="s">
@@ -19440,9 +19417,9 @@
       </c>
     </row>
     <row r="9" spans="2:16" ht="39" customHeight="1">
-      <c r="B9" s="431"/>
-      <c r="C9" s="442"/>
-      <c r="D9" s="443"/>
+      <c r="B9" s="434"/>
+      <c r="C9" s="435"/>
+      <c r="D9" s="436"/>
       <c r="E9" s="269" t="s">
         <v>7</v>
       </c>
@@ -19473,9 +19450,9 @@
       </c>
     </row>
     <row r="10" spans="2:16" ht="39" customHeight="1">
-      <c r="B10" s="431"/>
-      <c r="C10" s="442"/>
-      <c r="D10" s="439" t="s">
+      <c r="B10" s="434"/>
+      <c r="C10" s="435"/>
+      <c r="D10" s="437" t="s">
         <v>690</v>
       </c>
       <c r="E10" s="265" t="s">
@@ -19504,9 +19481,9 @@
       <c r="P10" s="266"/>
     </row>
     <row r="11" spans="2:16" ht="39" customHeight="1">
-      <c r="B11" s="431"/>
-      <c r="C11" s="442"/>
-      <c r="D11" s="439"/>
+      <c r="B11" s="434"/>
+      <c r="C11" s="435"/>
+      <c r="D11" s="437"/>
       <c r="E11" s="269" t="s">
         <v>347</v>
       </c>
@@ -19533,11 +19510,11 @@
       <c r="P11" s="270"/>
     </row>
     <row r="12" spans="2:16" ht="39" customHeight="1">
-      <c r="B12" s="431"/>
-      <c r="C12" s="432" t="s">
+      <c r="B12" s="434"/>
+      <c r="C12" s="438" t="s">
         <v>589</v>
       </c>
-      <c r="D12" s="444" t="s">
+      <c r="D12" s="439" t="s">
         <v>594</v>
       </c>
       <c r="E12" s="265" t="s">
@@ -19562,9 +19539,9 @@
       <c r="P12" s="266"/>
     </row>
     <row r="13" spans="2:16" ht="39" customHeight="1">
-      <c r="B13" s="431"/>
-      <c r="C13" s="432"/>
-      <c r="D13" s="444"/>
+      <c r="B13" s="434"/>
+      <c r="C13" s="438"/>
+      <c r="D13" s="439"/>
       <c r="E13" s="269" t="s">
         <v>697</v>
       </c>
@@ -19587,13 +19564,13 @@
       <c r="P13" s="270"/>
     </row>
     <row r="14" spans="2:16" ht="39" customHeight="1">
-      <c r="B14" s="431" t="s">
+      <c r="B14" s="434" t="s">
         <v>701</v>
       </c>
-      <c r="C14" s="437" t="s">
+      <c r="C14" s="447" t="s">
         <v>590</v>
       </c>
-      <c r="D14" s="433" t="s">
+      <c r="D14" s="448" t="s">
         <v>682</v>
       </c>
       <c r="E14" s="265"/>
@@ -19618,9 +19595,9 @@
       <c r="P14" s="266"/>
     </row>
     <row r="15" spans="2:16" ht="39" customHeight="1">
-      <c r="B15" s="431"/>
-      <c r="C15" s="437"/>
-      <c r="D15" s="433"/>
+      <c r="B15" s="434"/>
+      <c r="C15" s="447"/>
+      <c r="D15" s="448"/>
       <c r="E15" s="269"/>
       <c r="F15" s="270"/>
       <c r="G15" s="271"/>
@@ -19643,9 +19620,9 @@
       <c r="P15" s="270"/>
     </row>
     <row r="16" spans="2:16" ht="39" customHeight="1">
-      <c r="B16" s="431"/>
-      <c r="C16" s="437"/>
-      <c r="D16" s="439" t="s">
+      <c r="B16" s="434"/>
+      <c r="C16" s="447"/>
+      <c r="D16" s="437" t="s">
         <v>690</v>
       </c>
       <c r="E16" s="265"/>
@@ -19670,9 +19647,9 @@
       <c r="P16" s="266"/>
     </row>
     <row r="17" spans="2:17" ht="39" customHeight="1">
-      <c r="B17" s="431"/>
-      <c r="C17" s="437"/>
-      <c r="D17" s="439"/>
+      <c r="B17" s="434"/>
+      <c r="C17" s="447"/>
+      <c r="D17" s="437"/>
       <c r="E17" s="269"/>
       <c r="F17" s="270"/>
       <c r="G17" s="271"/>
@@ -19695,11 +19672,11 @@
       <c r="P17" s="270"/>
     </row>
     <row r="18" spans="2:17" ht="39" customHeight="1">
-      <c r="B18" s="431"/>
-      <c r="C18" s="432" t="s">
+      <c r="B18" s="434"/>
+      <c r="C18" s="438" t="s">
         <v>589</v>
       </c>
-      <c r="D18" s="433" t="s">
+      <c r="D18" s="448" t="s">
         <v>594</v>
       </c>
       <c r="E18" s="265"/>
@@ -19724,9 +19701,9 @@
       <c r="P18" s="266"/>
     </row>
     <row r="19" spans="2:17" ht="39" customHeight="1">
-      <c r="B19" s="431"/>
-      <c r="C19" s="432"/>
-      <c r="D19" s="433"/>
+      <c r="B19" s="434"/>
+      <c r="C19" s="438"/>
+      <c r="D19" s="448"/>
       <c r="E19" s="269"/>
       <c r="F19" s="270"/>
       <c r="G19" s="271"/>
@@ -19749,13 +19726,13 @@
       <c r="P19" s="270"/>
     </row>
     <row r="20" spans="2:17" ht="39" customHeight="1">
-      <c r="B20" s="431" t="s">
+      <c r="B20" s="434" t="s">
         <v>721</v>
       </c>
-      <c r="C20" s="437" t="s">
+      <c r="C20" s="447" t="s">
         <v>590</v>
       </c>
-      <c r="D20" s="433" t="s">
+      <c r="D20" s="448" t="s">
         <v>594</v>
       </c>
       <c r="E20" s="265"/>
@@ -19780,9 +19757,9 @@
       <c r="P20" s="266"/>
     </row>
     <row r="21" spans="2:17" ht="39" customHeight="1">
-      <c r="B21" s="431"/>
-      <c r="C21" s="437"/>
-      <c r="D21" s="433"/>
+      <c r="B21" s="434"/>
+      <c r="C21" s="447"/>
+      <c r="D21" s="448"/>
       <c r="E21" s="269"/>
       <c r="F21" s="270"/>
       <c r="G21" s="271"/>
@@ -19805,9 +19782,9 @@
       <c r="P21" s="270"/>
     </row>
     <row r="22" spans="2:17" ht="39" customHeight="1">
-      <c r="B22" s="431"/>
-      <c r="C22" s="437"/>
-      <c r="D22" s="438" t="s">
+      <c r="B22" s="434"/>
+      <c r="C22" s="447"/>
+      <c r="D22" s="449" t="s">
         <v>595</v>
       </c>
       <c r="E22" s="265"/>
@@ -19828,9 +19805,9 @@
       </c>
     </row>
     <row r="23" spans="2:17" ht="39" customHeight="1">
-      <c r="B23" s="431"/>
-      <c r="C23" s="437"/>
-      <c r="D23" s="438"/>
+      <c r="B23" s="434"/>
+      <c r="C23" s="447"/>
+      <c r="D23" s="449"/>
       <c r="E23" s="269"/>
       <c r="F23" s="270"/>
       <c r="G23" s="271"/>
@@ -19849,13 +19826,13 @@
       </c>
     </row>
     <row r="24" spans="2:17" ht="39" customHeight="1">
-      <c r="B24" s="431" t="s">
+      <c r="B24" s="434" t="s">
         <v>591</v>
       </c>
-      <c r="C24" s="432" t="s">
+      <c r="C24" s="438" t="s">
         <v>589</v>
       </c>
-      <c r="D24" s="433" t="s">
+      <c r="D24" s="448" t="s">
         <v>594</v>
       </c>
       <c r="E24" s="265" t="s">
@@ -19884,9 +19861,9 @@
       <c r="P24" s="266"/>
     </row>
     <row r="25" spans="2:17" ht="39" customHeight="1">
-      <c r="B25" s="431"/>
-      <c r="C25" s="432"/>
-      <c r="D25" s="433"/>
+      <c r="B25" s="434"/>
+      <c r="C25" s="438"/>
+      <c r="D25" s="448"/>
       <c r="E25" s="269" t="s">
         <v>560</v>
       </c>
@@ -19913,13 +19890,13 @@
       <c r="P25" s="270"/>
     </row>
     <row r="26" spans="2:17" ht="39" customHeight="1">
-      <c r="B26" s="431" t="s">
+      <c r="B26" s="434" t="s">
         <v>735</v>
       </c>
-      <c r="C26" s="432" t="s">
+      <c r="C26" s="438" t="s">
         <v>589</v>
       </c>
-      <c r="D26" s="433" t="s">
+      <c r="D26" s="448" t="s">
         <v>594</v>
       </c>
       <c r="E26" s="265"/>
@@ -19940,9 +19917,9 @@
       <c r="P26" s="266"/>
     </row>
     <row r="27" spans="2:17" ht="39" customHeight="1">
-      <c r="B27" s="431"/>
-      <c r="C27" s="432"/>
-      <c r="D27" s="433"/>
+      <c r="B27" s="434"/>
+      <c r="C27" s="438"/>
+      <c r="D27" s="448"/>
       <c r="E27" s="269"/>
       <c r="F27" s="270"/>
       <c r="G27" s="271" t="s">
@@ -19964,23 +19941,23 @@
       <c r="B29" s="273" t="s">
         <v>739</v>
       </c>
-      <c r="C29" s="434" t="s">
+      <c r="C29" s="450" t="s">
         <v>740</v>
       </c>
-      <c r="D29" s="434"/>
-      <c r="E29" s="434"/>
-      <c r="F29" s="434"/>
-      <c r="G29" s="434"/>
-      <c r="H29" s="434"/>
-      <c r="I29" s="434"/>
-      <c r="J29" s="434"/>
-      <c r="K29" s="434"/>
-      <c r="L29" s="434"/>
-      <c r="M29" s="434"/>
-      <c r="N29" s="434"/>
-      <c r="O29" s="434"/>
-      <c r="P29" s="434"/>
-      <c r="Q29" s="434"/>
+      <c r="D29" s="450"/>
+      <c r="E29" s="450"/>
+      <c r="F29" s="450"/>
+      <c r="G29" s="450"/>
+      <c r="H29" s="450"/>
+      <c r="I29" s="450"/>
+      <c r="J29" s="450"/>
+      <c r="K29" s="450"/>
+      <c r="L29" s="450"/>
+      <c r="M29" s="450"/>
+      <c r="N29" s="450"/>
+      <c r="O29" s="450"/>
+      <c r="P29" s="450"/>
+      <c r="Q29" s="450"/>
     </row>
     <row r="30" spans="2:17" s="275" customFormat="1" ht="25.5">
       <c r="B30" s="273"/>
@@ -20024,10 +20001,10 @@
       <c r="B32" s="276" t="s">
         <v>743</v>
       </c>
-      <c r="C32" s="435" t="s">
+      <c r="C32" s="451" t="s">
         <v>744</v>
       </c>
-      <c r="D32" s="436"/>
+      <c r="D32" s="452"/>
     </row>
     <row r="33" spans="2:4" ht="30">
       <c r="B33" s="276" t="s">
@@ -20042,6 +20019,51 @@
     </row>
   </sheetData>
   <mergeCells count="59">
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="C29:Q29"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="E3:F3"/>
@@ -20056,51 +20078,6 @@
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="B14:B19"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="C29:Q29"/>
-    <mergeCell ref="C32:D32"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -24975,66 +24952,66 @@
     </row>
     <row r="2" spans="1:75" s="79" customFormat="1" ht="45" customHeight="1">
       <c r="A2" s="77"/>
-      <c r="B2" s="459" t="s">
+      <c r="B2" s="462" t="s">
         <v>220</v>
       </c>
-      <c r="C2" s="460"/>
-      <c r="D2" s="461"/>
-      <c r="E2" s="459" t="s">
+      <c r="C2" s="463"/>
+      <c r="D2" s="464"/>
+      <c r="E2" s="462" t="s">
         <v>221</v>
       </c>
-      <c r="F2" s="460"/>
-      <c r="G2" s="461"/>
-      <c r="H2" s="456" t="s">
+      <c r="F2" s="463"/>
+      <c r="G2" s="464"/>
+      <c r="H2" s="471" t="s">
         <v>222</v>
       </c>
-      <c r="I2" s="457"/>
-      <c r="J2" s="458"/>
-      <c r="K2" s="456" t="s">
+      <c r="I2" s="472"/>
+      <c r="J2" s="473"/>
+      <c r="K2" s="471" t="s">
         <v>223</v>
       </c>
-      <c r="L2" s="457"/>
-      <c r="M2" s="458"/>
-      <c r="N2" s="462">
+      <c r="L2" s="472"/>
+      <c r="M2" s="473"/>
+      <c r="N2" s="474">
         <v>0.05</v>
       </c>
-      <c r="O2" s="463"/>
-      <c r="P2" s="464"/>
-      <c r="Q2" s="456" t="s">
+      <c r="O2" s="475"/>
+      <c r="P2" s="476"/>
+      <c r="Q2" s="471" t="s">
         <v>224</v>
       </c>
-      <c r="R2" s="457"/>
-      <c r="S2" s="458"/>
-      <c r="T2" s="456" t="s">
+      <c r="R2" s="472"/>
+      <c r="S2" s="473"/>
+      <c r="T2" s="471" t="s">
         <v>225</v>
       </c>
-      <c r="U2" s="457"/>
-      <c r="V2" s="458"/>
-      <c r="W2" s="467" t="s">
+      <c r="U2" s="472"/>
+      <c r="V2" s="473"/>
+      <c r="W2" s="456" t="s">
         <v>226</v>
       </c>
-      <c r="X2" s="468"/>
-      <c r="Y2" s="469"/>
-      <c r="Z2" s="467" t="s">
+      <c r="X2" s="457"/>
+      <c r="Y2" s="458"/>
+      <c r="Z2" s="456" t="s">
         <v>227</v>
       </c>
-      <c r="AA2" s="468"/>
-      <c r="AB2" s="469"/>
-      <c r="AC2" s="467" t="s">
+      <c r="AA2" s="457"/>
+      <c r="AB2" s="458"/>
+      <c r="AC2" s="456" t="s">
         <v>228</v>
       </c>
-      <c r="AD2" s="468"/>
-      <c r="AE2" s="469"/>
-      <c r="AF2" s="470" t="s">
+      <c r="AD2" s="457"/>
+      <c r="AE2" s="458"/>
+      <c r="AF2" s="459" t="s">
         <v>229</v>
       </c>
-      <c r="AG2" s="471"/>
-      <c r="AH2" s="472"/>
-      <c r="AI2" s="470" t="s">
+      <c r="AG2" s="460"/>
+      <c r="AH2" s="461"/>
+      <c r="AI2" s="459" t="s">
         <v>230</v>
       </c>
-      <c r="AJ2" s="471"/>
-      <c r="AK2" s="472"/>
+      <c r="AJ2" s="460"/>
+      <c r="AK2" s="461"/>
       <c r="AL2" s="77"/>
       <c r="AM2" s="77"/>
       <c r="AN2" s="77"/>
@@ -25166,38 +25143,38 @@
       <c r="G4" s="171" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="473" t="s">
+      <c r="H4" s="467" t="s">
         <v>238</v>
       </c>
-      <c r="I4" s="474"/>
+      <c r="I4" s="468"/>
       <c r="J4" s="100" t="s">
         <v>239</v>
       </c>
-      <c r="K4" s="475" t="s">
+      <c r="K4" s="469" t="s">
         <v>240</v>
       </c>
-      <c r="L4" s="476"/>
+      <c r="L4" s="470"/>
       <c r="M4" s="100" t="s">
         <v>241</v>
       </c>
-      <c r="N4" s="473" t="s">
+      <c r="N4" s="467" t="s">
         <v>242</v>
       </c>
-      <c r="O4" s="474"/>
+      <c r="O4" s="468"/>
       <c r="P4" s="100" t="s">
         <v>204</v>
       </c>
-      <c r="Q4" s="475" t="s">
+      <c r="Q4" s="469" t="s">
         <v>243</v>
       </c>
-      <c r="R4" s="476"/>
+      <c r="R4" s="470"/>
       <c r="S4" s="100" t="s">
         <v>202</v>
       </c>
-      <c r="T4" s="473" t="s">
+      <c r="T4" s="467" t="s">
         <v>244</v>
       </c>
-      <c r="U4" s="474"/>
+      <c r="U4" s="468"/>
       <c r="V4" s="100" t="s">
         <v>245</v>
       </c>
@@ -25296,71 +25273,71 @@
     <row r="5" spans="1:75" s="79" customFormat="1" ht="45" customHeight="1">
       <c r="A5" s="77"/>
       <c r="B5" s="77"/>
-      <c r="C5" s="459" t="s">
+      <c r="C5" s="462" t="s">
         <v>246</v>
       </c>
-      <c r="D5" s="460"/>
-      <c r="E5" s="461"/>
-      <c r="F5" s="459" t="s">
+      <c r="D5" s="463"/>
+      <c r="E5" s="464"/>
+      <c r="F5" s="462" t="s">
         <v>247</v>
       </c>
-      <c r="G5" s="460"/>
-      <c r="H5" s="461"/>
-      <c r="I5" s="459" t="s">
+      <c r="G5" s="463"/>
+      <c r="H5" s="464"/>
+      <c r="I5" s="462" t="s">
         <v>248</v>
       </c>
-      <c r="J5" s="460"/>
-      <c r="K5" s="461"/>
-      <c r="L5" s="459" t="s">
+      <c r="J5" s="463"/>
+      <c r="K5" s="464"/>
+      <c r="L5" s="462" t="s">
         <v>249</v>
       </c>
-      <c r="M5" s="460"/>
-      <c r="N5" s="461"/>
-      <c r="O5" s="459" t="s">
+      <c r="M5" s="463"/>
+      <c r="N5" s="464"/>
+      <c r="O5" s="462" t="s">
         <v>26</v>
       </c>
-      <c r="P5" s="460"/>
-      <c r="Q5" s="461"/>
-      <c r="R5" s="459" t="s">
+      <c r="P5" s="463"/>
+      <c r="Q5" s="464"/>
+      <c r="R5" s="462" t="s">
         <v>250</v>
       </c>
-      <c r="S5" s="460"/>
-      <c r="T5" s="461"/>
-      <c r="U5" s="467" t="s">
+      <c r="S5" s="463"/>
+      <c r="T5" s="464"/>
+      <c r="U5" s="456" t="s">
         <v>251</v>
       </c>
-      <c r="V5" s="468"/>
-      <c r="W5" s="469"/>
-      <c r="X5" s="467" t="s">
+      <c r="V5" s="457"/>
+      <c r="W5" s="458"/>
+      <c r="X5" s="456" t="s">
         <v>252</v>
       </c>
-      <c r="Y5" s="468"/>
-      <c r="Z5" s="469"/>
-      <c r="AA5" s="467" t="s">
+      <c r="Y5" s="457"/>
+      <c r="Z5" s="458"/>
+      <c r="AA5" s="456" t="s">
         <v>253</v>
       </c>
-      <c r="AB5" s="468"/>
-      <c r="AC5" s="469"/>
-      <c r="AD5" s="467" t="s">
+      <c r="AB5" s="457"/>
+      <c r="AC5" s="458"/>
+      <c r="AD5" s="456" t="s">
         <v>11</v>
       </c>
-      <c r="AE5" s="468"/>
-      <c r="AF5" s="469"/>
-      <c r="AG5" s="467" t="s">
+      <c r="AE5" s="457"/>
+      <c r="AF5" s="458"/>
+      <c r="AG5" s="456" t="s">
         <v>254</v>
       </c>
-      <c r="AH5" s="468"/>
-      <c r="AI5" s="469"/>
-      <c r="AJ5" s="467" t="s">
+      <c r="AH5" s="457"/>
+      <c r="AI5" s="458"/>
+      <c r="AJ5" s="456" t="s">
         <v>255</v>
       </c>
-      <c r="AK5" s="468"/>
-      <c r="AL5" s="469"/>
-      <c r="AM5" s="470" t="s">
+      <c r="AK5" s="457"/>
+      <c r="AL5" s="458"/>
+      <c r="AM5" s="459" t="s">
         <v>256</v>
       </c>
-      <c r="AN5" s="471"/>
-      <c r="AO5" s="472"/>
+      <c r="AN5" s="460"/>
+      <c r="AO5" s="461"/>
       <c r="AP5" s="77"/>
       <c r="AQ5" s="77"/>
       <c r="AR5" s="78"/>
@@ -25670,61 +25647,61 @@
       <c r="A8" s="77"/>
       <c r="B8" s="77"/>
       <c r="C8" s="110"/>
-      <c r="D8" s="459" t="s">
+      <c r="D8" s="462" t="s">
         <v>259</v>
       </c>
-      <c r="E8" s="460"/>
-      <c r="F8" s="461"/>
-      <c r="G8" s="459" t="s">
+      <c r="E8" s="463"/>
+      <c r="F8" s="464"/>
+      <c r="G8" s="462" t="s">
         <v>260</v>
       </c>
-      <c r="H8" s="460"/>
-      <c r="I8" s="461"/>
-      <c r="J8" s="459" t="s">
+      <c r="H8" s="463"/>
+      <c r="I8" s="464"/>
+      <c r="J8" s="462" t="s">
         <v>261</v>
       </c>
-      <c r="K8" s="460"/>
-      <c r="L8" s="461"/>
-      <c r="M8" s="459" t="s">
+      <c r="K8" s="463"/>
+      <c r="L8" s="464"/>
+      <c r="M8" s="462" t="s">
         <v>262</v>
       </c>
-      <c r="N8" s="460"/>
-      <c r="O8" s="461"/>
-      <c r="P8" s="459" t="s">
+      <c r="N8" s="463"/>
+      <c r="O8" s="464"/>
+      <c r="P8" s="462" t="s">
         <v>263</v>
       </c>
-      <c r="Q8" s="460"/>
-      <c r="R8" s="461"/>
-      <c r="S8" s="459" t="s">
+      <c r="Q8" s="463"/>
+      <c r="R8" s="464"/>
+      <c r="S8" s="462" t="s">
         <v>264</v>
       </c>
-      <c r="T8" s="460"/>
-      <c r="U8" s="461"/>
-      <c r="V8" s="467" t="s">
+      <c r="T8" s="463"/>
+      <c r="U8" s="464"/>
+      <c r="V8" s="456" t="s">
         <v>265</v>
       </c>
-      <c r="W8" s="468"/>
-      <c r="X8" s="469"/>
-      <c r="Y8" s="467" t="s">
+      <c r="W8" s="457"/>
+      <c r="X8" s="458"/>
+      <c r="Y8" s="456" t="s">
         <v>56</v>
       </c>
-      <c r="Z8" s="468"/>
-      <c r="AA8" s="469"/>
-      <c r="AB8" s="467" t="s">
+      <c r="Z8" s="457"/>
+      <c r="AA8" s="458"/>
+      <c r="AB8" s="456" t="s">
         <v>266</v>
       </c>
-      <c r="AC8" s="468"/>
-      <c r="AD8" s="469"/>
-      <c r="AE8" s="467" t="s">
+      <c r="AC8" s="457"/>
+      <c r="AD8" s="458"/>
+      <c r="AE8" s="456" t="s">
         <v>267</v>
       </c>
-      <c r="AF8" s="468"/>
-      <c r="AG8" s="469"/>
-      <c r="AH8" s="470" t="s">
+      <c r="AF8" s="457"/>
+      <c r="AG8" s="458"/>
+      <c r="AH8" s="459" t="s">
         <v>268</v>
       </c>
-      <c r="AI8" s="471"/>
-      <c r="AJ8" s="472"/>
+      <c r="AI8" s="460"/>
+      <c r="AJ8" s="461"/>
       <c r="AK8" s="77"/>
       <c r="AL8" s="77"/>
       <c r="AM8" s="77"/>
@@ -26041,56 +26018,56 @@
       <c r="B11" s="77"/>
       <c r="C11" s="77"/>
       <c r="D11" s="77"/>
-      <c r="E11" s="459" t="s">
+      <c r="E11" s="462" t="s">
         <v>269</v>
       </c>
-      <c r="F11" s="460"/>
-      <c r="G11" s="461"/>
-      <c r="H11" s="459" t="s">
+      <c r="F11" s="463"/>
+      <c r="G11" s="464"/>
+      <c r="H11" s="462" t="s">
         <v>270</v>
       </c>
-      <c r="I11" s="460"/>
-      <c r="J11" s="461"/>
-      <c r="K11" s="459" t="s">
+      <c r="I11" s="463"/>
+      <c r="J11" s="464"/>
+      <c r="K11" s="462" t="s">
         <v>42</v>
       </c>
-      <c r="L11" s="460"/>
-      <c r="M11" s="461"/>
-      <c r="N11" s="459" t="s">
+      <c r="L11" s="463"/>
+      <c r="M11" s="464"/>
+      <c r="N11" s="462" t="s">
         <v>271</v>
       </c>
-      <c r="O11" s="460"/>
-      <c r="P11" s="461"/>
-      <c r="Q11" s="459" t="s">
+      <c r="O11" s="463"/>
+      <c r="P11" s="464"/>
+      <c r="Q11" s="462" t="s">
         <v>272</v>
       </c>
-      <c r="R11" s="460"/>
-      <c r="S11" s="461"/>
-      <c r="T11" s="459" t="s">
+      <c r="R11" s="463"/>
+      <c r="S11" s="464"/>
+      <c r="T11" s="462" t="s">
         <v>273</v>
       </c>
-      <c r="U11" s="460"/>
-      <c r="V11" s="461"/>
-      <c r="W11" s="467" t="s">
+      <c r="U11" s="463"/>
+      <c r="V11" s="464"/>
+      <c r="W11" s="456" t="s">
         <v>274</v>
       </c>
-      <c r="X11" s="468"/>
-      <c r="Y11" s="469"/>
-      <c r="Z11" s="467" t="s">
+      <c r="X11" s="457"/>
+      <c r="Y11" s="458"/>
+      <c r="Z11" s="456" t="s">
         <v>275</v>
       </c>
-      <c r="AA11" s="468"/>
-      <c r="AB11" s="469"/>
-      <c r="AC11" s="467" t="s">
+      <c r="AA11" s="457"/>
+      <c r="AB11" s="458"/>
+      <c r="AC11" s="456" t="s">
         <v>276</v>
       </c>
-      <c r="AD11" s="468"/>
-      <c r="AE11" s="469"/>
-      <c r="AF11" s="470" t="s">
+      <c r="AD11" s="457"/>
+      <c r="AE11" s="458"/>
+      <c r="AF11" s="459" t="s">
         <v>277</v>
       </c>
-      <c r="AG11" s="471"/>
-      <c r="AH11" s="472"/>
+      <c r="AG11" s="460"/>
+      <c r="AH11" s="461"/>
       <c r="AI11" s="77"/>
       <c r="AJ11" s="77"/>
       <c r="AK11" s="77"/>
@@ -32016,6 +31993,52 @@
     </row>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="AI2:AK2"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="U5:W5"/>
+    <mergeCell ref="X5:Z5"/>
+    <mergeCell ref="AA5:AC5"/>
+    <mergeCell ref="AD5:AF5"/>
+    <mergeCell ref="R5:T5"/>
+    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="Y8:AA8"/>
+    <mergeCell ref="AB8:AD8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="AH10:AI10"/>
+    <mergeCell ref="AM5:AO5"/>
+    <mergeCell ref="AG7:AH7"/>
+    <mergeCell ref="AJ7:AK7"/>
+    <mergeCell ref="AM7:AN7"/>
+    <mergeCell ref="AG5:AI5"/>
+    <mergeCell ref="AJ5:AL5"/>
+    <mergeCell ref="AE8:AG8"/>
+    <mergeCell ref="AH8:AJ8"/>
     <mergeCell ref="W11:Y11"/>
     <mergeCell ref="Z11:AB11"/>
     <mergeCell ref="AC11:AE11"/>
@@ -32026,52 +32049,6 @@
     <mergeCell ref="N11:P11"/>
     <mergeCell ref="Q11:S11"/>
     <mergeCell ref="T11:V11"/>
-    <mergeCell ref="AH10:AI10"/>
-    <mergeCell ref="AM5:AO5"/>
-    <mergeCell ref="AG7:AH7"/>
-    <mergeCell ref="AJ7:AK7"/>
-    <mergeCell ref="AM7:AN7"/>
-    <mergeCell ref="AG5:AI5"/>
-    <mergeCell ref="AJ5:AL5"/>
-    <mergeCell ref="AE8:AG8"/>
-    <mergeCell ref="AH8:AJ8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="U5:W5"/>
-    <mergeCell ref="X5:Z5"/>
-    <mergeCell ref="AA5:AC5"/>
-    <mergeCell ref="AD5:AF5"/>
-    <mergeCell ref="R5:T5"/>
-    <mergeCell ref="V8:X8"/>
-    <mergeCell ref="Y8:AA8"/>
-    <mergeCell ref="AB8:AD8"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="T2:V2"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="AI2:AK2"/>
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N2:P2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/鍵盤設計規格_台語135拼音.xlsx
+++ b/docs/鍵盤設計規格_台語135拼音.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\home\alanjui\workspace\rime\rime-tlpa\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F35526F4-7BC8-4517-B99D-2DD05236D61B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{770FCCDC-B824-43F9-9609-947D53EF67A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" tabRatio="703" firstSheet="2" activeTab="9" xr2:uid="{8ADEA2FE-7CD1-466B-8EB5-9AA2577FE19A}"/>
   </bookViews>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2362" uniqueCount="1332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2366" uniqueCount="1336">
   <si>
     <t>(TLPA)</t>
     <phoneticPr fontId="46" type="noConversion"/>
@@ -4362,6 +4362,7 @@
       <rPr>
         <sz val="16"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t>ɔ</t>
     </r>
@@ -4387,6 +4388,7 @@
       <rPr>
         <sz val="16"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t>ɔ</t>
     </r>
@@ -4498,6 +4500,7 @@
       <rPr>
         <sz val="16"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t>ɔ</t>
     </r>
@@ -4547,6 +4550,7 @@
       <rPr>
         <sz val="16"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t>ŋ</t>
     </r>
@@ -4576,6 +4580,7 @@
       <rPr>
         <sz val="16"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t>ɔŋ</t>
     </r>
@@ -4605,6 +4610,7 @@
       <rPr>
         <sz val="16"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t>ŋ</t>
     </r>
@@ -4634,6 +4640,7 @@
       <rPr>
         <sz val="16"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t>ŋ</t>
     </r>
@@ -4871,6 +4878,7 @@
       <rPr>
         <sz val="26"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t>ŋ</t>
     </r>
@@ -5666,6 +5674,18 @@
   </si>
   <si>
     <t>ㄪ</t>
+  </si>
+  <si>
+    <t>ㆴ</t>
+  </si>
+  <si>
+    <t>ㆵ</t>
+  </si>
+  <si>
+    <t>ㆻ</t>
+  </si>
+  <si>
+    <t>ㆷ</t>
   </si>
 </sst>
 </file>
@@ -5709,12 +5729,14 @@
     <font>
       <sz val="20"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <b/>
       <sz val="20"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <b/>
@@ -5771,6 +5793,7 @@
     <font>
       <sz val="18"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="18"/>
@@ -5870,6 +5893,7 @@
       <sz val="18"/>
       <color rgb="FF0070C0"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="18"/>
@@ -5967,6 +5991,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="24"/>
@@ -5998,6 +6023,7 @@
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="9"/>
@@ -6145,6 +6171,7 @@
       <sz val="20"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="18"/>
@@ -6664,6 +6691,7 @@
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="28"/>
@@ -6772,6 +6800,7 @@
     <font>
       <sz val="16"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="18"/>
@@ -6795,6 +6824,7 @@
     <font>
       <sz val="26"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="26"/>
@@ -8868,72 +8898,72 @@
     <xf numFmtId="0" fontId="207" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="114" fillId="11" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="11" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="11" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="26" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="26" borderId="9" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="11" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="11" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="11" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="11" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="11" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="11" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="11" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="11" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="11" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="11" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="11" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="11" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="11" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="11" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="11" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="113" fillId="11" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="113" fillId="11" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="114" fillId="11" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="115" fillId="11" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="116" fillId="11" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="123" fillId="11" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="124" fillId="11" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="116" fillId="11" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="113" fillId="11" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="113" fillId="11" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="113" fillId="11" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="113" fillId="11" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="113" fillId="11" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="113" fillId="11" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="113" fillId="11" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="115" fillId="11" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="125" fillId="11" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="126" fillId="11" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="127" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="125" fillId="26" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="125" fillId="26" borderId="9" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="177" fillId="30" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8943,6 +8973,39 @@
     <xf numFmtId="0" fontId="177" fillId="30" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="3" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="3" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="3" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8961,21 +9024,6 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8988,72 +9036,54 @@
     <xf numFmtId="0" fontId="57" fillId="3" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="3" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="3" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="3" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="89" fillId="21" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="89" fillId="21" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="90" fillId="18" borderId="25" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="18" borderId="26" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="18" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="18" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="20" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="20" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="21" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="21" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="19" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="19" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="18" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="18" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="93" fillId="21" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="88" fillId="18" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="88" fillId="18" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="90" fillId="18" borderId="25" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="90" fillId="18" borderId="26" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="21" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="21" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="20" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="20" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="19" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="19" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="88" fillId="18" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="88" fillId="18" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="96" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -9063,11 +9093,11 @@
     <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
     <xf numFmtId="0" fontId="134" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
@@ -10153,10 +10183,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86FD1CD5-4651-439A-98A6-5245A83D236D}">
-  <dimension ref="B1:AV72"/>
+  <dimension ref="B1:AV75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="32.25" outlineLevelCol="1"/>
@@ -15418,8 +15448,26 @@
       </c>
     </row>
     <row r="72" spans="2:7">
+      <c r="D72" s="18" t="s">
+        <v>1332</v>
+      </c>
       <c r="E72" s="18" t="s">
         <v>1331</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7">
+      <c r="D73" s="18" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7">
+      <c r="D74" s="18" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7">
+      <c r="D75" s="18" t="s">
+        <v>1335</v>
       </c>
     </row>
   </sheetData>
@@ -15447,14 +15495,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7">
-      <c r="B2" s="484" t="s">
+      <c r="B2" s="483" t="s">
         <v>488</v>
       </c>
-      <c r="C2" s="484"/>
-      <c r="D2" s="484"/>
-      <c r="E2" s="484"/>
-      <c r="F2" s="484"/>
-      <c r="G2" s="484"/>
+      <c r="C2" s="483"/>
+      <c r="D2" s="483"/>
+      <c r="E2" s="483"/>
+      <c r="F2" s="483"/>
+      <c r="G2" s="483"/>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="189" t="s">
@@ -15483,16 +15531,16 @@
       <c r="C5" s="191" t="s">
         <v>493</v>
       </c>
-      <c r="D5" s="482" t="s">
+      <c r="D5" s="479" t="s">
         <v>494</v>
       </c>
-      <c r="E5" s="491" t="s">
+      <c r="E5" s="481" t="s">
         <v>79</v>
       </c>
       <c r="F5" s="191" t="s">
         <v>495</v>
       </c>
-      <c r="G5" s="482" t="s">
+      <c r="G5" s="479" t="s">
         <v>496</v>
       </c>
     </row>
@@ -15501,12 +15549,12 @@
       <c r="C6" s="192" t="s">
         <v>497</v>
       </c>
-      <c r="D6" s="483"/>
-      <c r="E6" s="492"/>
+      <c r="D6" s="480"/>
+      <c r="E6" s="482"/>
       <c r="F6" s="192" t="s">
         <v>498</v>
       </c>
-      <c r="G6" s="483"/>
+      <c r="G6" s="480"/>
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="477" t="s">
@@ -15515,16 +15563,16 @@
       <c r="C7" s="191" t="s">
         <v>499</v>
       </c>
-      <c r="D7" s="482" t="s">
+      <c r="D7" s="479" t="s">
         <v>500</v>
       </c>
-      <c r="E7" s="491" t="s">
+      <c r="E7" s="481" t="s">
         <v>82</v>
       </c>
       <c r="F7" s="191" t="s">
         <v>501</v>
       </c>
-      <c r="G7" s="482" t="s">
+      <c r="G7" s="479" t="s">
         <v>502</v>
       </c>
     </row>
@@ -15533,12 +15581,12 @@
       <c r="C8" s="192" t="s">
         <v>503</v>
       </c>
-      <c r="D8" s="483"/>
-      <c r="E8" s="492"/>
+      <c r="D8" s="480"/>
+      <c r="E8" s="482"/>
       <c r="F8" s="192" t="s">
         <v>504</v>
       </c>
-      <c r="G8" s="483"/>
+      <c r="G8" s="480"/>
     </row>
     <row r="9" spans="2:7">
       <c r="B9" s="477" t="s">
@@ -15547,16 +15595,16 @@
       <c r="C9" s="191" t="s">
         <v>505</v>
       </c>
-      <c r="D9" s="482" t="s">
+      <c r="D9" s="479" t="s">
         <v>506</v>
       </c>
-      <c r="E9" s="491" t="s">
+      <c r="E9" s="481" t="s">
         <v>507</v>
       </c>
-      <c r="F9" s="491" t="s">
+      <c r="F9" s="481" t="s">
         <v>507</v>
       </c>
-      <c r="G9" s="491" t="s">
+      <c r="G9" s="481" t="s">
         <v>507</v>
       </c>
     </row>
@@ -15565,10 +15613,10 @@
       <c r="C10" s="192" t="s">
         <v>508</v>
       </c>
-      <c r="D10" s="483"/>
-      <c r="E10" s="492"/>
-      <c r="F10" s="492"/>
-      <c r="G10" s="492"/>
+      <c r="D10" s="480"/>
+      <c r="E10" s="482"/>
+      <c r="F10" s="482"/>
+      <c r="G10" s="482"/>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="477" t="s">
@@ -15577,16 +15625,16 @@
       <c r="C11" s="191" t="s">
         <v>509</v>
       </c>
-      <c r="D11" s="482" t="s">
+      <c r="D11" s="479" t="s">
         <v>510</v>
       </c>
-      <c r="E11" s="491" t="s">
+      <c r="E11" s="481" t="s">
         <v>97</v>
       </c>
       <c r="F11" s="191" t="s">
         <v>511</v>
       </c>
-      <c r="G11" s="482" t="s">
+      <c r="G11" s="479" t="s">
         <v>512</v>
       </c>
     </row>
@@ -15595,12 +15643,12 @@
       <c r="C12" s="192" t="s">
         <v>513</v>
       </c>
-      <c r="D12" s="483"/>
-      <c r="E12" s="492"/>
+      <c r="D12" s="480"/>
+      <c r="E12" s="482"/>
       <c r="F12" s="192" t="s">
         <v>514</v>
       </c>
-      <c r="G12" s="483"/>
+      <c r="G12" s="480"/>
     </row>
     <row r="13" spans="2:7">
       <c r="B13" s="477" t="s">
@@ -15609,16 +15657,16 @@
       <c r="C13" s="191" t="s">
         <v>515</v>
       </c>
-      <c r="D13" s="482" t="s">
+      <c r="D13" s="479" t="s">
         <v>516</v>
       </c>
-      <c r="E13" s="491" t="s">
+      <c r="E13" s="481" t="s">
         <v>507</v>
       </c>
-      <c r="F13" s="491" t="s">
+      <c r="F13" s="481" t="s">
         <v>507</v>
       </c>
-      <c r="G13" s="491" t="s">
+      <c r="G13" s="481" t="s">
         <v>507</v>
       </c>
     </row>
@@ -15627,10 +15675,10 @@
       <c r="C14" s="192" t="s">
         <v>517</v>
       </c>
-      <c r="D14" s="483"/>
-      <c r="E14" s="492"/>
-      <c r="F14" s="492"/>
-      <c r="G14" s="492"/>
+      <c r="D14" s="480"/>
+      <c r="E14" s="482"/>
+      <c r="F14" s="482"/>
+      <c r="G14" s="482"/>
     </row>
     <row r="15" spans="2:7">
       <c r="B15" s="477" t="s">
@@ -15639,16 +15687,16 @@
       <c r="C15" s="191" t="s">
         <v>519</v>
       </c>
-      <c r="D15" s="482" t="s">
+      <c r="D15" s="479" t="s">
         <v>520</v>
       </c>
-      <c r="E15" s="491" t="s">
+      <c r="E15" s="481" t="s">
         <v>105</v>
       </c>
       <c r="F15" s="191" t="s">
         <v>521</v>
       </c>
-      <c r="G15" s="482" t="s">
+      <c r="G15" s="479" t="s">
         <v>522</v>
       </c>
     </row>
@@ -15657,12 +15705,12 @@
       <c r="C16" s="192" t="s">
         <v>523</v>
       </c>
-      <c r="D16" s="483"/>
-      <c r="E16" s="492"/>
+      <c r="D16" s="480"/>
+      <c r="E16" s="482"/>
       <c r="F16" s="192" t="s">
         <v>524</v>
       </c>
-      <c r="G16" s="483"/>
+      <c r="G16" s="480"/>
     </row>
     <row r="17" spans="2:12">
       <c r="B17" s="193" t="s">
@@ -15675,14 +15723,14 @@
       </c>
     </row>
     <row r="19" spans="2:12">
-      <c r="B19" s="484" t="s">
+      <c r="B19" s="483" t="s">
         <v>527</v>
       </c>
-      <c r="C19" s="484"/>
-      <c r="D19" s="484"/>
-      <c r="E19" s="484"/>
-      <c r="F19" s="484"/>
-      <c r="G19" s="484"/>
+      <c r="C19" s="483"/>
+      <c r="D19" s="483"/>
+      <c r="E19" s="483"/>
+      <c r="F19" s="483"/>
+      <c r="G19" s="483"/>
     </row>
     <row r="21" spans="2:12">
       <c r="B21" s="189" t="s">
@@ -15711,19 +15759,19 @@
       <c r="C22" s="191" t="s">
         <v>528</v>
       </c>
-      <c r="D22" s="491" t="s">
+      <c r="D22" s="481" t="s">
         <v>529</v>
       </c>
-      <c r="E22" s="491" t="s">
+      <c r="E22" s="481" t="s">
         <v>530</v>
       </c>
       <c r="F22" s="191" t="s">
         <v>531</v>
       </c>
-      <c r="G22" s="491" t="s">
+      <c r="G22" s="481" t="s">
         <v>529</v>
       </c>
-      <c r="I22" s="479" t="s">
+      <c r="I22" s="492" t="s">
         <v>532</v>
       </c>
       <c r="J22" s="477" t="s">
@@ -15738,12 +15786,12 @@
       <c r="C23" s="192" t="s">
         <v>533</v>
       </c>
-      <c r="D23" s="492"/>
-      <c r="E23" s="492"/>
+      <c r="D23" s="482"/>
+      <c r="E23" s="482"/>
       <c r="F23" s="192" t="s">
         <v>534</v>
       </c>
-      <c r="G23" s="492"/>
+      <c r="G23" s="482"/>
       <c r="I23" s="478"/>
       <c r="J23" s="478"/>
       <c r="L23" t="s">
@@ -15757,19 +15805,19 @@
       <c r="C24" s="191" t="s">
         <v>535</v>
       </c>
-      <c r="D24" s="491" t="s">
+      <c r="D24" s="481" t="s">
         <v>529</v>
       </c>
-      <c r="E24" s="491" t="s">
+      <c r="E24" s="481" t="s">
         <v>507</v>
       </c>
-      <c r="F24" s="491" t="s">
+      <c r="F24" s="481" t="s">
         <v>507</v>
       </c>
-      <c r="G24" s="491" t="s">
+      <c r="G24" s="481" t="s">
         <v>507</v>
       </c>
-      <c r="I24" s="479" t="s">
+      <c r="I24" s="492" t="s">
         <v>536</v>
       </c>
       <c r="J24" s="477" t="s">
@@ -15784,10 +15832,10 @@
       <c r="C25" s="192" t="s">
         <v>537</v>
       </c>
-      <c r="D25" s="492"/>
-      <c r="E25" s="492"/>
-      <c r="F25" s="492"/>
-      <c r="G25" s="492"/>
+      <c r="D25" s="482"/>
+      <c r="E25" s="482"/>
+      <c r="F25" s="482"/>
+      <c r="G25" s="482"/>
       <c r="I25" s="478"/>
       <c r="J25" s="478"/>
       <c r="L25" t="s">
@@ -15801,19 +15849,19 @@
       <c r="C26" s="191" t="s">
         <v>539</v>
       </c>
-      <c r="D26" s="491" t="s">
+      <c r="D26" s="481" t="s">
         <v>529</v>
       </c>
-      <c r="E26" s="491" t="s">
+      <c r="E26" s="481" t="s">
         <v>540</v>
       </c>
       <c r="F26" s="191" t="s">
         <v>541</v>
       </c>
-      <c r="G26" s="491" t="s">
+      <c r="G26" s="481" t="s">
         <v>529</v>
       </c>
-      <c r="I26" s="479" t="s">
+      <c r="I26" s="492" t="s">
         <v>542</v>
       </c>
       <c r="J26" s="477" t="s">
@@ -15828,12 +15876,12 @@
       <c r="C27" s="192" t="s">
         <v>543</v>
       </c>
-      <c r="D27" s="492"/>
-      <c r="E27" s="492"/>
+      <c r="D27" s="482"/>
+      <c r="E27" s="482"/>
       <c r="F27" s="192" t="s">
         <v>544</v>
       </c>
-      <c r="G27" s="492"/>
+      <c r="G27" s="482"/>
       <c r="I27" s="478"/>
       <c r="J27" s="478"/>
       <c r="L27" t="s">
@@ -15847,19 +15895,19 @@
       <c r="C28" s="191" t="s">
         <v>546</v>
       </c>
-      <c r="D28" s="491" t="s">
+      <c r="D28" s="481" t="s">
         <v>529</v>
       </c>
-      <c r="E28" s="491" t="s">
+      <c r="E28" s="481" t="s">
         <v>547</v>
       </c>
       <c r="F28" s="191" t="s">
         <v>548</v>
       </c>
-      <c r="G28" s="491" t="s">
+      <c r="G28" s="481" t="s">
         <v>529</v>
       </c>
-      <c r="I28" s="479" t="str">
+      <c r="I28" s="492" t="str">
         <f xml:space="preserve"> L23 &amp; L24</f>
         <v>ㄧㄨ</v>
       </c>
@@ -15872,12 +15920,12 @@
       <c r="C29" s="192" t="s">
         <v>549</v>
       </c>
-      <c r="D29" s="492"/>
-      <c r="E29" s="492"/>
+      <c r="D29" s="482"/>
+      <c r="E29" s="482"/>
       <c r="F29" s="192" t="s">
         <v>550</v>
       </c>
-      <c r="G29" s="492"/>
+      <c r="G29" s="482"/>
       <c r="I29" s="478"/>
       <c r="J29" s="478"/>
       <c r="L29" t="s">
@@ -15891,16 +15939,16 @@
       <c r="C30" s="191" t="s">
         <v>552</v>
       </c>
-      <c r="D30" s="491" t="s">
+      <c r="D30" s="481" t="s">
         <v>529</v>
       </c>
-      <c r="E30" s="491" t="s">
+      <c r="E30" s="481" t="s">
         <v>553</v>
       </c>
       <c r="F30" s="191" t="s">
         <v>554</v>
       </c>
-      <c r="G30" s="491" t="s">
+      <c r="G30" s="481" t="s">
         <v>529</v>
       </c>
       <c r="I30" s="477" t="str">
@@ -15919,12 +15967,12 @@
       <c r="C31" s="192" t="s">
         <v>555</v>
       </c>
-      <c r="D31" s="492"/>
-      <c r="E31" s="492"/>
+      <c r="D31" s="482"/>
+      <c r="E31" s="482"/>
       <c r="F31" s="192" t="s">
         <v>550</v>
       </c>
-      <c r="G31" s="492"/>
+      <c r="G31" s="482"/>
       <c r="I31" s="478"/>
       <c r="J31" s="478"/>
       <c r="L31" t="s">
@@ -15938,16 +15986,16 @@
       <c r="C32" s="191" t="s">
         <v>557</v>
       </c>
-      <c r="D32" s="491" t="s">
+      <c r="D32" s="481" t="s">
         <v>529</v>
       </c>
-      <c r="E32" s="491" t="s">
+      <c r="E32" s="481" t="s">
         <v>558</v>
       </c>
       <c r="F32" s="191" t="s">
         <v>507</v>
       </c>
-      <c r="G32" s="491" t="s">
+      <c r="G32" s="481" t="s">
         <v>529</v>
       </c>
       <c r="I32" s="477" t="str">
@@ -15963,12 +16011,12 @@
       <c r="C33" s="192" t="s">
         <v>559</v>
       </c>
-      <c r="D33" s="492"/>
-      <c r="E33" s="492"/>
+      <c r="D33" s="482"/>
+      <c r="E33" s="482"/>
       <c r="F33" s="192" t="s">
         <v>507</v>
       </c>
-      <c r="G33" s="492"/>
+      <c r="G33" s="482"/>
       <c r="I33" s="478"/>
       <c r="J33" s="478"/>
       <c r="L33" t="s">
@@ -15982,16 +16030,16 @@
       <c r="C34" s="191" t="s">
         <v>562</v>
       </c>
-      <c r="D34" s="491" t="s">
+      <c r="D34" s="481" t="s">
         <v>529</v>
       </c>
-      <c r="E34" s="491" t="s">
+      <c r="E34" s="481" t="s">
         <v>563</v>
       </c>
       <c r="F34" s="191" t="s">
         <v>564</v>
       </c>
-      <c r="G34" s="491" t="s">
+      <c r="G34" s="481" t="s">
         <v>529</v>
       </c>
       <c r="I34" s="477" t="str">
@@ -16010,12 +16058,12 @@
       <c r="C35" s="192" t="s">
         <v>565</v>
       </c>
-      <c r="D35" s="492"/>
-      <c r="E35" s="492"/>
+      <c r="D35" s="482"/>
+      <c r="E35" s="482"/>
       <c r="F35" s="192" t="s">
         <v>566</v>
       </c>
-      <c r="G35" s="492"/>
+      <c r="G35" s="482"/>
       <c r="I35" s="478"/>
       <c r="J35" s="478"/>
       <c r="L35" t="s">
@@ -16029,16 +16077,16 @@
       <c r="C36" s="191" t="s">
         <v>568</v>
       </c>
-      <c r="D36" s="491" t="s">
+      <c r="D36" s="481" t="s">
         <v>529</v>
       </c>
-      <c r="E36" s="491" t="s">
+      <c r="E36" s="481" t="s">
         <v>507</v>
       </c>
-      <c r="F36" s="491" t="s">
+      <c r="F36" s="481" t="s">
         <v>507</v>
       </c>
-      <c r="G36" s="491" t="s">
+      <c r="G36" s="481" t="s">
         <v>507</v>
       </c>
       <c r="I36" s="477" t="str">
@@ -16054,10 +16102,10 @@
       <c r="C37" s="192" t="s">
         <v>569</v>
       </c>
-      <c r="D37" s="492"/>
-      <c r="E37" s="492"/>
-      <c r="F37" s="492"/>
-      <c r="G37" s="492"/>
+      <c r="D37" s="482"/>
+      <c r="E37" s="482"/>
+      <c r="F37" s="482"/>
+      <c r="G37" s="482"/>
       <c r="I37" s="478"/>
       <c r="J37" s="478"/>
     </row>
@@ -16068,16 +16116,16 @@
       <c r="C38" s="191" t="s">
         <v>571</v>
       </c>
-      <c r="D38" s="491" t="s">
+      <c r="D38" s="481" t="s">
         <v>529</v>
       </c>
-      <c r="E38" s="491" t="s">
+      <c r="E38" s="481" t="s">
         <v>572</v>
       </c>
       <c r="F38" s="191" t="s">
         <v>573</v>
       </c>
-      <c r="G38" s="491" t="s">
+      <c r="G38" s="481" t="s">
         <v>529</v>
       </c>
       <c r="I38" s="477" t="str">
@@ -16093,12 +16141,12 @@
       <c r="C39" s="192" t="s">
         <v>574</v>
       </c>
-      <c r="D39" s="492"/>
-      <c r="E39" s="492"/>
+      <c r="D39" s="482"/>
+      <c r="E39" s="482"/>
       <c r="F39" s="192" t="s">
         <v>575</v>
       </c>
-      <c r="G39" s="492"/>
+      <c r="G39" s="482"/>
       <c r="I39" s="478"/>
       <c r="J39" s="478"/>
     </row>
@@ -16113,23 +16161,23 @@
       </c>
     </row>
     <row r="42" spans="2:12">
-      <c r="B42" s="484" t="s">
+      <c r="B42" s="483" t="s">
         <v>577</v>
       </c>
-      <c r="C42" s="484"/>
-      <c r="D42" s="484"/>
-      <c r="E42" s="484"/>
-      <c r="F42" s="484"/>
-      <c r="G42" s="484"/>
+      <c r="C42" s="483"/>
+      <c r="D42" s="483"/>
+      <c r="E42" s="483"/>
+      <c r="F42" s="483"/>
+      <c r="G42" s="483"/>
     </row>
     <row r="44" spans="2:12">
       <c r="B44" s="195" t="s">
         <v>578</v>
       </c>
-      <c r="C44" s="487" t="s">
+      <c r="C44" s="484" t="s">
         <v>490</v>
       </c>
-      <c r="D44" s="487" t="s">
+      <c r="D44" s="484" t="s">
         <v>491</v>
       </c>
     </row>
@@ -16137,8 +16185,8 @@
       <c r="B45" s="196" t="s">
         <v>489</v>
       </c>
-      <c r="C45" s="488"/>
-      <c r="D45" s="488"/>
+      <c r="C45" s="485"/>
+      <c r="D45" s="485"/>
     </row>
     <row r="46" spans="2:12">
       <c r="B46" s="477" t="s">
@@ -16147,7 +16195,7 @@
       <c r="C46" s="191" t="s">
         <v>579</v>
       </c>
-      <c r="D46" s="491" t="s">
+      <c r="D46" s="481" t="s">
         <v>580</v>
       </c>
     </row>
@@ -16156,7 +16204,7 @@
       <c r="C47" s="192" t="s">
         <v>581</v>
       </c>
-      <c r="D47" s="492"/>
+      <c r="D47" s="482"/>
     </row>
     <row r="48" spans="2:12">
       <c r="B48" s="477" t="s">
@@ -16165,7 +16213,7 @@
       <c r="C48" s="191" t="s">
         <v>582</v>
       </c>
-      <c r="D48" s="491" t="s">
+      <c r="D48" s="481" t="s">
         <v>583</v>
       </c>
     </row>
@@ -16174,7 +16222,7 @@
       <c r="C49" s="192" t="s">
         <v>584</v>
       </c>
-      <c r="D49" s="492"/>
+      <c r="D49" s="482"/>
     </row>
     <row r="52" spans="2:17">
       <c r="B52" s="193" t="s">
@@ -16187,92 +16235,92 @@
       </c>
     </row>
     <row r="54" spans="2:17">
-      <c r="B54" s="484" t="s">
+      <c r="B54" s="483" t="s">
         <v>586</v>
       </c>
-      <c r="C54" s="484"/>
-      <c r="D54" s="484"/>
-      <c r="E54" s="484"/>
-      <c r="F54" s="484"/>
-      <c r="G54" s="484"/>
-      <c r="H54" s="484"/>
-      <c r="I54" s="484"/>
-      <c r="J54" s="484"/>
-      <c r="K54" s="484"/>
-      <c r="L54" s="484"/>
-      <c r="M54" s="484"/>
-      <c r="N54" s="484"/>
-      <c r="O54" s="484"/>
-      <c r="P54" s="484"/>
-      <c r="Q54" s="484"/>
+      <c r="C54" s="483"/>
+      <c r="D54" s="483"/>
+      <c r="E54" s="483"/>
+      <c r="F54" s="483"/>
+      <c r="G54" s="483"/>
+      <c r="H54" s="483"/>
+      <c r="I54" s="483"/>
+      <c r="J54" s="483"/>
+      <c r="K54" s="483"/>
+      <c r="L54" s="483"/>
+      <c r="M54" s="483"/>
+      <c r="N54" s="483"/>
+      <c r="O54" s="483"/>
+      <c r="P54" s="483"/>
+      <c r="Q54" s="483"/>
     </row>
     <row r="56" spans="2:17">
-      <c r="B56" s="484" t="s">
+      <c r="B56" s="483" t="s">
         <v>587</v>
       </c>
-      <c r="C56" s="484"/>
-      <c r="D56" s="484"/>
-      <c r="E56" s="484"/>
-      <c r="F56" s="484"/>
-      <c r="G56" s="484"/>
-      <c r="H56" s="484"/>
-      <c r="I56" s="484"/>
-      <c r="J56" s="484"/>
-      <c r="K56" s="484"/>
-      <c r="L56" s="484"/>
-      <c r="M56" s="484"/>
-      <c r="N56" s="484"/>
-      <c r="O56" s="484"/>
-      <c r="P56" s="484"/>
-      <c r="Q56" s="484"/>
+      <c r="C56" s="483"/>
+      <c r="D56" s="483"/>
+      <c r="E56" s="483"/>
+      <c r="F56" s="483"/>
+      <c r="G56" s="483"/>
+      <c r="H56" s="483"/>
+      <c r="I56" s="483"/>
+      <c r="J56" s="483"/>
+      <c r="K56" s="483"/>
+      <c r="L56" s="483"/>
+      <c r="M56" s="483"/>
+      <c r="N56" s="483"/>
+      <c r="O56" s="483"/>
+      <c r="P56" s="483"/>
+      <c r="Q56" s="483"/>
     </row>
     <row r="58" spans="2:17">
       <c r="B58" s="197" t="s">
         <v>588</v>
       </c>
-      <c r="C58" s="489" t="s">
+      <c r="C58" s="488" t="s">
         <v>589</v>
       </c>
-      <c r="D58" s="487" t="s">
+      <c r="D58" s="484" t="s">
         <v>490</v>
       </c>
-      <c r="E58" s="487" t="s">
+      <c r="E58" s="484" t="s">
         <v>491</v>
       </c>
       <c r="F58" s="195" t="s">
         <v>590</v>
       </c>
-      <c r="G58" s="487" t="s">
+      <c r="G58" s="484" t="s">
         <v>490</v>
       </c>
-      <c r="H58" s="487" t="s">
+      <c r="H58" s="484" t="s">
         <v>491</v>
       </c>
       <c r="I58" s="195" t="s">
         <v>590</v>
       </c>
-      <c r="J58" s="487" t="s">
+      <c r="J58" s="484" t="s">
         <v>490</v>
       </c>
-      <c r="K58" s="487" t="s">
+      <c r="K58" s="484" t="s">
         <v>491</v>
       </c>
-      <c r="L58" s="489" t="s">
+      <c r="L58" s="488" t="s">
         <v>591</v>
       </c>
-      <c r="M58" s="487" t="s">
+      <c r="M58" s="484" t="s">
         <v>490</v>
       </c>
-      <c r="N58" s="487" t="s">
+      <c r="N58" s="484" t="s">
         <v>491</v>
       </c>
-      <c r="O58" s="489" t="s">
+      <c r="O58" s="488" t="s">
         <v>592</v>
       </c>
-      <c r="P58" s="487" t="s">
+      <c r="P58" s="484" t="s">
         <v>490</v>
       </c>
-      <c r="Q58" s="487" t="s">
+      <c r="Q58" s="484" t="s">
         <v>491</v>
       </c>
     </row>
@@ -16280,25 +16328,25 @@
       <c r="B59" s="198" t="s">
         <v>593</v>
       </c>
-      <c r="C59" s="490"/>
-      <c r="D59" s="488"/>
-      <c r="E59" s="488"/>
+      <c r="C59" s="489"/>
+      <c r="D59" s="485"/>
+      <c r="E59" s="485"/>
       <c r="F59" s="196" t="s">
         <v>594</v>
       </c>
-      <c r="G59" s="488"/>
-      <c r="H59" s="488"/>
+      <c r="G59" s="485"/>
+      <c r="H59" s="485"/>
       <c r="I59" s="196" t="s">
         <v>595</v>
       </c>
-      <c r="J59" s="488"/>
-      <c r="K59" s="488"/>
-      <c r="L59" s="490"/>
-      <c r="M59" s="488"/>
-      <c r="N59" s="488"/>
-      <c r="O59" s="490"/>
-      <c r="P59" s="488"/>
-      <c r="Q59" s="488"/>
+      <c r="J59" s="485"/>
+      <c r="K59" s="485"/>
+      <c r="L59" s="489"/>
+      <c r="M59" s="485"/>
+      <c r="N59" s="485"/>
+      <c r="O59" s="489"/>
+      <c r="P59" s="485"/>
+      <c r="Q59" s="485"/>
     </row>
     <row r="60" spans="2:17" ht="28.5">
       <c r="B60" s="199" t="s">
@@ -16310,7 +16358,7 @@
       <c r="D60" s="191" t="s">
         <v>597</v>
       </c>
-      <c r="E60" s="482" t="s">
+      <c r="E60" s="479" t="s">
         <v>598</v>
       </c>
       <c r="F60" s="477" t="s">
@@ -16319,7 +16367,7 @@
       <c r="G60" s="191" t="s">
         <v>599</v>
       </c>
-      <c r="H60" s="482" t="s">
+      <c r="H60" s="479" t="s">
         <v>600</v>
       </c>
       <c r="I60" s="477" t="s">
@@ -16328,7 +16376,7 @@
       <c r="J60" s="191" t="s">
         <v>601</v>
       </c>
-      <c r="K60" s="482" t="s">
+      <c r="K60" s="479" t="s">
         <v>602</v>
       </c>
       <c r="L60" s="477" t="s">
@@ -16337,12 +16385,12 @@
       <c r="M60" s="191" t="s">
         <v>603</v>
       </c>
-      <c r="N60" s="482" t="s">
+      <c r="N60" s="479" t="s">
         <v>604</v>
       </c>
-      <c r="O60" s="485"/>
-      <c r="P60" s="480"/>
-      <c r="Q60" s="480"/>
+      <c r="O60" s="486"/>
+      <c r="P60" s="490"/>
+      <c r="Q60" s="490"/>
     </row>
     <row r="61" spans="2:17">
       <c r="B61" s="200" t="s">
@@ -16352,40 +16400,40 @@
       <c r="D61" s="192" t="s">
         <v>606</v>
       </c>
-      <c r="E61" s="483"/>
+      <c r="E61" s="480"/>
       <c r="F61" s="478"/>
       <c r="G61" s="192" t="s">
         <v>607</v>
       </c>
-      <c r="H61" s="483"/>
+      <c r="H61" s="480"/>
       <c r="I61" s="478"/>
       <c r="J61" s="192" t="s">
         <v>608</v>
       </c>
-      <c r="K61" s="483"/>
+      <c r="K61" s="480"/>
       <c r="L61" s="478"/>
       <c r="M61" s="192" t="s">
         <v>609</v>
       </c>
-      <c r="N61" s="483"/>
-      <c r="O61" s="486"/>
-      <c r="P61" s="481"/>
-      <c r="Q61" s="481"/>
+      <c r="N61" s="480"/>
+      <c r="O61" s="487"/>
+      <c r="P61" s="491"/>
+      <c r="Q61" s="491"/>
     </row>
     <row r="62" spans="2:17" ht="28.5">
       <c r="B62" s="199" t="s">
         <v>610</v>
       </c>
-      <c r="C62" s="485"/>
-      <c r="D62" s="480"/>
-      <c r="E62" s="480"/>
+      <c r="C62" s="486"/>
+      <c r="D62" s="490"/>
+      <c r="E62" s="490"/>
       <c r="F62" s="477" t="s">
         <v>23</v>
       </c>
       <c r="G62" s="191" t="s">
         <v>611</v>
       </c>
-      <c r="H62" s="482" t="s">
+      <c r="H62" s="479" t="s">
         <v>612</v>
       </c>
       <c r="I62" s="477" t="s">
@@ -16394,7 +16442,7 @@
       <c r="J62" s="191" t="s">
         <v>613</v>
       </c>
-      <c r="K62" s="482" t="s">
+      <c r="K62" s="479" t="s">
         <v>614</v>
       </c>
       <c r="L62" s="477" t="s">
@@ -16403,7 +16451,7 @@
       <c r="M62" s="191" t="s">
         <v>615</v>
       </c>
-      <c r="N62" s="482" t="s">
+      <c r="N62" s="479" t="s">
         <v>616</v>
       </c>
       <c r="O62" s="477" t="s">
@@ -16412,7 +16460,7 @@
       <c r="P62" s="191" t="s">
         <v>617</v>
       </c>
-      <c r="Q62" s="482" t="s">
+      <c r="Q62" s="479" t="s">
         <v>618</v>
       </c>
     </row>
@@ -16420,29 +16468,29 @@
       <c r="B63" s="200" t="s">
         <v>619</v>
       </c>
-      <c r="C63" s="486"/>
-      <c r="D63" s="481"/>
-      <c r="E63" s="481"/>
+      <c r="C63" s="487"/>
+      <c r="D63" s="491"/>
+      <c r="E63" s="491"/>
       <c r="F63" s="478"/>
       <c r="G63" s="192" t="s">
         <v>620</v>
       </c>
-      <c r="H63" s="483"/>
+      <c r="H63" s="480"/>
       <c r="I63" s="478"/>
       <c r="J63" s="192" t="s">
         <v>621</v>
       </c>
-      <c r="K63" s="483"/>
+      <c r="K63" s="480"/>
       <c r="L63" s="478"/>
       <c r="M63" s="192" t="s">
         <v>622</v>
       </c>
-      <c r="N63" s="483"/>
+      <c r="N63" s="480"/>
       <c r="O63" s="478"/>
       <c r="P63" s="192" t="s">
         <v>623</v>
       </c>
-      <c r="Q63" s="483"/>
+      <c r="Q63" s="480"/>
     </row>
     <row r="64" spans="2:17" ht="28.5">
       <c r="B64" s="199" t="s">
@@ -16454,7 +16502,7 @@
       <c r="D64" s="191" t="s">
         <v>625</v>
       </c>
-      <c r="E64" s="482" t="s">
+      <c r="E64" s="479" t="s">
         <v>626</v>
       </c>
       <c r="F64" s="477" t="s">
@@ -16463,7 +16511,7 @@
       <c r="G64" s="191" t="s">
         <v>627</v>
       </c>
-      <c r="H64" s="482" t="s">
+      <c r="H64" s="479" t="s">
         <v>628</v>
       </c>
       <c r="I64" s="477" t="s">
@@ -16472,7 +16520,7 @@
       <c r="J64" s="191" t="s">
         <v>629</v>
       </c>
-      <c r="K64" s="482" t="s">
+      <c r="K64" s="479" t="s">
         <v>630</v>
       </c>
       <c r="L64" s="477" t="s">
@@ -16481,7 +16529,7 @@
       <c r="M64" s="191" t="s">
         <v>631</v>
       </c>
-      <c r="N64" s="482" t="s">
+      <c r="N64" s="479" t="s">
         <v>632</v>
       </c>
       <c r="O64" s="477" t="s">
@@ -16490,7 +16538,7 @@
       <c r="P64" s="191" t="s">
         <v>633</v>
       </c>
-      <c r="Q64" s="482" t="s">
+      <c r="Q64" s="479" t="s">
         <v>634</v>
       </c>
     </row>
@@ -16502,27 +16550,27 @@
       <c r="D65" s="192" t="s">
         <v>636</v>
       </c>
-      <c r="E65" s="483"/>
+      <c r="E65" s="480"/>
       <c r="F65" s="478"/>
       <c r="G65" s="192" t="s">
         <v>637</v>
       </c>
-      <c r="H65" s="483"/>
+      <c r="H65" s="480"/>
       <c r="I65" s="478"/>
       <c r="J65" s="192" t="s">
         <v>638</v>
       </c>
-      <c r="K65" s="483"/>
+      <c r="K65" s="480"/>
       <c r="L65" s="478"/>
       <c r="M65" s="192" t="s">
         <v>639</v>
       </c>
-      <c r="N65" s="483"/>
+      <c r="N65" s="480"/>
       <c r="O65" s="478"/>
       <c r="P65" s="192" t="s">
         <v>640</v>
       </c>
-      <c r="Q65" s="483"/>
+      <c r="Q65" s="480"/>
     </row>
     <row r="66" spans="2:17" ht="28.5">
       <c r="B66" s="199" t="s">
@@ -16534,7 +16582,7 @@
       <c r="D66" s="191" t="s">
         <v>642</v>
       </c>
-      <c r="E66" s="482" t="s">
+      <c r="E66" s="479" t="s">
         <v>643</v>
       </c>
       <c r="F66" s="477" t="s">
@@ -16543,7 +16591,7 @@
       <c r="G66" s="191" t="s">
         <v>645</v>
       </c>
-      <c r="H66" s="482" t="s">
+      <c r="H66" s="479" t="s">
         <v>646</v>
       </c>
       <c r="I66" s="477" t="s">
@@ -16552,19 +16600,19 @@
       <c r="J66" s="191" t="s">
         <v>648</v>
       </c>
-      <c r="K66" s="482" t="s">
+      <c r="K66" s="479" t="s">
         <v>649</v>
       </c>
-      <c r="L66" s="485"/>
-      <c r="M66" s="480"/>
-      <c r="N66" s="480"/>
+      <c r="L66" s="486"/>
+      <c r="M66" s="490"/>
+      <c r="N66" s="490"/>
       <c r="O66" s="477" t="s">
         <v>50</v>
       </c>
       <c r="P66" s="191" t="s">
         <v>650</v>
       </c>
-      <c r="Q66" s="482" t="s">
+      <c r="Q66" s="479" t="s">
         <v>651</v>
       </c>
     </row>
@@ -16576,77 +16624,104 @@
       <c r="D67" s="192" t="s">
         <v>653</v>
       </c>
-      <c r="E67" s="483"/>
+      <c r="E67" s="480"/>
       <c r="F67" s="478"/>
       <c r="G67" s="192" t="s">
         <v>654</v>
       </c>
-      <c r="H67" s="483"/>
+      <c r="H67" s="480"/>
       <c r="I67" s="478"/>
       <c r="J67" s="192" t="s">
         <v>655</v>
       </c>
-      <c r="K67" s="483"/>
-      <c r="L67" s="486"/>
-      <c r="M67" s="481"/>
-      <c r="N67" s="481"/>
+      <c r="K67" s="480"/>
+      <c r="L67" s="487"/>
+      <c r="M67" s="491"/>
+      <c r="N67" s="491"/>
       <c r="O67" s="478"/>
       <c r="P67" s="192" t="s">
         <v>656</v>
       </c>
-      <c r="Q67" s="483"/>
+      <c r="Q67" s="480"/>
     </row>
   </sheetData>
   <mergeCells count="149">
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="M66:M67"/>
+    <mergeCell ref="N66:N67"/>
+    <mergeCell ref="O66:O67"/>
+    <mergeCell ref="Q66:Q67"/>
+    <mergeCell ref="B54:Q54"/>
+    <mergeCell ref="B56:Q56"/>
+    <mergeCell ref="N64:N65"/>
+    <mergeCell ref="O64:O65"/>
+    <mergeCell ref="Q64:Q65"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="I66:I67"/>
+    <mergeCell ref="K66:K67"/>
+    <mergeCell ref="L66:L67"/>
+    <mergeCell ref="N62:N63"/>
+    <mergeCell ref="O62:O63"/>
+    <mergeCell ref="Q62:Q63"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="I64:I65"/>
+    <mergeCell ref="K64:K65"/>
+    <mergeCell ref="L64:L65"/>
+    <mergeCell ref="P60:P61"/>
+    <mergeCell ref="Q60:Q61"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="I62:I63"/>
+    <mergeCell ref="K62:K63"/>
+    <mergeCell ref="L62:L63"/>
+    <mergeCell ref="Q58:Q59"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="K60:K61"/>
+    <mergeCell ref="L60:L61"/>
+    <mergeCell ref="N60:N61"/>
+    <mergeCell ref="O60:O61"/>
+    <mergeCell ref="K58:K59"/>
+    <mergeCell ref="L58:L59"/>
+    <mergeCell ref="M58:M59"/>
+    <mergeCell ref="N58:N59"/>
+    <mergeCell ref="O58:O59"/>
+    <mergeCell ref="P58:P59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="J58:J59"/>
     <mergeCell ref="B46:B47"/>
     <mergeCell ref="D46:D47"/>
     <mergeCell ref="B48:B49"/>
@@ -16671,82 +16746,55 @@
     <mergeCell ref="G36:G37"/>
     <mergeCell ref="B30:B31"/>
     <mergeCell ref="D30:D31"/>
-    <mergeCell ref="Q58:Q59"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="I60:I61"/>
-    <mergeCell ref="K60:K61"/>
-    <mergeCell ref="L60:L61"/>
-    <mergeCell ref="N60:N61"/>
-    <mergeCell ref="O60:O61"/>
-    <mergeCell ref="K58:K59"/>
-    <mergeCell ref="L58:L59"/>
-    <mergeCell ref="M58:M59"/>
-    <mergeCell ref="N58:N59"/>
-    <mergeCell ref="O58:O59"/>
-    <mergeCell ref="P58:P59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="J58:J59"/>
-    <mergeCell ref="K64:K65"/>
-    <mergeCell ref="L64:L65"/>
-    <mergeCell ref="P60:P61"/>
-    <mergeCell ref="Q60:Q61"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="I62:I63"/>
-    <mergeCell ref="K62:K63"/>
-    <mergeCell ref="L62:L63"/>
-    <mergeCell ref="M66:M67"/>
-    <mergeCell ref="N66:N67"/>
-    <mergeCell ref="O66:O67"/>
-    <mergeCell ref="Q66:Q67"/>
-    <mergeCell ref="B54:Q54"/>
-    <mergeCell ref="B56:Q56"/>
-    <mergeCell ref="N64:N65"/>
-    <mergeCell ref="O64:O65"/>
-    <mergeCell ref="Q64:Q65"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="I66:I67"/>
-    <mergeCell ref="K66:K67"/>
-    <mergeCell ref="L66:L67"/>
-    <mergeCell ref="N62:N63"/>
-    <mergeCell ref="O62:O63"/>
-    <mergeCell ref="Q62:Q63"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="H64:H65"/>
-    <mergeCell ref="I64:I65"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="J34:J35"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -17688,7 +17736,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14">
-      <c r="B2" s="497" t="s">
+      <c r="B2" s="496" t="s">
         <v>870</v>
       </c>
       <c r="C2" s="295" t="s">
@@ -17699,26 +17747,26 @@
       </c>
     </row>
     <row r="3" spans="2:14" ht="21" customHeight="1">
-      <c r="B3" s="497"/>
-      <c r="C3" s="496" t="s">
+      <c r="B3" s="496"/>
+      <c r="C3" s="497" t="s">
         <v>873</v>
       </c>
-      <c r="D3" s="496" t="s">
+      <c r="D3" s="497" t="s">
         <v>874</v>
       </c>
     </row>
     <row r="4" spans="2:14" ht="21" customHeight="1">
-      <c r="B4" s="497"/>
-      <c r="C4" s="496"/>
-      <c r="D4" s="496"/>
+      <c r="B4" s="496"/>
+      <c r="C4" s="497"/>
+      <c r="D4" s="497"/>
     </row>
     <row r="5" spans="2:14" ht="21" customHeight="1">
-      <c r="B5" s="497"/>
-      <c r="C5" s="496"/>
-      <c r="D5" s="496"/>
+      <c r="B5" s="496"/>
+      <c r="C5" s="497"/>
+      <c r="D5" s="497"/>
     </row>
     <row r="6" spans="2:14">
-      <c r="B6" s="497"/>
+      <c r="B6" s="496"/>
       <c r="C6" s="298" t="s">
         <v>875</v>
       </c>
@@ -17727,7 +17775,7 @@
       </c>
     </row>
     <row r="9" spans="2:14" s="294" customFormat="1">
-      <c r="B9" s="497" t="s">
+      <c r="B9" s="496" t="s">
         <v>877</v>
       </c>
       <c r="C9" s="295" t="s">
@@ -17768,32 +17816,32 @@
       </c>
     </row>
     <row r="10" spans="2:14" ht="21" customHeight="1">
-      <c r="B10" s="497"/>
-      <c r="C10" s="496" t="s">
+      <c r="B10" s="496"/>
+      <c r="C10" s="497" t="s">
         <v>890</v>
       </c>
-      <c r="D10" s="496" t="s">
+      <c r="D10" s="497" t="s">
         <v>150</v>
       </c>
-      <c r="E10" s="496" t="s">
+      <c r="E10" s="497" t="s">
         <v>891</v>
       </c>
-      <c r="F10" s="496" t="s">
+      <c r="F10" s="497" t="s">
         <v>892</v>
       </c>
-      <c r="G10" s="496" t="s">
+      <c r="G10" s="497" t="s">
         <v>893</v>
       </c>
-      <c r="H10" s="496" t="s">
+      <c r="H10" s="497" t="s">
         <v>894</v>
       </c>
-      <c r="I10" s="496" t="s">
+      <c r="I10" s="497" t="s">
         <v>894</v>
       </c>
-      <c r="J10" s="496" t="s">
+      <c r="J10" s="497" t="s">
         <v>895</v>
       </c>
-      <c r="K10" s="496" t="s">
+      <c r="K10" s="497" t="s">
         <v>895</v>
       </c>
       <c r="L10" s="495" t="s">
@@ -17807,37 +17855,37 @@
       </c>
     </row>
     <row r="11" spans="2:14" ht="21" customHeight="1">
-      <c r="B11" s="497"/>
-      <c r="C11" s="496"/>
-      <c r="D11" s="496"/>
-      <c r="E11" s="496"/>
-      <c r="F11" s="496"/>
-      <c r="G11" s="496"/>
-      <c r="H11" s="496"/>
-      <c r="I11" s="496"/>
-      <c r="J11" s="496"/>
-      <c r="K11" s="496"/>
+      <c r="B11" s="496"/>
+      <c r="C11" s="497"/>
+      <c r="D11" s="497"/>
+      <c r="E11" s="497"/>
+      <c r="F11" s="497"/>
+      <c r="G11" s="497"/>
+      <c r="H11" s="497"/>
+      <c r="I11" s="497"/>
+      <c r="J11" s="497"/>
+      <c r="K11" s="497"/>
       <c r="L11" s="495"/>
       <c r="M11" s="495"/>
       <c r="N11" s="495"/>
     </row>
     <row r="12" spans="2:14" ht="21" customHeight="1">
-      <c r="B12" s="497"/>
-      <c r="C12" s="496"/>
-      <c r="D12" s="496"/>
-      <c r="E12" s="496"/>
-      <c r="F12" s="496"/>
-      <c r="G12" s="496"/>
-      <c r="H12" s="496"/>
-      <c r="I12" s="496"/>
-      <c r="J12" s="496"/>
-      <c r="K12" s="496"/>
+      <c r="B12" s="496"/>
+      <c r="C12" s="497"/>
+      <c r="D12" s="497"/>
+      <c r="E12" s="497"/>
+      <c r="F12" s="497"/>
+      <c r="G12" s="497"/>
+      <c r="H12" s="497"/>
+      <c r="I12" s="497"/>
+      <c r="J12" s="497"/>
+      <c r="K12" s="497"/>
       <c r="L12" s="495"/>
       <c r="M12" s="495"/>
       <c r="N12" s="495"/>
     </row>
     <row r="13" spans="2:14" s="294" customFormat="1">
-      <c r="B13" s="497"/>
+      <c r="B13" s="496"/>
       <c r="C13" s="296" t="s">
         <v>898</v>
       </c>
@@ -17909,39 +17957,39 @@
       <c r="E17" s="495" t="s">
         <v>914</v>
       </c>
-      <c r="F17" s="496"/>
-      <c r="G17" s="496"/>
-      <c r="H17" s="496"/>
-      <c r="I17" s="496"/>
-      <c r="J17" s="496"/>
-      <c r="K17" s="496"/>
-      <c r="L17" s="496"/>
+      <c r="F17" s="497"/>
+      <c r="G17" s="497"/>
+      <c r="H17" s="497"/>
+      <c r="I17" s="497"/>
+      <c r="J17" s="497"/>
+      <c r="K17" s="497"/>
+      <c r="L17" s="497"/>
     </row>
     <row r="18" spans="2:12" ht="21" customHeight="1">
       <c r="B18" s="498"/>
       <c r="C18" s="495"/>
       <c r="D18" s="495"/>
       <c r="E18" s="495"/>
-      <c r="F18" s="496"/>
-      <c r="G18" s="496"/>
-      <c r="H18" s="496"/>
-      <c r="I18" s="496"/>
-      <c r="J18" s="496"/>
-      <c r="K18" s="496"/>
-      <c r="L18" s="496"/>
+      <c r="F18" s="497"/>
+      <c r="G18" s="497"/>
+      <c r="H18" s="497"/>
+      <c r="I18" s="497"/>
+      <c r="J18" s="497"/>
+      <c r="K18" s="497"/>
+      <c r="L18" s="497"/>
     </row>
     <row r="19" spans="2:12" ht="21" customHeight="1">
       <c r="B19" s="498"/>
       <c r="C19" s="495"/>
       <c r="D19" s="495"/>
       <c r="E19" s="495"/>
-      <c r="F19" s="496"/>
-      <c r="G19" s="496"/>
-      <c r="H19" s="496"/>
-      <c r="I19" s="496"/>
-      <c r="J19" s="496"/>
-      <c r="K19" s="496"/>
-      <c r="L19" s="496"/>
+      <c r="F19" s="497"/>
+      <c r="G19" s="497"/>
+      <c r="H19" s="497"/>
+      <c r="I19" s="497"/>
+      <c r="J19" s="497"/>
+      <c r="K19" s="497"/>
+      <c r="L19" s="497"/>
     </row>
     <row r="20" spans="2:12" s="294" customFormat="1">
       <c r="B20" s="498"/>
@@ -17974,50 +18022,50 @@
     </row>
     <row r="24" spans="2:12" ht="21" customHeight="1">
       <c r="B24" s="498"/>
-      <c r="C24" s="496" t="s">
+      <c r="C24" s="497" t="s">
         <v>921</v>
       </c>
-      <c r="D24" s="496" t="s">
+      <c r="D24" s="497" t="s">
         <v>921</v>
       </c>
-      <c r="E24" s="496" t="s">
+      <c r="E24" s="497" t="s">
         <v>922</v>
       </c>
       <c r="F24" s="495" t="s">
         <v>923</v>
       </c>
-      <c r="G24" s="496"/>
-      <c r="H24" s="496"/>
-      <c r="I24" s="496"/>
-      <c r="J24" s="496"/>
-      <c r="K24" s="496"/>
-      <c r="L24" s="496"/>
+      <c r="G24" s="497"/>
+      <c r="H24" s="497"/>
+      <c r="I24" s="497"/>
+      <c r="J24" s="497"/>
+      <c r="K24" s="497"/>
+      <c r="L24" s="497"/>
     </row>
     <row r="25" spans="2:12" ht="21" customHeight="1">
       <c r="B25" s="498"/>
-      <c r="C25" s="496"/>
-      <c r="D25" s="496"/>
-      <c r="E25" s="496"/>
+      <c r="C25" s="497"/>
+      <c r="D25" s="497"/>
+      <c r="E25" s="497"/>
       <c r="F25" s="495"/>
-      <c r="G25" s="496"/>
-      <c r="H25" s="496"/>
-      <c r="I25" s="496"/>
-      <c r="J25" s="496"/>
-      <c r="K25" s="496"/>
-      <c r="L25" s="496"/>
+      <c r="G25" s="497"/>
+      <c r="H25" s="497"/>
+      <c r="I25" s="497"/>
+      <c r="J25" s="497"/>
+      <c r="K25" s="497"/>
+      <c r="L25" s="497"/>
     </row>
     <row r="26" spans="2:12" ht="21" customHeight="1">
       <c r="B26" s="498"/>
-      <c r="C26" s="496"/>
-      <c r="D26" s="496"/>
-      <c r="E26" s="496"/>
+      <c r="C26" s="497"/>
+      <c r="D26" s="497"/>
+      <c r="E26" s="497"/>
       <c r="F26" s="495"/>
-      <c r="G26" s="496"/>
-      <c r="H26" s="496"/>
-      <c r="I26" s="496"/>
-      <c r="J26" s="496"/>
-      <c r="K26" s="496"/>
-      <c r="L26" s="496"/>
+      <c r="G26" s="497"/>
+      <c r="H26" s="497"/>
+      <c r="I26" s="497"/>
+      <c r="J26" s="497"/>
+      <c r="K26" s="497"/>
+      <c r="L26" s="497"/>
     </row>
     <row r="27" spans="2:12" s="294" customFormat="1">
       <c r="B27" s="498"/>
@@ -18047,7 +18095,7 @@
       <c r="F29" s="299"/>
     </row>
     <row r="30" spans="2:12">
-      <c r="B30" s="497" t="s">
+      <c r="B30" s="496" t="s">
         <v>929</v>
       </c>
       <c r="C30" s="295" t="s">
@@ -18064,36 +18112,36 @@
       </c>
     </row>
     <row r="31" spans="2:12" ht="21" customHeight="1">
-      <c r="B31" s="497"/>
-      <c r="C31" s="496" t="s">
+      <c r="B31" s="496"/>
+      <c r="C31" s="497" t="s">
         <v>934</v>
       </c>
-      <c r="D31" s="496" t="s">
+      <c r="D31" s="497" t="s">
         <v>935</v>
       </c>
-      <c r="E31" s="496" t="s">
+      <c r="E31" s="497" t="s">
         <v>936</v>
       </c>
-      <c r="F31" s="496" t="s">
+      <c r="F31" s="497" t="s">
         <v>937</v>
       </c>
     </row>
     <row r="32" spans="2:12" ht="21" customHeight="1">
-      <c r="B32" s="497"/>
-      <c r="C32" s="496"/>
-      <c r="D32" s="496"/>
-      <c r="E32" s="496"/>
-      <c r="F32" s="496"/>
+      <c r="B32" s="496"/>
+      <c r="C32" s="497"/>
+      <c r="D32" s="497"/>
+      <c r="E32" s="497"/>
+      <c r="F32" s="497"/>
     </row>
     <row r="33" spans="2:6" ht="21" customHeight="1">
-      <c r="B33" s="497"/>
-      <c r="C33" s="496"/>
-      <c r="D33" s="496"/>
-      <c r="E33" s="496"/>
-      <c r="F33" s="496"/>
+      <c r="B33" s="496"/>
+      <c r="C33" s="497"/>
+      <c r="D33" s="497"/>
+      <c r="E33" s="497"/>
+      <c r="F33" s="497"/>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="497"/>
+      <c r="B34" s="496"/>
       <c r="C34" s="296" t="s">
         <v>938</v>
       </c>
@@ -18116,7 +18164,7 @@
       <c r="F36" s="299"/>
     </row>
     <row r="37" spans="2:6">
-      <c r="B37" s="497" t="s">
+      <c r="B37" s="496" t="s">
         <v>943</v>
       </c>
       <c r="C37" s="295" t="s">
@@ -18127,26 +18175,26 @@
       </c>
     </row>
     <row r="38" spans="2:6">
-      <c r="B38" s="497"/>
-      <c r="C38" s="496" t="s">
+      <c r="B38" s="496"/>
+      <c r="C38" s="497" t="s">
         <v>946</v>
       </c>
-      <c r="D38" s="496" t="s">
+      <c r="D38" s="497" t="s">
         <v>947</v>
       </c>
     </row>
     <row r="39" spans="2:6">
-      <c r="B39" s="497"/>
-      <c r="C39" s="496"/>
-      <c r="D39" s="496"/>
+      <c r="B39" s="496"/>
+      <c r="C39" s="497"/>
+      <c r="D39" s="497"/>
     </row>
     <row r="40" spans="2:6">
-      <c r="B40" s="497"/>
-      <c r="C40" s="496"/>
-      <c r="D40" s="496"/>
+      <c r="B40" s="496"/>
+      <c r="C40" s="497"/>
+      <c r="D40" s="497"/>
     </row>
     <row r="41" spans="2:6">
-      <c r="B41" s="497"/>
+      <c r="B41" s="496"/>
       <c r="C41" s="321" t="s">
         <v>948</v>
       </c>
@@ -18163,7 +18211,7 @@
       </c>
     </row>
     <row r="45" spans="2:6">
-      <c r="B45" s="497" t="s">
+      <c r="B45" s="496" t="s">
         <v>951</v>
       </c>
       <c r="C45" s="295" t="s">
@@ -18174,26 +18222,26 @@
       </c>
     </row>
     <row r="46" spans="2:6">
-      <c r="B46" s="497"/>
-      <c r="C46" s="496" t="s">
+      <c r="B46" s="496"/>
+      <c r="C46" s="497" t="s">
         <v>954</v>
       </c>
-      <c r="D46" s="496" t="s">
+      <c r="D46" s="497" t="s">
         <v>955</v>
       </c>
     </row>
     <row r="47" spans="2:6">
-      <c r="B47" s="497"/>
-      <c r="C47" s="496"/>
-      <c r="D47" s="496"/>
+      <c r="B47" s="496"/>
+      <c r="C47" s="497"/>
+      <c r="D47" s="497"/>
     </row>
     <row r="48" spans="2:6">
-      <c r="B48" s="497"/>
-      <c r="C48" s="496"/>
-      <c r="D48" s="496"/>
+      <c r="B48" s="496"/>
+      <c r="C48" s="497"/>
+      <c r="D48" s="497"/>
     </row>
     <row r="49" spans="2:18">
-      <c r="B49" s="497"/>
+      <c r="B49" s="496"/>
       <c r="C49" s="296" t="s">
         <v>486</v>
       </c>
@@ -18302,6 +18350,45 @@
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="K54:K56"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="J54:J56"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="D54:D56"/>
+    <mergeCell ref="I54:I56"/>
+    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="L10:L12"/>
+    <mergeCell ref="J10:J12"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="H24:H26"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="L17:L19"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="K17:K19"/>
+    <mergeCell ref="K10:K12"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="B45:B49"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="C17:C19"/>
     <mergeCell ref="M10:M12"/>
     <mergeCell ref="N10:N12"/>
     <mergeCell ref="B37:B41"/>
@@ -18318,45 +18405,6 @@
     <mergeCell ref="E10:E12"/>
     <mergeCell ref="F10:F12"/>
     <mergeCell ref="E17:E19"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="B45:B49"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="D46:D48"/>
-    <mergeCell ref="B30:B34"/>
-    <mergeCell ref="B16:B20"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="L10:L12"/>
-    <mergeCell ref="J10:J12"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="H24:H26"/>
-    <mergeCell ref="I24:I26"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="L17:L19"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="K17:K19"/>
-    <mergeCell ref="K10:K12"/>
-    <mergeCell ref="K54:K56"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="J54:J56"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="D54:D56"/>
-    <mergeCell ref="I54:I56"/>
-    <mergeCell ref="E54:E56"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19230,161 +19278,161 @@
   <sheetData>
     <row r="1" spans="2:16" ht="9" hidden="1" customHeight="1" outlineLevel="1"/>
     <row r="2" spans="2:16" s="264" customFormat="1" ht="33" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B2" s="431" t="s">
+      <c r="B2" s="452" t="s">
         <v>657</v>
       </c>
-      <c r="C2" s="431"/>
-      <c r="D2" s="431"/>
-      <c r="E2" s="431" t="s">
+      <c r="C2" s="452"/>
+      <c r="D2" s="452"/>
+      <c r="E2" s="452" t="s">
         <v>658</v>
       </c>
-      <c r="F2" s="431"/>
-      <c r="G2" s="431" t="s">
+      <c r="F2" s="452"/>
+      <c r="G2" s="452" t="s">
         <v>659</v>
       </c>
-      <c r="H2" s="431"/>
-      <c r="I2" s="431" t="s">
+      <c r="H2" s="452"/>
+      <c r="I2" s="452" t="s">
         <v>660</v>
       </c>
-      <c r="J2" s="431"/>
-      <c r="K2" s="431" t="s">
+      <c r="J2" s="452"/>
+      <c r="K2" s="452" t="s">
         <v>661</v>
       </c>
-      <c r="L2" s="431"/>
-      <c r="M2" s="431"/>
-      <c r="N2" s="431"/>
-      <c r="O2" s="431" t="s">
+      <c r="L2" s="452"/>
+      <c r="M2" s="452"/>
+      <c r="N2" s="452"/>
+      <c r="O2" s="452" t="s">
         <v>662</v>
       </c>
-      <c r="P2" s="431"/>
+      <c r="P2" s="452"/>
     </row>
     <row r="3" spans="2:16" s="264" customFormat="1" ht="33" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B3" s="431" t="s">
+      <c r="B3" s="452" t="s">
         <v>663</v>
       </c>
-      <c r="C3" s="431"/>
-      <c r="D3" s="431"/>
-      <c r="E3" s="431" t="s">
+      <c r="C3" s="452"/>
+      <c r="D3" s="452"/>
+      <c r="E3" s="452" t="s">
         <v>658</v>
       </c>
-      <c r="F3" s="431"/>
-      <c r="G3" s="431" t="s">
+      <c r="F3" s="452"/>
+      <c r="G3" s="452" t="s">
         <v>664</v>
       </c>
-      <c r="H3" s="431"/>
-      <c r="I3" s="431" t="s">
+      <c r="H3" s="452"/>
+      <c r="I3" s="452" t="s">
         <v>665</v>
       </c>
-      <c r="J3" s="431"/>
-      <c r="K3" s="431" t="s">
+      <c r="J3" s="452"/>
+      <c r="K3" s="452" t="s">
         <v>666</v>
       </c>
-      <c r="L3" s="431"/>
-      <c r="M3" s="431"/>
-      <c r="N3" s="431"/>
-      <c r="O3" s="431" t="s">
+      <c r="L3" s="452"/>
+      <c r="M3" s="452"/>
+      <c r="N3" s="452"/>
+      <c r="O3" s="452" t="s">
         <v>662</v>
       </c>
-      <c r="P3" s="431"/>
+      <c r="P3" s="452"/>
     </row>
     <row r="4" spans="2:16" s="264" customFormat="1" ht="33" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B4" s="431" t="s">
+      <c r="B4" s="452" t="s">
         <v>667</v>
       </c>
-      <c r="C4" s="431"/>
-      <c r="D4" s="431"/>
-      <c r="E4" s="431" t="s">
+      <c r="C4" s="452"/>
+      <c r="D4" s="452"/>
+      <c r="E4" s="452" t="s">
         <v>658</v>
       </c>
-      <c r="F4" s="431"/>
-      <c r="G4" s="431" t="s">
+      <c r="F4" s="452"/>
+      <c r="G4" s="452" t="s">
         <v>668</v>
       </c>
-      <c r="H4" s="431"/>
-      <c r="I4" s="431" t="s">
+      <c r="H4" s="452"/>
+      <c r="I4" s="452" t="s">
         <v>665</v>
       </c>
-      <c r="J4" s="431"/>
-      <c r="K4" s="431" t="s">
+      <c r="J4" s="452"/>
+      <c r="K4" s="452" t="s">
         <v>669</v>
       </c>
-      <c r="L4" s="431"/>
-      <c r="M4" s="431"/>
-      <c r="N4" s="431"/>
-      <c r="O4" s="431" t="s">
+      <c r="L4" s="452"/>
+      <c r="M4" s="452"/>
+      <c r="N4" s="452"/>
+      <c r="O4" s="452" t="s">
         <v>662</v>
       </c>
-      <c r="P4" s="431"/>
+      <c r="P4" s="452"/>
     </row>
     <row r="5" spans="2:16" s="264" customFormat="1" ht="33" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B5" s="431" t="s">
+      <c r="B5" s="452" t="s">
         <v>670</v>
       </c>
-      <c r="C5" s="431"/>
-      <c r="D5" s="431"/>
-      <c r="E5" s="431" t="s">
+      <c r="C5" s="452"/>
+      <c r="D5" s="452"/>
+      <c r="E5" s="452" t="s">
         <v>671</v>
       </c>
-      <c r="F5" s="431"/>
-      <c r="G5" s="431" t="s">
+      <c r="F5" s="452"/>
+      <c r="G5" s="452" t="s">
         <v>672</v>
       </c>
-      <c r="H5" s="431"/>
-      <c r="I5" s="431" t="s">
+      <c r="H5" s="452"/>
+      <c r="I5" s="452" t="s">
         <v>673</v>
       </c>
-      <c r="J5" s="431"/>
-      <c r="K5" s="431" t="s">
+      <c r="J5" s="452"/>
+      <c r="K5" s="452" t="s">
         <v>672</v>
       </c>
-      <c r="L5" s="431"/>
-      <c r="M5" s="431"/>
-      <c r="N5" s="431"/>
-      <c r="O5" s="431" t="s">
+      <c r="L5" s="452"/>
+      <c r="M5" s="452"/>
+      <c r="N5" s="452"/>
+      <c r="O5" s="452" t="s">
         <v>674</v>
       </c>
-      <c r="P5" s="431"/>
+      <c r="P5" s="452"/>
     </row>
     <row r="6" spans="2:16" ht="9" customHeight="1" collapsed="1"/>
     <row r="7" spans="2:16" ht="69.95" customHeight="1">
-      <c r="B7" s="440" t="s">
+      <c r="B7" s="445" t="s">
         <v>675</v>
       </c>
-      <c r="C7" s="441"/>
-      <c r="D7" s="442"/>
-      <c r="E7" s="443" t="s">
+      <c r="C7" s="446"/>
+      <c r="D7" s="447"/>
+      <c r="E7" s="448" t="s">
         <v>671</v>
       </c>
-      <c r="F7" s="444"/>
-      <c r="G7" s="432" t="s">
+      <c r="F7" s="449"/>
+      <c r="G7" s="440" t="s">
         <v>676</v>
       </c>
-      <c r="H7" s="433"/>
-      <c r="I7" s="445" t="s">
+      <c r="H7" s="441"/>
+      <c r="I7" s="450" t="s">
         <v>677</v>
       </c>
-      <c r="J7" s="446"/>
-      <c r="K7" s="432" t="s">
+      <c r="J7" s="451"/>
+      <c r="K7" s="440" t="s">
         <v>678</v>
       </c>
-      <c r="L7" s="433"/>
-      <c r="M7" s="432" t="s">
+      <c r="L7" s="441"/>
+      <c r="M7" s="440" t="s">
         <v>679</v>
       </c>
-      <c r="N7" s="433"/>
-      <c r="O7" s="432" t="s">
+      <c r="N7" s="441"/>
+      <c r="O7" s="440" t="s">
         <v>680</v>
       </c>
-      <c r="P7" s="433"/>
+      <c r="P7" s="441"/>
     </row>
     <row r="8" spans="2:16" ht="39" customHeight="1">
-      <c r="B8" s="434" t="s">
+      <c r="B8" s="431" t="s">
         <v>681</v>
       </c>
-      <c r="C8" s="435" t="s">
+      <c r="C8" s="442" t="s">
         <v>590</v>
       </c>
-      <c r="D8" s="436" t="s">
+      <c r="D8" s="443" t="s">
         <v>682</v>
       </c>
       <c r="E8" s="265" t="s">
@@ -19417,9 +19465,9 @@
       </c>
     </row>
     <row r="9" spans="2:16" ht="39" customHeight="1">
-      <c r="B9" s="434"/>
-      <c r="C9" s="435"/>
-      <c r="D9" s="436"/>
+      <c r="B9" s="431"/>
+      <c r="C9" s="442"/>
+      <c r="D9" s="443"/>
       <c r="E9" s="269" t="s">
         <v>7</v>
       </c>
@@ -19450,9 +19498,9 @@
       </c>
     </row>
     <row r="10" spans="2:16" ht="39" customHeight="1">
-      <c r="B10" s="434"/>
-      <c r="C10" s="435"/>
-      <c r="D10" s="437" t="s">
+      <c r="B10" s="431"/>
+      <c r="C10" s="442"/>
+      <c r="D10" s="439" t="s">
         <v>690</v>
       </c>
       <c r="E10" s="265" t="s">
@@ -19481,9 +19529,9 @@
       <c r="P10" s="266"/>
     </row>
     <row r="11" spans="2:16" ht="39" customHeight="1">
-      <c r="B11" s="434"/>
-      <c r="C11" s="435"/>
-      <c r="D11" s="437"/>
+      <c r="B11" s="431"/>
+      <c r="C11" s="442"/>
+      <c r="D11" s="439"/>
       <c r="E11" s="269" t="s">
         <v>347</v>
       </c>
@@ -19510,11 +19558,11 @@
       <c r="P11" s="270"/>
     </row>
     <row r="12" spans="2:16" ht="39" customHeight="1">
-      <c r="B12" s="434"/>
-      <c r="C12" s="438" t="s">
+      <c r="B12" s="431"/>
+      <c r="C12" s="432" t="s">
         <v>589</v>
       </c>
-      <c r="D12" s="439" t="s">
+      <c r="D12" s="444" t="s">
         <v>594</v>
       </c>
       <c r="E12" s="265" t="s">
@@ -19539,9 +19587,9 @@
       <c r="P12" s="266"/>
     </row>
     <row r="13" spans="2:16" ht="39" customHeight="1">
-      <c r="B13" s="434"/>
-      <c r="C13" s="438"/>
-      <c r="D13" s="439"/>
+      <c r="B13" s="431"/>
+      <c r="C13" s="432"/>
+      <c r="D13" s="444"/>
       <c r="E13" s="269" t="s">
         <v>697</v>
       </c>
@@ -19564,13 +19612,13 @@
       <c r="P13" s="270"/>
     </row>
     <row r="14" spans="2:16" ht="39" customHeight="1">
-      <c r="B14" s="434" t="s">
+      <c r="B14" s="431" t="s">
         <v>701</v>
       </c>
-      <c r="C14" s="447" t="s">
+      <c r="C14" s="437" t="s">
         <v>590</v>
       </c>
-      <c r="D14" s="448" t="s">
+      <c r="D14" s="433" t="s">
         <v>682</v>
       </c>
       <c r="E14" s="265"/>
@@ -19595,9 +19643,9 @@
       <c r="P14" s="266"/>
     </row>
     <row r="15" spans="2:16" ht="39" customHeight="1">
-      <c r="B15" s="434"/>
-      <c r="C15" s="447"/>
-      <c r="D15" s="448"/>
+      <c r="B15" s="431"/>
+      <c r="C15" s="437"/>
+      <c r="D15" s="433"/>
       <c r="E15" s="269"/>
       <c r="F15" s="270"/>
       <c r="G15" s="271"/>
@@ -19620,9 +19668,9 @@
       <c r="P15" s="270"/>
     </row>
     <row r="16" spans="2:16" ht="39" customHeight="1">
-      <c r="B16" s="434"/>
-      <c r="C16" s="447"/>
-      <c r="D16" s="437" t="s">
+      <c r="B16" s="431"/>
+      <c r="C16" s="437"/>
+      <c r="D16" s="439" t="s">
         <v>690</v>
       </c>
       <c r="E16" s="265"/>
@@ -19647,9 +19695,9 @@
       <c r="P16" s="266"/>
     </row>
     <row r="17" spans="2:17" ht="39" customHeight="1">
-      <c r="B17" s="434"/>
-      <c r="C17" s="447"/>
-      <c r="D17" s="437"/>
+      <c r="B17" s="431"/>
+      <c r="C17" s="437"/>
+      <c r="D17" s="439"/>
       <c r="E17" s="269"/>
       <c r="F17" s="270"/>
       <c r="G17" s="271"/>
@@ -19672,11 +19720,11 @@
       <c r="P17" s="270"/>
     </row>
     <row r="18" spans="2:17" ht="39" customHeight="1">
-      <c r="B18" s="434"/>
-      <c r="C18" s="438" t="s">
+      <c r="B18" s="431"/>
+      <c r="C18" s="432" t="s">
         <v>589</v>
       </c>
-      <c r="D18" s="448" t="s">
+      <c r="D18" s="433" t="s">
         <v>594</v>
       </c>
       <c r="E18" s="265"/>
@@ -19701,9 +19749,9 @@
       <c r="P18" s="266"/>
     </row>
     <row r="19" spans="2:17" ht="39" customHeight="1">
-      <c r="B19" s="434"/>
-      <c r="C19" s="438"/>
-      <c r="D19" s="448"/>
+      <c r="B19" s="431"/>
+      <c r="C19" s="432"/>
+      <c r="D19" s="433"/>
       <c r="E19" s="269"/>
       <c r="F19" s="270"/>
       <c r="G19" s="271"/>
@@ -19726,13 +19774,13 @@
       <c r="P19" s="270"/>
     </row>
     <row r="20" spans="2:17" ht="39" customHeight="1">
-      <c r="B20" s="434" t="s">
+      <c r="B20" s="431" t="s">
         <v>721</v>
       </c>
-      <c r="C20" s="447" t="s">
+      <c r="C20" s="437" t="s">
         <v>590</v>
       </c>
-      <c r="D20" s="448" t="s">
+      <c r="D20" s="433" t="s">
         <v>594</v>
       </c>
       <c r="E20" s="265"/>
@@ -19757,9 +19805,9 @@
       <c r="P20" s="266"/>
     </row>
     <row r="21" spans="2:17" ht="39" customHeight="1">
-      <c r="B21" s="434"/>
-      <c r="C21" s="447"/>
-      <c r="D21" s="448"/>
+      <c r="B21" s="431"/>
+      <c r="C21" s="437"/>
+      <c r="D21" s="433"/>
       <c r="E21" s="269"/>
       <c r="F21" s="270"/>
       <c r="G21" s="271"/>
@@ -19782,9 +19830,9 @@
       <c r="P21" s="270"/>
     </row>
     <row r="22" spans="2:17" ht="39" customHeight="1">
-      <c r="B22" s="434"/>
-      <c r="C22" s="447"/>
-      <c r="D22" s="449" t="s">
+      <c r="B22" s="431"/>
+      <c r="C22" s="437"/>
+      <c r="D22" s="438" t="s">
         <v>595</v>
       </c>
       <c r="E22" s="265"/>
@@ -19805,9 +19853,9 @@
       </c>
     </row>
     <row r="23" spans="2:17" ht="39" customHeight="1">
-      <c r="B23" s="434"/>
-      <c r="C23" s="447"/>
-      <c r="D23" s="449"/>
+      <c r="B23" s="431"/>
+      <c r="C23" s="437"/>
+      <c r="D23" s="438"/>
       <c r="E23" s="269"/>
       <c r="F23" s="270"/>
       <c r="G23" s="271"/>
@@ -19826,13 +19874,13 @@
       </c>
     </row>
     <row r="24" spans="2:17" ht="39" customHeight="1">
-      <c r="B24" s="434" t="s">
+      <c r="B24" s="431" t="s">
         <v>591</v>
       </c>
-      <c r="C24" s="438" t="s">
+      <c r="C24" s="432" t="s">
         <v>589</v>
       </c>
-      <c r="D24" s="448" t="s">
+      <c r="D24" s="433" t="s">
         <v>594</v>
       </c>
       <c r="E24" s="265" t="s">
@@ -19861,9 +19909,9 @@
       <c r="P24" s="266"/>
     </row>
     <row r="25" spans="2:17" ht="39" customHeight="1">
-      <c r="B25" s="434"/>
-      <c r="C25" s="438"/>
-      <c r="D25" s="448"/>
+      <c r="B25" s="431"/>
+      <c r="C25" s="432"/>
+      <c r="D25" s="433"/>
       <c r="E25" s="269" t="s">
         <v>560</v>
       </c>
@@ -19890,13 +19938,13 @@
       <c r="P25" s="270"/>
     </row>
     <row r="26" spans="2:17" ht="39" customHeight="1">
-      <c r="B26" s="434" t="s">
+      <c r="B26" s="431" t="s">
         <v>735</v>
       </c>
-      <c r="C26" s="438" t="s">
+      <c r="C26" s="432" t="s">
         <v>589</v>
       </c>
-      <c r="D26" s="448" t="s">
+      <c r="D26" s="433" t="s">
         <v>594</v>
       </c>
       <c r="E26" s="265"/>
@@ -19917,9 +19965,9 @@
       <c r="P26" s="266"/>
     </row>
     <row r="27" spans="2:17" ht="39" customHeight="1">
-      <c r="B27" s="434"/>
-      <c r="C27" s="438"/>
-      <c r="D27" s="448"/>
+      <c r="B27" s="431"/>
+      <c r="C27" s="432"/>
+      <c r="D27" s="433"/>
       <c r="E27" s="269"/>
       <c r="F27" s="270"/>
       <c r="G27" s="271" t="s">
@@ -19941,23 +19989,23 @@
       <c r="B29" s="273" t="s">
         <v>739</v>
       </c>
-      <c r="C29" s="450" t="s">
+      <c r="C29" s="434" t="s">
         <v>740</v>
       </c>
-      <c r="D29" s="450"/>
-      <c r="E29" s="450"/>
-      <c r="F29" s="450"/>
-      <c r="G29" s="450"/>
-      <c r="H29" s="450"/>
-      <c r="I29" s="450"/>
-      <c r="J29" s="450"/>
-      <c r="K29" s="450"/>
-      <c r="L29" s="450"/>
-      <c r="M29" s="450"/>
-      <c r="N29" s="450"/>
-      <c r="O29" s="450"/>
-      <c r="P29" s="450"/>
-      <c r="Q29" s="450"/>
+      <c r="D29" s="434"/>
+      <c r="E29" s="434"/>
+      <c r="F29" s="434"/>
+      <c r="G29" s="434"/>
+      <c r="H29" s="434"/>
+      <c r="I29" s="434"/>
+      <c r="J29" s="434"/>
+      <c r="K29" s="434"/>
+      <c r="L29" s="434"/>
+      <c r="M29" s="434"/>
+      <c r="N29" s="434"/>
+      <c r="O29" s="434"/>
+      <c r="P29" s="434"/>
+      <c r="Q29" s="434"/>
     </row>
     <row r="30" spans="2:17" s="275" customFormat="1" ht="25.5">
       <c r="B30" s="273"/>
@@ -20001,10 +20049,10 @@
       <c r="B32" s="276" t="s">
         <v>743</v>
       </c>
-      <c r="C32" s="451" t="s">
+      <c r="C32" s="435" t="s">
         <v>744</v>
       </c>
-      <c r="D32" s="452"/>
+      <c r="D32" s="436"/>
     </row>
     <row r="33" spans="2:4" ht="30">
       <c r="B33" s="276" t="s">
@@ -20019,37 +20067,20 @@
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="C29:Q29"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="B14:B19"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
     <mergeCell ref="O4:P4"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="E5:F5"/>
@@ -20064,20 +20095,37 @@
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="C29:Q29"/>
+    <mergeCell ref="C32:D32"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -24952,66 +25000,66 @@
     </row>
     <row r="2" spans="1:75" s="79" customFormat="1" ht="45" customHeight="1">
       <c r="A2" s="77"/>
-      <c r="B2" s="462" t="s">
+      <c r="B2" s="459" t="s">
         <v>220</v>
       </c>
-      <c r="C2" s="463"/>
-      <c r="D2" s="464"/>
-      <c r="E2" s="462" t="s">
+      <c r="C2" s="460"/>
+      <c r="D2" s="461"/>
+      <c r="E2" s="459" t="s">
         <v>221</v>
       </c>
-      <c r="F2" s="463"/>
-      <c r="G2" s="464"/>
-      <c r="H2" s="471" t="s">
+      <c r="F2" s="460"/>
+      <c r="G2" s="461"/>
+      <c r="H2" s="456" t="s">
         <v>222</v>
       </c>
-      <c r="I2" s="472"/>
-      <c r="J2" s="473"/>
-      <c r="K2" s="471" t="s">
+      <c r="I2" s="457"/>
+      <c r="J2" s="458"/>
+      <c r="K2" s="456" t="s">
         <v>223</v>
       </c>
-      <c r="L2" s="472"/>
-      <c r="M2" s="473"/>
-      <c r="N2" s="474">
+      <c r="L2" s="457"/>
+      <c r="M2" s="458"/>
+      <c r="N2" s="462">
         <v>0.05</v>
       </c>
-      <c r="O2" s="475"/>
-      <c r="P2" s="476"/>
-      <c r="Q2" s="471" t="s">
+      <c r="O2" s="463"/>
+      <c r="P2" s="464"/>
+      <c r="Q2" s="456" t="s">
         <v>224</v>
       </c>
-      <c r="R2" s="472"/>
-      <c r="S2" s="473"/>
-      <c r="T2" s="471" t="s">
+      <c r="R2" s="457"/>
+      <c r="S2" s="458"/>
+      <c r="T2" s="456" t="s">
         <v>225</v>
       </c>
-      <c r="U2" s="472"/>
-      <c r="V2" s="473"/>
-      <c r="W2" s="456" t="s">
+      <c r="U2" s="457"/>
+      <c r="V2" s="458"/>
+      <c r="W2" s="467" t="s">
         <v>226</v>
       </c>
-      <c r="X2" s="457"/>
-      <c r="Y2" s="458"/>
-      <c r="Z2" s="456" t="s">
+      <c r="X2" s="468"/>
+      <c r="Y2" s="469"/>
+      <c r="Z2" s="467" t="s">
         <v>227</v>
       </c>
-      <c r="AA2" s="457"/>
-      <c r="AB2" s="458"/>
-      <c r="AC2" s="456" t="s">
+      <c r="AA2" s="468"/>
+      <c r="AB2" s="469"/>
+      <c r="AC2" s="467" t="s">
         <v>228</v>
       </c>
-      <c r="AD2" s="457"/>
-      <c r="AE2" s="458"/>
-      <c r="AF2" s="459" t="s">
+      <c r="AD2" s="468"/>
+      <c r="AE2" s="469"/>
+      <c r="AF2" s="470" t="s">
         <v>229</v>
       </c>
-      <c r="AG2" s="460"/>
-      <c r="AH2" s="461"/>
-      <c r="AI2" s="459" t="s">
+      <c r="AG2" s="471"/>
+      <c r="AH2" s="472"/>
+      <c r="AI2" s="470" t="s">
         <v>230</v>
       </c>
-      <c r="AJ2" s="460"/>
-      <c r="AK2" s="461"/>
+      <c r="AJ2" s="471"/>
+      <c r="AK2" s="472"/>
       <c r="AL2" s="77"/>
       <c r="AM2" s="77"/>
       <c r="AN2" s="77"/>
@@ -25143,38 +25191,38 @@
       <c r="G4" s="171" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="467" t="s">
+      <c r="H4" s="473" t="s">
         <v>238</v>
       </c>
-      <c r="I4" s="468"/>
+      <c r="I4" s="474"/>
       <c r="J4" s="100" t="s">
         <v>239</v>
       </c>
-      <c r="K4" s="469" t="s">
+      <c r="K4" s="475" t="s">
         <v>240</v>
       </c>
-      <c r="L4" s="470"/>
+      <c r="L4" s="476"/>
       <c r="M4" s="100" t="s">
         <v>241</v>
       </c>
-      <c r="N4" s="467" t="s">
+      <c r="N4" s="473" t="s">
         <v>242</v>
       </c>
-      <c r="O4" s="468"/>
+      <c r="O4" s="474"/>
       <c r="P4" s="100" t="s">
         <v>204</v>
       </c>
-      <c r="Q4" s="469" t="s">
+      <c r="Q4" s="475" t="s">
         <v>243</v>
       </c>
-      <c r="R4" s="470"/>
+      <c r="R4" s="476"/>
       <c r="S4" s="100" t="s">
         <v>202</v>
       </c>
-      <c r="T4" s="467" t="s">
+      <c r="T4" s="473" t="s">
         <v>244</v>
       </c>
-      <c r="U4" s="468"/>
+      <c r="U4" s="474"/>
       <c r="V4" s="100" t="s">
         <v>245</v>
       </c>
@@ -25273,71 +25321,71 @@
     <row r="5" spans="1:75" s="79" customFormat="1" ht="45" customHeight="1">
       <c r="A5" s="77"/>
       <c r="B5" s="77"/>
-      <c r="C5" s="462" t="s">
+      <c r="C5" s="459" t="s">
         <v>246</v>
       </c>
-      <c r="D5" s="463"/>
-      <c r="E5" s="464"/>
-      <c r="F5" s="462" t="s">
+      <c r="D5" s="460"/>
+      <c r="E5" s="461"/>
+      <c r="F5" s="459" t="s">
         <v>247</v>
       </c>
-      <c r="G5" s="463"/>
-      <c r="H5" s="464"/>
-      <c r="I5" s="462" t="s">
+      <c r="G5" s="460"/>
+      <c r="H5" s="461"/>
+      <c r="I5" s="459" t="s">
         <v>248</v>
       </c>
-      <c r="J5" s="463"/>
-      <c r="K5" s="464"/>
-      <c r="L5" s="462" t="s">
+      <c r="J5" s="460"/>
+      <c r="K5" s="461"/>
+      <c r="L5" s="459" t="s">
         <v>249</v>
       </c>
-      <c r="M5" s="463"/>
-      <c r="N5" s="464"/>
-      <c r="O5" s="462" t="s">
+      <c r="M5" s="460"/>
+      <c r="N5" s="461"/>
+      <c r="O5" s="459" t="s">
         <v>26</v>
       </c>
-      <c r="P5" s="463"/>
-      <c r="Q5" s="464"/>
-      <c r="R5" s="462" t="s">
+      <c r="P5" s="460"/>
+      <c r="Q5" s="461"/>
+      <c r="R5" s="459" t="s">
         <v>250</v>
       </c>
-      <c r="S5" s="463"/>
-      <c r="T5" s="464"/>
-      <c r="U5" s="456" t="s">
+      <c r="S5" s="460"/>
+      <c r="T5" s="461"/>
+      <c r="U5" s="467" t="s">
         <v>251</v>
       </c>
-      <c r="V5" s="457"/>
-      <c r="W5" s="458"/>
-      <c r="X5" s="456" t="s">
+      <c r="V5" s="468"/>
+      <c r="W5" s="469"/>
+      <c r="X5" s="467" t="s">
         <v>252</v>
       </c>
-      <c r="Y5" s="457"/>
-      <c r="Z5" s="458"/>
-      <c r="AA5" s="456" t="s">
+      <c r="Y5" s="468"/>
+      <c r="Z5" s="469"/>
+      <c r="AA5" s="467" t="s">
         <v>253</v>
       </c>
-      <c r="AB5" s="457"/>
-      <c r="AC5" s="458"/>
-      <c r="AD5" s="456" t="s">
+      <c r="AB5" s="468"/>
+      <c r="AC5" s="469"/>
+      <c r="AD5" s="467" t="s">
         <v>11</v>
       </c>
-      <c r="AE5" s="457"/>
-      <c r="AF5" s="458"/>
-      <c r="AG5" s="456" t="s">
+      <c r="AE5" s="468"/>
+      <c r="AF5" s="469"/>
+      <c r="AG5" s="467" t="s">
         <v>254</v>
       </c>
-      <c r="AH5" s="457"/>
-      <c r="AI5" s="458"/>
-      <c r="AJ5" s="456" t="s">
+      <c r="AH5" s="468"/>
+      <c r="AI5" s="469"/>
+      <c r="AJ5" s="467" t="s">
         <v>255</v>
       </c>
-      <c r="AK5" s="457"/>
-      <c r="AL5" s="458"/>
-      <c r="AM5" s="459" t="s">
+      <c r="AK5" s="468"/>
+      <c r="AL5" s="469"/>
+      <c r="AM5" s="470" t="s">
         <v>256</v>
       </c>
-      <c r="AN5" s="460"/>
-      <c r="AO5" s="461"/>
+      <c r="AN5" s="471"/>
+      <c r="AO5" s="472"/>
       <c r="AP5" s="77"/>
       <c r="AQ5" s="77"/>
       <c r="AR5" s="78"/>
@@ -25647,61 +25695,61 @@
       <c r="A8" s="77"/>
       <c r="B8" s="77"/>
       <c r="C8" s="110"/>
-      <c r="D8" s="462" t="s">
+      <c r="D8" s="459" t="s">
         <v>259</v>
       </c>
-      <c r="E8" s="463"/>
-      <c r="F8" s="464"/>
-      <c r="G8" s="462" t="s">
+      <c r="E8" s="460"/>
+      <c r="F8" s="461"/>
+      <c r="G8" s="459" t="s">
         <v>260</v>
       </c>
-      <c r="H8" s="463"/>
-      <c r="I8" s="464"/>
-      <c r="J8" s="462" t="s">
+      <c r="H8" s="460"/>
+      <c r="I8" s="461"/>
+      <c r="J8" s="459" t="s">
         <v>261</v>
       </c>
-      <c r="K8" s="463"/>
-      <c r="L8" s="464"/>
-      <c r="M8" s="462" t="s">
+      <c r="K8" s="460"/>
+      <c r="L8" s="461"/>
+      <c r="M8" s="459" t="s">
         <v>262</v>
       </c>
-      <c r="N8" s="463"/>
-      <c r="O8" s="464"/>
-      <c r="P8" s="462" t="s">
+      <c r="N8" s="460"/>
+      <c r="O8" s="461"/>
+      <c r="P8" s="459" t="s">
         <v>263</v>
       </c>
-      <c r="Q8" s="463"/>
-      <c r="R8" s="464"/>
-      <c r="S8" s="462" t="s">
+      <c r="Q8" s="460"/>
+      <c r="R8" s="461"/>
+      <c r="S8" s="459" t="s">
         <v>264</v>
       </c>
-      <c r="T8" s="463"/>
-      <c r="U8" s="464"/>
-      <c r="V8" s="456" t="s">
+      <c r="T8" s="460"/>
+      <c r="U8" s="461"/>
+      <c r="V8" s="467" t="s">
         <v>265</v>
       </c>
-      <c r="W8" s="457"/>
-      <c r="X8" s="458"/>
-      <c r="Y8" s="456" t="s">
+      <c r="W8" s="468"/>
+      <c r="X8" s="469"/>
+      <c r="Y8" s="467" t="s">
         <v>56</v>
       </c>
-      <c r="Z8" s="457"/>
-      <c r="AA8" s="458"/>
-      <c r="AB8" s="456" t="s">
+      <c r="Z8" s="468"/>
+      <c r="AA8" s="469"/>
+      <c r="AB8" s="467" t="s">
         <v>266</v>
       </c>
-      <c r="AC8" s="457"/>
-      <c r="AD8" s="458"/>
-      <c r="AE8" s="456" t="s">
+      <c r="AC8" s="468"/>
+      <c r="AD8" s="469"/>
+      <c r="AE8" s="467" t="s">
         <v>267</v>
       </c>
-      <c r="AF8" s="457"/>
-      <c r="AG8" s="458"/>
-      <c r="AH8" s="459" t="s">
+      <c r="AF8" s="468"/>
+      <c r="AG8" s="469"/>
+      <c r="AH8" s="470" t="s">
         <v>268</v>
       </c>
-      <c r="AI8" s="460"/>
-      <c r="AJ8" s="461"/>
+      <c r="AI8" s="471"/>
+      <c r="AJ8" s="472"/>
       <c r="AK8" s="77"/>
       <c r="AL8" s="77"/>
       <c r="AM8" s="77"/>
@@ -26018,56 +26066,56 @@
       <c r="B11" s="77"/>
       <c r="C11" s="77"/>
       <c r="D11" s="77"/>
-      <c r="E11" s="462" t="s">
+      <c r="E11" s="459" t="s">
         <v>269</v>
       </c>
-      <c r="F11" s="463"/>
-      <c r="G11" s="464"/>
-      <c r="H11" s="462" t="s">
+      <c r="F11" s="460"/>
+      <c r="G11" s="461"/>
+      <c r="H11" s="459" t="s">
         <v>270</v>
       </c>
-      <c r="I11" s="463"/>
-      <c r="J11" s="464"/>
-      <c r="K11" s="462" t="s">
+      <c r="I11" s="460"/>
+      <c r="J11" s="461"/>
+      <c r="K11" s="459" t="s">
         <v>42</v>
       </c>
-      <c r="L11" s="463"/>
-      <c r="M11" s="464"/>
-      <c r="N11" s="462" t="s">
+      <c r="L11" s="460"/>
+      <c r="M11" s="461"/>
+      <c r="N11" s="459" t="s">
         <v>271</v>
       </c>
-      <c r="O11" s="463"/>
-      <c r="P11" s="464"/>
-      <c r="Q11" s="462" t="s">
+      <c r="O11" s="460"/>
+      <c r="P11" s="461"/>
+      <c r="Q11" s="459" t="s">
         <v>272</v>
       </c>
-      <c r="R11" s="463"/>
-      <c r="S11" s="464"/>
-      <c r="T11" s="462" t="s">
+      <c r="R11" s="460"/>
+      <c r="S11" s="461"/>
+      <c r="T11" s="459" t="s">
         <v>273</v>
       </c>
-      <c r="U11" s="463"/>
-      <c r="V11" s="464"/>
-      <c r="W11" s="456" t="s">
+      <c r="U11" s="460"/>
+      <c r="V11" s="461"/>
+      <c r="W11" s="467" t="s">
         <v>274</v>
       </c>
-      <c r="X11" s="457"/>
-      <c r="Y11" s="458"/>
-      <c r="Z11" s="456" t="s">
+      <c r="X11" s="468"/>
+      <c r="Y11" s="469"/>
+      <c r="Z11" s="467" t="s">
         <v>275</v>
       </c>
-      <c r="AA11" s="457"/>
-      <c r="AB11" s="458"/>
-      <c r="AC11" s="456" t="s">
+      <c r="AA11" s="468"/>
+      <c r="AB11" s="469"/>
+      <c r="AC11" s="467" t="s">
         <v>276</v>
       </c>
-      <c r="AD11" s="457"/>
-      <c r="AE11" s="458"/>
-      <c r="AF11" s="459" t="s">
+      <c r="AD11" s="468"/>
+      <c r="AE11" s="469"/>
+      <c r="AF11" s="470" t="s">
         <v>277</v>
       </c>
-      <c r="AG11" s="460"/>
-      <c r="AH11" s="461"/>
+      <c r="AG11" s="471"/>
+      <c r="AH11" s="472"/>
       <c r="AI11" s="77"/>
       <c r="AJ11" s="77"/>
       <c r="AK11" s="77"/>
@@ -31993,52 +32041,6 @@
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="T2:V2"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="AI2:AK2"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="U5:W5"/>
-    <mergeCell ref="X5:Z5"/>
-    <mergeCell ref="AA5:AC5"/>
-    <mergeCell ref="AD5:AF5"/>
-    <mergeCell ref="R5:T5"/>
-    <mergeCell ref="V8:X8"/>
-    <mergeCell ref="Y8:AA8"/>
-    <mergeCell ref="AB8:AD8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="AH10:AI10"/>
-    <mergeCell ref="AM5:AO5"/>
-    <mergeCell ref="AG7:AH7"/>
-    <mergeCell ref="AJ7:AK7"/>
-    <mergeCell ref="AM7:AN7"/>
-    <mergeCell ref="AG5:AI5"/>
-    <mergeCell ref="AJ5:AL5"/>
-    <mergeCell ref="AE8:AG8"/>
-    <mergeCell ref="AH8:AJ8"/>
     <mergeCell ref="W11:Y11"/>
     <mergeCell ref="Z11:AB11"/>
     <mergeCell ref="AC11:AE11"/>
@@ -32049,6 +32051,52 @@
     <mergeCell ref="N11:P11"/>
     <mergeCell ref="Q11:S11"/>
     <mergeCell ref="T11:V11"/>
+    <mergeCell ref="AH10:AI10"/>
+    <mergeCell ref="AM5:AO5"/>
+    <mergeCell ref="AG7:AH7"/>
+    <mergeCell ref="AJ7:AK7"/>
+    <mergeCell ref="AM7:AN7"/>
+    <mergeCell ref="AG5:AI5"/>
+    <mergeCell ref="AJ5:AL5"/>
+    <mergeCell ref="AE8:AG8"/>
+    <mergeCell ref="AH8:AJ8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="U5:W5"/>
+    <mergeCell ref="X5:Z5"/>
+    <mergeCell ref="AA5:AC5"/>
+    <mergeCell ref="AD5:AF5"/>
+    <mergeCell ref="R5:T5"/>
+    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="Y8:AA8"/>
+    <mergeCell ref="AB8:AD8"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="AI2:AK2"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:P2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/鍵盤設計規格_台語135拼音.xlsx
+++ b/docs/鍵盤設計規格_台語135拼音.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\home\alanjui\workspace\rime\rime-tlpa\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B4B131-4207-4F4D-BAE0-3238C49E3821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B1899E0-DF39-4FEA-B3BE-2062918DBAD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="703" firstSheet="2" activeTab="6" xr2:uid="{8ADEA2FE-7CD1-466B-8EB5-9AA2577FE19A}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="703" firstSheet="5" activeTab="9" xr2:uid="{8ADEA2FE-7CD1-466B-8EB5-9AA2577FE19A}"/>
   </bookViews>
   <sheets>
     <sheet name="國語注音符號" sheetId="32" r:id="rId1"/>
@@ -54,6 +54,7 @@
     <definedName name="鍵盤位置">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -96,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2440" uniqueCount="1396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2442" uniqueCount="1398">
   <si>
     <t>(TLPA)</t>
     <phoneticPr fontId="46" type="noConversion"/>
@@ -6004,6 +6005,14 @@
   </si>
   <si>
     <t>低入升高</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 --&gt; 7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 --&gt; 7 --&gt; 3 --&gt; 2 --&gt; 1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -6167,30 +6176,42 @@
     <font>
       <sz val="18"/>
       <name val="Noto Serif TC Medium"/>
+      <family val="1"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Noto Serif TC Medium"/>
+      <family val="1"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="18"/>
       <color theme="8"/>
       <name val="Noto Serif TC Medium"/>
+      <family val="1"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="24"/>
       <color rgb="FF000000"/>
       <name val="Noto Serif TC Medium"/>
+      <family val="1"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="16"/>
       <name val="Noto Serif TC Medium"/>
+      <family val="1"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Noto Serif TC Medium"/>
+      <family val="1"/>
+      <charset val="136"/>
     </font>
     <font>
       <u/>
@@ -6204,6 +6225,8 @@
       <sz val="18"/>
       <color rgb="FFFF0000"/>
       <name val="Noto Serif TC Medium"/>
+      <family val="1"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="18"/>
@@ -6426,6 +6449,8 @@
       <sz val="18"/>
       <color rgb="FFC00000"/>
       <name val="Noto Serif TC Medium"/>
+      <family val="1"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="24"/>
@@ -6438,6 +6463,8 @@
       <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Noto Serif TC Medium"/>
+      <family val="1"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="18"/>
@@ -6450,12 +6477,16 @@
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Noto Serif TC Medium"/>
+      <family val="1"/>
+      <charset val="136"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
       <color theme="8" tint="-0.249977111117893"/>
       <name val="Noto Serif TC Medium"/>
+      <family val="1"/>
+      <charset val="136"/>
     </font>
     <font>
       <b/>
@@ -6710,6 +6741,8 @@
       <sz val="18"/>
       <color rgb="FFFF0000"/>
       <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -9248,210 +9281,6 @@
     <xf numFmtId="0" fontId="206" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="113" fillId="11" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="123" fillId="11" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="124" fillId="11" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="126" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="124" fillId="26" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="124" fillId="26" borderId="9" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="114" fillId="11" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="125" fillId="11" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="122" fillId="11" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="112" fillId="11" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="112" fillId="11" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="114" fillId="11" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="115" fillId="11" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="115" fillId="11" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="112" fillId="11" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="112" fillId="11" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="112" fillId="11" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="112" fillId="11" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="112" fillId="11" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="112" fillId="11" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="112" fillId="11" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="111" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="176" fillId="30" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="176" fillId="30" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="176" fillId="30" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="3" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="3" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="3" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="3" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="3" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="21" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="21" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="90" fillId="18" borderId="25" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="90" fillId="18" borderId="26" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="88" fillId="18" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="88" fillId="18" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="20" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="20" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="21" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="21" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="19" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="19" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="88" fillId="18" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="88" fillId="18" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="93" fillId="21" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="96" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="96" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="133" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -9467,6 +9296,210 @@
     </xf>
     <xf numFmtId="0" fontId="213" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="11" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="11" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="11" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="26" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="26" borderId="9" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="11" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="11" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="11" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="11" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="11" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="11" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="11" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="11" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="11" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="11" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="11" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="11" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="11" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="11" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="11" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="176" fillId="30" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="176" fillId="30" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="176" fillId="30" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="3" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="3" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="3" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="3" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="3" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="21" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="21" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="18" borderId="25" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="18" borderId="26" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="18" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="18" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="20" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="20" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="21" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="21" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="19" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="19" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="18" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="18" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="21" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -10551,7 +10584,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86FD1CD5-4651-439A-98A6-5245A83D236D}">
   <dimension ref="B1:AV75"/>
   <sheetViews>
-    <sheetView topLeftCell="A62" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
       <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
@@ -10667,7 +10700,7 @@
       </c>
       <c r="AV3" s="79"/>
     </row>
-    <row r="4" spans="2:48" s="4" customFormat="1" ht="28.5">
+    <row r="4" spans="2:48" s="4" customFormat="1" ht="30">
       <c r="B4" s="305" t="s">
         <v>277</v>
       </c>
@@ -15851,7 +15884,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19DE9CFD-53AD-45A2-806F-6419AEAB025D}">
   <dimension ref="B2:Q67"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
@@ -15861,14 +15894,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7">
-      <c r="B2" s="482" t="s">
+      <c r="B2" s="488" t="s">
         <v>486</v>
       </c>
-      <c r="C2" s="482"/>
-      <c r="D2" s="482"/>
-      <c r="E2" s="482"/>
-      <c r="F2" s="482"/>
-      <c r="G2" s="482"/>
+      <c r="C2" s="488"/>
+      <c r="D2" s="488"/>
+      <c r="E2" s="488"/>
+      <c r="F2" s="488"/>
+      <c r="G2" s="488"/>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="189" t="s">
@@ -15891,192 +15924,192 @@
       </c>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="476" t="s">
+      <c r="B5" s="482" t="s">
         <v>75</v>
       </c>
       <c r="C5" s="191" t="s">
         <v>491</v>
       </c>
-      <c r="D5" s="478" t="s">
+      <c r="D5" s="484" t="s">
         <v>492</v>
       </c>
-      <c r="E5" s="480" t="s">
+      <c r="E5" s="486" t="s">
         <v>79</v>
       </c>
       <c r="F5" s="191" t="s">
         <v>493</v>
       </c>
-      <c r="G5" s="478" t="s">
+      <c r="G5" s="484" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="477"/>
+      <c r="B6" s="483"/>
       <c r="C6" s="192" t="s">
         <v>495</v>
       </c>
-      <c r="D6" s="479"/>
-      <c r="E6" s="481"/>
+      <c r="D6" s="485"/>
+      <c r="E6" s="487"/>
       <c r="F6" s="192" t="s">
         <v>496</v>
       </c>
-      <c r="G6" s="479"/>
+      <c r="G6" s="485"/>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="476" t="s">
+      <c r="B7" s="482" t="s">
         <v>72</v>
       </c>
       <c r="C7" s="191" t="s">
         <v>497</v>
       </c>
-      <c r="D7" s="478" t="s">
+      <c r="D7" s="484" t="s">
         <v>498</v>
       </c>
-      <c r="E7" s="480" t="s">
+      <c r="E7" s="486" t="s">
         <v>82</v>
       </c>
       <c r="F7" s="191" t="s">
         <v>499</v>
       </c>
-      <c r="G7" s="478" t="s">
+      <c r="G7" s="484" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="477"/>
+      <c r="B8" s="483"/>
       <c r="C8" s="192" t="s">
         <v>501</v>
       </c>
-      <c r="D8" s="479"/>
-      <c r="E8" s="481"/>
+      <c r="D8" s="485"/>
+      <c r="E8" s="487"/>
       <c r="F8" s="192" t="s">
         <v>502</v>
       </c>
-      <c r="G8" s="479"/>
+      <c r="G8" s="485"/>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="476" t="s">
+      <c r="B9" s="482" t="s">
         <v>86</v>
       </c>
       <c r="C9" s="191" t="s">
         <v>503</v>
       </c>
-      <c r="D9" s="478" t="s">
+      <c r="D9" s="484" t="s">
         <v>504</v>
       </c>
-      <c r="E9" s="480" t="s">
+      <c r="E9" s="486" t="s">
         <v>505</v>
       </c>
-      <c r="F9" s="480" t="s">
+      <c r="F9" s="486" t="s">
         <v>505</v>
       </c>
-      <c r="G9" s="480" t="s">
+      <c r="G9" s="486" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="477"/>
+      <c r="B10" s="483"/>
       <c r="C10" s="192" t="s">
         <v>506</v>
       </c>
-      <c r="D10" s="479"/>
-      <c r="E10" s="481"/>
-      <c r="F10" s="481"/>
-      <c r="G10" s="481"/>
+      <c r="D10" s="485"/>
+      <c r="E10" s="487"/>
+      <c r="F10" s="487"/>
+      <c r="G10" s="487"/>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="476" t="s">
+      <c r="B11" s="482" t="s">
         <v>93</v>
       </c>
       <c r="C11" s="191" t="s">
         <v>507</v>
       </c>
-      <c r="D11" s="478" t="s">
+      <c r="D11" s="484" t="s">
         <v>508</v>
       </c>
-      <c r="E11" s="480" t="s">
+      <c r="E11" s="486" t="s">
         <v>97</v>
       </c>
       <c r="F11" s="191" t="s">
         <v>509</v>
       </c>
-      <c r="G11" s="478" t="s">
+      <c r="G11" s="484" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="477"/>
+      <c r="B12" s="483"/>
       <c r="C12" s="192" t="s">
         <v>511</v>
       </c>
-      <c r="D12" s="479"/>
-      <c r="E12" s="481"/>
+      <c r="D12" s="485"/>
+      <c r="E12" s="487"/>
       <c r="F12" s="192" t="s">
         <v>512</v>
       </c>
-      <c r="G12" s="479"/>
+      <c r="G12" s="485"/>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="476" t="s">
+      <c r="B13" s="482" t="s">
         <v>100</v>
       </c>
       <c r="C13" s="191" t="s">
         <v>513</v>
       </c>
-      <c r="D13" s="478" t="s">
+      <c r="D13" s="484" t="s">
         <v>514</v>
       </c>
-      <c r="E13" s="480" t="s">
+      <c r="E13" s="486" t="s">
         <v>505</v>
       </c>
-      <c r="F13" s="480" t="s">
+      <c r="F13" s="486" t="s">
         <v>505</v>
       </c>
-      <c r="G13" s="480" t="s">
+      <c r="G13" s="486" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="477"/>
+      <c r="B14" s="483"/>
       <c r="C14" s="192" t="s">
         <v>515</v>
       </c>
-      <c r="D14" s="479"/>
-      <c r="E14" s="481"/>
-      <c r="F14" s="481"/>
-      <c r="G14" s="481"/>
+      <c r="D14" s="485"/>
+      <c r="E14" s="487"/>
+      <c r="F14" s="487"/>
+      <c r="G14" s="487"/>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="476" t="s">
+      <c r="B15" s="482" t="s">
         <v>516</v>
       </c>
       <c r="C15" s="191" t="s">
         <v>517</v>
       </c>
-      <c r="D15" s="478" t="s">
+      <c r="D15" s="484" t="s">
         <v>518</v>
       </c>
-      <c r="E15" s="480" t="s">
+      <c r="E15" s="486" t="s">
         <v>105</v>
       </c>
       <c r="F15" s="191" t="s">
         <v>519</v>
       </c>
-      <c r="G15" s="478" t="s">
+      <c r="G15" s="484" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="477"/>
+      <c r="B16" s="483"/>
       <c r="C16" s="192" t="s">
         <v>521</v>
       </c>
-      <c r="D16" s="479"/>
-      <c r="E16" s="481"/>
+      <c r="D16" s="485"/>
+      <c r="E16" s="487"/>
       <c r="F16" s="192" t="s">
         <v>522</v>
       </c>
-      <c r="G16" s="479"/>
+      <c r="G16" s="485"/>
     </row>
     <row r="17" spans="2:12">
       <c r="B17" s="193" t="s">
@@ -16089,14 +16122,14 @@
       </c>
     </row>
     <row r="19" spans="2:12">
-      <c r="B19" s="482" t="s">
+      <c r="B19" s="488" t="s">
         <v>525</v>
       </c>
-      <c r="C19" s="482"/>
-      <c r="D19" s="482"/>
-      <c r="E19" s="482"/>
-      <c r="F19" s="482"/>
-      <c r="G19" s="482"/>
+      <c r="C19" s="488"/>
+      <c r="D19" s="488"/>
+      <c r="E19" s="488"/>
+      <c r="F19" s="488"/>
+      <c r="G19" s="488"/>
     </row>
     <row r="21" spans="2:12">
       <c r="B21" s="189" t="s">
@@ -16119,28 +16152,28 @@
       </c>
     </row>
     <row r="22" spans="2:12">
-      <c r="B22" s="476" t="s">
+      <c r="B22" s="482" t="s">
         <v>420</v>
       </c>
       <c r="C22" s="191" t="s">
         <v>526</v>
       </c>
-      <c r="D22" s="480" t="s">
+      <c r="D22" s="486" t="s">
         <v>527</v>
       </c>
-      <c r="E22" s="480" t="s">
+      <c r="E22" s="486" t="s">
         <v>528</v>
       </c>
       <c r="F22" s="191" t="s">
         <v>529</v>
       </c>
-      <c r="G22" s="480" t="s">
+      <c r="G22" s="486" t="s">
         <v>527</v>
       </c>
-      <c r="I22" s="491" t="s">
+      <c r="I22" s="497" t="s">
         <v>530</v>
       </c>
-      <c r="J22" s="476" t="s">
+      <c r="J22" s="482" t="s">
         <v>420</v>
       </c>
       <c r="L22" t="s">
@@ -16148,45 +16181,45 @@
       </c>
     </row>
     <row r="23" spans="2:12">
-      <c r="B23" s="477"/>
+      <c r="B23" s="483"/>
       <c r="C23" s="192" t="s">
         <v>531</v>
       </c>
-      <c r="D23" s="481"/>
-      <c r="E23" s="481"/>
+      <c r="D23" s="487"/>
+      <c r="E23" s="487"/>
       <c r="F23" s="192" t="s">
         <v>532</v>
       </c>
-      <c r="G23" s="481"/>
-      <c r="I23" s="477"/>
-      <c r="J23" s="477"/>
+      <c r="G23" s="487"/>
+      <c r="I23" s="483"/>
+      <c r="J23" s="483"/>
       <c r="L23" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="24" spans="2:12">
-      <c r="B24" s="476" t="s">
+      <c r="B24" s="482" t="s">
         <v>426</v>
       </c>
       <c r="C24" s="191" t="s">
         <v>533</v>
       </c>
-      <c r="D24" s="480" t="s">
+      <c r="D24" s="486" t="s">
         <v>527</v>
       </c>
-      <c r="E24" s="480" t="s">
+      <c r="E24" s="486" t="s">
         <v>505</v>
       </c>
-      <c r="F24" s="480" t="s">
+      <c r="F24" s="486" t="s">
         <v>505</v>
       </c>
-      <c r="G24" s="480" t="s">
+      <c r="G24" s="486" t="s">
         <v>505</v>
       </c>
-      <c r="I24" s="491" t="s">
+      <c r="I24" s="497" t="s">
         <v>534</v>
       </c>
-      <c r="J24" s="476" t="s">
+      <c r="J24" s="482" t="s">
         <v>426</v>
       </c>
       <c r="L24" t="s">
@@ -16194,43 +16227,43 @@
       </c>
     </row>
     <row r="25" spans="2:12">
-      <c r="B25" s="477"/>
+      <c r="B25" s="483"/>
       <c r="C25" s="192" t="s">
         <v>535</v>
       </c>
-      <c r="D25" s="481"/>
-      <c r="E25" s="481"/>
-      <c r="F25" s="481"/>
-      <c r="G25" s="481"/>
-      <c r="I25" s="477"/>
-      <c r="J25" s="477"/>
+      <c r="D25" s="487"/>
+      <c r="E25" s="487"/>
+      <c r="F25" s="487"/>
+      <c r="G25" s="487"/>
+      <c r="I25" s="483"/>
+      <c r="J25" s="483"/>
       <c r="L25" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="26" spans="2:12">
-      <c r="B26" s="476" t="s">
+      <c r="B26" s="482" t="s">
         <v>536</v>
       </c>
       <c r="C26" s="191" t="s">
         <v>537</v>
       </c>
-      <c r="D26" s="480" t="s">
+      <c r="D26" s="486" t="s">
         <v>527</v>
       </c>
-      <c r="E26" s="480" t="s">
+      <c r="E26" s="486" t="s">
         <v>538</v>
       </c>
       <c r="F26" s="191" t="s">
         <v>539</v>
       </c>
-      <c r="G26" s="480" t="s">
+      <c r="G26" s="486" t="s">
         <v>527</v>
       </c>
-      <c r="I26" s="491" t="s">
+      <c r="I26" s="497" t="s">
         <v>540</v>
       </c>
-      <c r="J26" s="476" t="s">
+      <c r="J26" s="482" t="s">
         <v>536</v>
       </c>
       <c r="L26" t="s">
@@ -16238,90 +16271,90 @@
       </c>
     </row>
     <row r="27" spans="2:12">
-      <c r="B27" s="477"/>
+      <c r="B27" s="483"/>
       <c r="C27" s="192" t="s">
         <v>541</v>
       </c>
-      <c r="D27" s="481"/>
-      <c r="E27" s="481"/>
+      <c r="D27" s="487"/>
+      <c r="E27" s="487"/>
       <c r="F27" s="192" t="s">
         <v>542</v>
       </c>
-      <c r="G27" s="481"/>
-      <c r="I27" s="477"/>
-      <c r="J27" s="477"/>
+      <c r="G27" s="487"/>
+      <c r="I27" s="483"/>
+      <c r="J27" s="483"/>
       <c r="L27" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="28" spans="2:12">
-      <c r="B28" s="476" t="s">
+      <c r="B28" s="482" t="s">
         <v>543</v>
       </c>
       <c r="C28" s="191" t="s">
         <v>544</v>
       </c>
-      <c r="D28" s="480" t="s">
+      <c r="D28" s="486" t="s">
         <v>527</v>
       </c>
-      <c r="E28" s="480" t="s">
+      <c r="E28" s="486" t="s">
         <v>545</v>
       </c>
       <c r="F28" s="191" t="s">
         <v>546</v>
       </c>
-      <c r="G28" s="480" t="s">
+      <c r="G28" s="486" t="s">
         <v>527</v>
       </c>
-      <c r="I28" s="491" t="str">
+      <c r="I28" s="497" t="str">
         <f xml:space="preserve"> L23 &amp; L24</f>
         <v>ㄧㄨ</v>
       </c>
-      <c r="J28" s="476" t="s">
+      <c r="J28" s="482" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="29" spans="2:12">
-      <c r="B29" s="477"/>
+      <c r="B29" s="483"/>
       <c r="C29" s="192" t="s">
         <v>547</v>
       </c>
-      <c r="D29" s="481"/>
-      <c r="E29" s="481"/>
+      <c r="D29" s="487"/>
+      <c r="E29" s="487"/>
       <c r="F29" s="192" t="s">
         <v>548</v>
       </c>
-      <c r="G29" s="481"/>
-      <c r="I29" s="477"/>
-      <c r="J29" s="477"/>
+      <c r="G29" s="487"/>
+      <c r="I29" s="483"/>
+      <c r="J29" s="483"/>
       <c r="L29" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="30" spans="2:12">
-      <c r="B30" s="476" t="s">
+      <c r="B30" s="482" t="s">
         <v>549</v>
       </c>
       <c r="C30" s="191" t="s">
         <v>550</v>
       </c>
-      <c r="D30" s="480" t="s">
+      <c r="D30" s="486" t="s">
         <v>527</v>
       </c>
-      <c r="E30" s="480" t="s">
+      <c r="E30" s="486" t="s">
         <v>551</v>
       </c>
       <c r="F30" s="191" t="s">
         <v>552</v>
       </c>
-      <c r="G30" s="480" t="s">
+      <c r="G30" s="486" t="s">
         <v>527</v>
       </c>
-      <c r="I30" s="476" t="str">
+      <c r="I30" s="482" t="str">
         <f>L23 &amp; L27</f>
         <v>ㄧㄜ</v>
       </c>
-      <c r="J30" s="476" t="s">
+      <c r="J30" s="482" t="s">
         <v>549</v>
       </c>
       <c r="L30" t="s">
@@ -16329,90 +16362,90 @@
       </c>
     </row>
     <row r="31" spans="2:12">
-      <c r="B31" s="477"/>
+      <c r="B31" s="483"/>
       <c r="C31" s="192" t="s">
         <v>553</v>
       </c>
-      <c r="D31" s="481"/>
-      <c r="E31" s="481"/>
+      <c r="D31" s="487"/>
+      <c r="E31" s="487"/>
       <c r="F31" s="192" t="s">
         <v>548</v>
       </c>
-      <c r="G31" s="481"/>
-      <c r="I31" s="477"/>
-      <c r="J31" s="477"/>
+      <c r="G31" s="487"/>
+      <c r="I31" s="483"/>
+      <c r="J31" s="483"/>
       <c r="L31" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="32" spans="2:12">
-      <c r="B32" s="476" t="s">
+      <c r="B32" s="482" t="s">
         <v>554</v>
       </c>
       <c r="C32" s="191" t="s">
         <v>555</v>
       </c>
-      <c r="D32" s="480" t="s">
+      <c r="D32" s="486" t="s">
         <v>527</v>
       </c>
-      <c r="E32" s="480" t="s">
+      <c r="E32" s="486" t="s">
         <v>556</v>
       </c>
       <c r="F32" s="191" t="s">
         <v>505</v>
       </c>
-      <c r="G32" s="480" t="s">
+      <c r="G32" s="486" t="s">
         <v>527</v>
       </c>
-      <c r="I32" s="476" t="str">
+      <c r="I32" s="482" t="str">
         <f xml:space="preserve"> L23 &amp; I24</f>
         <v>ㄧㄠ</v>
       </c>
-      <c r="J32" s="476" t="s">
+      <c r="J32" s="482" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="33" spans="2:12">
-      <c r="B33" s="477"/>
+      <c r="B33" s="483"/>
       <c r="C33" s="192" t="s">
         <v>557</v>
       </c>
-      <c r="D33" s="481"/>
-      <c r="E33" s="481"/>
+      <c r="D33" s="487"/>
+      <c r="E33" s="487"/>
       <c r="F33" s="192" t="s">
         <v>505</v>
       </c>
-      <c r="G33" s="481"/>
-      <c r="I33" s="477"/>
-      <c r="J33" s="477"/>
+      <c r="G33" s="487"/>
+      <c r="I33" s="483"/>
+      <c r="J33" s="483"/>
       <c r="L33" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="34" spans="2:12">
-      <c r="B34" s="476" t="s">
+      <c r="B34" s="482" t="s">
         <v>559</v>
       </c>
       <c r="C34" s="191" t="s">
         <v>560</v>
       </c>
-      <c r="D34" s="480" t="s">
+      <c r="D34" s="486" t="s">
         <v>527</v>
       </c>
-      <c r="E34" s="480" t="s">
+      <c r="E34" s="486" t="s">
         <v>561</v>
       </c>
       <c r="F34" s="191" t="s">
         <v>562</v>
       </c>
-      <c r="G34" s="480" t="s">
+      <c r="G34" s="486" t="s">
         <v>527</v>
       </c>
-      <c r="I34" s="476" t="str">
+      <c r="I34" s="482" t="str">
         <f>L24 &amp; L22</f>
         <v>ㄨㄚ</v>
       </c>
-      <c r="J34" s="476" t="s">
+      <c r="J34" s="482" t="s">
         <v>559</v>
       </c>
       <c r="L34" t="s">
@@ -16420,101 +16453,101 @@
       </c>
     </row>
     <row r="35" spans="2:12">
-      <c r="B35" s="477"/>
+      <c r="B35" s="483"/>
       <c r="C35" s="192" t="s">
         <v>563</v>
       </c>
-      <c r="D35" s="481"/>
-      <c r="E35" s="481"/>
+      <c r="D35" s="487"/>
+      <c r="E35" s="487"/>
       <c r="F35" s="192" t="s">
         <v>564</v>
       </c>
-      <c r="G35" s="481"/>
-      <c r="I35" s="477"/>
-      <c r="J35" s="477"/>
+      <c r="G35" s="487"/>
+      <c r="I35" s="483"/>
+      <c r="J35" s="483"/>
       <c r="L35" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="36" spans="2:12">
-      <c r="B36" s="476" t="s">
+      <c r="B36" s="482" t="s">
         <v>565</v>
       </c>
       <c r="C36" s="191" t="s">
         <v>566</v>
       </c>
-      <c r="D36" s="480" t="s">
+      <c r="D36" s="486" t="s">
         <v>527</v>
       </c>
-      <c r="E36" s="480" t="s">
+      <c r="E36" s="486" t="s">
         <v>505</v>
       </c>
-      <c r="F36" s="480" t="s">
+      <c r="F36" s="486" t="s">
         <v>505</v>
       </c>
-      <c r="G36" s="480" t="s">
+      <c r="G36" s="486" t="s">
         <v>505</v>
       </c>
-      <c r="I36" s="476" t="str">
+      <c r="I36" s="482" t="str">
         <f xml:space="preserve"> L24 &amp; L25</f>
         <v>ㄨㄝ</v>
       </c>
-      <c r="J36" s="476" t="s">
+      <c r="J36" s="482" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="37" spans="2:12">
-      <c r="B37" s="477"/>
+      <c r="B37" s="483"/>
       <c r="C37" s="192" t="s">
         <v>567</v>
       </c>
-      <c r="D37" s="481"/>
-      <c r="E37" s="481"/>
-      <c r="F37" s="481"/>
-      <c r="G37" s="481"/>
-      <c r="I37" s="477"/>
-      <c r="J37" s="477"/>
+      <c r="D37" s="487"/>
+      <c r="E37" s="487"/>
+      <c r="F37" s="487"/>
+      <c r="G37" s="487"/>
+      <c r="I37" s="483"/>
+      <c r="J37" s="483"/>
     </row>
     <row r="38" spans="2:12">
-      <c r="B38" s="476" t="s">
+      <c r="B38" s="482" t="s">
         <v>568</v>
       </c>
       <c r="C38" s="191" t="s">
         <v>569</v>
       </c>
-      <c r="D38" s="480" t="s">
+      <c r="D38" s="486" t="s">
         <v>527</v>
       </c>
-      <c r="E38" s="480" t="s">
+      <c r="E38" s="486" t="s">
         <v>570</v>
       </c>
       <c r="F38" s="191" t="s">
         <v>571</v>
       </c>
-      <c r="G38" s="480" t="s">
+      <c r="G38" s="486" t="s">
         <v>527</v>
       </c>
-      <c r="I38" s="476" t="str">
+      <c r="I38" s="482" t="str">
         <f xml:space="preserve"> L24 &amp; I22</f>
         <v>ㄨㄞ</v>
       </c>
-      <c r="J38" s="476" t="s">
+      <c r="J38" s="482" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="39" spans="2:12">
-      <c r="B39" s="477"/>
+      <c r="B39" s="483"/>
       <c r="C39" s="192" t="s">
         <v>572</v>
       </c>
-      <c r="D39" s="481"/>
-      <c r="E39" s="481"/>
+      <c r="D39" s="487"/>
+      <c r="E39" s="487"/>
       <c r="F39" s="192" t="s">
         <v>573</v>
       </c>
-      <c r="G39" s="481"/>
-      <c r="I39" s="477"/>
-      <c r="J39" s="477"/>
+      <c r="G39" s="487"/>
+      <c r="I39" s="483"/>
+      <c r="J39" s="483"/>
     </row>
     <row r="40" spans="2:12">
       <c r="B40" s="193" t="s">
@@ -16527,23 +16560,23 @@
       </c>
     </row>
     <row r="42" spans="2:12">
-      <c r="B42" s="482" t="s">
+      <c r="B42" s="488" t="s">
         <v>575</v>
       </c>
-      <c r="C42" s="482"/>
-      <c r="D42" s="482"/>
-      <c r="E42" s="482"/>
-      <c r="F42" s="482"/>
-      <c r="G42" s="482"/>
+      <c r="C42" s="488"/>
+      <c r="D42" s="488"/>
+      <c r="E42" s="488"/>
+      <c r="F42" s="488"/>
+      <c r="G42" s="488"/>
     </row>
     <row r="44" spans="2:12">
       <c r="B44" s="195" t="s">
         <v>576</v>
       </c>
-      <c r="C44" s="483" t="s">
+      <c r="C44" s="489" t="s">
         <v>488</v>
       </c>
-      <c r="D44" s="483" t="s">
+      <c r="D44" s="489" t="s">
         <v>489</v>
       </c>
     </row>
@@ -16551,44 +16584,44 @@
       <c r="B45" s="196" t="s">
         <v>487</v>
       </c>
-      <c r="C45" s="484"/>
-      <c r="D45" s="484"/>
+      <c r="C45" s="490"/>
+      <c r="D45" s="490"/>
     </row>
     <row r="46" spans="2:12">
-      <c r="B46" s="476" t="s">
+      <c r="B46" s="482" t="s">
         <v>20</v>
       </c>
       <c r="C46" s="191" t="s">
         <v>577</v>
       </c>
-      <c r="D46" s="480" t="s">
+      <c r="D46" s="486" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="47" spans="2:12">
-      <c r="B47" s="477"/>
+      <c r="B47" s="483"/>
       <c r="C47" s="192" t="s">
         <v>579</v>
       </c>
-      <c r="D47" s="481"/>
+      <c r="D47" s="487"/>
     </row>
     <row r="48" spans="2:12">
-      <c r="B48" s="476" t="s">
+      <c r="B48" s="482" t="s">
         <v>64</v>
       </c>
       <c r="C48" s="191" t="s">
         <v>580</v>
       </c>
-      <c r="D48" s="480" t="s">
+      <c r="D48" s="486" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="49" spans="2:17">
-      <c r="B49" s="477"/>
+      <c r="B49" s="483"/>
       <c r="C49" s="192" t="s">
         <v>582</v>
       </c>
-      <c r="D49" s="481"/>
+      <c r="D49" s="487"/>
     </row>
     <row r="52" spans="2:17">
       <c r="B52" s="193" t="s">
@@ -16601,92 +16634,92 @@
       </c>
     </row>
     <row r="54" spans="2:17">
-      <c r="B54" s="482" t="s">
+      <c r="B54" s="488" t="s">
         <v>584</v>
       </c>
-      <c r="C54" s="482"/>
-      <c r="D54" s="482"/>
-      <c r="E54" s="482"/>
-      <c r="F54" s="482"/>
-      <c r="G54" s="482"/>
-      <c r="H54" s="482"/>
-      <c r="I54" s="482"/>
-      <c r="J54" s="482"/>
-      <c r="K54" s="482"/>
-      <c r="L54" s="482"/>
-      <c r="M54" s="482"/>
-      <c r="N54" s="482"/>
-      <c r="O54" s="482"/>
-      <c r="P54" s="482"/>
-      <c r="Q54" s="482"/>
+      <c r="C54" s="488"/>
+      <c r="D54" s="488"/>
+      <c r="E54" s="488"/>
+      <c r="F54" s="488"/>
+      <c r="G54" s="488"/>
+      <c r="H54" s="488"/>
+      <c r="I54" s="488"/>
+      <c r="J54" s="488"/>
+      <c r="K54" s="488"/>
+      <c r="L54" s="488"/>
+      <c r="M54" s="488"/>
+      <c r="N54" s="488"/>
+      <c r="O54" s="488"/>
+      <c r="P54" s="488"/>
+      <c r="Q54" s="488"/>
     </row>
     <row r="56" spans="2:17">
-      <c r="B56" s="482" t="s">
+      <c r="B56" s="488" t="s">
         <v>585</v>
       </c>
-      <c r="C56" s="482"/>
-      <c r="D56" s="482"/>
-      <c r="E56" s="482"/>
-      <c r="F56" s="482"/>
-      <c r="G56" s="482"/>
-      <c r="H56" s="482"/>
-      <c r="I56" s="482"/>
-      <c r="J56" s="482"/>
-      <c r="K56" s="482"/>
-      <c r="L56" s="482"/>
-      <c r="M56" s="482"/>
-      <c r="N56" s="482"/>
-      <c r="O56" s="482"/>
-      <c r="P56" s="482"/>
-      <c r="Q56" s="482"/>
+      <c r="C56" s="488"/>
+      <c r="D56" s="488"/>
+      <c r="E56" s="488"/>
+      <c r="F56" s="488"/>
+      <c r="G56" s="488"/>
+      <c r="H56" s="488"/>
+      <c r="I56" s="488"/>
+      <c r="J56" s="488"/>
+      <c r="K56" s="488"/>
+      <c r="L56" s="488"/>
+      <c r="M56" s="488"/>
+      <c r="N56" s="488"/>
+      <c r="O56" s="488"/>
+      <c r="P56" s="488"/>
+      <c r="Q56" s="488"/>
     </row>
     <row r="58" spans="2:17">
       <c r="B58" s="197" t="s">
         <v>586</v>
       </c>
-      <c r="C58" s="487" t="s">
+      <c r="C58" s="493" t="s">
         <v>587</v>
       </c>
-      <c r="D58" s="483" t="s">
+      <c r="D58" s="489" t="s">
         <v>488</v>
       </c>
-      <c r="E58" s="483" t="s">
+      <c r="E58" s="489" t="s">
         <v>489</v>
       </c>
       <c r="F58" s="195" t="s">
         <v>588</v>
       </c>
-      <c r="G58" s="483" t="s">
+      <c r="G58" s="489" t="s">
         <v>488</v>
       </c>
-      <c r="H58" s="483" t="s">
+      <c r="H58" s="489" t="s">
         <v>489</v>
       </c>
       <c r="I58" s="195" t="s">
         <v>588</v>
       </c>
-      <c r="J58" s="483" t="s">
+      <c r="J58" s="489" t="s">
         <v>488</v>
       </c>
-      <c r="K58" s="483" t="s">
+      <c r="K58" s="489" t="s">
         <v>489</v>
       </c>
-      <c r="L58" s="487" t="s">
+      <c r="L58" s="493" t="s">
         <v>589</v>
       </c>
-      <c r="M58" s="483" t="s">
+      <c r="M58" s="489" t="s">
         <v>488</v>
       </c>
-      <c r="N58" s="483" t="s">
+      <c r="N58" s="489" t="s">
         <v>489</v>
       </c>
-      <c r="O58" s="487" t="s">
+      <c r="O58" s="493" t="s">
         <v>590</v>
       </c>
-      <c r="P58" s="483" t="s">
+      <c r="P58" s="489" t="s">
         <v>488</v>
       </c>
-      <c r="Q58" s="483" t="s">
+      <c r="Q58" s="489" t="s">
         <v>489</v>
       </c>
     </row>
@@ -16694,139 +16727,139 @@
       <c r="B59" s="198" t="s">
         <v>591</v>
       </c>
-      <c r="C59" s="488"/>
-      <c r="D59" s="484"/>
-      <c r="E59" s="484"/>
+      <c r="C59" s="494"/>
+      <c r="D59" s="490"/>
+      <c r="E59" s="490"/>
       <c r="F59" s="196" t="s">
         <v>592</v>
       </c>
-      <c r="G59" s="484"/>
-      <c r="H59" s="484"/>
+      <c r="G59" s="490"/>
+      <c r="H59" s="490"/>
       <c r="I59" s="196" t="s">
         <v>593</v>
       </c>
-      <c r="J59" s="484"/>
-      <c r="K59" s="484"/>
-      <c r="L59" s="488"/>
-      <c r="M59" s="484"/>
-      <c r="N59" s="484"/>
-      <c r="O59" s="488"/>
-      <c r="P59" s="484"/>
-      <c r="Q59" s="484"/>
+      <c r="J59" s="490"/>
+      <c r="K59" s="490"/>
+      <c r="L59" s="494"/>
+      <c r="M59" s="490"/>
+      <c r="N59" s="490"/>
+      <c r="O59" s="494"/>
+      <c r="P59" s="490"/>
+      <c r="Q59" s="490"/>
     </row>
     <row r="60" spans="2:17" ht="28.5">
       <c r="B60" s="199" t="s">
         <v>594</v>
       </c>
-      <c r="C60" s="476" t="s">
+      <c r="C60" s="482" t="s">
         <v>16</v>
       </c>
       <c r="D60" s="191" t="s">
         <v>595</v>
       </c>
-      <c r="E60" s="478" t="s">
+      <c r="E60" s="484" t="s">
         <v>596</v>
       </c>
-      <c r="F60" s="476" t="s">
+      <c r="F60" s="482" t="s">
         <v>8</v>
       </c>
       <c r="G60" s="191" t="s">
         <v>597</v>
       </c>
-      <c r="H60" s="478" t="s">
+      <c r="H60" s="484" t="s">
         <v>598</v>
       </c>
-      <c r="I60" s="476" t="s">
+      <c r="I60" s="482" t="s">
         <v>12</v>
       </c>
       <c r="J60" s="191" t="s">
         <v>599</v>
       </c>
-      <c r="K60" s="478" t="s">
+      <c r="K60" s="484" t="s">
         <v>600</v>
       </c>
-      <c r="L60" s="476" t="s">
+      <c r="L60" s="482" t="s">
         <v>20</v>
       </c>
       <c r="M60" s="191" t="s">
         <v>601</v>
       </c>
-      <c r="N60" s="478" t="s">
+      <c r="N60" s="484" t="s">
         <v>602</v>
       </c>
-      <c r="O60" s="485"/>
-      <c r="P60" s="489"/>
-      <c r="Q60" s="489"/>
+      <c r="O60" s="491"/>
+      <c r="P60" s="495"/>
+      <c r="Q60" s="495"/>
     </row>
     <row r="61" spans="2:17">
       <c r="B61" s="200" t="s">
         <v>603</v>
       </c>
-      <c r="C61" s="477"/>
+      <c r="C61" s="483"/>
       <c r="D61" s="192" t="s">
         <v>604</v>
       </c>
-      <c r="E61" s="479"/>
-      <c r="F61" s="477"/>
+      <c r="E61" s="485"/>
+      <c r="F61" s="483"/>
       <c r="G61" s="192" t="s">
         <v>605</v>
       </c>
-      <c r="H61" s="479"/>
-      <c r="I61" s="477"/>
+      <c r="H61" s="485"/>
+      <c r="I61" s="483"/>
       <c r="J61" s="192" t="s">
         <v>606</v>
       </c>
-      <c r="K61" s="479"/>
-      <c r="L61" s="477"/>
+      <c r="K61" s="485"/>
+      <c r="L61" s="483"/>
       <c r="M61" s="192" t="s">
         <v>607</v>
       </c>
-      <c r="N61" s="479"/>
-      <c r="O61" s="486"/>
-      <c r="P61" s="490"/>
-      <c r="Q61" s="490"/>
+      <c r="N61" s="485"/>
+      <c r="O61" s="492"/>
+      <c r="P61" s="496"/>
+      <c r="Q61" s="496"/>
     </row>
     <row r="62" spans="2:17" ht="28.5">
       <c r="B62" s="199" t="s">
         <v>608</v>
       </c>
-      <c r="C62" s="485"/>
-      <c r="D62" s="489"/>
-      <c r="E62" s="489"/>
-      <c r="F62" s="476" t="s">
+      <c r="C62" s="491"/>
+      <c r="D62" s="495"/>
+      <c r="E62" s="495"/>
+      <c r="F62" s="482" t="s">
         <v>23</v>
       </c>
       <c r="G62" s="191" t="s">
         <v>609</v>
       </c>
-      <c r="H62" s="478" t="s">
+      <c r="H62" s="484" t="s">
         <v>610</v>
       </c>
-      <c r="I62" s="476" t="s">
+      <c r="I62" s="482" t="s">
         <v>27</v>
       </c>
       <c r="J62" s="191" t="s">
         <v>611</v>
       </c>
-      <c r="K62" s="478" t="s">
+      <c r="K62" s="484" t="s">
         <v>612</v>
       </c>
-      <c r="L62" s="476" t="s">
+      <c r="L62" s="482" t="s">
         <v>31</v>
       </c>
       <c r="M62" s="191" t="s">
         <v>613</v>
       </c>
-      <c r="N62" s="478" t="s">
+      <c r="N62" s="484" t="s">
         <v>614</v>
       </c>
-      <c r="O62" s="476" t="s">
+      <c r="O62" s="482" t="s">
         <v>35</v>
       </c>
       <c r="P62" s="191" t="s">
         <v>615</v>
       </c>
-      <c r="Q62" s="478" t="s">
+      <c r="Q62" s="484" t="s">
         <v>616</v>
       </c>
     </row>
@@ -16834,77 +16867,77 @@
       <c r="B63" s="200" t="s">
         <v>617</v>
       </c>
-      <c r="C63" s="486"/>
-      <c r="D63" s="490"/>
-      <c r="E63" s="490"/>
-      <c r="F63" s="477"/>
+      <c r="C63" s="492"/>
+      <c r="D63" s="496"/>
+      <c r="E63" s="496"/>
+      <c r="F63" s="483"/>
       <c r="G63" s="192" t="s">
         <v>618</v>
       </c>
-      <c r="H63" s="479"/>
-      <c r="I63" s="477"/>
+      <c r="H63" s="485"/>
+      <c r="I63" s="483"/>
       <c r="J63" s="192" t="s">
         <v>619</v>
       </c>
-      <c r="K63" s="479"/>
-      <c r="L63" s="477"/>
+      <c r="K63" s="485"/>
+      <c r="L63" s="483"/>
       <c r="M63" s="192" t="s">
         <v>620</v>
       </c>
-      <c r="N63" s="479"/>
-      <c r="O63" s="477"/>
+      <c r="N63" s="485"/>
+      <c r="O63" s="483"/>
       <c r="P63" s="192" t="s">
         <v>621</v>
       </c>
-      <c r="Q63" s="479"/>
+      <c r="Q63" s="485"/>
     </row>
     <row r="64" spans="2:17" ht="28.5">
       <c r="B64" s="199" t="s">
         <v>622</v>
       </c>
-      <c r="C64" s="476" t="s">
+      <c r="C64" s="482" t="s">
         <v>60</v>
       </c>
       <c r="D64" s="191" t="s">
         <v>623</v>
       </c>
-      <c r="E64" s="478" t="s">
+      <c r="E64" s="484" t="s">
         <v>624</v>
       </c>
-      <c r="F64" s="476" t="s">
+      <c r="F64" s="482" t="s">
         <v>53</v>
       </c>
       <c r="G64" s="191" t="s">
         <v>625</v>
       </c>
-      <c r="H64" s="478" t="s">
+      <c r="H64" s="484" t="s">
         <v>626</v>
       </c>
-      <c r="I64" s="476" t="s">
+      <c r="I64" s="482" t="s">
         <v>57</v>
       </c>
       <c r="J64" s="191" t="s">
         <v>627</v>
       </c>
-      <c r="K64" s="478" t="s">
+      <c r="K64" s="484" t="s">
         <v>628</v>
       </c>
-      <c r="L64" s="476" t="s">
+      <c r="L64" s="482" t="s">
         <v>64</v>
       </c>
       <c r="M64" s="191" t="s">
         <v>629</v>
       </c>
-      <c r="N64" s="478" t="s">
+      <c r="N64" s="484" t="s">
         <v>630</v>
       </c>
-      <c r="O64" s="476" t="s">
+      <c r="O64" s="482" t="s">
         <v>67</v>
       </c>
       <c r="P64" s="191" t="s">
         <v>631</v>
       </c>
-      <c r="Q64" s="478" t="s">
+      <c r="Q64" s="484" t="s">
         <v>632</v>
       </c>
     </row>
@@ -16912,73 +16945,73 @@
       <c r="B65" s="200" t="s">
         <v>633</v>
       </c>
-      <c r="C65" s="477"/>
+      <c r="C65" s="483"/>
       <c r="D65" s="192" t="s">
         <v>634</v>
       </c>
-      <c r="E65" s="479"/>
-      <c r="F65" s="477"/>
+      <c r="E65" s="485"/>
+      <c r="F65" s="483"/>
       <c r="G65" s="192" t="s">
         <v>635</v>
       </c>
-      <c r="H65" s="479"/>
-      <c r="I65" s="477"/>
+      <c r="H65" s="485"/>
+      <c r="I65" s="483"/>
       <c r="J65" s="192" t="s">
         <v>636</v>
       </c>
-      <c r="K65" s="479"/>
-      <c r="L65" s="477"/>
+      <c r="K65" s="485"/>
+      <c r="L65" s="483"/>
       <c r="M65" s="192" t="s">
         <v>637</v>
       </c>
-      <c r="N65" s="479"/>
-      <c r="O65" s="477"/>
+      <c r="N65" s="485"/>
+      <c r="O65" s="483"/>
       <c r="P65" s="192" t="s">
         <v>638</v>
       </c>
-      <c r="Q65" s="479"/>
+      <c r="Q65" s="485"/>
     </row>
     <row r="66" spans="2:17" ht="28.5">
       <c r="B66" s="199" t="s">
         <v>639</v>
       </c>
-      <c r="C66" s="476" t="s">
+      <c r="C66" s="482" t="s">
         <v>303</v>
       </c>
       <c r="D66" s="191" t="s">
         <v>640</v>
       </c>
-      <c r="E66" s="478" t="s">
+      <c r="E66" s="484" t="s">
         <v>641</v>
       </c>
-      <c r="F66" s="476" t="s">
+      <c r="F66" s="482" t="s">
         <v>642</v>
       </c>
       <c r="G66" s="191" t="s">
         <v>643</v>
       </c>
-      <c r="H66" s="478" t="s">
+      <c r="H66" s="484" t="s">
         <v>644</v>
       </c>
-      <c r="I66" s="476" t="s">
+      <c r="I66" s="482" t="s">
         <v>645</v>
       </c>
       <c r="J66" s="191" t="s">
         <v>646</v>
       </c>
-      <c r="K66" s="478" t="s">
+      <c r="K66" s="484" t="s">
         <v>647</v>
       </c>
-      <c r="L66" s="485"/>
-      <c r="M66" s="489"/>
-      <c r="N66" s="489"/>
-      <c r="O66" s="476" t="s">
+      <c r="L66" s="491"/>
+      <c r="M66" s="495"/>
+      <c r="N66" s="495"/>
+      <c r="O66" s="482" t="s">
         <v>50</v>
       </c>
       <c r="P66" s="191" t="s">
         <v>648</v>
       </c>
-      <c r="Q66" s="478" t="s">
+      <c r="Q66" s="484" t="s">
         <v>649</v>
       </c>
     </row>
@@ -16986,29 +17019,29 @@
       <c r="B67" s="200" t="s">
         <v>650</v>
       </c>
-      <c r="C67" s="477"/>
+      <c r="C67" s="483"/>
       <c r="D67" s="192" t="s">
         <v>651</v>
       </c>
-      <c r="E67" s="479"/>
-      <c r="F67" s="477"/>
+      <c r="E67" s="485"/>
+      <c r="F67" s="483"/>
       <c r="G67" s="192" t="s">
         <v>652</v>
       </c>
-      <c r="H67" s="479"/>
-      <c r="I67" s="477"/>
+      <c r="H67" s="485"/>
+      <c r="I67" s="483"/>
       <c r="J67" s="192" t="s">
         <v>653</v>
       </c>
-      <c r="K67" s="479"/>
-      <c r="L67" s="486"/>
-      <c r="M67" s="490"/>
-      <c r="N67" s="490"/>
-      <c r="O67" s="477"/>
+      <c r="K67" s="485"/>
+      <c r="L67" s="492"/>
+      <c r="M67" s="496"/>
+      <c r="N67" s="496"/>
+      <c r="O67" s="483"/>
       <c r="P67" s="192" t="s">
         <v>654</v>
       </c>
-      <c r="Q67" s="479"/>
+      <c r="Q67" s="485"/>
     </row>
   </sheetData>
   <mergeCells count="149">
@@ -17219,18 +17252,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="39">
-      <c r="B2" s="493" t="s">
+      <c r="B2" s="499" t="s">
         <v>746</v>
       </c>
-      <c r="C2" s="493"/>
-      <c r="D2" s="493"/>
-      <c r="E2" s="493"/>
-      <c r="F2" s="492" t="s">
+      <c r="C2" s="499"/>
+      <c r="D2" s="499"/>
+      <c r="E2" s="499"/>
+      <c r="F2" s="498" t="s">
         <v>747</v>
       </c>
-      <c r="G2" s="492"/>
-      <c r="H2" s="492"/>
-      <c r="I2" s="492"/>
+      <c r="G2" s="498"/>
+      <c r="H2" s="498"/>
+      <c r="I2" s="498"/>
     </row>
     <row r="3" spans="2:12" ht="25.5">
       <c r="B3" s="211" t="s">
@@ -18102,7 +18135,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14">
-      <c r="B2" s="495" t="s">
+      <c r="B2" s="501" t="s">
         <v>868</v>
       </c>
       <c r="C2" s="294" t="s">
@@ -18113,26 +18146,26 @@
       </c>
     </row>
     <row r="3" spans="2:14" ht="21" customHeight="1">
-      <c r="B3" s="495"/>
-      <c r="C3" s="496" t="s">
+      <c r="B3" s="501"/>
+      <c r="C3" s="502" t="s">
         <v>871</v>
       </c>
-      <c r="D3" s="496" t="s">
+      <c r="D3" s="502" t="s">
         <v>872</v>
       </c>
     </row>
     <row r="4" spans="2:14" ht="21" customHeight="1">
-      <c r="B4" s="495"/>
-      <c r="C4" s="496"/>
-      <c r="D4" s="496"/>
+      <c r="B4" s="501"/>
+      <c r="C4" s="502"/>
+      <c r="D4" s="502"/>
     </row>
     <row r="5" spans="2:14" ht="21" customHeight="1">
-      <c r="B5" s="495"/>
-      <c r="C5" s="496"/>
-      <c r="D5" s="496"/>
+      <c r="B5" s="501"/>
+      <c r="C5" s="502"/>
+      <c r="D5" s="502"/>
     </row>
     <row r="6" spans="2:14">
-      <c r="B6" s="495"/>
+      <c r="B6" s="501"/>
       <c r="C6" s="297" t="s">
         <v>873</v>
       </c>
@@ -18141,7 +18174,7 @@
       </c>
     </row>
     <row r="9" spans="2:14" s="293" customFormat="1">
-      <c r="B9" s="495" t="s">
+      <c r="B9" s="501" t="s">
         <v>875</v>
       </c>
       <c r="C9" s="294" t="s">
@@ -18182,76 +18215,76 @@
       </c>
     </row>
     <row r="10" spans="2:14" ht="21" customHeight="1">
-      <c r="B10" s="495"/>
-      <c r="C10" s="496" t="s">
+      <c r="B10" s="501"/>
+      <c r="C10" s="502" t="s">
         <v>888</v>
       </c>
-      <c r="D10" s="496" t="s">
+      <c r="D10" s="502" t="s">
         <v>150</v>
       </c>
-      <c r="E10" s="496" t="s">
+      <c r="E10" s="502" t="s">
         <v>889</v>
       </c>
-      <c r="F10" s="496" t="s">
+      <c r="F10" s="502" t="s">
         <v>890</v>
       </c>
-      <c r="G10" s="496" t="s">
+      <c r="G10" s="502" t="s">
         <v>891</v>
       </c>
-      <c r="H10" s="496" t="s">
+      <c r="H10" s="502" t="s">
         <v>892</v>
       </c>
-      <c r="I10" s="496" t="s">
+      <c r="I10" s="502" t="s">
         <v>892</v>
       </c>
-      <c r="J10" s="496" t="s">
+      <c r="J10" s="502" t="s">
         <v>893</v>
       </c>
-      <c r="K10" s="496" t="s">
+      <c r="K10" s="502" t="s">
         <v>893</v>
       </c>
-      <c r="L10" s="494" t="s">
+      <c r="L10" s="500" t="s">
         <v>894</v>
       </c>
-      <c r="M10" s="494" t="s">
+      <c r="M10" s="500" t="s">
         <v>895</v>
       </c>
-      <c r="N10" s="494" t="s">
+      <c r="N10" s="500" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="11" spans="2:14" ht="21" customHeight="1">
-      <c r="B11" s="495"/>
-      <c r="C11" s="496"/>
-      <c r="D11" s="496"/>
-      <c r="E11" s="496"/>
-      <c r="F11" s="496"/>
-      <c r="G11" s="496"/>
-      <c r="H11" s="496"/>
-      <c r="I11" s="496"/>
-      <c r="J11" s="496"/>
-      <c r="K11" s="496"/>
-      <c r="L11" s="494"/>
-      <c r="M11" s="494"/>
-      <c r="N11" s="494"/>
+      <c r="B11" s="501"/>
+      <c r="C11" s="502"/>
+      <c r="D11" s="502"/>
+      <c r="E11" s="502"/>
+      <c r="F11" s="502"/>
+      <c r="G11" s="502"/>
+      <c r="H11" s="502"/>
+      <c r="I11" s="502"/>
+      <c r="J11" s="502"/>
+      <c r="K11" s="502"/>
+      <c r="L11" s="500"/>
+      <c r="M11" s="500"/>
+      <c r="N11" s="500"/>
     </row>
     <row r="12" spans="2:14" ht="21" customHeight="1">
-      <c r="B12" s="495"/>
-      <c r="C12" s="496"/>
-      <c r="D12" s="496"/>
-      <c r="E12" s="496"/>
-      <c r="F12" s="496"/>
-      <c r="G12" s="496"/>
-      <c r="H12" s="496"/>
-      <c r="I12" s="496"/>
-      <c r="J12" s="496"/>
-      <c r="K12" s="496"/>
-      <c r="L12" s="494"/>
-      <c r="M12" s="494"/>
-      <c r="N12" s="494"/>
+      <c r="B12" s="501"/>
+      <c r="C12" s="502"/>
+      <c r="D12" s="502"/>
+      <c r="E12" s="502"/>
+      <c r="F12" s="502"/>
+      <c r="G12" s="502"/>
+      <c r="H12" s="502"/>
+      <c r="I12" s="502"/>
+      <c r="J12" s="502"/>
+      <c r="K12" s="502"/>
+      <c r="L12" s="500"/>
+      <c r="M12" s="500"/>
+      <c r="N12" s="500"/>
     </row>
     <row r="13" spans="2:14" s="293" customFormat="1">
-      <c r="B13" s="495"/>
+      <c r="B13" s="501"/>
       <c r="C13" s="295" t="s">
         <v>896</v>
       </c>
@@ -18299,7 +18332,7 @@
       <c r="M14" s="319"/>
     </row>
     <row r="16" spans="2:14" s="293" customFormat="1">
-      <c r="B16" s="497" t="s">
+      <c r="B16" s="503" t="s">
         <v>906</v>
       </c>
       <c r="C16" s="294" t="s">
@@ -18313,52 +18346,52 @@
       </c>
     </row>
     <row r="17" spans="2:12" ht="21" customHeight="1">
-      <c r="B17" s="497"/>
-      <c r="C17" s="494" t="s">
+      <c r="B17" s="503"/>
+      <c r="C17" s="500" t="s">
         <v>910</v>
       </c>
-      <c r="D17" s="494" t="s">
+      <c r="D17" s="500" t="s">
         <v>911</v>
       </c>
-      <c r="E17" s="494" t="s">
+      <c r="E17" s="500" t="s">
         <v>912</v>
       </c>
-      <c r="F17" s="496"/>
-      <c r="G17" s="496"/>
-      <c r="H17" s="496"/>
-      <c r="I17" s="496"/>
-      <c r="J17" s="496"/>
-      <c r="K17" s="496"/>
-      <c r="L17" s="496"/>
+      <c r="F17" s="502"/>
+      <c r="G17" s="502"/>
+      <c r="H17" s="502"/>
+      <c r="I17" s="502"/>
+      <c r="J17" s="502"/>
+      <c r="K17" s="502"/>
+      <c r="L17" s="502"/>
     </row>
     <row r="18" spans="2:12" ht="21" customHeight="1">
-      <c r="B18" s="497"/>
-      <c r="C18" s="494"/>
-      <c r="D18" s="494"/>
-      <c r="E18" s="494"/>
-      <c r="F18" s="496"/>
-      <c r="G18" s="496"/>
-      <c r="H18" s="496"/>
-      <c r="I18" s="496"/>
-      <c r="J18" s="496"/>
-      <c r="K18" s="496"/>
-      <c r="L18" s="496"/>
+      <c r="B18" s="503"/>
+      <c r="C18" s="500"/>
+      <c r="D18" s="500"/>
+      <c r="E18" s="500"/>
+      <c r="F18" s="502"/>
+      <c r="G18" s="502"/>
+      <c r="H18" s="502"/>
+      <c r="I18" s="502"/>
+      <c r="J18" s="502"/>
+      <c r="K18" s="502"/>
+      <c r="L18" s="502"/>
     </row>
     <row r="19" spans="2:12" ht="21" customHeight="1">
-      <c r="B19" s="497"/>
-      <c r="C19" s="494"/>
-      <c r="D19" s="494"/>
-      <c r="E19" s="494"/>
-      <c r="F19" s="496"/>
-      <c r="G19" s="496"/>
-      <c r="H19" s="496"/>
-      <c r="I19" s="496"/>
-      <c r="J19" s="496"/>
-      <c r="K19" s="496"/>
-      <c r="L19" s="496"/>
+      <c r="B19" s="503"/>
+      <c r="C19" s="500"/>
+      <c r="D19" s="500"/>
+      <c r="E19" s="500"/>
+      <c r="F19" s="502"/>
+      <c r="G19" s="502"/>
+      <c r="H19" s="502"/>
+      <c r="I19" s="502"/>
+      <c r="J19" s="502"/>
+      <c r="K19" s="502"/>
+      <c r="L19" s="502"/>
     </row>
     <row r="20" spans="2:12" s="293" customFormat="1">
-      <c r="B20" s="497"/>
+      <c r="B20" s="503"/>
       <c r="C20" s="295" t="s">
         <v>913</v>
       </c>
@@ -18370,7 +18403,7 @@
       </c>
     </row>
     <row r="23" spans="2:12" s="293" customFormat="1">
-      <c r="B23" s="497" t="s">
+      <c r="B23" s="503" t="s">
         <v>747</v>
       </c>
       <c r="C23" s="294" t="s">
@@ -18387,54 +18420,54 @@
       </c>
     </row>
     <row r="24" spans="2:12" ht="21" customHeight="1">
-      <c r="B24" s="497"/>
-      <c r="C24" s="496" t="s">
+      <c r="B24" s="503"/>
+      <c r="C24" s="502" t="s">
         <v>919</v>
       </c>
-      <c r="D24" s="496" t="s">
+      <c r="D24" s="502" t="s">
         <v>919</v>
       </c>
-      <c r="E24" s="496" t="s">
+      <c r="E24" s="502" t="s">
         <v>920</v>
       </c>
-      <c r="F24" s="494" t="s">
+      <c r="F24" s="500" t="s">
         <v>921</v>
       </c>
-      <c r="G24" s="496"/>
-      <c r="H24" s="496"/>
-      <c r="I24" s="496"/>
-      <c r="J24" s="496"/>
-      <c r="K24" s="496"/>
-      <c r="L24" s="496"/>
+      <c r="G24" s="502"/>
+      <c r="H24" s="502"/>
+      <c r="I24" s="502"/>
+      <c r="J24" s="502"/>
+      <c r="K24" s="502"/>
+      <c r="L24" s="502"/>
     </row>
     <row r="25" spans="2:12" ht="21" customHeight="1">
-      <c r="B25" s="497"/>
-      <c r="C25" s="496"/>
-      <c r="D25" s="496"/>
-      <c r="E25" s="496"/>
-      <c r="F25" s="494"/>
-      <c r="G25" s="496"/>
-      <c r="H25" s="496"/>
-      <c r="I25" s="496"/>
-      <c r="J25" s="496"/>
-      <c r="K25" s="496"/>
-      <c r="L25" s="496"/>
+      <c r="B25" s="503"/>
+      <c r="C25" s="502"/>
+      <c r="D25" s="502"/>
+      <c r="E25" s="502"/>
+      <c r="F25" s="500"/>
+      <c r="G25" s="502"/>
+      <c r="H25" s="502"/>
+      <c r="I25" s="502"/>
+      <c r="J25" s="502"/>
+      <c r="K25" s="502"/>
+      <c r="L25" s="502"/>
     </row>
     <row r="26" spans="2:12" ht="21" customHeight="1">
-      <c r="B26" s="497"/>
-      <c r="C26" s="496"/>
-      <c r="D26" s="496"/>
-      <c r="E26" s="496"/>
-      <c r="F26" s="494"/>
-      <c r="G26" s="496"/>
-      <c r="H26" s="496"/>
-      <c r="I26" s="496"/>
-      <c r="J26" s="496"/>
-      <c r="K26" s="496"/>
-      <c r="L26" s="496"/>
+      <c r="B26" s="503"/>
+      <c r="C26" s="502"/>
+      <c r="D26" s="502"/>
+      <c r="E26" s="502"/>
+      <c r="F26" s="500"/>
+      <c r="G26" s="502"/>
+      <c r="H26" s="502"/>
+      <c r="I26" s="502"/>
+      <c r="J26" s="502"/>
+      <c r="K26" s="502"/>
+      <c r="L26" s="502"/>
     </row>
     <row r="27" spans="2:12" s="293" customFormat="1">
-      <c r="B27" s="497"/>
+      <c r="B27" s="503"/>
       <c r="C27" s="295" t="s">
         <v>922</v>
       </c>
@@ -18461,7 +18494,7 @@
       <c r="F29" s="298"/>
     </row>
     <row r="30" spans="2:12">
-      <c r="B30" s="495" t="s">
+      <c r="B30" s="501" t="s">
         <v>927</v>
       </c>
       <c r="C30" s="294" t="s">
@@ -18478,36 +18511,36 @@
       </c>
     </row>
     <row r="31" spans="2:12" ht="21" customHeight="1">
-      <c r="B31" s="495"/>
-      <c r="C31" s="496" t="s">
+      <c r="B31" s="501"/>
+      <c r="C31" s="502" t="s">
         <v>932</v>
       </c>
-      <c r="D31" s="496" t="s">
+      <c r="D31" s="502" t="s">
         <v>933</v>
       </c>
-      <c r="E31" s="496" t="s">
+      <c r="E31" s="502" t="s">
         <v>934</v>
       </c>
-      <c r="F31" s="496" t="s">
+      <c r="F31" s="502" t="s">
         <v>935</v>
       </c>
     </row>
     <row r="32" spans="2:12" ht="21" customHeight="1">
-      <c r="B32" s="495"/>
-      <c r="C32" s="496"/>
-      <c r="D32" s="496"/>
-      <c r="E32" s="496"/>
-      <c r="F32" s="496"/>
+      <c r="B32" s="501"/>
+      <c r="C32" s="502"/>
+      <c r="D32" s="502"/>
+      <c r="E32" s="502"/>
+      <c r="F32" s="502"/>
     </row>
     <row r="33" spans="2:6" ht="21" customHeight="1">
-      <c r="B33" s="495"/>
-      <c r="C33" s="496"/>
-      <c r="D33" s="496"/>
-      <c r="E33" s="496"/>
-      <c r="F33" s="496"/>
+      <c r="B33" s="501"/>
+      <c r="C33" s="502"/>
+      <c r="D33" s="502"/>
+      <c r="E33" s="502"/>
+      <c r="F33" s="502"/>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="495"/>
+      <c r="B34" s="501"/>
       <c r="C34" s="295" t="s">
         <v>936</v>
       </c>
@@ -18530,7 +18563,7 @@
       <c r="F36" s="298"/>
     </row>
     <row r="37" spans="2:6">
-      <c r="B37" s="495" t="s">
+      <c r="B37" s="501" t="s">
         <v>941</v>
       </c>
       <c r="C37" s="294" t="s">
@@ -18541,26 +18574,26 @@
       </c>
     </row>
     <row r="38" spans="2:6">
-      <c r="B38" s="495"/>
-      <c r="C38" s="496" t="s">
+      <c r="B38" s="501"/>
+      <c r="C38" s="502" t="s">
         <v>944</v>
       </c>
-      <c r="D38" s="496" t="s">
+      <c r="D38" s="502" t="s">
         <v>945</v>
       </c>
     </row>
     <row r="39" spans="2:6">
-      <c r="B39" s="495"/>
-      <c r="C39" s="496"/>
-      <c r="D39" s="496"/>
+      <c r="B39" s="501"/>
+      <c r="C39" s="502"/>
+      <c r="D39" s="502"/>
     </row>
     <row r="40" spans="2:6">
-      <c r="B40" s="495"/>
-      <c r="C40" s="496"/>
-      <c r="D40" s="496"/>
+      <c r="B40" s="501"/>
+      <c r="C40" s="502"/>
+      <c r="D40" s="502"/>
     </row>
     <row r="41" spans="2:6">
-      <c r="B41" s="495"/>
+      <c r="B41" s="501"/>
       <c r="C41" s="320" t="s">
         <v>946</v>
       </c>
@@ -18577,7 +18610,7 @@
       </c>
     </row>
     <row r="45" spans="2:6">
-      <c r="B45" s="495" t="s">
+      <c r="B45" s="501" t="s">
         <v>949</v>
       </c>
       <c r="C45" s="294" t="s">
@@ -18588,26 +18621,26 @@
       </c>
     </row>
     <row r="46" spans="2:6">
-      <c r="B46" s="495"/>
-      <c r="C46" s="496" t="s">
+      <c r="B46" s="501"/>
+      <c r="C46" s="502" t="s">
         <v>952</v>
       </c>
-      <c r="D46" s="496" t="s">
+      <c r="D46" s="502" t="s">
         <v>953</v>
       </c>
     </row>
     <row r="47" spans="2:6">
-      <c r="B47" s="495"/>
-      <c r="C47" s="496"/>
-      <c r="D47" s="496"/>
+      <c r="B47" s="501"/>
+      <c r="C47" s="502"/>
+      <c r="D47" s="502"/>
     </row>
     <row r="48" spans="2:6">
-      <c r="B48" s="495"/>
-      <c r="C48" s="496"/>
-      <c r="D48" s="496"/>
+      <c r="B48" s="501"/>
+      <c r="C48" s="502"/>
+      <c r="D48" s="502"/>
     </row>
     <row r="49" spans="2:18">
-      <c r="B49" s="495"/>
+      <c r="B49" s="501"/>
       <c r="C49" s="295" t="s">
         <v>484</v>
       </c>
@@ -18644,40 +18677,40 @@
       </c>
     </row>
     <row r="54" spans="2:18">
-      <c r="C54" s="494" t="s">
+      <c r="C54" s="500" t="s">
         <v>962</v>
       </c>
-      <c r="D54" s="494" t="s">
+      <c r="D54" s="500" t="s">
         <v>963</v>
       </c>
-      <c r="E54" s="494" t="s">
+      <c r="E54" s="500" t="s">
         <v>964</v>
       </c>
-      <c r="I54" s="494" t="s">
+      <c r="I54" s="500" t="s">
         <v>965</v>
       </c>
-      <c r="J54" s="494" t="s">
+      <c r="J54" s="500" t="s">
         <v>966</v>
       </c>
-      <c r="K54" s="494" t="s">
+      <c r="K54" s="500" t="s">
         <v>967</v>
       </c>
     </row>
     <row r="55" spans="2:18">
-      <c r="C55" s="494"/>
-      <c r="D55" s="494"/>
-      <c r="E55" s="494"/>
-      <c r="I55" s="494"/>
-      <c r="J55" s="494"/>
-      <c r="K55" s="494"/>
+      <c r="C55" s="500"/>
+      <c r="D55" s="500"/>
+      <c r="E55" s="500"/>
+      <c r="I55" s="500"/>
+      <c r="J55" s="500"/>
+      <c r="K55" s="500"/>
     </row>
     <row r="56" spans="2:18">
-      <c r="C56" s="494"/>
-      <c r="D56" s="494"/>
-      <c r="E56" s="494"/>
-      <c r="I56" s="494"/>
-      <c r="J56" s="494"/>
-      <c r="K56" s="494"/>
+      <c r="C56" s="500"/>
+      <c r="D56" s="500"/>
+      <c r="E56" s="500"/>
+      <c r="I56" s="500"/>
+      <c r="J56" s="500"/>
+      <c r="K56" s="500"/>
     </row>
     <row r="57" spans="2:18">
       <c r="C57" s="295"/>
@@ -19644,161 +19677,161 @@
   <sheetData>
     <row r="1" spans="2:16" ht="9" hidden="1" customHeight="1" outlineLevel="1"/>
     <row r="2" spans="2:16" s="263" customFormat="1" ht="33" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B2" s="451" t="s">
+      <c r="B2" s="457" t="s">
         <v>655</v>
       </c>
-      <c r="C2" s="451"/>
-      <c r="D2" s="451"/>
-      <c r="E2" s="451" t="s">
+      <c r="C2" s="457"/>
+      <c r="D2" s="457"/>
+      <c r="E2" s="457" t="s">
         <v>656</v>
       </c>
-      <c r="F2" s="451"/>
-      <c r="G2" s="451" t="s">
+      <c r="F2" s="457"/>
+      <c r="G2" s="457" t="s">
         <v>657</v>
       </c>
-      <c r="H2" s="451"/>
-      <c r="I2" s="451" t="s">
+      <c r="H2" s="457"/>
+      <c r="I2" s="457" t="s">
         <v>658</v>
       </c>
-      <c r="J2" s="451"/>
-      <c r="K2" s="451" t="s">
+      <c r="J2" s="457"/>
+      <c r="K2" s="457" t="s">
         <v>659</v>
       </c>
-      <c r="L2" s="451"/>
-      <c r="M2" s="451"/>
-      <c r="N2" s="451"/>
-      <c r="O2" s="451" t="s">
+      <c r="L2" s="457"/>
+      <c r="M2" s="457"/>
+      <c r="N2" s="457"/>
+      <c r="O2" s="457" t="s">
         <v>660</v>
       </c>
-      <c r="P2" s="451"/>
+      <c r="P2" s="457"/>
     </row>
     <row r="3" spans="2:16" s="263" customFormat="1" ht="33" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B3" s="451" t="s">
+      <c r="B3" s="457" t="s">
         <v>661</v>
       </c>
-      <c r="C3" s="451"/>
-      <c r="D3" s="451"/>
-      <c r="E3" s="451" t="s">
+      <c r="C3" s="457"/>
+      <c r="D3" s="457"/>
+      <c r="E3" s="457" t="s">
         <v>656</v>
       </c>
-      <c r="F3" s="451"/>
-      <c r="G3" s="451" t="s">
+      <c r="F3" s="457"/>
+      <c r="G3" s="457" t="s">
         <v>662</v>
       </c>
-      <c r="H3" s="451"/>
-      <c r="I3" s="451" t="s">
+      <c r="H3" s="457"/>
+      <c r="I3" s="457" t="s">
         <v>663</v>
       </c>
-      <c r="J3" s="451"/>
-      <c r="K3" s="451" t="s">
+      <c r="J3" s="457"/>
+      <c r="K3" s="457" t="s">
         <v>664</v>
       </c>
-      <c r="L3" s="451"/>
-      <c r="M3" s="451"/>
-      <c r="N3" s="451"/>
-      <c r="O3" s="451" t="s">
+      <c r="L3" s="457"/>
+      <c r="M3" s="457"/>
+      <c r="N3" s="457"/>
+      <c r="O3" s="457" t="s">
         <v>660</v>
       </c>
-      <c r="P3" s="451"/>
+      <c r="P3" s="457"/>
     </row>
     <row r="4" spans="2:16" s="263" customFormat="1" ht="33" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B4" s="451" t="s">
+      <c r="B4" s="457" t="s">
         <v>665</v>
       </c>
-      <c r="C4" s="451"/>
-      <c r="D4" s="451"/>
-      <c r="E4" s="451" t="s">
+      <c r="C4" s="457"/>
+      <c r="D4" s="457"/>
+      <c r="E4" s="457" t="s">
         <v>656</v>
       </c>
-      <c r="F4" s="451"/>
-      <c r="G4" s="451" t="s">
+      <c r="F4" s="457"/>
+      <c r="G4" s="457" t="s">
         <v>666</v>
       </c>
-      <c r="H4" s="451"/>
-      <c r="I4" s="451" t="s">
+      <c r="H4" s="457"/>
+      <c r="I4" s="457" t="s">
         <v>663</v>
       </c>
-      <c r="J4" s="451"/>
-      <c r="K4" s="451" t="s">
+      <c r="J4" s="457"/>
+      <c r="K4" s="457" t="s">
         <v>667</v>
       </c>
-      <c r="L4" s="451"/>
-      <c r="M4" s="451"/>
-      <c r="N4" s="451"/>
-      <c r="O4" s="451" t="s">
+      <c r="L4" s="457"/>
+      <c r="M4" s="457"/>
+      <c r="N4" s="457"/>
+      <c r="O4" s="457" t="s">
         <v>660</v>
       </c>
-      <c r="P4" s="451"/>
+      <c r="P4" s="457"/>
     </row>
     <row r="5" spans="2:16" s="263" customFormat="1" ht="33" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B5" s="451" t="s">
+      <c r="B5" s="457" t="s">
         <v>668</v>
       </c>
-      <c r="C5" s="451"/>
-      <c r="D5" s="451"/>
-      <c r="E5" s="451" t="s">
+      <c r="C5" s="457"/>
+      <c r="D5" s="457"/>
+      <c r="E5" s="457" t="s">
         <v>669</v>
       </c>
-      <c r="F5" s="451"/>
-      <c r="G5" s="451" t="s">
+      <c r="F5" s="457"/>
+      <c r="G5" s="457" t="s">
         <v>670</v>
       </c>
-      <c r="H5" s="451"/>
-      <c r="I5" s="451" t="s">
+      <c r="H5" s="457"/>
+      <c r="I5" s="457" t="s">
         <v>671</v>
       </c>
-      <c r="J5" s="451"/>
-      <c r="K5" s="451" t="s">
+      <c r="J5" s="457"/>
+      <c r="K5" s="457" t="s">
         <v>670</v>
       </c>
-      <c r="L5" s="451"/>
-      <c r="M5" s="451"/>
-      <c r="N5" s="451"/>
-      <c r="O5" s="451" t="s">
+      <c r="L5" s="457"/>
+      <c r="M5" s="457"/>
+      <c r="N5" s="457"/>
+      <c r="O5" s="457" t="s">
         <v>672</v>
       </c>
-      <c r="P5" s="451"/>
+      <c r="P5" s="457"/>
     </row>
     <row r="6" spans="2:16" ht="9" customHeight="1" collapsed="1"/>
     <row r="7" spans="2:16" ht="69.95" customHeight="1">
-      <c r="B7" s="444" t="s">
+      <c r="B7" s="450" t="s">
         <v>673</v>
       </c>
-      <c r="C7" s="445"/>
-      <c r="D7" s="446"/>
-      <c r="E7" s="447" t="s">
+      <c r="C7" s="451"/>
+      <c r="D7" s="452"/>
+      <c r="E7" s="453" t="s">
         <v>669</v>
       </c>
-      <c r="F7" s="448"/>
-      <c r="G7" s="439" t="s">
+      <c r="F7" s="454"/>
+      <c r="G7" s="445" t="s">
         <v>674</v>
       </c>
-      <c r="H7" s="440"/>
-      <c r="I7" s="449" t="s">
+      <c r="H7" s="446"/>
+      <c r="I7" s="455" t="s">
         <v>675</v>
       </c>
-      <c r="J7" s="450"/>
-      <c r="K7" s="439" t="s">
+      <c r="J7" s="456"/>
+      <c r="K7" s="445" t="s">
         <v>676</v>
       </c>
-      <c r="L7" s="440"/>
-      <c r="M7" s="439" t="s">
+      <c r="L7" s="446"/>
+      <c r="M7" s="445" t="s">
         <v>677</v>
       </c>
-      <c r="N7" s="440"/>
-      <c r="O7" s="439" t="s">
+      <c r="N7" s="446"/>
+      <c r="O7" s="445" t="s">
         <v>678</v>
       </c>
-      <c r="P7" s="440"/>
+      <c r="P7" s="446"/>
     </row>
     <row r="8" spans="2:16" ht="39" customHeight="1">
-      <c r="B8" s="430" t="s">
+      <c r="B8" s="436" t="s">
         <v>679</v>
       </c>
-      <c r="C8" s="441" t="s">
+      <c r="C8" s="447" t="s">
         <v>588</v>
       </c>
-      <c r="D8" s="442" t="s">
+      <c r="D8" s="448" t="s">
         <v>680</v>
       </c>
       <c r="E8" s="264" t="s">
@@ -19831,9 +19864,9 @@
       </c>
     </row>
     <row r="9" spans="2:16" ht="39" customHeight="1">
-      <c r="B9" s="430"/>
-      <c r="C9" s="441"/>
-      <c r="D9" s="442"/>
+      <c r="B9" s="436"/>
+      <c r="C9" s="447"/>
+      <c r="D9" s="448"/>
       <c r="E9" s="268" t="s">
         <v>7</v>
       </c>
@@ -19864,9 +19897,9 @@
       </c>
     </row>
     <row r="10" spans="2:16" ht="39" customHeight="1">
-      <c r="B10" s="430"/>
-      <c r="C10" s="441"/>
-      <c r="D10" s="438" t="s">
+      <c r="B10" s="436"/>
+      <c r="C10" s="447"/>
+      <c r="D10" s="444" t="s">
         <v>688</v>
       </c>
       <c r="E10" s="264" t="s">
@@ -19895,9 +19928,9 @@
       <c r="P10" s="265"/>
     </row>
     <row r="11" spans="2:16" ht="39" customHeight="1">
-      <c r="B11" s="430"/>
-      <c r="C11" s="441"/>
-      <c r="D11" s="438"/>
+      <c r="B11" s="436"/>
+      <c r="C11" s="447"/>
+      <c r="D11" s="444"/>
       <c r="E11" s="268" t="s">
         <v>345</v>
       </c>
@@ -19924,11 +19957,11 @@
       <c r="P11" s="269"/>
     </row>
     <row r="12" spans="2:16" ht="39" customHeight="1">
-      <c r="B12" s="430"/>
-      <c r="C12" s="431" t="s">
+      <c r="B12" s="436"/>
+      <c r="C12" s="437" t="s">
         <v>587</v>
       </c>
-      <c r="D12" s="443" t="s">
+      <c r="D12" s="449" t="s">
         <v>592</v>
       </c>
       <c r="E12" s="264" t="s">
@@ -19953,9 +19986,9 @@
       <c r="P12" s="265"/>
     </row>
     <row r="13" spans="2:16" ht="39" customHeight="1">
-      <c r="B13" s="430"/>
-      <c r="C13" s="431"/>
-      <c r="D13" s="443"/>
+      <c r="B13" s="436"/>
+      <c r="C13" s="437"/>
+      <c r="D13" s="449"/>
       <c r="E13" s="268" t="s">
         <v>695</v>
       </c>
@@ -19978,13 +20011,13 @@
       <c r="P13" s="269"/>
     </row>
     <row r="14" spans="2:16" ht="39" customHeight="1">
-      <c r="B14" s="430" t="s">
+      <c r="B14" s="436" t="s">
         <v>699</v>
       </c>
-      <c r="C14" s="436" t="s">
+      <c r="C14" s="442" t="s">
         <v>588</v>
       </c>
-      <c r="D14" s="432" t="s">
+      <c r="D14" s="438" t="s">
         <v>680</v>
       </c>
       <c r="E14" s="264"/>
@@ -20009,9 +20042,9 @@
       <c r="P14" s="265"/>
     </row>
     <row r="15" spans="2:16" ht="39" customHeight="1">
-      <c r="B15" s="430"/>
-      <c r="C15" s="436"/>
-      <c r="D15" s="432"/>
+      <c r="B15" s="436"/>
+      <c r="C15" s="442"/>
+      <c r="D15" s="438"/>
       <c r="E15" s="268"/>
       <c r="F15" s="269"/>
       <c r="G15" s="270"/>
@@ -20034,9 +20067,9 @@
       <c r="P15" s="269"/>
     </row>
     <row r="16" spans="2:16" ht="39" customHeight="1">
-      <c r="B16" s="430"/>
-      <c r="C16" s="436"/>
-      <c r="D16" s="438" t="s">
+      <c r="B16" s="436"/>
+      <c r="C16" s="442"/>
+      <c r="D16" s="444" t="s">
         <v>688</v>
       </c>
       <c r="E16" s="264"/>
@@ -20061,9 +20094,9 @@
       <c r="P16" s="265"/>
     </row>
     <row r="17" spans="2:17" ht="39" customHeight="1">
-      <c r="B17" s="430"/>
-      <c r="C17" s="436"/>
-      <c r="D17" s="438"/>
+      <c r="B17" s="436"/>
+      <c r="C17" s="442"/>
+      <c r="D17" s="444"/>
       <c r="E17" s="268"/>
       <c r="F17" s="269"/>
       <c r="G17" s="270"/>
@@ -20086,11 +20119,11 @@
       <c r="P17" s="269"/>
     </row>
     <row r="18" spans="2:17" ht="39" customHeight="1">
-      <c r="B18" s="430"/>
-      <c r="C18" s="431" t="s">
+      <c r="B18" s="436"/>
+      <c r="C18" s="437" t="s">
         <v>587</v>
       </c>
-      <c r="D18" s="432" t="s">
+      <c r="D18" s="438" t="s">
         <v>592</v>
       </c>
       <c r="E18" s="264"/>
@@ -20115,9 +20148,9 @@
       <c r="P18" s="265"/>
     </row>
     <row r="19" spans="2:17" ht="39" customHeight="1">
-      <c r="B19" s="430"/>
-      <c r="C19" s="431"/>
-      <c r="D19" s="432"/>
+      <c r="B19" s="436"/>
+      <c r="C19" s="437"/>
+      <c r="D19" s="438"/>
       <c r="E19" s="268"/>
       <c r="F19" s="269"/>
       <c r="G19" s="270"/>
@@ -20140,13 +20173,13 @@
       <c r="P19" s="269"/>
     </row>
     <row r="20" spans="2:17" ht="39" customHeight="1">
-      <c r="B20" s="430" t="s">
+      <c r="B20" s="436" t="s">
         <v>719</v>
       </c>
-      <c r="C20" s="436" t="s">
+      <c r="C20" s="442" t="s">
         <v>588</v>
       </c>
-      <c r="D20" s="432" t="s">
+      <c r="D20" s="438" t="s">
         <v>592</v>
       </c>
       <c r="E20" s="264"/>
@@ -20171,9 +20204,9 @@
       <c r="P20" s="265"/>
     </row>
     <row r="21" spans="2:17" ht="39" customHeight="1">
-      <c r="B21" s="430"/>
-      <c r="C21" s="436"/>
-      <c r="D21" s="432"/>
+      <c r="B21" s="436"/>
+      <c r="C21" s="442"/>
+      <c r="D21" s="438"/>
       <c r="E21" s="268"/>
       <c r="F21" s="269"/>
       <c r="G21" s="270"/>
@@ -20196,9 +20229,9 @@
       <c r="P21" s="269"/>
     </row>
     <row r="22" spans="2:17" ht="39" customHeight="1">
-      <c r="B22" s="430"/>
-      <c r="C22" s="436"/>
-      <c r="D22" s="437" t="s">
+      <c r="B22" s="436"/>
+      <c r="C22" s="442"/>
+      <c r="D22" s="443" t="s">
         <v>593</v>
       </c>
       <c r="E22" s="264"/>
@@ -20219,9 +20252,9 @@
       </c>
     </row>
     <row r="23" spans="2:17" ht="39" customHeight="1">
-      <c r="B23" s="430"/>
-      <c r="C23" s="436"/>
-      <c r="D23" s="437"/>
+      <c r="B23" s="436"/>
+      <c r="C23" s="442"/>
+      <c r="D23" s="443"/>
       <c r="E23" s="268"/>
       <c r="F23" s="269"/>
       <c r="G23" s="270"/>
@@ -20240,13 +20273,13 @@
       </c>
     </row>
     <row r="24" spans="2:17" ht="39" customHeight="1">
-      <c r="B24" s="430" t="s">
+      <c r="B24" s="436" t="s">
         <v>589</v>
       </c>
-      <c r="C24" s="431" t="s">
+      <c r="C24" s="437" t="s">
         <v>587</v>
       </c>
-      <c r="D24" s="432" t="s">
+      <c r="D24" s="438" t="s">
         <v>592</v>
       </c>
       <c r="E24" s="264" t="s">
@@ -20275,9 +20308,9 @@
       <c r="P24" s="265"/>
     </row>
     <row r="25" spans="2:17" ht="39" customHeight="1">
-      <c r="B25" s="430"/>
-      <c r="C25" s="431"/>
-      <c r="D25" s="432"/>
+      <c r="B25" s="436"/>
+      <c r="C25" s="437"/>
+      <c r="D25" s="438"/>
       <c r="E25" s="268" t="s">
         <v>558</v>
       </c>
@@ -20304,13 +20337,13 @@
       <c r="P25" s="269"/>
     </row>
     <row r="26" spans="2:17" ht="39" customHeight="1">
-      <c r="B26" s="430" t="s">
+      <c r="B26" s="436" t="s">
         <v>733</v>
       </c>
-      <c r="C26" s="431" t="s">
+      <c r="C26" s="437" t="s">
         <v>587</v>
       </c>
-      <c r="D26" s="432" t="s">
+      <c r="D26" s="438" t="s">
         <v>592</v>
       </c>
       <c r="E26" s="264"/>
@@ -20331,9 +20364,9 @@
       <c r="P26" s="265"/>
     </row>
     <row r="27" spans="2:17" ht="39" customHeight="1">
-      <c r="B27" s="430"/>
-      <c r="C27" s="431"/>
-      <c r="D27" s="432"/>
+      <c r="B27" s="436"/>
+      <c r="C27" s="437"/>
+      <c r="D27" s="438"/>
       <c r="E27" s="268"/>
       <c r="F27" s="269"/>
       <c r="G27" s="270" t="s">
@@ -20355,23 +20388,23 @@
       <c r="B29" s="272" t="s">
         <v>737</v>
       </c>
-      <c r="C29" s="433" t="s">
+      <c r="C29" s="439" t="s">
         <v>738</v>
       </c>
-      <c r="D29" s="433"/>
-      <c r="E29" s="433"/>
-      <c r="F29" s="433"/>
-      <c r="G29" s="433"/>
-      <c r="H29" s="433"/>
-      <c r="I29" s="433"/>
-      <c r="J29" s="433"/>
-      <c r="K29" s="433"/>
-      <c r="L29" s="433"/>
-      <c r="M29" s="433"/>
-      <c r="N29" s="433"/>
-      <c r="O29" s="433"/>
-      <c r="P29" s="433"/>
-      <c r="Q29" s="433"/>
+      <c r="D29" s="439"/>
+      <c r="E29" s="439"/>
+      <c r="F29" s="439"/>
+      <c r="G29" s="439"/>
+      <c r="H29" s="439"/>
+      <c r="I29" s="439"/>
+      <c r="J29" s="439"/>
+      <c r="K29" s="439"/>
+      <c r="L29" s="439"/>
+      <c r="M29" s="439"/>
+      <c r="N29" s="439"/>
+      <c r="O29" s="439"/>
+      <c r="P29" s="439"/>
+      <c r="Q29" s="439"/>
     </row>
     <row r="30" spans="2:17" s="274" customFormat="1" ht="25.5">
       <c r="B30" s="272"/>
@@ -20415,10 +20448,10 @@
       <c r="B32" s="275" t="s">
         <v>741</v>
       </c>
-      <c r="C32" s="434" t="s">
+      <c r="C32" s="440" t="s">
         <v>742</v>
       </c>
-      <c r="D32" s="435"/>
+      <c r="D32" s="441"/>
     </row>
     <row r="33" spans="2:4" ht="30">
       <c r="B33" s="275" t="s">
@@ -20520,7 +20553,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{842FC8D3-BD49-4755-A366-F34F5BF47C9D}">
   <dimension ref="B2:Q49"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
+    <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
@@ -23876,7 +23909,7 @@
     <col min="18" max="18" width="14.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" ht="44.25">
+    <row r="2" spans="2:18" ht="45.75">
       <c r="B2" s="384" t="s">
         <v>1259</v>
       </c>
@@ -23911,7 +23944,7 @@
       </c>
     </row>
     <row r="5" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B5" s="452" t="s">
+      <c r="B5" s="458" t="s">
         <v>138</v>
       </c>
       <c r="C5" s="379" t="s">
@@ -23929,7 +23962,7 @@
       <c r="G5" s="373" t="s">
         <v>1236</v>
       </c>
-      <c r="I5" s="452" t="s">
+      <c r="I5" s="458" t="s">
         <v>138</v>
       </c>
       <c r="J5" s="379" t="s">
@@ -23954,7 +23987,7 @@
       <c r="R5" s="396"/>
     </row>
     <row r="6" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B6" s="453"/>
+      <c r="B6" s="459"/>
       <c r="C6" s="378" t="s">
         <v>179</v>
       </c>
@@ -23974,7 +24007,7 @@
         <f>$B5 &amp; G$4</f>
         <v>陰入</v>
       </c>
-      <c r="I6" s="453"/>
+      <c r="I6" s="459"/>
       <c r="J6" s="378" t="s">
         <v>1300</v>
       </c>
@@ -23996,7 +24029,7 @@
       <c r="Q6" s="400"/>
     </row>
     <row r="7" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B7" s="453"/>
+      <c r="B7" s="459"/>
       <c r="C7" s="380" t="s">
         <v>1241</v>
       </c>
@@ -24012,7 +24045,7 @@
       <c r="G7" s="374">
         <v>30</v>
       </c>
-      <c r="I7" s="453"/>
+      <c r="I7" s="459"/>
       <c r="J7" s="380" t="s">
         <v>1241</v>
       </c>
@@ -24034,7 +24067,7 @@
       <c r="Q7" s="400"/>
     </row>
     <row r="8" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B8" s="453"/>
+      <c r="B8" s="459"/>
       <c r="C8" s="378" t="s">
         <v>1250</v>
       </c>
@@ -24050,7 +24083,7 @@
       <c r="G8" s="383" t="s">
         <v>1268</v>
       </c>
-      <c r="I8" s="453"/>
+      <c r="I8" s="459"/>
       <c r="J8" s="385" t="s">
         <v>1250</v>
       </c>
@@ -24072,7 +24105,7 @@
       <c r="Q8" s="400"/>
     </row>
     <row r="9" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B9" s="453"/>
+      <c r="B9" s="459"/>
       <c r="C9" s="378" t="s">
         <v>1242</v>
       </c>
@@ -24088,7 +24121,7 @@
       <c r="G9" s="381" t="s">
         <v>1246</v>
       </c>
-      <c r="I9" s="453"/>
+      <c r="I9" s="459"/>
       <c r="J9" s="378" t="s">
         <v>1242</v>
       </c>
@@ -24110,7 +24143,7 @@
       <c r="Q9" s="400"/>
     </row>
     <row r="10" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B10" s="454"/>
+      <c r="B10" s="460"/>
       <c r="C10" s="378" t="s">
         <v>1279</v>
       </c>
@@ -24126,7 +24159,7 @@
       <c r="G10" s="383" t="s">
         <v>1252</v>
       </c>
-      <c r="I10" s="454"/>
+      <c r="I10" s="460"/>
       <c r="J10" s="378" t="s">
         <v>232</v>
       </c>
@@ -24149,7 +24182,7 @@
       <c r="R10" s="397"/>
     </row>
     <row r="11" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B11" s="452" t="s">
+      <c r="B11" s="458" t="s">
         <v>140</v>
       </c>
       <c r="C11" s="379" t="s">
@@ -24167,7 +24200,7 @@
       <c r="G11" s="373" t="s">
         <v>1240</v>
       </c>
-      <c r="I11" s="452" t="s">
+      <c r="I11" s="458" t="s">
         <v>140</v>
       </c>
       <c r="J11" s="379" t="s">
@@ -24191,7 +24224,7 @@
       <c r="Q11" s="400"/>
     </row>
     <row r="12" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B12" s="453"/>
+      <c r="B12" s="459"/>
       <c r="C12" s="378" t="s">
         <v>179</v>
       </c>
@@ -24211,7 +24244,7 @@
         <f>$B11 &amp; G$4</f>
         <v>陽入</v>
       </c>
-      <c r="I12" s="453"/>
+      <c r="I12" s="459"/>
       <c r="J12" s="378" t="s">
         <v>1300</v>
       </c>
@@ -24231,7 +24264,7 @@
       <c r="Q12" s="400"/>
     </row>
     <row r="13" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B13" s="453"/>
+      <c r="B13" s="459"/>
       <c r="C13" s="380" t="s">
         <v>1241</v>
       </c>
@@ -24245,7 +24278,7 @@
       <c r="G13" s="374">
         <v>50</v>
       </c>
-      <c r="I13" s="453"/>
+      <c r="I13" s="459"/>
       <c r="J13" s="380" t="s">
         <v>1241</v>
       </c>
@@ -24265,7 +24298,7 @@
       <c r="Q13" s="400"/>
     </row>
     <row r="14" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B14" s="453"/>
+      <c r="B14" s="459"/>
       <c r="C14" s="378" t="s">
         <v>1250</v>
       </c>
@@ -24279,7 +24312,7 @@
       <c r="G14" s="383" t="s">
         <v>1271</v>
       </c>
-      <c r="I14" s="453"/>
+      <c r="I14" s="459"/>
       <c r="J14" s="378" t="s">
         <v>1250</v>
       </c>
@@ -24299,7 +24332,7 @@
       <c r="Q14" s="400"/>
     </row>
     <row r="15" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B15" s="453"/>
+      <c r="B15" s="459"/>
       <c r="C15" s="378" t="s">
         <v>1242</v>
       </c>
@@ -24313,7 +24346,7 @@
       <c r="G15" s="381" t="s">
         <v>1249</v>
       </c>
-      <c r="I15" s="453"/>
+      <c r="I15" s="459"/>
       <c r="J15" s="378" t="s">
         <v>1242</v>
       </c>
@@ -24333,7 +24366,7 @@
       <c r="Q15" s="400"/>
     </row>
     <row r="16" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B16" s="454"/>
+      <c r="B16" s="460"/>
       <c r="C16" s="378" t="s">
         <v>1279</v>
       </c>
@@ -24347,7 +24380,7 @@
       <c r="G16" s="383" t="s">
         <v>1257</v>
       </c>
-      <c r="I16" s="454"/>
+      <c r="I16" s="460"/>
       <c r="J16" s="378" t="s">
         <v>232</v>
       </c>
@@ -24367,7 +24400,7 @@
       <c r="Q16" s="399"/>
       <c r="R16" s="396"/>
     </row>
-    <row r="18" spans="3:14" ht="32.25">
+    <row r="18" spans="3:14" ht="39">
       <c r="C18" s="18"/>
       <c r="D18" s="184"/>
       <c r="E18" s="184"/>
@@ -24380,7 +24413,7 @@
       <c r="M18" s="180"/>
       <c r="N18" s="180"/>
     </row>
-    <row r="19" spans="3:14" ht="22.5">
+    <row r="19" spans="3:14">
       <c r="C19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="180"/>
@@ -24388,7 +24421,7 @@
       <c r="M19" s="180"/>
       <c r="N19" s="180"/>
     </row>
-    <row r="20" spans="3:14" ht="22.5">
+    <row r="20" spans="3:14">
       <c r="C20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="180"/>
@@ -24396,7 +24429,7 @@
       <c r="M20" s="180"/>
       <c r="N20" s="180"/>
     </row>
-    <row r="21" spans="3:14" ht="22.5">
+    <row r="21" spans="3:14">
       <c r="C21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="180"/>
@@ -24404,7 +24437,7 @@
       <c r="M21" s="180"/>
       <c r="N21" s="180"/>
     </row>
-    <row r="22" spans="3:14" ht="22.5">
+    <row r="22" spans="3:14">
       <c r="C22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="180"/>
@@ -24412,7 +24445,7 @@
       <c r="M22" s="180"/>
       <c r="N22" s="180"/>
     </row>
-    <row r="23" spans="3:14" ht="22.5">
+    <row r="23" spans="3:14">
       <c r="C23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="180"/>
@@ -24420,7 +24453,7 @@
       <c r="M23" s="180"/>
       <c r="N23" s="180"/>
     </row>
-    <row r="24" spans="3:14" ht="22.5">
+    <row r="24" spans="3:14">
       <c r="C24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="180"/>
@@ -24428,7 +24461,7 @@
       <c r="M24" s="180"/>
       <c r="N24" s="180"/>
     </row>
-    <row r="25" spans="3:14" ht="22.5">
+    <row r="25" spans="3:14">
       <c r="C25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="180"/>
@@ -24436,7 +24469,7 @@
       <c r="M25" s="180"/>
       <c r="N25" s="180"/>
     </row>
-    <row r="26" spans="3:14" ht="22.5">
+    <row r="26" spans="3:14">
       <c r="C26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="180"/>
@@ -24444,7 +24477,7 @@
       <c r="M26" s="180"/>
       <c r="N26" s="180"/>
     </row>
-    <row r="27" spans="3:14" ht="22.5">
+    <row r="27" spans="3:14">
       <c r="J27" s="2"/>
       <c r="K27" s="180"/>
       <c r="L27" s="180"/>
@@ -24458,63 +24491,63 @@
       <c r="M28" s="180"/>
       <c r="N28" s="180"/>
     </row>
-    <row r="29" spans="3:14" ht="22.5">
+    <row r="29" spans="3:14">
       <c r="J29" s="2"/>
       <c r="K29" s="180"/>
       <c r="L29" s="180"/>
       <c r="M29" s="180"/>
       <c r="N29" s="180"/>
     </row>
-    <row r="30" spans="3:14" ht="22.5">
+    <row r="30" spans="3:14">
       <c r="J30" s="2"/>
       <c r="K30" s="180"/>
       <c r="L30" s="180"/>
       <c r="M30" s="180"/>
       <c r="N30" s="180"/>
     </row>
-    <row r="31" spans="3:14" ht="22.5">
+    <row r="31" spans="3:14">
       <c r="J31" s="2"/>
       <c r="K31" s="180"/>
       <c r="L31" s="180"/>
       <c r="M31" s="180"/>
       <c r="N31" s="180"/>
     </row>
-    <row r="32" spans="3:14" ht="22.5">
+    <row r="32" spans="3:14">
       <c r="J32" s="2"/>
       <c r="K32" s="180"/>
       <c r="L32" s="180"/>
       <c r="M32" s="180"/>
       <c r="N32" s="180"/>
     </row>
-    <row r="33" spans="10:14" ht="22.5">
+    <row r="33" spans="10:14">
       <c r="J33" s="2"/>
       <c r="K33" s="180"/>
       <c r="L33" s="180"/>
       <c r="M33" s="180"/>
       <c r="N33" s="180"/>
     </row>
-    <row r="34" spans="10:14" ht="22.5">
+    <row r="34" spans="10:14">
       <c r="J34" s="2"/>
       <c r="K34" s="180"/>
       <c r="L34" s="180"/>
       <c r="M34" s="180"/>
       <c r="N34" s="180"/>
     </row>
-    <row r="35" spans="10:14" ht="22.5">
+    <row r="35" spans="10:14">
       <c r="J35" s="2"/>
       <c r="K35" s="180"/>
       <c r="L35" s="180"/>
       <c r="M35" s="180"/>
       <c r="N35" s="180"/>
     </row>
-    <row r="36" spans="10:14" ht="22.5">
+    <row r="36" spans="10:14">
       <c r="J36" s="2"/>
       <c r="K36" s="180"/>
       <c r="L36" s="180"/>
       <c r="M36" s="180"/>
       <c r="N36" s="180"/>
     </row>
-    <row r="37" spans="10:14" ht="22.5">
+    <row r="37" spans="10:14">
       <c r="J37" s="2"/>
       <c r="K37" s="180"/>
       <c r="L37" s="180"/>
@@ -24538,8 +24571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D15AEE0A-7B2F-4EE2-B806-3A35F1DC081A}">
   <dimension ref="A2:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C15" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5"/>
@@ -24553,36 +24586,36 @@
     <col min="7" max="7" width="8.59765625" style="254" customWidth="1"/>
     <col min="8" max="8" width="9.19921875" style="254" customWidth="1"/>
     <col min="9" max="9" width="8.796875" style="1"/>
-    <col min="10" max="10" width="10.5" style="498" customWidth="1"/>
-    <col min="11" max="11" width="14.09765625" style="498" customWidth="1"/>
-    <col min="12" max="12" width="8.796875" style="498"/>
-    <col min="13" max="13" width="17.5" style="499" customWidth="1"/>
-    <col min="14" max="14" width="5.796875" style="499" customWidth="1"/>
-    <col min="15" max="16" width="17.5" style="499" customWidth="1"/>
+    <col min="10" max="10" width="10.5" style="430" customWidth="1"/>
+    <col min="11" max="11" width="14.09765625" style="430" customWidth="1"/>
+    <col min="12" max="12" width="8.796875" style="430"/>
+    <col min="13" max="13" width="17.5" style="431" customWidth="1"/>
+    <col min="14" max="14" width="5.796875" style="431" customWidth="1"/>
+    <col min="15" max="16" width="17.5" style="431" customWidth="1"/>
     <col min="17" max="17" width="17.5" style="249" customWidth="1"/>
     <col min="18" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:16">
+    <row r="2" spans="2:16">
       <c r="D2" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="O2" s="500" t="s">
+      <c r="O2" s="432" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="3" spans="4:16" ht="31.5" customHeight="1">
-      <c r="M3" s="499" t="s">
+    <row r="3" spans="2:16" ht="31.5" customHeight="1">
+      <c r="M3" s="431" t="s">
         <v>1334</v>
       </c>
-      <c r="O3" s="499" t="s">
+      <c r="O3" s="431" t="s">
         <v>1341</v>
       </c>
-      <c r="P3" s="499" t="s">
+      <c r="P3" s="431" t="s">
         <v>1338</v>
       </c>
     </row>
-    <row r="4" spans="4:16" ht="31.5" customHeight="1">
+    <row r="4" spans="2:16" ht="31.5" customHeight="1">
       <c r="D4" s="1">
         <v>1</v>
       </c>
@@ -24600,61 +24633,61 @@
         <f>'135拼音-聲調符號 (2)'!C12</f>
         <v>ㄚ</v>
       </c>
-      <c r="J4" s="498" t="s">
+      <c r="J4" s="430" t="s">
         <v>177</v>
       </c>
-      <c r="K4" s="498" t="s">
+      <c r="K4" s="430" t="s">
         <v>178</v>
       </c>
-      <c r="M4" s="499" t="s">
+      <c r="M4" s="431" t="s">
         <v>1336</v>
       </c>
-      <c r="O4" s="499" t="s">
+      <c r="O4" s="431" t="s">
         <v>1336</v>
       </c>
-      <c r="P4" s="499" t="s">
+      <c r="P4" s="431" t="s">
         <v>1337</v>
       </c>
     </row>
-    <row r="5" spans="4:16" ht="31.5" customHeight="1">
+    <row r="5" spans="2:16" ht="31.5" customHeight="1">
       <c r="F5" s="254">
         <v>53</v>
       </c>
       <c r="H5" s="254" t="s">
         <v>139</v>
       </c>
-      <c r="J5" s="501">
+      <c r="J5" s="433">
         <v>2</v>
       </c>
-      <c r="K5" s="501">
+      <c r="K5" s="433">
         <v>1</v>
       </c>
-      <c r="M5" s="499" t="s">
+      <c r="M5" s="431" t="s">
         <v>1335</v>
       </c>
-      <c r="O5" s="499" t="s">
+      <c r="O5" s="431" t="s">
         <v>1339</v>
       </c>
-      <c r="P5" s="499" t="s">
+      <c r="P5" s="431" t="s">
         <v>1340</v>
       </c>
     </row>
-    <row r="6" spans="4:16" ht="31.5" customHeight="1">
-      <c r="J6" s="501"/>
-      <c r="K6" s="501"/>
-    </row>
-    <row r="7" spans="4:16" ht="31.5" customHeight="1">
-      <c r="M7" s="499" t="s">
+    <row r="6" spans="2:16" ht="31.5" customHeight="1">
+      <c r="J6" s="433"/>
+      <c r="K6" s="433"/>
+    </row>
+    <row r="7" spans="2:16" ht="31.5" customHeight="1">
+      <c r="M7" s="431" t="s">
         <v>1347</v>
       </c>
-      <c r="O7" s="499" t="s">
+      <c r="O7" s="431" t="s">
         <v>1349</v>
       </c>
-      <c r="P7" s="499" t="s">
+      <c r="P7" s="431" t="s">
         <v>1345</v>
       </c>
     </row>
-    <row r="8" spans="4:16" ht="31.5" customHeight="1">
+    <row r="8" spans="2:16" ht="31.5" customHeight="1">
       <c r="D8" s="1">
         <v>2</v>
       </c>
@@ -24672,58 +24705,61 @@
         <f>'135拼音-聲調符號 (2)'!E19</f>
         <v>ㄚ+</v>
       </c>
-      <c r="J8" s="498" t="s">
+      <c r="J8" s="430" t="s">
         <v>191</v>
       </c>
-      <c r="K8" s="498" t="s">
+      <c r="K8" s="430" t="s">
         <v>192</v>
       </c>
-      <c r="M8" s="499" t="s">
+      <c r="M8" s="431" t="s">
         <v>1342</v>
       </c>
-      <c r="O8" s="499" t="s">
+      <c r="O8" s="431" t="s">
         <v>1342</v>
       </c>
-      <c r="P8" s="499" t="s">
+      <c r="P8" s="431" t="s">
         <v>1343</v>
       </c>
     </row>
-    <row r="9" spans="4:16" ht="31.5" customHeight="1">
+    <row r="9" spans="2:16" ht="31.5" customHeight="1">
       <c r="F9" s="254">
         <v>13</v>
       </c>
       <c r="H9" s="254" t="s">
         <v>196</v>
       </c>
-      <c r="J9" s="501">
+      <c r="J9" s="433">
         <v>5</v>
       </c>
-      <c r="K9" s="501">
+      <c r="K9" s="433">
         <v>7</v>
       </c>
-      <c r="M9" s="499" t="s">
+      <c r="M9" s="431" t="s">
         <v>1346</v>
       </c>
-      <c r="O9" s="499" t="s">
+      <c r="O9" s="431" t="s">
         <v>1348</v>
       </c>
-      <c r="P9" s="499" t="s">
+      <c r="P9" s="431" t="s">
         <v>1344</v>
       </c>
     </row>
-    <row r="10" spans="4:16" ht="31.5" customHeight="1"/>
-    <row r="11" spans="4:16" ht="31.5" customHeight="1">
-      <c r="M11" s="499" t="s">
+    <row r="10" spans="2:16" ht="31.5" customHeight="1"/>
+    <row r="11" spans="2:16" ht="31.5" customHeight="1">
+      <c r="M11" s="431" t="s">
         <v>1352</v>
       </c>
-      <c r="O11" s="499" t="s">
+      <c r="O11" s="431" t="s">
         <v>1357</v>
       </c>
-      <c r="P11" s="499" t="s">
+      <c r="P11" s="431" t="s">
         <v>1355</v>
       </c>
     </row>
-    <row r="12" spans="4:16" ht="31.5" customHeight="1">
+    <row r="12" spans="2:16" ht="31.5" customHeight="1">
+      <c r="B12" t="s">
+        <v>1397</v>
+      </c>
       <c r="D12" s="1">
         <v>3</v>
       </c>
@@ -24741,58 +24777,61 @@
         <f>'135拼音-聲調符號 (2)'!E19</f>
         <v>ㄚ+</v>
       </c>
-      <c r="J12" s="498" t="s">
+      <c r="J12" s="430" t="s">
         <v>200</v>
       </c>
-      <c r="K12" s="498" t="s">
+      <c r="K12" s="430" t="s">
         <v>201</v>
       </c>
-      <c r="M12" s="499" t="s">
+      <c r="M12" s="431" t="s">
         <v>1350</v>
       </c>
-      <c r="O12" s="499" t="s">
+      <c r="O12" s="431" t="s">
         <v>1350</v>
       </c>
-      <c r="P12" s="499" t="s">
+      <c r="P12" s="431" t="s">
         <v>1353</v>
       </c>
     </row>
-    <row r="13" spans="4:16" ht="31.5" customHeight="1">
+    <row r="13" spans="2:16" ht="31.5" customHeight="1">
+      <c r="B13" t="s">
+        <v>1396</v>
+      </c>
       <c r="F13" s="254" t="s">
         <v>139</v>
       </c>
       <c r="H13" s="254" t="s">
         <v>196</v>
       </c>
-      <c r="J13" s="501">
+      <c r="J13" s="433">
         <v>1</v>
       </c>
-      <c r="K13" s="501">
+      <c r="K13" s="433">
         <v>7</v>
       </c>
-      <c r="M13" s="499" t="s">
+      <c r="M13" s="431" t="s">
         <v>1351</v>
       </c>
-      <c r="O13" s="499" t="s">
+      <c r="O13" s="431" t="s">
         <v>1356</v>
       </c>
-      <c r="P13" s="499" t="s">
+      <c r="P13" s="431" t="s">
         <v>1354</v>
       </c>
     </row>
-    <row r="14" spans="4:16" ht="31.5" customHeight="1"/>
-    <row r="15" spans="4:16" ht="31.5" customHeight="1">
-      <c r="M15" s="499" t="s">
+    <row r="14" spans="2:16" ht="31.5" customHeight="1"/>
+    <row r="15" spans="2:16" ht="31.5" customHeight="1">
+      <c r="M15" s="431" t="s">
         <v>1360</v>
       </c>
-      <c r="O15" s="499" t="s">
+      <c r="O15" s="431" t="s">
         <v>1366</v>
       </c>
-      <c r="P15" s="499" t="s">
+      <c r="P15" s="431" t="s">
         <v>1363</v>
       </c>
     </row>
-    <row r="16" spans="4:16" ht="31.5" customHeight="1">
+    <row r="16" spans="2:16" ht="31.5" customHeight="1">
       <c r="D16" s="1">
         <v>4</v>
       </c>
@@ -24810,19 +24849,19 @@
         <f>'135拼音-聲調符號 (2)'!E12</f>
         <v>ㄚ_</v>
       </c>
-      <c r="J16" s="498" t="s">
+      <c r="J16" s="430" t="s">
         <v>209</v>
       </c>
-      <c r="K16" s="498" t="s">
+      <c r="K16" s="430" t="s">
         <v>210</v>
       </c>
-      <c r="M16" s="499" t="s">
+      <c r="M16" s="431" t="s">
         <v>1358</v>
       </c>
-      <c r="O16" s="499" t="s">
+      <c r="O16" s="431" t="s">
         <v>1358</v>
       </c>
-      <c r="P16" s="499" t="s">
+      <c r="P16" s="431" t="s">
         <v>1361</v>
       </c>
     </row>
@@ -24833,31 +24872,31 @@
       <c r="H17" s="254" t="s">
         <v>198</v>
       </c>
-      <c r="J17" s="501">
+      <c r="J17" s="433">
         <v>7</v>
       </c>
-      <c r="K17" s="501">
+      <c r="K17" s="433">
         <v>3</v>
       </c>
-      <c r="M17" s="499" t="s">
+      <c r="M17" s="431" t="s">
         <v>1359</v>
       </c>
-      <c r="O17" s="499" t="s">
+      <c r="O17" s="431" t="s">
         <v>1365</v>
       </c>
-      <c r="P17" s="499" t="s">
+      <c r="P17" s="431" t="s">
         <v>1362</v>
       </c>
     </row>
     <row r="18" spans="4:16" ht="31.5" customHeight="1"/>
     <row r="19" spans="4:16" ht="31.5" customHeight="1">
-      <c r="M19" s="499" t="s">
+      <c r="M19" s="431" t="s">
         <v>1368</v>
       </c>
-      <c r="O19" s="499" t="s">
+      <c r="O19" s="431" t="s">
         <v>1373</v>
       </c>
-      <c r="P19" s="499" t="s">
+      <c r="P19" s="431" t="s">
         <v>1370</v>
       </c>
     </row>
@@ -24879,19 +24918,19 @@
         <f>'135拼音-聲調符號 (2)'!D12</f>
         <v>ㄚˋ</v>
       </c>
-      <c r="J20" s="498" t="s">
+      <c r="J20" s="430" t="s">
         <v>216</v>
       </c>
-      <c r="K20" s="498" t="s">
+      <c r="K20" s="430" t="s">
         <v>217</v>
       </c>
-      <c r="M20" s="499" t="s">
+      <c r="M20" s="431" t="s">
         <v>1364</v>
       </c>
-      <c r="O20" s="499" t="s">
+      <c r="O20" s="431" t="s">
         <v>1364</v>
       </c>
-      <c r="P20" s="499" t="s">
+      <c r="P20" s="431" t="s">
         <v>1369</v>
       </c>
     </row>
@@ -24902,19 +24941,19 @@
       <c r="H21" s="254">
         <v>53</v>
       </c>
-      <c r="J21" s="501">
+      <c r="J21" s="433">
         <v>3</v>
       </c>
-      <c r="K21" s="501">
+      <c r="K21" s="433">
         <v>2</v>
       </c>
-      <c r="M21" s="499" t="s">
+      <c r="M21" s="431" t="s">
         <v>1367</v>
       </c>
-      <c r="O21" s="499" t="s">
+      <c r="O21" s="431" t="s">
         <v>1372</v>
       </c>
-      <c r="P21" s="502" t="s">
+      <c r="P21" s="434" t="s">
         <v>1371</v>
       </c>
     </row>
@@ -24922,13 +24961,13 @@
       <c r="P22" s="1"/>
     </row>
     <row r="23" spans="4:16">
-      <c r="M23" s="499" t="s">
+      <c r="M23" s="431" t="s">
         <v>1375</v>
       </c>
-      <c r="O23" s="499" t="s">
+      <c r="O23" s="431" t="s">
         <v>1379</v>
       </c>
-      <c r="P23" s="499" t="s">
+      <c r="P23" s="431" t="s">
         <v>1378</v>
       </c>
     </row>
@@ -24939,28 +24978,28 @@
       <c r="E24" s="1" t="s">
         <v>1394</v>
       </c>
-      <c r="F24" s="503" t="s">
+      <c r="F24" s="435" t="s">
         <v>1388</v>
       </c>
       <c r="G24" s="255" t="s">
         <v>176</v>
       </c>
-      <c r="H24" s="503" t="s">
+      <c r="H24" s="435" t="s">
         <v>1389</v>
       </c>
-      <c r="J24" s="499" t="s">
+      <c r="J24" s="431" t="s">
         <v>1390</v>
       </c>
-      <c r="K24" s="499" t="s">
+      <c r="K24" s="431" t="s">
         <v>1391</v>
       </c>
-      <c r="M24" s="499" t="s">
+      <c r="M24" s="431" t="s">
         <v>911</v>
       </c>
-      <c r="O24" s="499" t="s">
+      <c r="O24" s="431" t="s">
         <v>911</v>
       </c>
-      <c r="P24" s="499" t="s">
+      <c r="P24" s="431" t="s">
         <v>1376</v>
       </c>
     </row>
@@ -24971,30 +25010,30 @@
       <c r="H25" s="254">
         <v>50</v>
       </c>
-      <c r="J25" s="501">
+      <c r="J25" s="433">
         <v>4</v>
       </c>
-      <c r="K25" s="501">
+      <c r="K25" s="433">
         <v>8</v>
       </c>
-      <c r="M25" s="502" t="s">
+      <c r="M25" s="434" t="s">
         <v>1374</v>
       </c>
-      <c r="O25" s="499" t="s">
+      <c r="O25" s="431" t="s">
         <v>1380</v>
       </c>
-      <c r="P25" s="499" t="s">
+      <c r="P25" s="431" t="s">
         <v>1377</v>
       </c>
     </row>
     <row r="28" spans="4:16">
-      <c r="M28" s="499" t="s">
+      <c r="M28" s="431" t="s">
         <v>1382</v>
       </c>
-      <c r="O28" s="499" t="s">
+      <c r="O28" s="431" t="s">
         <v>1387</v>
       </c>
-      <c r="P28" s="499" t="s">
+      <c r="P28" s="431" t="s">
         <v>1385</v>
       </c>
     </row>
@@ -25005,28 +25044,28 @@
       <c r="E29" s="1" t="s">
         <v>1395</v>
       </c>
-      <c r="F29" s="503" t="s">
+      <c r="F29" s="435" t="s">
         <v>1389</v>
       </c>
       <c r="G29" s="255" t="s">
         <v>176</v>
       </c>
-      <c r="H29" s="503" t="s">
+      <c r="H29" s="435" t="s">
         <v>1388</v>
       </c>
-      <c r="J29" s="499" t="s">
+      <c r="J29" s="431" t="s">
         <v>1392</v>
       </c>
-      <c r="K29" s="499" t="s">
+      <c r="K29" s="431" t="s">
         <v>1393</v>
       </c>
-      <c r="M29" s="499" t="s">
+      <c r="M29" s="431" t="s">
         <v>889</v>
       </c>
-      <c r="O29" s="499" t="s">
+      <c r="O29" s="431" t="s">
         <v>889</v>
       </c>
-      <c r="P29" s="499" t="s">
+      <c r="P29" s="431" t="s">
         <v>1383</v>
       </c>
     </row>
@@ -25038,19 +25077,19 @@
       <c r="H30" s="254">
         <v>30</v>
       </c>
-      <c r="J30" s="501">
+      <c r="J30" s="433">
         <v>8</v>
       </c>
-      <c r="K30" s="501">
+      <c r="K30" s="433">
         <v>4</v>
       </c>
-      <c r="M30" s="502" t="s">
+      <c r="M30" s="434" t="s">
         <v>1381</v>
       </c>
-      <c r="O30" s="499" t="s">
+      <c r="O30" s="431" t="s">
         <v>1386</v>
       </c>
-      <c r="P30" s="499" t="s">
+      <c r="P30" s="431" t="s">
         <v>1384</v>
       </c>
     </row>
@@ -25580,7 +25619,7 @@
   </sheetPr>
   <dimension ref="A1:BY69"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="50" zoomScaleNormal="50" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A6" zoomScale="50" zoomScaleNormal="50" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.19921875" defaultRowHeight="27.75"/>
   <cols>
@@ -25652,66 +25691,66 @@
     </row>
     <row r="2" spans="1:75" s="79" customFormat="1" ht="45" customHeight="1">
       <c r="A2" s="77"/>
-      <c r="B2" s="458" t="s">
+      <c r="B2" s="464" t="s">
         <v>218</v>
       </c>
-      <c r="C2" s="459"/>
-      <c r="D2" s="460"/>
-      <c r="E2" s="458" t="s">
+      <c r="C2" s="465"/>
+      <c r="D2" s="466"/>
+      <c r="E2" s="464" t="s">
         <v>219</v>
       </c>
-      <c r="F2" s="459"/>
-      <c r="G2" s="460"/>
-      <c r="H2" s="455" t="s">
+      <c r="F2" s="465"/>
+      <c r="G2" s="466"/>
+      <c r="H2" s="461" t="s">
         <v>220</v>
       </c>
-      <c r="I2" s="456"/>
-      <c r="J2" s="457"/>
-      <c r="K2" s="455" t="s">
+      <c r="I2" s="462"/>
+      <c r="J2" s="463"/>
+      <c r="K2" s="461" t="s">
         <v>221</v>
       </c>
-      <c r="L2" s="456"/>
-      <c r="M2" s="457"/>
-      <c r="N2" s="461">
+      <c r="L2" s="462"/>
+      <c r="M2" s="463"/>
+      <c r="N2" s="467">
         <v>0.05</v>
       </c>
-      <c r="O2" s="462"/>
-      <c r="P2" s="463"/>
-      <c r="Q2" s="455" t="s">
+      <c r="O2" s="468"/>
+      <c r="P2" s="469"/>
+      <c r="Q2" s="461" t="s">
         <v>222</v>
       </c>
-      <c r="R2" s="456"/>
-      <c r="S2" s="457"/>
-      <c r="T2" s="455" t="s">
+      <c r="R2" s="462"/>
+      <c r="S2" s="463"/>
+      <c r="T2" s="461" t="s">
         <v>223</v>
       </c>
-      <c r="U2" s="456"/>
-      <c r="V2" s="457"/>
-      <c r="W2" s="466" t="s">
+      <c r="U2" s="462"/>
+      <c r="V2" s="463"/>
+      <c r="W2" s="472" t="s">
         <v>224</v>
       </c>
-      <c r="X2" s="467"/>
-      <c r="Y2" s="468"/>
-      <c r="Z2" s="466" t="s">
+      <c r="X2" s="473"/>
+      <c r="Y2" s="474"/>
+      <c r="Z2" s="472" t="s">
         <v>225</v>
       </c>
-      <c r="AA2" s="467"/>
-      <c r="AB2" s="468"/>
-      <c r="AC2" s="466" t="s">
+      <c r="AA2" s="473"/>
+      <c r="AB2" s="474"/>
+      <c r="AC2" s="472" t="s">
         <v>226</v>
       </c>
-      <c r="AD2" s="467"/>
-      <c r="AE2" s="468"/>
-      <c r="AF2" s="469" t="s">
+      <c r="AD2" s="473"/>
+      <c r="AE2" s="474"/>
+      <c r="AF2" s="475" t="s">
         <v>227</v>
       </c>
-      <c r="AG2" s="470"/>
-      <c r="AH2" s="471"/>
-      <c r="AI2" s="469" t="s">
+      <c r="AG2" s="476"/>
+      <c r="AH2" s="477"/>
+      <c r="AI2" s="475" t="s">
         <v>228</v>
       </c>
-      <c r="AJ2" s="470"/>
-      <c r="AK2" s="471"/>
+      <c r="AJ2" s="476"/>
+      <c r="AK2" s="477"/>
       <c r="AL2" s="77"/>
       <c r="AM2" s="77"/>
       <c r="AN2" s="77"/>
@@ -25843,38 +25882,38 @@
       <c r="G4" s="171" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="472" t="s">
+      <c r="H4" s="478" t="s">
         <v>236</v>
       </c>
-      <c r="I4" s="473"/>
+      <c r="I4" s="479"/>
       <c r="J4" s="100" t="s">
         <v>237</v>
       </c>
-      <c r="K4" s="474" t="s">
+      <c r="K4" s="480" t="s">
         <v>238</v>
       </c>
-      <c r="L4" s="475"/>
+      <c r="L4" s="481"/>
       <c r="M4" s="100" t="s">
         <v>239</v>
       </c>
-      <c r="N4" s="472" t="s">
+      <c r="N4" s="478" t="s">
         <v>240</v>
       </c>
-      <c r="O4" s="473"/>
+      <c r="O4" s="479"/>
       <c r="P4" s="100" t="s">
         <v>204</v>
       </c>
-      <c r="Q4" s="474" t="s">
+      <c r="Q4" s="480" t="s">
         <v>241</v>
       </c>
-      <c r="R4" s="475"/>
+      <c r="R4" s="481"/>
       <c r="S4" s="100" t="s">
         <v>202</v>
       </c>
-      <c r="T4" s="472" t="s">
+      <c r="T4" s="478" t="s">
         <v>242</v>
       </c>
-      <c r="U4" s="473"/>
+      <c r="U4" s="479"/>
       <c r="V4" s="100" t="s">
         <v>243</v>
       </c>
@@ -25914,8 +25953,8 @@
         <f ca="1">AV20</f>
         <v>N</v>
       </c>
-      <c r="AI4" s="464"/>
-      <c r="AJ4" s="465"/>
+      <c r="AI4" s="470"/>
+      <c r="AJ4" s="471"/>
       <c r="AK4" s="104"/>
       <c r="AL4" s="96"/>
       <c r="AM4" s="96"/>
@@ -25973,71 +26012,71 @@
     <row r="5" spans="1:75" s="79" customFormat="1" ht="45" customHeight="1">
       <c r="A5" s="77"/>
       <c r="B5" s="77"/>
-      <c r="C5" s="458" t="s">
+      <c r="C5" s="464" t="s">
         <v>244</v>
       </c>
-      <c r="D5" s="459"/>
-      <c r="E5" s="460"/>
-      <c r="F5" s="458" t="s">
+      <c r="D5" s="465"/>
+      <c r="E5" s="466"/>
+      <c r="F5" s="464" t="s">
         <v>245</v>
       </c>
-      <c r="G5" s="459"/>
-      <c r="H5" s="460"/>
-      <c r="I5" s="458" t="s">
+      <c r="G5" s="465"/>
+      <c r="H5" s="466"/>
+      <c r="I5" s="464" t="s">
         <v>246</v>
       </c>
-      <c r="J5" s="459"/>
-      <c r="K5" s="460"/>
-      <c r="L5" s="458" t="s">
+      <c r="J5" s="465"/>
+      <c r="K5" s="466"/>
+      <c r="L5" s="464" t="s">
         <v>247</v>
       </c>
-      <c r="M5" s="459"/>
-      <c r="N5" s="460"/>
-      <c r="O5" s="458" t="s">
+      <c r="M5" s="465"/>
+      <c r="N5" s="466"/>
+      <c r="O5" s="464" t="s">
         <v>26</v>
       </c>
-      <c r="P5" s="459"/>
-      <c r="Q5" s="460"/>
-      <c r="R5" s="458" t="s">
+      <c r="P5" s="465"/>
+      <c r="Q5" s="466"/>
+      <c r="R5" s="464" t="s">
         <v>248</v>
       </c>
-      <c r="S5" s="459"/>
-      <c r="T5" s="460"/>
-      <c r="U5" s="466" t="s">
+      <c r="S5" s="465"/>
+      <c r="T5" s="466"/>
+      <c r="U5" s="472" t="s">
         <v>249</v>
       </c>
-      <c r="V5" s="467"/>
-      <c r="W5" s="468"/>
-      <c r="X5" s="466" t="s">
+      <c r="V5" s="473"/>
+      <c r="W5" s="474"/>
+      <c r="X5" s="472" t="s">
         <v>250</v>
       </c>
-      <c r="Y5" s="467"/>
-      <c r="Z5" s="468"/>
-      <c r="AA5" s="466" t="s">
+      <c r="Y5" s="473"/>
+      <c r="Z5" s="474"/>
+      <c r="AA5" s="472" t="s">
         <v>251</v>
       </c>
-      <c r="AB5" s="467"/>
-      <c r="AC5" s="468"/>
-      <c r="AD5" s="466" t="s">
+      <c r="AB5" s="473"/>
+      <c r="AC5" s="474"/>
+      <c r="AD5" s="472" t="s">
         <v>11</v>
       </c>
-      <c r="AE5" s="467"/>
-      <c r="AF5" s="468"/>
-      <c r="AG5" s="466" t="s">
+      <c r="AE5" s="473"/>
+      <c r="AF5" s="474"/>
+      <c r="AG5" s="472" t="s">
         <v>252</v>
       </c>
-      <c r="AH5" s="467"/>
-      <c r="AI5" s="468"/>
-      <c r="AJ5" s="466" t="s">
+      <c r="AH5" s="473"/>
+      <c r="AI5" s="474"/>
+      <c r="AJ5" s="472" t="s">
         <v>253</v>
       </c>
-      <c r="AK5" s="467"/>
-      <c r="AL5" s="468"/>
-      <c r="AM5" s="469" t="s">
+      <c r="AK5" s="473"/>
+      <c r="AL5" s="474"/>
+      <c r="AM5" s="475" t="s">
         <v>254</v>
       </c>
-      <c r="AN5" s="470"/>
-      <c r="AO5" s="471"/>
+      <c r="AN5" s="476"/>
+      <c r="AO5" s="477"/>
       <c r="AP5" s="77"/>
       <c r="AQ5" s="77"/>
       <c r="AR5" s="78"/>
@@ -26285,14 +26324,14 @@
         <f ca="1">AU20</f>
         <v>n</v>
       </c>
-      <c r="AG7" s="464"/>
-      <c r="AH7" s="465"/>
+      <c r="AG7" s="470"/>
+      <c r="AH7" s="471"/>
       <c r="AI7" s="104"/>
-      <c r="AJ7" s="464"/>
-      <c r="AK7" s="465"/>
+      <c r="AJ7" s="470"/>
+      <c r="AK7" s="471"/>
       <c r="AL7" s="104"/>
-      <c r="AM7" s="464"/>
-      <c r="AN7" s="465"/>
+      <c r="AM7" s="470"/>
+      <c r="AN7" s="471"/>
       <c r="AO7" s="104"/>
       <c r="AP7" s="96"/>
       <c r="AQ7" s="96"/>
@@ -26347,61 +26386,61 @@
       <c r="A8" s="77"/>
       <c r="B8" s="77"/>
       <c r="C8" s="110"/>
-      <c r="D8" s="458" t="s">
+      <c r="D8" s="464" t="s">
         <v>257</v>
       </c>
-      <c r="E8" s="459"/>
-      <c r="F8" s="460"/>
-      <c r="G8" s="458" t="s">
+      <c r="E8" s="465"/>
+      <c r="F8" s="466"/>
+      <c r="G8" s="464" t="s">
         <v>258</v>
       </c>
-      <c r="H8" s="459"/>
-      <c r="I8" s="460"/>
-      <c r="J8" s="458" t="s">
+      <c r="H8" s="465"/>
+      <c r="I8" s="466"/>
+      <c r="J8" s="464" t="s">
         <v>259</v>
       </c>
-      <c r="K8" s="459"/>
-      <c r="L8" s="460"/>
-      <c r="M8" s="458" t="s">
+      <c r="K8" s="465"/>
+      <c r="L8" s="466"/>
+      <c r="M8" s="464" t="s">
         <v>260</v>
       </c>
-      <c r="N8" s="459"/>
-      <c r="O8" s="460"/>
-      <c r="P8" s="458" t="s">
+      <c r="N8" s="465"/>
+      <c r="O8" s="466"/>
+      <c r="P8" s="464" t="s">
         <v>261</v>
       </c>
-      <c r="Q8" s="459"/>
-      <c r="R8" s="460"/>
-      <c r="S8" s="458" t="s">
+      <c r="Q8" s="465"/>
+      <c r="R8" s="466"/>
+      <c r="S8" s="464" t="s">
         <v>262</v>
       </c>
-      <c r="T8" s="459"/>
-      <c r="U8" s="460"/>
-      <c r="V8" s="466" t="s">
+      <c r="T8" s="465"/>
+      <c r="U8" s="466"/>
+      <c r="V8" s="472" t="s">
         <v>263</v>
       </c>
-      <c r="W8" s="467"/>
-      <c r="X8" s="468"/>
-      <c r="Y8" s="466" t="s">
+      <c r="W8" s="473"/>
+      <c r="X8" s="474"/>
+      <c r="Y8" s="472" t="s">
         <v>56</v>
       </c>
-      <c r="Z8" s="467"/>
-      <c r="AA8" s="468"/>
-      <c r="AB8" s="466" t="s">
+      <c r="Z8" s="473"/>
+      <c r="AA8" s="474"/>
+      <c r="AB8" s="472" t="s">
         <v>264</v>
       </c>
-      <c r="AC8" s="467"/>
-      <c r="AD8" s="468"/>
-      <c r="AE8" s="466" t="s">
+      <c r="AC8" s="473"/>
+      <c r="AD8" s="474"/>
+      <c r="AE8" s="472" t="s">
         <v>265</v>
       </c>
-      <c r="AF8" s="467"/>
-      <c r="AG8" s="468"/>
-      <c r="AH8" s="469" t="s">
+      <c r="AF8" s="473"/>
+      <c r="AG8" s="474"/>
+      <c r="AH8" s="475" t="s">
         <v>266</v>
       </c>
-      <c r="AI8" s="470"/>
-      <c r="AJ8" s="471"/>
+      <c r="AI8" s="476"/>
+      <c r="AJ8" s="477"/>
       <c r="AK8" s="77"/>
       <c r="AL8" s="77"/>
       <c r="AM8" s="77"/>
@@ -26656,8 +26695,8 @@
         <f ca="1">AQ20</f>
         <v>ang</v>
       </c>
-      <c r="AH10" s="464"/>
-      <c r="AI10" s="465"/>
+      <c r="AH10" s="470"/>
+      <c r="AI10" s="471"/>
       <c r="AJ10" s="104"/>
       <c r="AK10" s="96"/>
       <c r="AL10" s="96"/>
@@ -26718,56 +26757,56 @@
       <c r="B11" s="77"/>
       <c r="C11" s="77"/>
       <c r="D11" s="77"/>
-      <c r="E11" s="458" t="s">
+      <c r="E11" s="464" t="s">
         <v>267</v>
       </c>
-      <c r="F11" s="459"/>
-      <c r="G11" s="460"/>
-      <c r="H11" s="458" t="s">
+      <c r="F11" s="465"/>
+      <c r="G11" s="466"/>
+      <c r="H11" s="464" t="s">
         <v>268</v>
       </c>
-      <c r="I11" s="459"/>
-      <c r="J11" s="460"/>
-      <c r="K11" s="458" t="s">
+      <c r="I11" s="465"/>
+      <c r="J11" s="466"/>
+      <c r="K11" s="464" t="s">
         <v>42</v>
       </c>
-      <c r="L11" s="459"/>
-      <c r="M11" s="460"/>
-      <c r="N11" s="458" t="s">
+      <c r="L11" s="465"/>
+      <c r="M11" s="466"/>
+      <c r="N11" s="464" t="s">
         <v>269</v>
       </c>
-      <c r="O11" s="459"/>
-      <c r="P11" s="460"/>
-      <c r="Q11" s="458" t="s">
+      <c r="O11" s="465"/>
+      <c r="P11" s="466"/>
+      <c r="Q11" s="464" t="s">
         <v>270</v>
       </c>
-      <c r="R11" s="459"/>
-      <c r="S11" s="460"/>
-      <c r="T11" s="458" t="s">
+      <c r="R11" s="465"/>
+      <c r="S11" s="466"/>
+      <c r="T11" s="464" t="s">
         <v>271</v>
       </c>
-      <c r="U11" s="459"/>
-      <c r="V11" s="460"/>
-      <c r="W11" s="466" t="s">
+      <c r="U11" s="465"/>
+      <c r="V11" s="466"/>
+      <c r="W11" s="472" t="s">
         <v>272</v>
       </c>
-      <c r="X11" s="467"/>
-      <c r="Y11" s="468"/>
-      <c r="Z11" s="466" t="s">
+      <c r="X11" s="473"/>
+      <c r="Y11" s="474"/>
+      <c r="Z11" s="472" t="s">
         <v>273</v>
       </c>
-      <c r="AA11" s="467"/>
-      <c r="AB11" s="468"/>
-      <c r="AC11" s="466" t="s">
+      <c r="AA11" s="473"/>
+      <c r="AB11" s="474"/>
+      <c r="AC11" s="472" t="s">
         <v>274</v>
       </c>
-      <c r="AD11" s="467"/>
-      <c r="AE11" s="468"/>
-      <c r="AF11" s="469" t="s">
+      <c r="AD11" s="473"/>
+      <c r="AE11" s="474"/>
+      <c r="AF11" s="475" t="s">
         <v>275</v>
       </c>
-      <c r="AG11" s="470"/>
-      <c r="AH11" s="471"/>
+      <c r="AG11" s="476"/>
+      <c r="AH11" s="477"/>
       <c r="AI11" s="77"/>
       <c r="AJ11" s="77"/>
       <c r="AK11" s="77"/>
